--- a/Stock.xlsx
+++ b/Stock.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" tabRatio="1000" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" tabRatio="1000"/>
   </bookViews>
   <sheets>
     <sheet name="STOCK DETAILS " sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3815" uniqueCount="1107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3858" uniqueCount="1112">
   <si>
     <t>Date</t>
   </si>
@@ -3358,6 +3358,21 @@
   </si>
   <si>
     <t>b22-23MQ430</t>
+  </si>
+  <si>
+    <t>G-22232800</t>
+  </si>
+  <si>
+    <t>Andrew via Amit Courier</t>
+  </si>
+  <si>
+    <t>483/22-23</t>
+  </si>
+  <si>
+    <t>478/22-23</t>
+  </si>
+  <si>
+    <t>LENOVO 18.5 LED D19-10 WITH HDMI 25/2/23 (Serial Number - SV90AM3V2)</t>
   </si>
 </sst>
 </file>
@@ -3709,7 +3724,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="222">
+  <cellXfs count="224">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4320,6 +4335,12 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4674,8 +4695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O522"/>
   <sheetViews>
-    <sheetView topLeftCell="E278" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L293" sqref="L293"/>
+    <sheetView tabSelected="1" topLeftCell="E284" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I293" sqref="I293"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -4699,25 +4720,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="39" customFormat="1">
-      <c r="A1" s="217" t="s">
+      <c r="A1" s="219" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="217"/>
-      <c r="C1" s="217"/>
-      <c r="D1" s="217"/>
-      <c r="E1" s="217"/>
-      <c r="F1" s="217"/>
-      <c r="G1" s="217"/>
+      <c r="B1" s="219"/>
+      <c r="C1" s="219"/>
+      <c r="D1" s="219"/>
+      <c r="E1" s="219"/>
+      <c r="F1" s="219"/>
+      <c r="G1" s="219"/>
       <c r="H1" s="36"/>
-      <c r="I1" s="218" t="s">
+      <c r="I1" s="220" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="218"/>
-      <c r="K1" s="218"/>
-      <c r="L1" s="218"/>
-      <c r="M1" s="218"/>
-      <c r="N1" s="218"/>
-      <c r="O1" s="218"/>
+      <c r="J1" s="220"/>
+      <c r="K1" s="220"/>
+      <c r="L1" s="220"/>
+      <c r="M1" s="220"/>
+      <c r="N1" s="220"/>
+      <c r="O1" s="220"/>
     </row>
     <row r="2" spans="1:15" s="39" customFormat="1">
       <c r="A2" s="15" t="s">
@@ -4787,13 +4808,13 @@
         <v>54</v>
       </c>
       <c r="H3" s="22"/>
-      <c r="I3" s="207">
+      <c r="I3" s="209">
         <v>44657</v>
       </c>
-      <c r="J3" s="206" t="s">
+      <c r="J3" s="208" t="s">
         <v>77</v>
       </c>
-      <c r="K3" s="206" t="s">
+      <c r="K3" s="208" t="s">
         <v>82</v>
       </c>
       <c r="L3" s="47" t="s">
@@ -4802,7 +4823,7 @@
       <c r="M3" s="47">
         <v>50</v>
       </c>
-      <c r="N3" s="206" t="s">
+      <c r="N3" s="208" t="s">
         <v>84</v>
       </c>
       <c r="O3" s="20"/>
@@ -4816,26 +4837,26 @@
       <c r="F4" s="23"/>
       <c r="G4" s="23"/>
       <c r="H4" s="53"/>
-      <c r="I4" s="207"/>
-      <c r="J4" s="206"/>
-      <c r="K4" s="206"/>
+      <c r="I4" s="209"/>
+      <c r="J4" s="208"/>
+      <c r="K4" s="208"/>
       <c r="L4" s="47" t="s">
         <v>85</v>
       </c>
       <c r="M4" s="47">
         <v>10</v>
       </c>
-      <c r="N4" s="206"/>
+      <c r="N4" s="208"/>
       <c r="O4" s="20"/>
     </row>
     <row r="5" spans="1:15" s="47" customFormat="1" ht="30" customHeight="1">
-      <c r="A5" s="207">
+      <c r="A5" s="209">
         <v>44808</v>
       </c>
-      <c r="B5" s="206" t="s">
+      <c r="B5" s="208" t="s">
         <v>88</v>
       </c>
-      <c r="C5" s="206" t="s">
+      <c r="C5" s="208" t="s">
         <v>76</v>
       </c>
       <c r="D5" s="56" t="s">
@@ -4844,10 +4865,10 @@
       <c r="E5" s="56">
         <v>15</v>
       </c>
-      <c r="F5" s="206" t="s">
+      <c r="F5" s="208" t="s">
         <v>75</v>
       </c>
-      <c r="G5" s="206" t="s">
+      <c r="G5" s="208" t="s">
         <v>54</v>
       </c>
       <c r="H5" s="54"/>
@@ -4860,25 +4881,25 @@
       <c r="O5" s="55"/>
     </row>
     <row r="6" spans="1:15" s="47" customFormat="1">
-      <c r="A6" s="207"/>
-      <c r="B6" s="206"/>
-      <c r="C6" s="206"/>
+      <c r="A6" s="209"/>
+      <c r="B6" s="208"/>
+      <c r="C6" s="208"/>
       <c r="D6" s="56" t="s">
         <v>92</v>
       </c>
       <c r="E6" s="56">
         <v>1</v>
       </c>
-      <c r="F6" s="206"/>
-      <c r="G6" s="206"/>
+      <c r="F6" s="208"/>
+      <c r="G6" s="208"/>
       <c r="H6" s="22"/>
-      <c r="I6" s="207">
+      <c r="I6" s="209">
         <v>44657</v>
       </c>
-      <c r="J6" s="206" t="s">
+      <c r="J6" s="208" t="s">
         <v>79</v>
       </c>
-      <c r="K6" s="206" t="s">
+      <c r="K6" s="208" t="s">
         <v>82</v>
       </c>
       <c r="L6" s="47" t="s">
@@ -4887,7 +4908,7 @@
       <c r="M6" s="47">
         <v>5</v>
       </c>
-      <c r="N6" s="206" t="s">
+      <c r="N6" s="208" t="s">
         <v>84</v>
       </c>
       <c r="O6" s="20"/>
@@ -4901,16 +4922,16 @@
       <c r="F7" s="23"/>
       <c r="G7" s="23"/>
       <c r="H7" s="53"/>
-      <c r="I7" s="207"/>
-      <c r="J7" s="206"/>
-      <c r="K7" s="206"/>
+      <c r="I7" s="209"/>
+      <c r="J7" s="208"/>
+      <c r="K7" s="208"/>
       <c r="L7" s="47" t="s">
         <v>87</v>
       </c>
       <c r="M7" s="47">
         <v>4</v>
       </c>
-      <c r="N7" s="206"/>
+      <c r="N7" s="208"/>
       <c r="O7" s="20"/>
     </row>
     <row r="8" spans="1:15" s="47" customFormat="1">
@@ -4953,13 +4974,13 @@
       <c r="F9" s="23"/>
       <c r="G9" s="23"/>
       <c r="H9" s="53"/>
-      <c r="I9" s="207" t="s">
+      <c r="I9" s="209" t="s">
         <v>413</v>
       </c>
-      <c r="J9" s="206" t="s">
+      <c r="J9" s="208" t="s">
         <v>100</v>
       </c>
-      <c r="K9" s="206" t="s">
+      <c r="K9" s="208" t="s">
         <v>82</v>
       </c>
       <c r="L9" s="66" t="s">
@@ -4968,7 +4989,7 @@
       <c r="M9" s="66">
         <v>2</v>
       </c>
-      <c r="N9" s="206" t="s">
+      <c r="N9" s="208" t="s">
         <v>84</v>
       </c>
       <c r="O9" s="20"/>
@@ -4996,16 +5017,16 @@
         <v>54</v>
       </c>
       <c r="H10" s="22"/>
-      <c r="I10" s="207"/>
-      <c r="J10" s="206"/>
-      <c r="K10" s="206"/>
+      <c r="I10" s="209"/>
+      <c r="J10" s="208"/>
+      <c r="K10" s="208"/>
       <c r="L10" s="66" t="s">
         <v>102</v>
       </c>
       <c r="M10" s="66">
         <v>8</v>
       </c>
-      <c r="N10" s="206"/>
+      <c r="N10" s="208"/>
       <c r="O10" s="20"/>
     </row>
     <row r="11" spans="1:15" s="47" customFormat="1" ht="43.2">
@@ -5017,16 +5038,16 @@
       <c r="F11" s="23"/>
       <c r="G11" s="23"/>
       <c r="H11" s="53"/>
-      <c r="I11" s="207"/>
-      <c r="J11" s="206"/>
-      <c r="K11" s="206"/>
+      <c r="I11" s="209"/>
+      <c r="J11" s="208"/>
+      <c r="K11" s="208"/>
       <c r="L11" s="66" t="s">
         <v>103</v>
       </c>
       <c r="M11" s="66">
         <v>8</v>
       </c>
-      <c r="N11" s="206"/>
+      <c r="N11" s="208"/>
       <c r="O11" s="20"/>
     </row>
     <row r="12" spans="1:15" s="47" customFormat="1">
@@ -5052,16 +5073,16 @@
         <v>54</v>
       </c>
       <c r="H12" s="22"/>
-      <c r="I12" s="207"/>
-      <c r="J12" s="206"/>
-      <c r="K12" s="206"/>
+      <c r="I12" s="209"/>
+      <c r="J12" s="208"/>
+      <c r="K12" s="208"/>
       <c r="L12" s="66" t="s">
         <v>104</v>
       </c>
       <c r="M12" s="66">
         <v>30.5</v>
       </c>
-      <c r="N12" s="206"/>
+      <c r="N12" s="208"/>
       <c r="O12" s="20"/>
     </row>
     <row r="13" spans="1:15" s="47" customFormat="1">
@@ -5166,13 +5187,13 @@
         <v>54</v>
       </c>
       <c r="H16" s="22"/>
-      <c r="I16" s="207" t="s">
+      <c r="I16" s="209" t="s">
         <v>418</v>
       </c>
-      <c r="J16" s="206" t="s">
+      <c r="J16" s="208" t="s">
         <v>108</v>
       </c>
-      <c r="K16" s="206" t="s">
+      <c r="K16" s="208" t="s">
         <v>82</v>
       </c>
       <c r="L16" s="73" t="s">
@@ -5181,7 +5202,7 @@
       <c r="M16" s="73">
         <v>2</v>
       </c>
-      <c r="N16" s="206" t="s">
+      <c r="N16" s="208" t="s">
         <v>84</v>
       </c>
       <c r="O16" s="20"/>
@@ -5195,16 +5216,16 @@
       <c r="F17" s="86"/>
       <c r="G17" s="86"/>
       <c r="H17" s="53"/>
-      <c r="I17" s="207"/>
-      <c r="J17" s="206"/>
-      <c r="K17" s="206"/>
+      <c r="I17" s="209"/>
+      <c r="J17" s="208"/>
+      <c r="K17" s="208"/>
       <c r="L17" s="73" t="s">
         <v>109</v>
       </c>
       <c r="M17" s="73">
         <v>2</v>
       </c>
-      <c r="N17" s="206"/>
+      <c r="N17" s="208"/>
       <c r="O17" s="20"/>
     </row>
     <row r="18" spans="1:15" s="47" customFormat="1" ht="28.8">
@@ -5247,13 +5268,13 @@
       <c r="F19" s="86"/>
       <c r="G19" s="86"/>
       <c r="H19" s="53"/>
-      <c r="I19" s="207">
+      <c r="I19" s="209">
         <v>44687</v>
       </c>
-      <c r="J19" s="206" t="s">
+      <c r="J19" s="208" t="s">
         <v>121</v>
       </c>
-      <c r="K19" s="206" t="s">
+      <c r="K19" s="208" t="s">
         <v>82</v>
       </c>
       <c r="L19" s="77" t="s">
@@ -5262,7 +5283,7 @@
       <c r="M19" s="77">
         <v>10</v>
       </c>
-      <c r="N19" s="206" t="s">
+      <c r="N19" s="208" t="s">
         <v>84</v>
       </c>
       <c r="O19" s="20"/>
@@ -5290,16 +5311,16 @@
         <v>54</v>
       </c>
       <c r="H20" s="22"/>
-      <c r="I20" s="207"/>
-      <c r="J20" s="206"/>
-      <c r="K20" s="206"/>
+      <c r="I20" s="209"/>
+      <c r="J20" s="208"/>
+      <c r="K20" s="208"/>
       <c r="L20" s="77" t="s">
         <v>122</v>
       </c>
       <c r="M20" s="77">
         <v>10</v>
       </c>
-      <c r="N20" s="206"/>
+      <c r="N20" s="208"/>
       <c r="O20" s="20"/>
     </row>
     <row r="21" spans="1:15" s="47" customFormat="1">
@@ -5311,16 +5332,16 @@
       <c r="F21" s="23"/>
       <c r="G21" s="23"/>
       <c r="H21" s="22"/>
-      <c r="I21" s="207"/>
-      <c r="J21" s="206"/>
-      <c r="K21" s="206"/>
+      <c r="I21" s="209"/>
+      <c r="J21" s="208"/>
+      <c r="K21" s="208"/>
       <c r="L21" s="77" t="s">
         <v>122</v>
       </c>
       <c r="M21" s="77">
         <v>50</v>
       </c>
-      <c r="N21" s="206"/>
+      <c r="N21" s="208"/>
       <c r="O21" s="20"/>
     </row>
     <row r="22" spans="1:15" s="47" customFormat="1" ht="28.8">
@@ -5346,16 +5367,16 @@
         <v>54</v>
       </c>
       <c r="H22" s="22"/>
-      <c r="I22" s="207"/>
-      <c r="J22" s="206"/>
-      <c r="K22" s="206"/>
+      <c r="I22" s="209"/>
+      <c r="J22" s="208"/>
+      <c r="K22" s="208"/>
       <c r="L22" s="77" t="s">
         <v>123</v>
       </c>
       <c r="M22" s="77">
         <v>2</v>
       </c>
-      <c r="N22" s="206"/>
+      <c r="N22" s="208"/>
       <c r="O22" s="20"/>
     </row>
     <row r="23" spans="1:15" s="47" customFormat="1">
@@ -5367,16 +5388,16 @@
       <c r="F23" s="23"/>
       <c r="G23" s="23"/>
       <c r="H23" s="53"/>
-      <c r="I23" s="207"/>
-      <c r="J23" s="206"/>
-      <c r="K23" s="206"/>
+      <c r="I23" s="209"/>
+      <c r="J23" s="208"/>
+      <c r="K23" s="208"/>
       <c r="L23" s="77" t="s">
         <v>124</v>
       </c>
       <c r="M23" s="77">
         <v>4</v>
       </c>
-      <c r="N23" s="206"/>
+      <c r="N23" s="208"/>
       <c r="O23" s="20"/>
     </row>
     <row r="24" spans="1:15" s="47" customFormat="1" ht="28.8">
@@ -5440,13 +5461,13 @@
       <c r="O25" s="20"/>
     </row>
     <row r="26" spans="1:15" s="47" customFormat="1">
-      <c r="A26" s="207" t="s">
+      <c r="A26" s="209" t="s">
         <v>428</v>
       </c>
-      <c r="B26" s="206">
+      <c r="B26" s="208">
         <v>1011</v>
       </c>
-      <c r="C26" s="206" t="s">
+      <c r="C26" s="208" t="s">
         <v>316</v>
       </c>
       <c r="D26" s="92" t="s">
@@ -5455,10 +5476,10 @@
       <c r="E26" s="92">
         <v>1</v>
       </c>
-      <c r="F26" s="206" t="s">
+      <c r="F26" s="208" t="s">
         <v>75</v>
       </c>
-      <c r="G26" s="206" t="s">
+      <c r="G26" s="208" t="s">
         <v>54</v>
       </c>
       <c r="H26" s="54"/>
@@ -5471,25 +5492,25 @@
       <c r="O26" s="55"/>
     </row>
     <row r="27" spans="1:15" s="47" customFormat="1">
-      <c r="A27" s="207"/>
-      <c r="B27" s="206"/>
-      <c r="C27" s="206"/>
+      <c r="A27" s="209"/>
+      <c r="B27" s="208"/>
+      <c r="C27" s="208"/>
       <c r="D27" s="92" t="s">
         <v>317</v>
       </c>
       <c r="E27" s="92">
         <v>1</v>
       </c>
-      <c r="F27" s="206"/>
-      <c r="G27" s="206"/>
+      <c r="F27" s="208"/>
+      <c r="G27" s="208"/>
       <c r="H27" s="53"/>
-      <c r="I27" s="207">
+      <c r="I27" s="209">
         <v>44692</v>
       </c>
-      <c r="J27" s="206" t="s">
+      <c r="J27" s="208" t="s">
         <v>135</v>
       </c>
-      <c r="K27" s="206" t="s">
+      <c r="K27" s="208" t="s">
         <v>82</v>
       </c>
       <c r="L27" s="88" t="s">
@@ -5498,34 +5519,34 @@
       <c r="M27" s="88">
         <v>5</v>
       </c>
-      <c r="N27" s="206" t="s">
+      <c r="N27" s="208" t="s">
         <v>84</v>
       </c>
       <c r="O27" s="20"/>
     </row>
     <row r="28" spans="1:15" s="47" customFormat="1">
-      <c r="A28" s="207"/>
-      <c r="B28" s="206"/>
-      <c r="C28" s="206"/>
+      <c r="A28" s="209"/>
+      <c r="B28" s="208"/>
+      <c r="C28" s="208"/>
       <c r="D28" s="92" t="s">
         <v>318</v>
       </c>
       <c r="E28" s="92">
         <v>1</v>
       </c>
-      <c r="F28" s="206"/>
-      <c r="G28" s="206"/>
+      <c r="F28" s="208"/>
+      <c r="G28" s="208"/>
       <c r="H28" s="22"/>
-      <c r="I28" s="207"/>
-      <c r="J28" s="206"/>
-      <c r="K28" s="206"/>
+      <c r="I28" s="209"/>
+      <c r="J28" s="208"/>
+      <c r="K28" s="208"/>
       <c r="L28" s="88" t="s">
         <v>105</v>
       </c>
       <c r="M28" s="88">
         <v>1</v>
       </c>
-      <c r="N28" s="206"/>
+      <c r="N28" s="208"/>
       <c r="O28" s="20"/>
     </row>
     <row r="29" spans="1:15" s="47" customFormat="1">
@@ -5546,13 +5567,13 @@
       <c r="O29" s="55"/>
     </row>
     <row r="30" spans="1:15" s="47" customFormat="1">
-      <c r="A30" s="207" t="s">
+      <c r="A30" s="209" t="s">
         <v>431</v>
       </c>
-      <c r="B30" s="206">
+      <c r="B30" s="208">
         <v>1045</v>
       </c>
-      <c r="C30" s="206" t="s">
+      <c r="C30" s="208" t="s">
         <v>316</v>
       </c>
       <c r="D30" s="93" t="s">
@@ -5561,10 +5582,10 @@
       <c r="E30" s="93">
         <v>1</v>
       </c>
-      <c r="F30" s="206" t="s">
+      <c r="F30" s="208" t="s">
         <v>75</v>
       </c>
-      <c r="G30" s="206" t="s">
+      <c r="G30" s="208" t="s">
         <v>54</v>
       </c>
       <c r="H30" s="22"/>
@@ -5589,17 +5610,17 @@
       <c r="O30" s="20"/>
     </row>
     <row r="31" spans="1:15" s="47" customFormat="1">
-      <c r="A31" s="207"/>
-      <c r="B31" s="206"/>
-      <c r="C31" s="206"/>
+      <c r="A31" s="209"/>
+      <c r="B31" s="208"/>
+      <c r="C31" s="208"/>
       <c r="D31" s="93" t="s">
         <v>321</v>
       </c>
       <c r="E31" s="93">
         <v>1</v>
       </c>
-      <c r="F31" s="206"/>
-      <c r="G31" s="206"/>
+      <c r="F31" s="208"/>
+      <c r="G31" s="208"/>
       <c r="H31" s="54"/>
       <c r="I31" s="23"/>
       <c r="J31" s="23"/>
@@ -5610,25 +5631,25 @@
       <c r="O31" s="55"/>
     </row>
     <row r="32" spans="1:15" s="47" customFormat="1">
-      <c r="A32" s="207"/>
-      <c r="B32" s="206"/>
-      <c r="C32" s="206"/>
+      <c r="A32" s="209"/>
+      <c r="B32" s="208"/>
+      <c r="C32" s="208"/>
       <c r="D32" s="93" t="s">
         <v>318</v>
       </c>
       <c r="E32" s="93">
         <v>1</v>
       </c>
-      <c r="F32" s="206"/>
-      <c r="G32" s="206"/>
+      <c r="F32" s="208"/>
+      <c r="G32" s="208"/>
       <c r="H32" s="22"/>
-      <c r="I32" s="207" t="s">
+      <c r="I32" s="209" t="s">
         <v>424</v>
       </c>
-      <c r="J32" s="206" t="s">
+      <c r="J32" s="208" t="s">
         <v>141</v>
       </c>
-      <c r="K32" s="206" t="s">
+      <c r="K32" s="208" t="s">
         <v>82</v>
       </c>
       <c r="L32" s="91" t="s">
@@ -5637,7 +5658,7 @@
       <c r="M32" s="91">
         <v>10</v>
       </c>
-      <c r="N32" s="206" t="s">
+      <c r="N32" s="208" t="s">
         <v>84</v>
       </c>
       <c r="O32" s="20"/>
@@ -5651,16 +5672,16 @@
       <c r="F33" s="23"/>
       <c r="G33" s="23"/>
       <c r="H33" s="53"/>
-      <c r="I33" s="207"/>
-      <c r="J33" s="206"/>
-      <c r="K33" s="206"/>
+      <c r="I33" s="209"/>
+      <c r="J33" s="208"/>
+      <c r="K33" s="208"/>
       <c r="L33" s="91" t="s">
         <v>122</v>
       </c>
       <c r="M33" s="91">
         <v>40</v>
       </c>
-      <c r="N33" s="206"/>
+      <c r="N33" s="208"/>
       <c r="O33" s="20"/>
     </row>
     <row r="34" spans="1:15" s="47" customFormat="1" ht="28.8">
@@ -5821,13 +5842,13 @@
       <c r="F39" s="23"/>
       <c r="G39" s="23"/>
       <c r="H39" s="53"/>
-      <c r="I39" s="207">
+      <c r="I39" s="209">
         <v>44714</v>
       </c>
-      <c r="J39" s="206" t="s">
+      <c r="J39" s="208" t="s">
         <v>344</v>
       </c>
-      <c r="K39" s="206" t="s">
+      <c r="K39" s="208" t="s">
         <v>82</v>
       </c>
       <c r="L39" s="99" t="s">
@@ -5836,7 +5857,7 @@
       <c r="M39" s="99">
         <v>5</v>
       </c>
-      <c r="N39" s="206" t="s">
+      <c r="N39" s="208" t="s">
         <v>84</v>
       </c>
       <c r="O39" s="20"/>
@@ -5864,16 +5885,16 @@
         <v>54</v>
       </c>
       <c r="H40" s="54"/>
-      <c r="I40" s="207"/>
-      <c r="J40" s="206"/>
-      <c r="K40" s="206"/>
+      <c r="I40" s="209"/>
+      <c r="J40" s="208"/>
+      <c r="K40" s="208"/>
       <c r="L40" s="99" t="s">
         <v>124</v>
       </c>
       <c r="M40" s="99">
         <v>3</v>
       </c>
-      <c r="N40" s="206"/>
+      <c r="N40" s="208"/>
       <c r="O40" s="55"/>
     </row>
     <row r="41" spans="1:15" s="47" customFormat="1">
@@ -5885,26 +5906,26 @@
       <c r="F41" s="23"/>
       <c r="G41" s="23"/>
       <c r="H41" s="79"/>
-      <c r="I41" s="207"/>
-      <c r="J41" s="206"/>
-      <c r="K41" s="206"/>
+      <c r="I41" s="209"/>
+      <c r="J41" s="208"/>
+      <c r="K41" s="208"/>
       <c r="L41" s="99" t="s">
         <v>348</v>
       </c>
       <c r="M41" s="99">
         <v>10</v>
       </c>
-      <c r="N41" s="206"/>
+      <c r="N41" s="208"/>
       <c r="O41" s="55"/>
     </row>
     <row r="42" spans="1:15" s="47" customFormat="1" ht="34.5" customHeight="1">
-      <c r="A42" s="208">
+      <c r="A42" s="210">
         <v>44840</v>
       </c>
-      <c r="B42" s="211" t="s">
+      <c r="B42" s="213" t="s">
         <v>340</v>
       </c>
-      <c r="C42" s="211" t="s">
+      <c r="C42" s="213" t="s">
         <v>76</v>
       </c>
       <c r="D42" s="118" t="s">
@@ -5913,62 +5934,62 @@
       <c r="E42" s="118">
         <v>18</v>
       </c>
-      <c r="F42" s="211" t="s">
+      <c r="F42" s="213" t="s">
         <v>75</v>
       </c>
-      <c r="G42" s="211" t="s">
+      <c r="G42" s="213" t="s">
         <v>54</v>
       </c>
       <c r="H42" s="54"/>
-      <c r="I42" s="207"/>
-      <c r="J42" s="206"/>
-      <c r="K42" s="206"/>
+      <c r="I42" s="209"/>
+      <c r="J42" s="208"/>
+      <c r="K42" s="208"/>
       <c r="L42" s="99" t="s">
         <v>105</v>
       </c>
       <c r="M42" s="99">
         <v>1</v>
       </c>
-      <c r="N42" s="206"/>
+      <c r="N42" s="208"/>
       <c r="O42" s="55"/>
     </row>
     <row r="43" spans="1:15" s="47" customFormat="1">
-      <c r="A43" s="209"/>
-      <c r="B43" s="212"/>
-      <c r="C43" s="212"/>
+      <c r="A43" s="211"/>
+      <c r="B43" s="214"/>
+      <c r="C43" s="214"/>
       <c r="D43" s="118" t="s">
         <v>91</v>
       </c>
       <c r="E43" s="118">
         <v>10</v>
       </c>
-      <c r="F43" s="212"/>
-      <c r="G43" s="212"/>
+      <c r="F43" s="214"/>
+      <c r="G43" s="214"/>
       <c r="H43" s="79"/>
-      <c r="I43" s="207"/>
-      <c r="J43" s="206"/>
-      <c r="K43" s="206"/>
+      <c r="I43" s="209"/>
+      <c r="J43" s="208"/>
+      <c r="K43" s="208"/>
       <c r="L43" s="99" t="s">
         <v>349</v>
       </c>
       <c r="M43" s="99">
         <v>10</v>
       </c>
-      <c r="N43" s="206"/>
+      <c r="N43" s="208"/>
       <c r="O43" s="55"/>
     </row>
     <row r="44" spans="1:15" s="47" customFormat="1" ht="30" customHeight="1">
-      <c r="A44" s="209"/>
-      <c r="B44" s="212"/>
-      <c r="C44" s="212"/>
+      <c r="A44" s="211"/>
+      <c r="B44" s="214"/>
+      <c r="C44" s="214"/>
       <c r="D44" s="118" t="s">
         <v>341</v>
       </c>
       <c r="E44" s="118">
         <v>3</v>
       </c>
-      <c r="F44" s="212"/>
-      <c r="G44" s="212"/>
+      <c r="F44" s="214"/>
+      <c r="G44" s="214"/>
       <c r="H44" s="54"/>
       <c r="I44" s="23"/>
       <c r="J44" s="23"/>
@@ -5979,17 +6000,17 @@
       <c r="O44" s="55"/>
     </row>
     <row r="45" spans="1:15" s="47" customFormat="1" ht="28.8">
-      <c r="A45" s="210"/>
-      <c r="B45" s="213"/>
-      <c r="C45" s="213"/>
+      <c r="A45" s="212"/>
+      <c r="B45" s="215"/>
+      <c r="C45" s="215"/>
       <c r="D45" s="118" t="s">
         <v>341</v>
       </c>
       <c r="E45" s="118">
         <v>2</v>
       </c>
-      <c r="F45" s="213"/>
-      <c r="G45" s="213"/>
+      <c r="F45" s="215"/>
+      <c r="G45" s="215"/>
       <c r="H45" s="22"/>
       <c r="I45" s="100" t="s">
         <v>604</v>
@@ -6051,13 +6072,13 @@
         <v>54</v>
       </c>
       <c r="H47" s="22"/>
-      <c r="I47" s="207">
+      <c r="I47" s="209">
         <v>44871</v>
       </c>
-      <c r="J47" s="206" t="s">
+      <c r="J47" s="208" t="s">
         <v>351</v>
       </c>
-      <c r="K47" s="206" t="s">
+      <c r="K47" s="208" t="s">
         <v>82</v>
       </c>
       <c r="L47" s="99" t="s">
@@ -6066,7 +6087,7 @@
       <c r="M47" s="99">
         <v>2</v>
       </c>
-      <c r="N47" s="206" t="s">
+      <c r="N47" s="208" t="s">
         <v>84</v>
       </c>
       <c r="O47" s="20"/>
@@ -6080,16 +6101,16 @@
       <c r="F48" s="23"/>
       <c r="G48" s="23"/>
       <c r="H48" s="53"/>
-      <c r="I48" s="207"/>
-      <c r="J48" s="206"/>
-      <c r="K48" s="206"/>
+      <c r="I48" s="209"/>
+      <c r="J48" s="208"/>
+      <c r="K48" s="208"/>
       <c r="L48" s="99" t="s">
         <v>105</v>
       </c>
       <c r="M48" s="99">
         <v>9</v>
       </c>
-      <c r="N48" s="206"/>
+      <c r="N48" s="208"/>
       <c r="O48" s="20"/>
     </row>
     <row r="49" spans="1:15" s="47" customFormat="1" ht="28.8">
@@ -6115,16 +6136,16 @@
         <v>54</v>
       </c>
       <c r="H49" s="22"/>
-      <c r="I49" s="207"/>
-      <c r="J49" s="206"/>
-      <c r="K49" s="206"/>
+      <c r="I49" s="209"/>
+      <c r="J49" s="208"/>
+      <c r="K49" s="208"/>
       <c r="L49" s="99" t="s">
         <v>352</v>
       </c>
       <c r="M49" s="99">
         <v>1</v>
       </c>
-      <c r="N49" s="206"/>
+      <c r="N49" s="208"/>
       <c r="O49" s="20"/>
     </row>
     <row r="50" spans="1:15" s="47" customFormat="1">
@@ -6136,26 +6157,26 @@
       <c r="F50" s="23"/>
       <c r="G50" s="23"/>
       <c r="H50" s="53"/>
-      <c r="I50" s="207"/>
-      <c r="J50" s="206"/>
-      <c r="K50" s="206"/>
+      <c r="I50" s="209"/>
+      <c r="J50" s="208"/>
+      <c r="K50" s="208"/>
       <c r="L50" s="99" t="s">
         <v>85</v>
       </c>
       <c r="M50" s="99">
         <v>20</v>
       </c>
-      <c r="N50" s="206"/>
+      <c r="N50" s="208"/>
       <c r="O50" s="20"/>
     </row>
     <row r="51" spans="1:15" s="47" customFormat="1" ht="28.8" customHeight="1">
-      <c r="A51" s="208" t="s">
+      <c r="A51" s="210" t="s">
         <v>436</v>
       </c>
-      <c r="B51" s="211" t="s">
+      <c r="B51" s="213" t="s">
         <v>363</v>
       </c>
-      <c r="C51" s="211" t="s">
+      <c r="C51" s="213" t="s">
         <v>93</v>
       </c>
       <c r="D51" s="118" t="s">
@@ -6164,10 +6185,10 @@
       <c r="E51" s="118">
         <v>10</v>
       </c>
-      <c r="F51" s="211" t="s">
+      <c r="F51" s="213" t="s">
         <v>75</v>
       </c>
-      <c r="G51" s="211" t="s">
+      <c r="G51" s="213" t="s">
         <v>54</v>
       </c>
       <c r="H51" s="54"/>
@@ -6180,25 +6201,25 @@
       <c r="O51" s="55"/>
     </row>
     <row r="52" spans="1:15" s="47" customFormat="1">
-      <c r="A52" s="210"/>
-      <c r="B52" s="213"/>
-      <c r="C52" s="213"/>
+      <c r="A52" s="212"/>
+      <c r="B52" s="215"/>
+      <c r="C52" s="215"/>
       <c r="D52" s="118" t="s">
         <v>339</v>
       </c>
       <c r="E52" s="118">
         <v>5</v>
       </c>
-      <c r="F52" s="213"/>
-      <c r="G52" s="213"/>
+      <c r="F52" s="215"/>
+      <c r="G52" s="215"/>
       <c r="H52" s="53"/>
-      <c r="I52" s="207" t="s">
+      <c r="I52" s="209" t="s">
         <v>449</v>
       </c>
-      <c r="J52" s="206" t="s">
+      <c r="J52" s="208" t="s">
         <v>356</v>
       </c>
-      <c r="K52" s="206" t="s">
+      <c r="K52" s="208" t="s">
         <v>82</v>
       </c>
       <c r="L52" s="102" t="s">
@@ -6207,7 +6228,7 @@
       <c r="M52" s="102">
         <v>70</v>
       </c>
-      <c r="N52" s="206" t="s">
+      <c r="N52" s="208" t="s">
         <v>84</v>
       </c>
       <c r="O52" s="20"/>
@@ -6221,26 +6242,26 @@
       <c r="F53" s="23"/>
       <c r="G53" s="23"/>
       <c r="H53" s="22"/>
-      <c r="I53" s="207"/>
-      <c r="J53" s="206"/>
-      <c r="K53" s="206"/>
+      <c r="I53" s="209"/>
+      <c r="J53" s="208"/>
+      <c r="K53" s="208"/>
       <c r="L53" s="102" t="s">
         <v>352</v>
       </c>
       <c r="M53" s="102">
         <v>33</v>
       </c>
-      <c r="N53" s="206"/>
+      <c r="N53" s="208"/>
       <c r="O53" s="20"/>
     </row>
     <row r="54" spans="1:15" s="47" customFormat="1" ht="28.8" customHeight="1">
-      <c r="A54" s="208" t="s">
+      <c r="A54" s="210" t="s">
         <v>436</v>
       </c>
-      <c r="B54" s="211" t="s">
+      <c r="B54" s="213" t="s">
         <v>364</v>
       </c>
-      <c r="C54" s="211" t="s">
+      <c r="C54" s="213" t="s">
         <v>76</v>
       </c>
       <c r="D54" s="118" t="s">
@@ -6249,10 +6270,10 @@
       <c r="E54" s="118">
         <v>10</v>
       </c>
-      <c r="F54" s="211" t="s">
+      <c r="F54" s="213" t="s">
         <v>54</v>
       </c>
-      <c r="G54" s="211" t="s">
+      <c r="G54" s="213" t="s">
         <v>75</v>
       </c>
       <c r="H54" s="54"/>
@@ -6265,25 +6286,25 @@
       <c r="O54" s="55"/>
     </row>
     <row r="55" spans="1:15" s="47" customFormat="1">
-      <c r="A55" s="209"/>
-      <c r="B55" s="212"/>
-      <c r="C55" s="212"/>
+      <c r="A55" s="211"/>
+      <c r="B55" s="214"/>
+      <c r="C55" s="214"/>
       <c r="D55" s="118" t="s">
         <v>365</v>
       </c>
       <c r="E55" s="118">
         <v>2</v>
       </c>
-      <c r="F55" s="212"/>
-      <c r="G55" s="212"/>
+      <c r="F55" s="214"/>
+      <c r="G55" s="214"/>
       <c r="H55" s="53"/>
-      <c r="I55" s="207" t="s">
+      <c r="I55" s="209" t="s">
         <v>449</v>
       </c>
-      <c r="J55" s="206" t="s">
+      <c r="J55" s="208" t="s">
         <v>357</v>
       </c>
-      <c r="K55" s="206" t="s">
+      <c r="K55" s="208" t="s">
         <v>82</v>
       </c>
       <c r="L55" s="102" t="s">
@@ -6292,73 +6313,73 @@
       <c r="M55" s="102">
         <v>1</v>
       </c>
-      <c r="N55" s="206" t="s">
+      <c r="N55" s="208" t="s">
         <v>84</v>
       </c>
       <c r="O55" s="20"/>
     </row>
     <row r="56" spans="1:15" s="47" customFormat="1" ht="19.5" customHeight="1">
-      <c r="A56" s="209"/>
-      <c r="B56" s="212"/>
-      <c r="C56" s="212"/>
+      <c r="A56" s="211"/>
+      <c r="B56" s="214"/>
+      <c r="C56" s="214"/>
       <c r="D56" s="118" t="s">
         <v>366</v>
       </c>
       <c r="E56" s="118">
         <v>2</v>
       </c>
-      <c r="F56" s="212"/>
-      <c r="G56" s="212"/>
+      <c r="F56" s="214"/>
+      <c r="G56" s="214"/>
       <c r="H56" s="22"/>
-      <c r="I56" s="207"/>
-      <c r="J56" s="206"/>
-      <c r="K56" s="206"/>
+      <c r="I56" s="209"/>
+      <c r="J56" s="208"/>
+      <c r="K56" s="208"/>
       <c r="L56" s="102" t="s">
         <v>87</v>
       </c>
       <c r="M56" s="102">
         <v>1</v>
       </c>
-      <c r="N56" s="206"/>
+      <c r="N56" s="208"/>
       <c r="O56" s="20"/>
     </row>
     <row r="57" spans="1:15" s="47" customFormat="1">
-      <c r="A57" s="209"/>
-      <c r="B57" s="212"/>
-      <c r="C57" s="212"/>
+      <c r="A57" s="211"/>
+      <c r="B57" s="214"/>
+      <c r="C57" s="214"/>
       <c r="D57" s="118" t="s">
         <v>367</v>
       </c>
       <c r="E57" s="118">
         <v>10</v>
       </c>
-      <c r="F57" s="212"/>
-      <c r="G57" s="212"/>
+      <c r="F57" s="214"/>
+      <c r="G57" s="214"/>
       <c r="H57" s="22"/>
-      <c r="I57" s="207"/>
-      <c r="J57" s="206"/>
-      <c r="K57" s="206"/>
+      <c r="I57" s="209"/>
+      <c r="J57" s="208"/>
+      <c r="K57" s="208"/>
       <c r="L57" s="102" t="s">
         <v>352</v>
       </c>
       <c r="M57" s="102">
         <v>1</v>
       </c>
-      <c r="N57" s="206"/>
+      <c r="N57" s="208"/>
       <c r="O57" s="20"/>
     </row>
     <row r="58" spans="1:15" s="47" customFormat="1">
-      <c r="A58" s="209"/>
-      <c r="B58" s="212"/>
-      <c r="C58" s="212"/>
+      <c r="A58" s="211"/>
+      <c r="B58" s="214"/>
+      <c r="C58" s="214"/>
       <c r="D58" s="118" t="s">
         <v>91</v>
       </c>
       <c r="E58" s="118">
         <v>9</v>
       </c>
-      <c r="F58" s="212"/>
-      <c r="G58" s="212"/>
+      <c r="F58" s="214"/>
+      <c r="G58" s="214"/>
       <c r="H58" s="54"/>
       <c r="I58" s="23"/>
       <c r="J58" s="23"/>
@@ -6369,25 +6390,25 @@
       <c r="O58" s="55"/>
     </row>
     <row r="59" spans="1:15" s="47" customFormat="1">
-      <c r="A59" s="210"/>
-      <c r="B59" s="213"/>
-      <c r="C59" s="213"/>
+      <c r="A59" s="212"/>
+      <c r="B59" s="215"/>
+      <c r="C59" s="215"/>
       <c r="D59" s="118" t="s">
         <v>368</v>
       </c>
       <c r="E59" s="118">
         <v>2</v>
       </c>
-      <c r="F59" s="213"/>
-      <c r="G59" s="213"/>
+      <c r="F59" s="215"/>
+      <c r="G59" s="215"/>
       <c r="H59" s="22"/>
-      <c r="I59" s="207" t="s">
+      <c r="I59" s="209" t="s">
         <v>436</v>
       </c>
-      <c r="J59" s="206" t="s">
+      <c r="J59" s="208" t="s">
         <v>381</v>
       </c>
-      <c r="K59" s="206" t="s">
+      <c r="K59" s="208" t="s">
         <v>82</v>
       </c>
       <c r="L59" s="107" t="s">
@@ -6396,7 +6417,7 @@
       <c r="M59" s="107">
         <v>3</v>
       </c>
-      <c r="N59" s="206" t="s">
+      <c r="N59" s="208" t="s">
         <v>84</v>
       </c>
       <c r="O59" s="20"/>
@@ -6410,16 +6431,16 @@
       <c r="F60" s="23"/>
       <c r="G60" s="23"/>
       <c r="H60" s="22"/>
-      <c r="I60" s="207"/>
-      <c r="J60" s="206"/>
-      <c r="K60" s="206"/>
+      <c r="I60" s="209"/>
+      <c r="J60" s="208"/>
+      <c r="K60" s="208"/>
       <c r="L60" s="107" t="s">
         <v>352</v>
       </c>
       <c r="M60" s="107">
         <v>9</v>
       </c>
-      <c r="N60" s="206"/>
+      <c r="N60" s="208"/>
       <c r="O60" s="20"/>
     </row>
     <row r="61" spans="1:15" s="47" customFormat="1" ht="12.75" customHeight="1">
@@ -6462,13 +6483,13 @@
       <c r="F62" s="23"/>
       <c r="G62" s="23"/>
       <c r="H62" s="53"/>
-      <c r="I62" s="207" t="s">
+      <c r="I62" s="209" t="s">
         <v>436</v>
       </c>
-      <c r="J62" s="206" t="s">
+      <c r="J62" s="208" t="s">
         <v>382</v>
       </c>
-      <c r="K62" s="206" t="s">
+      <c r="K62" s="208" t="s">
         <v>82</v>
       </c>
       <c r="L62" s="107" t="s">
@@ -6477,7 +6498,7 @@
       <c r="M62" s="107">
         <v>9</v>
       </c>
-      <c r="N62" s="206" t="s">
+      <c r="N62" s="208" t="s">
         <v>84</v>
       </c>
       <c r="O62" s="20"/>
@@ -6505,16 +6526,16 @@
         <v>75</v>
       </c>
       <c r="H63" s="22"/>
-      <c r="I63" s="207"/>
-      <c r="J63" s="206"/>
-      <c r="K63" s="206"/>
+      <c r="I63" s="209"/>
+      <c r="J63" s="208"/>
+      <c r="K63" s="208"/>
       <c r="L63" s="107" t="s">
         <v>85</v>
       </c>
       <c r="M63" s="107">
         <v>10</v>
       </c>
-      <c r="N63" s="206"/>
+      <c r="N63" s="208"/>
       <c r="O63" s="20"/>
     </row>
     <row r="64" spans="1:15" s="47" customFormat="1">
@@ -6526,16 +6547,16 @@
       <c r="F64" s="23"/>
       <c r="G64" s="23"/>
       <c r="H64" s="53"/>
-      <c r="I64" s="207"/>
-      <c r="J64" s="206"/>
-      <c r="K64" s="206"/>
+      <c r="I64" s="209"/>
+      <c r="J64" s="208"/>
+      <c r="K64" s="208"/>
       <c r="L64" s="107" t="s">
         <v>349</v>
       </c>
       <c r="M64" s="107">
         <v>10</v>
       </c>
-      <c r="N64" s="206"/>
+      <c r="N64" s="208"/>
       <c r="O64" s="20"/>
     </row>
     <row r="65" spans="1:15" s="47" customFormat="1">
@@ -6561,16 +6582,16 @@
         <v>75</v>
       </c>
       <c r="H65" s="22"/>
-      <c r="I65" s="207"/>
-      <c r="J65" s="206"/>
-      <c r="K65" s="206"/>
+      <c r="I65" s="209"/>
+      <c r="J65" s="208"/>
+      <c r="K65" s="208"/>
       <c r="L65" s="107" t="s">
         <v>87</v>
       </c>
       <c r="M65" s="107">
         <v>2</v>
       </c>
-      <c r="N65" s="206"/>
+      <c r="N65" s="208"/>
       <c r="O65" s="20"/>
     </row>
     <row r="66" spans="1:15" s="47" customFormat="1">
@@ -6582,16 +6603,16 @@
       <c r="F66" s="23"/>
       <c r="G66" s="23"/>
       <c r="H66" s="53"/>
-      <c r="I66" s="207"/>
-      <c r="J66" s="206"/>
-      <c r="K66" s="206"/>
+      <c r="I66" s="209"/>
+      <c r="J66" s="208"/>
+      <c r="K66" s="208"/>
       <c r="L66" s="107" t="s">
         <v>405</v>
       </c>
       <c r="M66" s="107">
         <v>2</v>
       </c>
-      <c r="N66" s="206"/>
+      <c r="N66" s="208"/>
       <c r="O66" s="20"/>
     </row>
     <row r="67" spans="1:15" s="47" customFormat="1">
@@ -6617,16 +6638,16 @@
         <v>75</v>
       </c>
       <c r="H67" s="22"/>
-      <c r="I67" s="207"/>
-      <c r="J67" s="206"/>
-      <c r="K67" s="206"/>
+      <c r="I67" s="209"/>
+      <c r="J67" s="208"/>
+      <c r="K67" s="208"/>
       <c r="L67" s="107" t="s">
         <v>406</v>
       </c>
       <c r="M67" s="107">
         <v>2</v>
       </c>
-      <c r="N67" s="206"/>
+      <c r="N67" s="208"/>
       <c r="O67" s="20"/>
     </row>
     <row r="68" spans="1:15" s="47" customFormat="1">
@@ -6638,16 +6659,16 @@
       <c r="F68" s="23"/>
       <c r="G68" s="23"/>
       <c r="H68" s="53"/>
-      <c r="I68" s="207"/>
-      <c r="J68" s="206"/>
-      <c r="K68" s="206"/>
+      <c r="I68" s="209"/>
+      <c r="J68" s="208"/>
+      <c r="K68" s="208"/>
       <c r="L68" s="107" t="s">
         <v>352</v>
       </c>
       <c r="M68" s="107">
         <v>1</v>
       </c>
-      <c r="N68" s="206"/>
+      <c r="N68" s="208"/>
       <c r="O68" s="20"/>
     </row>
     <row r="69" spans="1:15" s="47" customFormat="1" ht="28.8">
@@ -6673,16 +6694,16 @@
         <v>75</v>
       </c>
       <c r="H69" s="22"/>
-      <c r="I69" s="207"/>
-      <c r="J69" s="206"/>
-      <c r="K69" s="206"/>
+      <c r="I69" s="209"/>
+      <c r="J69" s="208"/>
+      <c r="K69" s="208"/>
       <c r="L69" s="107" t="s">
         <v>83</v>
       </c>
       <c r="M69" s="107">
         <v>2</v>
       </c>
-      <c r="N69" s="206"/>
+      <c r="N69" s="208"/>
       <c r="O69" s="20"/>
     </row>
     <row r="70" spans="1:15" s="47" customFormat="1">
@@ -6703,13 +6724,13 @@
       <c r="O70" s="55"/>
     </row>
     <row r="71" spans="1:15" s="47" customFormat="1" ht="86.4">
-      <c r="A71" s="208">
+      <c r="A71" s="210">
         <v>44741</v>
       </c>
-      <c r="B71" s="211" t="s">
+      <c r="B71" s="213" t="s">
         <v>394</v>
       </c>
-      <c r="C71" s="211" t="s">
+      <c r="C71" s="213" t="s">
         <v>76</v>
       </c>
       <c r="D71" s="118" t="s">
@@ -6718,20 +6739,20 @@
       <c r="E71" s="118">
         <v>10</v>
       </c>
-      <c r="F71" s="211" t="s">
+      <c r="F71" s="213" t="s">
         <v>54</v>
       </c>
-      <c r="G71" s="211" t="s">
+      <c r="G71" s="213" t="s">
         <v>75</v>
       </c>
       <c r="H71" s="22"/>
-      <c r="I71" s="207">
+      <c r="I71" s="209">
         <v>44744</v>
       </c>
-      <c r="J71" s="206" t="s">
+      <c r="J71" s="208" t="s">
         <v>409</v>
       </c>
-      <c r="K71" s="206" t="s">
+      <c r="K71" s="208" t="s">
         <v>82</v>
       </c>
       <c r="L71" s="109" t="s">
@@ -6740,59 +6761,59 @@
       <c r="M71" s="109">
         <v>12</v>
       </c>
-      <c r="N71" s="206" t="s">
+      <c r="N71" s="208" t="s">
         <v>84</v>
       </c>
       <c r="O71" s="20"/>
     </row>
     <row r="72" spans="1:15" s="47" customFormat="1">
-      <c r="A72" s="209"/>
-      <c r="B72" s="212"/>
-      <c r="C72" s="212"/>
+      <c r="A72" s="211"/>
+      <c r="B72" s="214"/>
+      <c r="C72" s="214"/>
       <c r="D72" s="118" t="s">
         <v>367</v>
       </c>
       <c r="E72" s="118">
         <v>5</v>
       </c>
-      <c r="F72" s="212"/>
-      <c r="G72" s="212"/>
+      <c r="F72" s="214"/>
+      <c r="G72" s="214"/>
       <c r="H72" s="53"/>
-      <c r="I72" s="207"/>
-      <c r="J72" s="206"/>
-      <c r="K72" s="206"/>
+      <c r="I72" s="209"/>
+      <c r="J72" s="208"/>
+      <c r="K72" s="208"/>
       <c r="L72" s="109" t="s">
         <v>347</v>
       </c>
       <c r="M72" s="109">
         <v>10</v>
       </c>
-      <c r="N72" s="206"/>
+      <c r="N72" s="208"/>
       <c r="O72" s="20"/>
     </row>
     <row r="73" spans="1:15" s="47" customFormat="1" ht="30" customHeight="1">
-      <c r="A73" s="210"/>
-      <c r="B73" s="213"/>
-      <c r="C73" s="213"/>
+      <c r="A73" s="212"/>
+      <c r="B73" s="215"/>
+      <c r="C73" s="215"/>
       <c r="D73" s="118" t="s">
         <v>341</v>
       </c>
       <c r="E73" s="118">
         <v>7</v>
       </c>
-      <c r="F73" s="213"/>
-      <c r="G73" s="213"/>
+      <c r="F73" s="215"/>
+      <c r="G73" s="215"/>
       <c r="H73" s="22"/>
-      <c r="I73" s="207"/>
-      <c r="J73" s="206"/>
-      <c r="K73" s="206"/>
+      <c r="I73" s="209"/>
+      <c r="J73" s="208"/>
+      <c r="K73" s="208"/>
       <c r="L73" s="109" t="s">
         <v>352</v>
       </c>
       <c r="M73" s="109">
         <v>15</v>
       </c>
-      <c r="N73" s="206"/>
+      <c r="N73" s="208"/>
       <c r="O73" s="20"/>
     </row>
     <row r="74" spans="1:15" s="47" customFormat="1">
@@ -6804,26 +6825,26 @@
       <c r="F74" s="23"/>
       <c r="G74" s="23"/>
       <c r="H74" s="22"/>
-      <c r="I74" s="207"/>
-      <c r="J74" s="206"/>
-      <c r="K74" s="206"/>
+      <c r="I74" s="209"/>
+      <c r="J74" s="208"/>
+      <c r="K74" s="208"/>
       <c r="L74" s="109" t="s">
         <v>124</v>
       </c>
       <c r="M74" s="109">
         <v>7</v>
       </c>
-      <c r="N74" s="206"/>
+      <c r="N74" s="208"/>
       <c r="O74" s="20"/>
     </row>
     <row r="75" spans="1:15" s="47" customFormat="1" ht="57.6" customHeight="1">
-      <c r="A75" s="208" t="s">
+      <c r="A75" s="210" t="s">
         <v>440</v>
       </c>
-      <c r="B75" s="211" t="s">
+      <c r="B75" s="213" t="s">
         <v>396</v>
       </c>
-      <c r="C75" s="214" t="s">
+      <c r="C75" s="216" t="s">
         <v>480</v>
       </c>
       <c r="D75" s="118" t="s">
@@ -6832,37 +6853,37 @@
       <c r="E75" s="118">
         <v>2</v>
       </c>
-      <c r="F75" s="211" t="s">
+      <c r="F75" s="213" t="s">
         <v>54</v>
       </c>
-      <c r="G75" s="211" t="s">
+      <c r="G75" s="213" t="s">
         <v>75</v>
       </c>
       <c r="H75" s="22"/>
-      <c r="I75" s="207"/>
-      <c r="J75" s="206"/>
-      <c r="K75" s="206"/>
+      <c r="I75" s="209"/>
+      <c r="J75" s="208"/>
+      <c r="K75" s="208"/>
       <c r="L75" s="109" t="s">
         <v>349</v>
       </c>
       <c r="M75" s="109">
         <v>15</v>
       </c>
-      <c r="N75" s="206"/>
+      <c r="N75" s="208"/>
       <c r="O75" s="20"/>
     </row>
     <row r="76" spans="1:15" s="47" customFormat="1">
-      <c r="A76" s="209"/>
-      <c r="B76" s="212"/>
-      <c r="C76" s="215"/>
+      <c r="A76" s="211"/>
+      <c r="B76" s="214"/>
+      <c r="C76" s="217"/>
       <c r="D76" s="118" t="s">
         <v>493</v>
       </c>
       <c r="E76" s="118">
         <v>1</v>
       </c>
-      <c r="F76" s="212"/>
-      <c r="G76" s="212"/>
+      <c r="F76" s="214"/>
+      <c r="G76" s="214"/>
       <c r="H76" s="79"/>
       <c r="I76" s="23"/>
       <c r="J76" s="23"/>
@@ -6873,17 +6894,17 @@
       <c r="O76" s="55"/>
     </row>
     <row r="77" spans="1:15" s="47" customFormat="1" ht="14.4" customHeight="1">
-      <c r="A77" s="209"/>
-      <c r="B77" s="212"/>
-      <c r="C77" s="215"/>
+      <c r="A77" s="211"/>
+      <c r="B77" s="214"/>
+      <c r="C77" s="217"/>
       <c r="D77" s="118" t="s">
         <v>494</v>
       </c>
       <c r="E77" s="118">
         <v>1</v>
       </c>
-      <c r="F77" s="212"/>
-      <c r="G77" s="212"/>
+      <c r="F77" s="214"/>
+      <c r="G77" s="214"/>
       <c r="H77" s="22"/>
       <c r="I77" s="108">
         <v>44744</v>
@@ -6906,17 +6927,17 @@
       <c r="O77" s="20"/>
     </row>
     <row r="78" spans="1:15" s="47" customFormat="1" ht="28.8">
-      <c r="A78" s="209"/>
-      <c r="B78" s="212"/>
-      <c r="C78" s="215"/>
+      <c r="A78" s="211"/>
+      <c r="B78" s="214"/>
+      <c r="C78" s="217"/>
       <c r="D78" s="118" t="s">
         <v>495</v>
       </c>
       <c r="E78" s="118">
         <v>1</v>
       </c>
-      <c r="F78" s="212"/>
-      <c r="G78" s="212"/>
+      <c r="F78" s="214"/>
+      <c r="G78" s="214"/>
       <c r="H78" s="54"/>
       <c r="I78" s="23"/>
       <c r="J78" s="23"/>
@@ -6927,17 +6948,17 @@
       <c r="O78" s="55"/>
     </row>
     <row r="79" spans="1:15" s="47" customFormat="1" ht="28.8">
-      <c r="A79" s="209"/>
-      <c r="B79" s="212"/>
-      <c r="C79" s="215"/>
+      <c r="A79" s="211"/>
+      <c r="B79" s="214"/>
+      <c r="C79" s="217"/>
       <c r="D79" s="118" t="s">
         <v>496</v>
       </c>
       <c r="E79" s="118">
         <v>1</v>
       </c>
-      <c r="F79" s="212"/>
-      <c r="G79" s="212"/>
+      <c r="F79" s="214"/>
+      <c r="G79" s="214"/>
       <c r="H79" s="22"/>
       <c r="I79" s="108">
         <v>44746</v>
@@ -6960,17 +6981,17 @@
       <c r="O79" s="20"/>
     </row>
     <row r="80" spans="1:15" s="47" customFormat="1">
-      <c r="A80" s="209"/>
-      <c r="B80" s="212"/>
-      <c r="C80" s="215"/>
+      <c r="A80" s="211"/>
+      <c r="B80" s="214"/>
+      <c r="C80" s="217"/>
       <c r="D80" s="118" t="s">
         <v>497</v>
       </c>
       <c r="E80" s="118">
         <v>1</v>
       </c>
-      <c r="F80" s="212"/>
-      <c r="G80" s="212"/>
+      <c r="F80" s="214"/>
+      <c r="G80" s="214"/>
       <c r="H80" s="54"/>
       <c r="I80" s="23"/>
       <c r="J80" s="23"/>
@@ -6981,25 +7002,25 @@
       <c r="O80" s="55"/>
     </row>
     <row r="81" spans="1:15" s="47" customFormat="1">
-      <c r="A81" s="209"/>
-      <c r="B81" s="212"/>
-      <c r="C81" s="215"/>
+      <c r="A81" s="211"/>
+      <c r="B81" s="214"/>
+      <c r="C81" s="217"/>
       <c r="D81" s="118" t="s">
         <v>498</v>
       </c>
       <c r="E81" s="118">
         <v>1</v>
       </c>
-      <c r="F81" s="212"/>
-      <c r="G81" s="212"/>
+      <c r="F81" s="214"/>
+      <c r="G81" s="214"/>
       <c r="H81" s="22"/>
-      <c r="I81" s="207">
+      <c r="I81" s="209">
         <v>44750</v>
       </c>
-      <c r="J81" s="206" t="s">
+      <c r="J81" s="208" t="s">
         <v>444</v>
       </c>
-      <c r="K81" s="206" t="s">
+      <c r="K81" s="208" t="s">
         <v>445</v>
       </c>
       <c r="L81" s="109" t="s">
@@ -7008,159 +7029,159 @@
       <c r="M81" s="109">
         <v>3</v>
       </c>
-      <c r="N81" s="206" t="s">
+      <c r="N81" s="208" t="s">
         <v>404</v>
       </c>
       <c r="O81" s="20"/>
     </row>
     <row r="82" spans="1:15" s="47" customFormat="1">
-      <c r="A82" s="209"/>
-      <c r="B82" s="212"/>
-      <c r="C82" s="215"/>
+      <c r="A82" s="211"/>
+      <c r="B82" s="214"/>
+      <c r="C82" s="217"/>
       <c r="D82" s="118" t="s">
         <v>499</v>
       </c>
       <c r="E82" s="118">
         <v>25</v>
       </c>
-      <c r="F82" s="212"/>
-      <c r="G82" s="212"/>
+      <c r="F82" s="214"/>
+      <c r="G82" s="214"/>
       <c r="H82" s="22"/>
-      <c r="I82" s="207"/>
-      <c r="J82" s="206"/>
-      <c r="K82" s="206"/>
+      <c r="I82" s="209"/>
+      <c r="J82" s="208"/>
+      <c r="K82" s="208"/>
       <c r="L82" s="109" t="s">
         <v>518</v>
       </c>
       <c r="M82" s="109">
         <v>1</v>
       </c>
-      <c r="N82" s="206"/>
+      <c r="N82" s="208"/>
       <c r="O82" s="20"/>
     </row>
     <row r="83" spans="1:15" s="47" customFormat="1">
-      <c r="A83" s="209"/>
-      <c r="B83" s="212"/>
-      <c r="C83" s="215"/>
+      <c r="A83" s="211"/>
+      <c r="B83" s="214"/>
+      <c r="C83" s="217"/>
       <c r="D83" s="118" t="s">
         <v>500</v>
       </c>
       <c r="E83" s="118">
         <v>1</v>
       </c>
-      <c r="F83" s="212"/>
-      <c r="G83" s="212"/>
+      <c r="F83" s="214"/>
+      <c r="G83" s="214"/>
       <c r="H83" s="22"/>
-      <c r="I83" s="207"/>
-      <c r="J83" s="206"/>
-      <c r="K83" s="206"/>
+      <c r="I83" s="209"/>
+      <c r="J83" s="208"/>
+      <c r="K83" s="208"/>
       <c r="L83" s="109" t="s">
         <v>605</v>
       </c>
       <c r="M83" s="109">
         <v>1</v>
       </c>
-      <c r="N83" s="206"/>
+      <c r="N83" s="208"/>
       <c r="O83" s="20"/>
     </row>
     <row r="84" spans="1:15" s="47" customFormat="1">
-      <c r="A84" s="209"/>
-      <c r="B84" s="212"/>
-      <c r="C84" s="215"/>
+      <c r="A84" s="211"/>
+      <c r="B84" s="214"/>
+      <c r="C84" s="217"/>
       <c r="D84" s="118" t="s">
         <v>501</v>
       </c>
       <c r="E84" s="118">
         <v>1</v>
       </c>
-      <c r="F84" s="212"/>
-      <c r="G84" s="212"/>
+      <c r="F84" s="214"/>
+      <c r="G84" s="214"/>
       <c r="H84" s="22"/>
-      <c r="I84" s="207"/>
-      <c r="J84" s="206"/>
-      <c r="K84" s="206"/>
+      <c r="I84" s="209"/>
+      <c r="J84" s="208"/>
+      <c r="K84" s="208"/>
       <c r="L84" s="109" t="s">
         <v>20</v>
       </c>
       <c r="M84" s="109">
         <v>8</v>
       </c>
-      <c r="N84" s="206"/>
+      <c r="N84" s="208"/>
       <c r="O84" s="20"/>
     </row>
     <row r="85" spans="1:15" s="47" customFormat="1">
-      <c r="A85" s="209"/>
-      <c r="B85" s="212"/>
-      <c r="C85" s="215"/>
+      <c r="A85" s="211"/>
+      <c r="B85" s="214"/>
+      <c r="C85" s="217"/>
       <c r="D85" s="118" t="s">
         <v>502</v>
       </c>
       <c r="E85" s="118">
         <v>1</v>
       </c>
-      <c r="F85" s="212"/>
-      <c r="G85" s="212"/>
+      <c r="F85" s="214"/>
+      <c r="G85" s="214"/>
       <c r="H85" s="22"/>
-      <c r="I85" s="207"/>
-      <c r="J85" s="206"/>
-      <c r="K85" s="206"/>
+      <c r="I85" s="209"/>
+      <c r="J85" s="208"/>
+      <c r="K85" s="208"/>
       <c r="L85" s="109" t="s">
         <v>519</v>
       </c>
       <c r="M85" s="109">
         <v>3</v>
       </c>
-      <c r="N85" s="206"/>
+      <c r="N85" s="208"/>
       <c r="O85" s="20"/>
     </row>
     <row r="86" spans="1:15" s="47" customFormat="1">
-      <c r="A86" s="209"/>
-      <c r="B86" s="212"/>
-      <c r="C86" s="215"/>
+      <c r="A86" s="211"/>
+      <c r="B86" s="214"/>
+      <c r="C86" s="217"/>
       <c r="D86" s="118" t="s">
         <v>503</v>
       </c>
       <c r="E86" s="118">
         <v>1</v>
       </c>
-      <c r="F86" s="212"/>
-      <c r="G86" s="212"/>
+      <c r="F86" s="214"/>
+      <c r="G86" s="214"/>
       <c r="H86" s="22"/>
-      <c r="I86" s="207"/>
-      <c r="J86" s="206"/>
-      <c r="K86" s="206"/>
+      <c r="I86" s="209"/>
+      <c r="J86" s="208"/>
+      <c r="K86" s="208"/>
       <c r="L86" s="109" t="s">
         <v>520</v>
       </c>
       <c r="M86" s="109">
         <v>1</v>
       </c>
-      <c r="N86" s="206"/>
+      <c r="N86" s="208"/>
       <c r="O86" s="20"/>
     </row>
     <row r="87" spans="1:15" s="47" customFormat="1" ht="43.2">
-      <c r="A87" s="210"/>
-      <c r="B87" s="213"/>
-      <c r="C87" s="216"/>
+      <c r="A87" s="212"/>
+      <c r="B87" s="215"/>
+      <c r="C87" s="218"/>
       <c r="D87" s="118" t="s">
         <v>504</v>
       </c>
       <c r="E87" s="118">
         <v>2</v>
       </c>
-      <c r="F87" s="213"/>
-      <c r="G87" s="213"/>
+      <c r="F87" s="215"/>
+      <c r="G87" s="215"/>
       <c r="H87" s="22"/>
-      <c r="I87" s="207"/>
-      <c r="J87" s="206"/>
-      <c r="K87" s="206"/>
+      <c r="I87" s="209"/>
+      <c r="J87" s="208"/>
+      <c r="K87" s="208"/>
       <c r="L87" s="109" t="s">
         <v>521</v>
       </c>
       <c r="M87" s="109">
         <v>50</v>
       </c>
-      <c r="N87" s="206"/>
+      <c r="N87" s="208"/>
       <c r="O87" s="20"/>
     </row>
     <row r="88" spans="1:15" s="47" customFormat="1">
@@ -7263,13 +7284,13 @@
         <v>75</v>
       </c>
       <c r="H91" s="22"/>
-      <c r="I91" s="207">
+      <c r="I91" s="209">
         <v>44753</v>
       </c>
-      <c r="J91" s="206" t="s">
+      <c r="J91" s="208" t="s">
         <v>448</v>
       </c>
-      <c r="K91" s="206" t="s">
+      <c r="K91" s="208" t="s">
         <v>82</v>
       </c>
       <c r="L91" s="109" t="s">
@@ -7278,7 +7299,7 @@
       <c r="M91" s="129">
         <v>1</v>
       </c>
-      <c r="N91" s="206" t="s">
+      <c r="N91" s="208" t="s">
         <v>84</v>
       </c>
       <c r="O91" s="20"/>
@@ -7292,26 +7313,26 @@
       <c r="F92" s="23"/>
       <c r="G92" s="23"/>
       <c r="H92" s="53"/>
-      <c r="I92" s="207"/>
-      <c r="J92" s="206"/>
-      <c r="K92" s="206"/>
+      <c r="I92" s="209"/>
+      <c r="J92" s="208"/>
+      <c r="K92" s="208"/>
       <c r="L92" s="109" t="s">
         <v>86</v>
       </c>
       <c r="M92" s="129">
         <v>1</v>
       </c>
-      <c r="N92" s="206"/>
+      <c r="N92" s="208"/>
       <c r="O92" s="20"/>
     </row>
     <row r="93" spans="1:15" s="47" customFormat="1" ht="57.6" customHeight="1">
-      <c r="A93" s="208">
+      <c r="A93" s="210">
         <v>44747</v>
       </c>
-      <c r="B93" s="211" t="s">
+      <c r="B93" s="213" t="s">
         <v>450</v>
       </c>
-      <c r="C93" s="211" t="s">
+      <c r="C93" s="213" t="s">
         <v>480</v>
       </c>
       <c r="D93" s="118" t="s">
@@ -7320,10 +7341,10 @@
       <c r="E93" s="118">
         <v>4</v>
       </c>
-      <c r="F93" s="211" t="s">
+      <c r="F93" s="213" t="s">
         <v>54</v>
       </c>
-      <c r="G93" s="211" t="s">
+      <c r="G93" s="213" t="s">
         <v>75</v>
       </c>
       <c r="H93" s="54"/>
@@ -7336,25 +7357,25 @@
       <c r="O93" s="55"/>
     </row>
     <row r="94" spans="1:15" s="47" customFormat="1">
-      <c r="A94" s="209"/>
-      <c r="B94" s="212"/>
-      <c r="C94" s="212"/>
+      <c r="A94" s="211"/>
+      <c r="B94" s="214"/>
+      <c r="C94" s="214"/>
       <c r="D94" s="118" t="s">
         <v>506</v>
       </c>
       <c r="E94" s="118">
         <v>3</v>
       </c>
-      <c r="F94" s="212"/>
-      <c r="G94" s="212"/>
+      <c r="F94" s="214"/>
+      <c r="G94" s="214"/>
       <c r="H94" s="53"/>
-      <c r="I94" s="206" t="s">
+      <c r="I94" s="208" t="s">
         <v>454</v>
       </c>
-      <c r="J94" s="206" t="s">
+      <c r="J94" s="208" t="s">
         <v>470</v>
       </c>
-      <c r="K94" s="206" t="s">
+      <c r="K94" s="208" t="s">
         <v>82</v>
       </c>
       <c r="L94" s="110" t="s">
@@ -7363,123 +7384,123 @@
       <c r="M94" s="110">
         <v>4</v>
       </c>
-      <c r="N94" s="206" t="s">
+      <c r="N94" s="208" t="s">
         <v>84</v>
       </c>
       <c r="O94" s="20"/>
     </row>
     <row r="95" spans="1:15" s="47" customFormat="1" ht="28.8" customHeight="1">
-      <c r="A95" s="209"/>
-      <c r="B95" s="212"/>
-      <c r="C95" s="212"/>
+      <c r="A95" s="211"/>
+      <c r="B95" s="214"/>
+      <c r="C95" s="214"/>
       <c r="D95" s="118" t="s">
         <v>493</v>
       </c>
       <c r="E95" s="118">
         <v>1</v>
       </c>
-      <c r="F95" s="212"/>
-      <c r="G95" s="212"/>
+      <c r="F95" s="214"/>
+      <c r="G95" s="214"/>
       <c r="H95" s="22"/>
-      <c r="I95" s="206"/>
-      <c r="J95" s="206"/>
-      <c r="K95" s="206"/>
+      <c r="I95" s="208"/>
+      <c r="J95" s="208"/>
+      <c r="K95" s="208"/>
       <c r="L95" s="110" t="s">
         <v>124</v>
       </c>
       <c r="M95" s="110">
         <v>10</v>
       </c>
-      <c r="N95" s="206"/>
+      <c r="N95" s="208"/>
       <c r="O95" s="20"/>
     </row>
     <row r="96" spans="1:15" s="47" customFormat="1" ht="28.8">
-      <c r="A96" s="209"/>
-      <c r="B96" s="212"/>
-      <c r="C96" s="212"/>
+      <c r="A96" s="211"/>
+      <c r="B96" s="214"/>
+      <c r="C96" s="214"/>
       <c r="D96" s="118" t="s">
         <v>507</v>
       </c>
       <c r="E96" s="118">
         <v>8</v>
       </c>
-      <c r="F96" s="212"/>
-      <c r="G96" s="212"/>
+      <c r="F96" s="214"/>
+      <c r="G96" s="214"/>
       <c r="H96" s="22"/>
-      <c r="I96" s="206"/>
-      <c r="J96" s="206"/>
-      <c r="K96" s="206"/>
+      <c r="I96" s="208"/>
+      <c r="J96" s="208"/>
+      <c r="K96" s="208"/>
       <c r="L96" s="110" t="s">
         <v>105</v>
       </c>
       <c r="M96" s="110">
         <v>10</v>
       </c>
-      <c r="N96" s="206"/>
+      <c r="N96" s="208"/>
       <c r="O96" s="20"/>
     </row>
     <row r="97" spans="1:15" s="47" customFormat="1" ht="28.8">
-      <c r="A97" s="209"/>
-      <c r="B97" s="212"/>
-      <c r="C97" s="212"/>
+      <c r="A97" s="211"/>
+      <c r="B97" s="214"/>
+      <c r="C97" s="214"/>
       <c r="D97" s="118" t="s">
         <v>508</v>
       </c>
       <c r="E97" s="118">
         <v>1</v>
       </c>
-      <c r="F97" s="212"/>
-      <c r="G97" s="212"/>
+      <c r="F97" s="214"/>
+      <c r="G97" s="214"/>
       <c r="H97" s="22"/>
-      <c r="I97" s="206"/>
-      <c r="J97" s="206"/>
-      <c r="K97" s="206"/>
+      <c r="I97" s="208"/>
+      <c r="J97" s="208"/>
+      <c r="K97" s="208"/>
       <c r="L97" s="110" t="s">
         <v>85</v>
       </c>
       <c r="M97" s="110">
         <v>10</v>
       </c>
-      <c r="N97" s="206"/>
+      <c r="N97" s="208"/>
       <c r="O97" s="20"/>
     </row>
     <row r="98" spans="1:15" s="47" customFormat="1" ht="28.8">
-      <c r="A98" s="209"/>
-      <c r="B98" s="212"/>
-      <c r="C98" s="212"/>
+      <c r="A98" s="211"/>
+      <c r="B98" s="214"/>
+      <c r="C98" s="214"/>
       <c r="D98" s="118" t="s">
         <v>509</v>
       </c>
       <c r="E98" s="118">
         <v>2</v>
       </c>
-      <c r="F98" s="212"/>
-      <c r="G98" s="212"/>
+      <c r="F98" s="214"/>
+      <c r="G98" s="214"/>
       <c r="H98" s="22"/>
-      <c r="I98" s="206"/>
-      <c r="J98" s="206"/>
-      <c r="K98" s="206"/>
+      <c r="I98" s="208"/>
+      <c r="J98" s="208"/>
+      <c r="K98" s="208"/>
       <c r="L98" s="110" t="s">
         <v>349</v>
       </c>
       <c r="M98" s="110">
         <v>10</v>
       </c>
-      <c r="N98" s="206"/>
+      <c r="N98" s="208"/>
       <c r="O98" s="20"/>
     </row>
     <row r="99" spans="1:15" s="47" customFormat="1">
-      <c r="A99" s="209"/>
-      <c r="B99" s="212"/>
-      <c r="C99" s="212"/>
+      <c r="A99" s="211"/>
+      <c r="B99" s="214"/>
+      <c r="C99" s="214"/>
       <c r="D99" s="118" t="s">
         <v>510</v>
       </c>
       <c r="E99" s="118">
         <v>2</v>
       </c>
-      <c r="F99" s="212"/>
-      <c r="G99" s="212"/>
+      <c r="F99" s="214"/>
+      <c r="G99" s="214"/>
       <c r="H99" s="54"/>
       <c r="I99" s="23"/>
       <c r="J99" s="23"/>
@@ -7490,25 +7511,25 @@
       <c r="O99" s="55"/>
     </row>
     <row r="100" spans="1:15" s="47" customFormat="1">
-      <c r="A100" s="210"/>
-      <c r="B100" s="213"/>
-      <c r="C100" s="213"/>
+      <c r="A100" s="212"/>
+      <c r="B100" s="215"/>
+      <c r="C100" s="215"/>
       <c r="D100" s="118" t="s">
         <v>511</v>
       </c>
       <c r="E100" s="118">
         <v>1</v>
       </c>
-      <c r="F100" s="213"/>
-      <c r="G100" s="213"/>
+      <c r="F100" s="215"/>
+      <c r="G100" s="215"/>
       <c r="H100" s="22"/>
-      <c r="I100" s="206" t="s">
+      <c r="I100" s="208" t="s">
         <v>454</v>
       </c>
-      <c r="J100" s="206" t="s">
+      <c r="J100" s="208" t="s">
         <v>471</v>
       </c>
-      <c r="K100" s="206" t="s">
+      <c r="K100" s="208" t="s">
         <v>472</v>
       </c>
       <c r="L100" s="110" t="s">
@@ -7517,7 +7538,7 @@
       <c r="M100" s="110">
         <v>2</v>
       </c>
-      <c r="N100" s="206" t="s">
+      <c r="N100" s="208" t="s">
         <v>404</v>
       </c>
       <c r="O100" s="20"/>
@@ -7531,16 +7552,16 @@
       <c r="F101" s="23"/>
       <c r="G101" s="23"/>
       <c r="H101" s="22"/>
-      <c r="I101" s="206"/>
-      <c r="J101" s="206"/>
-      <c r="K101" s="206"/>
+      <c r="I101" s="208"/>
+      <c r="J101" s="208"/>
+      <c r="K101" s="208"/>
       <c r="L101" s="110" t="s">
         <v>527</v>
       </c>
       <c r="M101" s="110">
         <v>1</v>
       </c>
-      <c r="N101" s="206"/>
+      <c r="N101" s="208"/>
       <c r="O101" s="20"/>
     </row>
     <row r="102" spans="1:15" s="47" customFormat="1">
@@ -7566,16 +7587,16 @@
         <v>75</v>
       </c>
       <c r="H102" s="22"/>
-      <c r="I102" s="206"/>
-      <c r="J102" s="206"/>
-      <c r="K102" s="206"/>
+      <c r="I102" s="208"/>
+      <c r="J102" s="208"/>
+      <c r="K102" s="208"/>
       <c r="L102" s="110" t="s">
         <v>528</v>
       </c>
       <c r="M102" s="110">
         <v>1</v>
       </c>
-      <c r="N102" s="206"/>
+      <c r="N102" s="208"/>
       <c r="O102" s="20"/>
     </row>
     <row r="103" spans="1:15" s="47" customFormat="1">
@@ -7587,16 +7608,16 @@
       <c r="F103" s="23"/>
       <c r="G103" s="23"/>
       <c r="H103" s="53"/>
-      <c r="I103" s="206"/>
-      <c r="J103" s="206"/>
-      <c r="K103" s="206"/>
+      <c r="I103" s="208"/>
+      <c r="J103" s="208"/>
+      <c r="K103" s="208"/>
       <c r="L103" s="110" t="s">
         <v>20</v>
       </c>
       <c r="M103" s="110">
         <v>6</v>
       </c>
-      <c r="N103" s="206"/>
+      <c r="N103" s="208"/>
       <c r="O103" s="20"/>
     </row>
     <row r="104" spans="1:15" s="47" customFormat="1">
@@ -7622,16 +7643,16 @@
         <v>75</v>
       </c>
       <c r="H104" s="22"/>
-      <c r="I104" s="206"/>
-      <c r="J104" s="206"/>
-      <c r="K104" s="206"/>
+      <c r="I104" s="208"/>
+      <c r="J104" s="208"/>
+      <c r="K104" s="208"/>
       <c r="L104" s="110" t="s">
         <v>519</v>
       </c>
       <c r="M104" s="110">
         <v>3</v>
       </c>
-      <c r="N104" s="206"/>
+      <c r="N104" s="208"/>
       <c r="O104" s="20"/>
     </row>
     <row r="105" spans="1:15" s="47" customFormat="1">
@@ -7643,26 +7664,26 @@
       <c r="F105" s="23"/>
       <c r="G105" s="23"/>
       <c r="H105" s="53"/>
-      <c r="I105" s="206"/>
-      <c r="J105" s="206"/>
-      <c r="K105" s="206"/>
+      <c r="I105" s="208"/>
+      <c r="J105" s="208"/>
+      <c r="K105" s="208"/>
       <c r="L105" s="110" t="s">
         <v>529</v>
       </c>
       <c r="M105" s="110">
         <v>1</v>
       </c>
-      <c r="N105" s="206"/>
+      <c r="N105" s="208"/>
       <c r="O105" s="20"/>
     </row>
     <row r="106" spans="1:15" s="47" customFormat="1" ht="28.8" customHeight="1">
-      <c r="A106" s="211" t="s">
+      <c r="A106" s="213" t="s">
         <v>453</v>
       </c>
-      <c r="B106" s="211" t="s">
+      <c r="B106" s="213" t="s">
         <v>474</v>
       </c>
-      <c r="C106" s="211" t="s">
+      <c r="C106" s="213" t="s">
         <v>76</v>
       </c>
       <c r="D106" s="118" t="s">
@@ -7671,112 +7692,112 @@
       <c r="E106" s="118">
         <v>4</v>
       </c>
-      <c r="F106" s="211" t="s">
+      <c r="F106" s="213" t="s">
         <v>54</v>
       </c>
-      <c r="G106" s="211" t="s">
+      <c r="G106" s="213" t="s">
         <v>75</v>
       </c>
       <c r="H106" s="22"/>
-      <c r="I106" s="206"/>
-      <c r="J106" s="206"/>
-      <c r="K106" s="206"/>
+      <c r="I106" s="208"/>
+      <c r="J106" s="208"/>
+      <c r="K106" s="208"/>
       <c r="L106" s="110" t="s">
         <v>530</v>
       </c>
       <c r="M106" s="110">
         <v>1</v>
       </c>
-      <c r="N106" s="206"/>
+      <c r="N106" s="208"/>
       <c r="O106" s="20"/>
     </row>
     <row r="107" spans="1:15" s="47" customFormat="1">
-      <c r="A107" s="212"/>
-      <c r="B107" s="212"/>
-      <c r="C107" s="212"/>
+      <c r="A107" s="214"/>
+      <c r="B107" s="214"/>
+      <c r="C107" s="214"/>
       <c r="D107" s="118" t="s">
         <v>475</v>
       </c>
       <c r="E107" s="118">
         <v>10</v>
       </c>
-      <c r="F107" s="212"/>
-      <c r="G107" s="212"/>
+      <c r="F107" s="214"/>
+      <c r="G107" s="214"/>
       <c r="H107" s="53"/>
-      <c r="I107" s="206"/>
-      <c r="J107" s="206"/>
-      <c r="K107" s="206"/>
+      <c r="I107" s="208"/>
+      <c r="J107" s="208"/>
+      <c r="K107" s="208"/>
       <c r="L107" s="110" t="s">
         <v>69</v>
       </c>
       <c r="M107" s="110">
         <v>1</v>
       </c>
-      <c r="N107" s="206"/>
+      <c r="N107" s="208"/>
       <c r="O107" s="20"/>
     </row>
     <row r="108" spans="1:15" s="47" customFormat="1" ht="28.8" customHeight="1">
-      <c r="A108" s="212"/>
-      <c r="B108" s="212"/>
-      <c r="C108" s="212"/>
+      <c r="A108" s="214"/>
+      <c r="B108" s="214"/>
+      <c r="C108" s="214"/>
       <c r="D108" s="118" t="s">
         <v>367</v>
       </c>
       <c r="E108" s="118">
         <v>10</v>
       </c>
-      <c r="F108" s="212"/>
-      <c r="G108" s="212"/>
+      <c r="F108" s="214"/>
+      <c r="G108" s="214"/>
       <c r="H108" s="22"/>
-      <c r="I108" s="206"/>
-      <c r="J108" s="206"/>
-      <c r="K108" s="206"/>
+      <c r="I108" s="208"/>
+      <c r="J108" s="208"/>
+      <c r="K108" s="208"/>
       <c r="L108" s="110" t="s">
         <v>531</v>
       </c>
       <c r="M108" s="110">
         <v>8</v>
       </c>
-      <c r="N108" s="206"/>
+      <c r="N108" s="208"/>
       <c r="O108" s="20"/>
     </row>
     <row r="109" spans="1:15" s="47" customFormat="1">
-      <c r="A109" s="212"/>
-      <c r="B109" s="212"/>
-      <c r="C109" s="212"/>
+      <c r="A109" s="214"/>
+      <c r="B109" s="214"/>
+      <c r="C109" s="214"/>
       <c r="D109" s="118" t="s">
         <v>476</v>
       </c>
       <c r="E109" s="118">
         <v>11</v>
       </c>
-      <c r="F109" s="212"/>
-      <c r="G109" s="212"/>
+      <c r="F109" s="214"/>
+      <c r="G109" s="214"/>
       <c r="H109" s="22"/>
-      <c r="I109" s="206"/>
-      <c r="J109" s="206"/>
-      <c r="K109" s="206"/>
+      <c r="I109" s="208"/>
+      <c r="J109" s="208"/>
+      <c r="K109" s="208"/>
       <c r="L109" s="110" t="s">
         <v>183</v>
       </c>
       <c r="M109" s="110">
         <v>1</v>
       </c>
-      <c r="N109" s="206"/>
+      <c r="N109" s="208"/>
       <c r="O109" s="20"/>
     </row>
     <row r="110" spans="1:15" s="47" customFormat="1">
-      <c r="A110" s="213"/>
-      <c r="B110" s="213"/>
-      <c r="C110" s="213"/>
+      <c r="A110" s="215"/>
+      <c r="B110" s="215"/>
+      <c r="C110" s="215"/>
       <c r="D110" s="118" t="s">
         <v>477</v>
       </c>
       <c r="E110" s="118">
         <v>6</v>
       </c>
-      <c r="F110" s="213"/>
-      <c r="G110" s="213"/>
+      <c r="F110" s="215"/>
+      <c r="G110" s="215"/>
       <c r="H110" s="54"/>
       <c r="I110" s="23"/>
       <c r="J110" s="23"/>
@@ -7795,13 +7816,13 @@
       <c r="F111" s="23"/>
       <c r="G111" s="23"/>
       <c r="H111" s="22"/>
-      <c r="I111" s="206" t="s">
+      <c r="I111" s="208" t="s">
         <v>524</v>
       </c>
-      <c r="J111" s="206" t="s">
+      <c r="J111" s="208" t="s">
         <v>542</v>
       </c>
-      <c r="K111" s="206" t="s">
+      <c r="K111" s="208" t="s">
         <v>543</v>
       </c>
       <c r="L111" s="111" t="s">
@@ -7810,7 +7831,7 @@
       <c r="M111" s="111">
         <v>1</v>
       </c>
-      <c r="N111" s="206" t="s">
+      <c r="N111" s="208" t="s">
         <v>545</v>
       </c>
       <c r="O111" s="20"/>
@@ -7838,16 +7859,16 @@
         <v>75</v>
       </c>
       <c r="H112" s="22"/>
-      <c r="I112" s="206"/>
-      <c r="J112" s="206"/>
-      <c r="K112" s="206"/>
+      <c r="I112" s="208"/>
+      <c r="J112" s="208"/>
+      <c r="K112" s="208"/>
       <c r="L112" s="111" t="s">
         <v>546</v>
       </c>
       <c r="M112" s="111">
         <v>2</v>
       </c>
-      <c r="N112" s="206"/>
+      <c r="N112" s="208"/>
       <c r="O112" s="20"/>
     </row>
     <row r="113" spans="1:15" s="47" customFormat="1">
@@ -7890,13 +7911,13 @@
         <v>75</v>
       </c>
       <c r="H114" s="22"/>
-      <c r="I114" s="207">
+      <c r="I114" s="209">
         <v>44781</v>
       </c>
-      <c r="J114" s="206" t="s">
+      <c r="J114" s="208" t="s">
         <v>566</v>
       </c>
-      <c r="K114" s="206" t="s">
+      <c r="K114" s="208" t="s">
         <v>82</v>
       </c>
       <c r="L114" s="113" t="s">
@@ -7905,7 +7926,7 @@
       <c r="M114" s="113">
         <v>5</v>
       </c>
-      <c r="N114" s="206" t="s">
+      <c r="N114" s="208" t="s">
         <v>84</v>
       </c>
       <c r="O114" s="20"/>
@@ -7923,16 +7944,16 @@
       <c r="F115" s="118"/>
       <c r="G115" s="118"/>
       <c r="H115" s="53"/>
-      <c r="I115" s="207"/>
-      <c r="J115" s="206"/>
-      <c r="K115" s="206"/>
+      <c r="I115" s="209"/>
+      <c r="J115" s="208"/>
+      <c r="K115" s="208"/>
       <c r="L115" s="113" t="s">
         <v>569</v>
       </c>
       <c r="M115" s="113">
         <v>1</v>
       </c>
-      <c r="N115" s="206"/>
+      <c r="N115" s="208"/>
       <c r="O115" s="20"/>
     </row>
     <row r="116" spans="1:15" s="47" customFormat="1">
@@ -8149,13 +8170,13 @@
         <v>75</v>
       </c>
       <c r="H123" s="54"/>
-      <c r="I123" s="207">
+      <c r="I123" s="209">
         <v>44814</v>
       </c>
-      <c r="J123" s="206" t="s">
+      <c r="J123" s="208" t="s">
         <v>600</v>
       </c>
-      <c r="K123" s="206" t="s">
+      <c r="K123" s="208" t="s">
         <v>601</v>
       </c>
       <c r="L123" s="132" t="s">
@@ -8164,7 +8185,7 @@
       <c r="M123" s="132">
         <v>3</v>
       </c>
-      <c r="N123" s="206" t="s">
+      <c r="N123" s="208" t="s">
         <v>622</v>
       </c>
       <c r="O123" s="55"/>
@@ -8178,16 +8199,16 @@
       <c r="F124" s="23"/>
       <c r="G124" s="23"/>
       <c r="H124" s="79"/>
-      <c r="I124" s="207"/>
-      <c r="J124" s="206"/>
-      <c r="K124" s="206"/>
+      <c r="I124" s="209"/>
+      <c r="J124" s="208"/>
+      <c r="K124" s="208"/>
       <c r="L124" s="132" t="s">
         <v>623</v>
       </c>
       <c r="M124" s="132">
         <v>1</v>
       </c>
-      <c r="N124" s="206"/>
+      <c r="N124" s="208"/>
       <c r="O124" s="55"/>
     </row>
     <row r="125" spans="1:15" s="47" customFormat="1">
@@ -8213,16 +8234,16 @@
         <v>75</v>
       </c>
       <c r="H125" s="54"/>
-      <c r="I125" s="207"/>
-      <c r="J125" s="206"/>
-      <c r="K125" s="206"/>
+      <c r="I125" s="209"/>
+      <c r="J125" s="208"/>
+      <c r="K125" s="208"/>
       <c r="L125" s="132" t="s">
         <v>20</v>
       </c>
       <c r="M125" s="132">
         <v>8</v>
       </c>
-      <c r="N125" s="206"/>
+      <c r="N125" s="208"/>
       <c r="O125" s="55"/>
     </row>
     <row r="126" spans="1:15" s="47" customFormat="1">
@@ -8234,16 +8255,16 @@
       <c r="F126" s="23"/>
       <c r="G126" s="23"/>
       <c r="H126" s="79"/>
-      <c r="I126" s="207"/>
-      <c r="J126" s="206"/>
-      <c r="K126" s="206"/>
+      <c r="I126" s="209"/>
+      <c r="J126" s="208"/>
+      <c r="K126" s="208"/>
       <c r="L126" s="132" t="s">
         <v>519</v>
       </c>
       <c r="M126" s="132">
         <v>3</v>
       </c>
-      <c r="N126" s="206"/>
+      <c r="N126" s="208"/>
       <c r="O126" s="55"/>
     </row>
     <row r="127" spans="1:15" s="47" customFormat="1" ht="14.4" customHeight="1">
@@ -8269,16 +8290,16 @@
         <v>75</v>
       </c>
       <c r="H127" s="54"/>
-      <c r="I127" s="207"/>
-      <c r="J127" s="206"/>
-      <c r="K127" s="206"/>
+      <c r="I127" s="209"/>
+      <c r="J127" s="208"/>
+      <c r="K127" s="208"/>
       <c r="L127" s="132" t="s">
         <v>520</v>
       </c>
       <c r="M127" s="132">
         <v>1</v>
       </c>
-      <c r="N127" s="206"/>
+      <c r="N127" s="208"/>
       <c r="O127" s="55"/>
     </row>
     <row r="128" spans="1:15" s="47" customFormat="1">
@@ -8290,16 +8311,16 @@
       <c r="F128" s="23"/>
       <c r="G128" s="23"/>
       <c r="H128" s="79"/>
-      <c r="I128" s="207"/>
-      <c r="J128" s="206"/>
-      <c r="K128" s="206"/>
+      <c r="I128" s="209"/>
+      <c r="J128" s="208"/>
+      <c r="K128" s="208"/>
       <c r="L128" s="132" t="s">
         <v>624</v>
       </c>
       <c r="M128" s="132">
         <v>6</v>
       </c>
-      <c r="N128" s="206"/>
+      <c r="N128" s="208"/>
       <c r="O128" s="55"/>
     </row>
     <row r="129" spans="1:15" s="47" customFormat="1">
@@ -8325,16 +8346,16 @@
         <v>75</v>
       </c>
       <c r="H129" s="54"/>
-      <c r="I129" s="207"/>
-      <c r="J129" s="206"/>
-      <c r="K129" s="206"/>
+      <c r="I129" s="209"/>
+      <c r="J129" s="208"/>
+      <c r="K129" s="208"/>
       <c r="L129" s="132" t="s">
         <v>625</v>
       </c>
       <c r="M129" s="132">
         <v>1</v>
       </c>
-      <c r="N129" s="206"/>
+      <c r="N129" s="208"/>
       <c r="O129" s="55"/>
     </row>
     <row r="130" spans="1:15" s="47" customFormat="1">
@@ -8346,26 +8367,26 @@
       <c r="F130" s="23"/>
       <c r="G130" s="23"/>
       <c r="H130" s="79"/>
-      <c r="I130" s="207"/>
-      <c r="J130" s="206"/>
-      <c r="K130" s="206"/>
+      <c r="I130" s="209"/>
+      <c r="J130" s="208"/>
+      <c r="K130" s="208"/>
       <c r="L130" s="132" t="s">
         <v>626</v>
       </c>
       <c r="M130" s="132">
         <v>249</v>
       </c>
-      <c r="N130" s="206"/>
+      <c r="N130" s="208"/>
       <c r="O130" s="55"/>
     </row>
     <row r="131" spans="1:15" s="47" customFormat="1">
-      <c r="A131" s="207">
+      <c r="A131" s="209">
         <v>44789</v>
       </c>
-      <c r="B131" s="206" t="s">
+      <c r="B131" s="208" t="s">
         <v>577</v>
       </c>
-      <c r="C131" s="206" t="s">
+      <c r="C131" s="208" t="s">
         <v>76</v>
       </c>
       <c r="D131" s="118" t="s">
@@ -8374,10 +8395,10 @@
       <c r="E131" s="118">
         <v>1</v>
       </c>
-      <c r="F131" s="206" t="s">
+      <c r="F131" s="208" t="s">
         <v>54</v>
       </c>
-      <c r="G131" s="206" t="s">
+      <c r="G131" s="208" t="s">
         <v>75</v>
       </c>
       <c r="H131" s="54"/>
@@ -8390,17 +8411,17 @@
       <c r="O131" s="55"/>
     </row>
     <row r="132" spans="1:15" s="47" customFormat="1" ht="28.8">
-      <c r="A132" s="207"/>
-      <c r="B132" s="206"/>
-      <c r="C132" s="206"/>
+      <c r="A132" s="209"/>
+      <c r="B132" s="208"/>
+      <c r="C132" s="208"/>
       <c r="D132" s="118" t="s">
         <v>477</v>
       </c>
       <c r="E132" s="118">
         <v>9</v>
       </c>
-      <c r="F132" s="206"/>
-      <c r="G132" s="206"/>
+      <c r="F132" s="208"/>
+      <c r="G132" s="208"/>
       <c r="H132" s="115"/>
       <c r="I132" s="134">
         <v>44824</v>
@@ -8462,13 +8483,13 @@
         <v>75</v>
       </c>
       <c r="H134" s="53"/>
-      <c r="I134" s="207">
+      <c r="I134" s="209">
         <v>44826</v>
       </c>
-      <c r="J134" s="206" t="s">
+      <c r="J134" s="208" t="s">
         <v>633</v>
       </c>
-      <c r="K134" s="206" t="s">
+      <c r="K134" s="208" t="s">
         <v>82</v>
       </c>
       <c r="L134" s="135" t="s">
@@ -8477,7 +8498,7 @@
       <c r="M134" s="135">
         <v>5</v>
       </c>
-      <c r="N134" s="206" t="s">
+      <c r="N134" s="208" t="s">
         <v>84</v>
       </c>
       <c r="O134" s="20"/>
@@ -8491,26 +8512,26 @@
       <c r="F135" s="23"/>
       <c r="G135" s="23"/>
       <c r="H135" s="53"/>
-      <c r="I135" s="207"/>
-      <c r="J135" s="206"/>
-      <c r="K135" s="206"/>
+      <c r="I135" s="209"/>
+      <c r="J135" s="208"/>
+      <c r="K135" s="208"/>
       <c r="L135" s="135" t="s">
         <v>105</v>
       </c>
       <c r="M135" s="135">
         <v>3</v>
       </c>
-      <c r="N135" s="206"/>
+      <c r="N135" s="208"/>
       <c r="O135" s="20"/>
     </row>
     <row r="136" spans="1:15" s="47" customFormat="1">
-      <c r="A136" s="207">
+      <c r="A136" s="209">
         <v>44799</v>
       </c>
-      <c r="B136" s="206" t="s">
+      <c r="B136" s="208" t="s">
         <v>583</v>
       </c>
-      <c r="C136" s="206" t="s">
+      <c r="C136" s="208" t="s">
         <v>373</v>
       </c>
       <c r="D136" s="121" t="s">
@@ -8519,10 +8540,10 @@
       <c r="E136" s="121">
         <v>1</v>
       </c>
-      <c r="F136" s="206" t="s">
+      <c r="F136" s="208" t="s">
         <v>54</v>
       </c>
-      <c r="G136" s="206" t="s">
+      <c r="G136" s="208" t="s">
         <v>75</v>
       </c>
       <c r="H136" s="79"/>
@@ -8535,17 +8556,17 @@
       <c r="O136" s="55"/>
     </row>
     <row r="137" spans="1:15" s="47" customFormat="1">
-      <c r="A137" s="207"/>
-      <c r="B137" s="206"/>
-      <c r="C137" s="206"/>
+      <c r="A137" s="209"/>
+      <c r="B137" s="208"/>
+      <c r="C137" s="208"/>
       <c r="D137" s="121" t="s">
         <v>585</v>
       </c>
       <c r="E137" s="121">
         <v>1</v>
       </c>
-      <c r="F137" s="206"/>
-      <c r="G137" s="206"/>
+      <c r="F137" s="208"/>
+      <c r="G137" s="208"/>
       <c r="H137" s="53"/>
       <c r="I137" s="138">
         <v>44840</v>
@@ -8607,13 +8628,13 @@
         <v>75</v>
       </c>
       <c r="H139" s="53"/>
-      <c r="I139" s="207">
+      <c r="I139" s="209">
         <v>44844</v>
       </c>
-      <c r="J139" s="206" t="s">
+      <c r="J139" s="208" t="s">
         <v>662</v>
       </c>
-      <c r="K139" s="206" t="s">
+      <c r="K139" s="208" t="s">
         <v>82</v>
       </c>
       <c r="L139" s="139" t="s">
@@ -8622,7 +8643,7 @@
       <c r="M139" s="139">
         <v>18</v>
       </c>
-      <c r="N139" s="206" t="s">
+      <c r="N139" s="208" t="s">
         <v>84</v>
       </c>
       <c r="O139" s="20"/>
@@ -8636,16 +8657,16 @@
       <c r="F140" s="23"/>
       <c r="G140" s="23"/>
       <c r="H140" s="53"/>
-      <c r="I140" s="207"/>
-      <c r="J140" s="206"/>
-      <c r="K140" s="206"/>
+      <c r="I140" s="209"/>
+      <c r="J140" s="208"/>
+      <c r="K140" s="208"/>
       <c r="L140" s="139" t="s">
         <v>105</v>
       </c>
       <c r="M140" s="139">
         <v>4</v>
       </c>
-      <c r="N140" s="206"/>
+      <c r="N140" s="208"/>
       <c r="O140" s="20"/>
     </row>
     <row r="141" spans="1:15" s="47" customFormat="1" ht="28.8">
@@ -8671,16 +8692,16 @@
         <v>75</v>
       </c>
       <c r="H141" s="53"/>
-      <c r="I141" s="207"/>
-      <c r="J141" s="206"/>
-      <c r="K141" s="206"/>
+      <c r="I141" s="209"/>
+      <c r="J141" s="208"/>
+      <c r="K141" s="208"/>
       <c r="L141" s="139" t="s">
         <v>349</v>
       </c>
       <c r="M141" s="139">
         <v>5</v>
       </c>
-      <c r="N141" s="206"/>
+      <c r="N141" s="208"/>
       <c r="O141" s="20"/>
     </row>
     <row r="142" spans="1:15" s="47" customFormat="1">
@@ -8692,26 +8713,26 @@
       <c r="F142" s="23"/>
       <c r="G142" s="23"/>
       <c r="H142" s="53"/>
-      <c r="I142" s="207"/>
-      <c r="J142" s="206"/>
-      <c r="K142" s="206"/>
+      <c r="I142" s="209"/>
+      <c r="J142" s="208"/>
+      <c r="K142" s="208"/>
       <c r="L142" s="139" t="s">
         <v>347</v>
       </c>
       <c r="M142" s="139">
         <v>1</v>
       </c>
-      <c r="N142" s="206"/>
+      <c r="N142" s="208"/>
       <c r="O142" s="20"/>
     </row>
     <row r="143" spans="1:15" s="47" customFormat="1">
-      <c r="A143" s="207">
+      <c r="A143" s="209">
         <v>44823</v>
       </c>
-      <c r="B143" s="206" t="s">
+      <c r="B143" s="208" t="s">
         <v>609</v>
       </c>
-      <c r="C143" s="206" t="s">
+      <c r="C143" s="208" t="s">
         <v>642</v>
       </c>
       <c r="D143" s="132" t="s">
@@ -8720,37 +8741,37 @@
       <c r="E143" s="132">
         <v>2</v>
       </c>
-      <c r="F143" s="206" t="s">
+      <c r="F143" s="208" t="s">
         <v>54</v>
       </c>
-      <c r="G143" s="206" t="s">
+      <c r="G143" s="208" t="s">
         <v>612</v>
       </c>
       <c r="H143" s="53"/>
-      <c r="I143" s="207"/>
-      <c r="J143" s="206"/>
-      <c r="K143" s="206"/>
+      <c r="I143" s="209"/>
+      <c r="J143" s="208"/>
+      <c r="K143" s="208"/>
       <c r="L143" s="139" t="s">
         <v>348</v>
       </c>
       <c r="M143" s="139">
         <v>10</v>
       </c>
-      <c r="N143" s="206"/>
+      <c r="N143" s="208"/>
       <c r="O143" s="20"/>
     </row>
     <row r="144" spans="1:15" s="47" customFormat="1">
-      <c r="A144" s="207"/>
-      <c r="B144" s="206"/>
-      <c r="C144" s="206"/>
+      <c r="A144" s="209"/>
+      <c r="B144" s="208"/>
+      <c r="C144" s="208"/>
       <c r="D144" s="132" t="s">
         <v>613</v>
       </c>
       <c r="E144" s="132">
         <v>2</v>
       </c>
-      <c r="F144" s="206"/>
-      <c r="G144" s="206"/>
+      <c r="F144" s="208"/>
+      <c r="G144" s="208"/>
       <c r="H144" s="54"/>
       <c r="I144" s="23"/>
       <c r="J144" s="23"/>
@@ -8761,25 +8782,25 @@
       <c r="O144" s="55"/>
     </row>
     <row r="145" spans="1:15" s="47" customFormat="1">
-      <c r="A145" s="207"/>
-      <c r="B145" s="206"/>
-      <c r="C145" s="206"/>
+      <c r="A145" s="209"/>
+      <c r="B145" s="208"/>
+      <c r="C145" s="208"/>
       <c r="D145" s="132" t="s">
         <v>614</v>
       </c>
       <c r="E145" s="132">
         <v>4</v>
       </c>
-      <c r="F145" s="206"/>
-      <c r="G145" s="206"/>
+      <c r="F145" s="208"/>
+      <c r="G145" s="208"/>
       <c r="H145" s="22"/>
-      <c r="I145" s="207">
+      <c r="I145" s="209">
         <v>44848</v>
       </c>
-      <c r="J145" s="206" t="s">
+      <c r="J145" s="208" t="s">
         <v>670</v>
       </c>
-      <c r="K145" s="206" t="s">
+      <c r="K145" s="208" t="s">
         <v>82</v>
       </c>
       <c r="L145" s="139" t="s">
@@ -8788,48 +8809,48 @@
       <c r="M145" s="139">
         <v>19</v>
       </c>
-      <c r="N145" s="206" t="s">
+      <c r="N145" s="208" t="s">
         <v>84</v>
       </c>
       <c r="O145" s="20"/>
     </row>
     <row r="146" spans="1:15" s="47" customFormat="1">
-      <c r="A146" s="207"/>
-      <c r="B146" s="206"/>
-      <c r="C146" s="206"/>
+      <c r="A146" s="209"/>
+      <c r="B146" s="208"/>
+      <c r="C146" s="208"/>
       <c r="D146" s="132" t="s">
         <v>615</v>
       </c>
       <c r="E146" s="132">
         <v>15</v>
       </c>
-      <c r="F146" s="206"/>
-      <c r="G146" s="206"/>
+      <c r="F146" s="208"/>
+      <c r="G146" s="208"/>
       <c r="H146" s="22"/>
-      <c r="I146" s="207"/>
-      <c r="J146" s="206"/>
-      <c r="K146" s="206"/>
+      <c r="I146" s="209"/>
+      <c r="J146" s="208"/>
+      <c r="K146" s="208"/>
       <c r="L146" s="139" t="s">
         <v>679</v>
       </c>
       <c r="M146" s="139">
         <v>15</v>
       </c>
-      <c r="N146" s="206"/>
+      <c r="N146" s="208"/>
       <c r="O146" s="20"/>
     </row>
     <row r="147" spans="1:15" s="47" customFormat="1">
-      <c r="A147" s="207"/>
-      <c r="B147" s="206"/>
-      <c r="C147" s="206"/>
+      <c r="A147" s="209"/>
+      <c r="B147" s="208"/>
+      <c r="C147" s="208"/>
       <c r="D147" s="132" t="s">
         <v>616</v>
       </c>
       <c r="E147" s="132">
         <v>1</v>
       </c>
-      <c r="F147" s="206"/>
-      <c r="G147" s="206"/>
+      <c r="F147" s="208"/>
+      <c r="G147" s="208"/>
       <c r="H147" s="54"/>
       <c r="I147" s="23"/>
       <c r="J147" s="23"/>
@@ -8840,17 +8861,17 @@
       <c r="O147" s="55"/>
     </row>
     <row r="148" spans="1:15" s="47" customFormat="1">
-      <c r="A148" s="207"/>
-      <c r="B148" s="206"/>
-      <c r="C148" s="206"/>
+      <c r="A148" s="209"/>
+      <c r="B148" s="208"/>
+      <c r="C148" s="208"/>
       <c r="D148" s="132" t="s">
         <v>617</v>
       </c>
       <c r="E148" s="132">
         <v>10</v>
       </c>
-      <c r="F148" s="206"/>
-      <c r="G148" s="206"/>
+      <c r="F148" s="208"/>
+      <c r="G148" s="208"/>
       <c r="H148" s="22"/>
       <c r="I148" s="140">
         <v>44848</v>
@@ -8873,17 +8894,17 @@
       <c r="O148" s="20"/>
     </row>
     <row r="149" spans="1:15" s="47" customFormat="1">
-      <c r="A149" s="207"/>
-      <c r="B149" s="206"/>
-      <c r="C149" s="206"/>
+      <c r="A149" s="209"/>
+      <c r="B149" s="208"/>
+      <c r="C149" s="208"/>
       <c r="D149" s="132" t="s">
         <v>618</v>
       </c>
       <c r="E149" s="132">
         <v>10</v>
       </c>
-      <c r="F149" s="206"/>
-      <c r="G149" s="206"/>
+      <c r="F149" s="208"/>
+      <c r="G149" s="208"/>
       <c r="H149" s="54"/>
       <c r="I149" s="23"/>
       <c r="J149" s="23"/>
@@ -8894,25 +8915,25 @@
       <c r="O149" s="55"/>
     </row>
     <row r="150" spans="1:15" s="47" customFormat="1">
-      <c r="A150" s="207"/>
-      <c r="B150" s="206"/>
-      <c r="C150" s="206"/>
+      <c r="A150" s="209"/>
+      <c r="B150" s="208"/>
+      <c r="C150" s="208"/>
       <c r="D150" s="132" t="s">
         <v>619</v>
       </c>
       <c r="E150" s="132">
         <v>20</v>
       </c>
-      <c r="F150" s="206"/>
-      <c r="G150" s="206"/>
+      <c r="F150" s="208"/>
+      <c r="G150" s="208"/>
       <c r="H150" s="22"/>
-      <c r="I150" s="207">
+      <c r="I150" s="209">
         <v>44875</v>
       </c>
-      <c r="J150" s="206" t="s">
+      <c r="J150" s="208" t="s">
         <v>701</v>
       </c>
-      <c r="K150" s="206" t="s">
+      <c r="K150" s="208" t="s">
         <v>82</v>
       </c>
       <c r="L150" s="157" t="s">
@@ -8921,7 +8942,7 @@
       <c r="M150" s="157">
         <v>5</v>
       </c>
-      <c r="N150" s="206" t="s">
+      <c r="N150" s="208" t="s">
         <v>84</v>
       </c>
       <c r="O150" s="20"/>
@@ -8935,16 +8956,16 @@
       <c r="F151" s="23"/>
       <c r="G151" s="23"/>
       <c r="H151" s="53"/>
-      <c r="I151" s="207"/>
-      <c r="J151" s="206"/>
-      <c r="K151" s="206"/>
+      <c r="I151" s="209"/>
+      <c r="J151" s="208"/>
+      <c r="K151" s="208"/>
       <c r="L151" s="157" t="s">
         <v>83</v>
       </c>
       <c r="M151" s="157">
         <v>3</v>
       </c>
-      <c r="N151" s="206"/>
+      <c r="N151" s="208"/>
       <c r="O151" s="20"/>
     </row>
     <row r="152" spans="1:15" s="47" customFormat="1" ht="100.8">
@@ -8970,16 +8991,16 @@
         <v>612</v>
       </c>
       <c r="H152" s="22"/>
-      <c r="I152" s="207"/>
-      <c r="J152" s="206"/>
-      <c r="K152" s="206"/>
+      <c r="I152" s="209"/>
+      <c r="J152" s="208"/>
+      <c r="K152" s="208"/>
       <c r="L152" s="157" t="s">
         <v>772</v>
       </c>
       <c r="M152" s="157">
         <v>13</v>
       </c>
-      <c r="N152" s="206"/>
+      <c r="N152" s="208"/>
       <c r="O152" s="20"/>
     </row>
     <row r="153" spans="1:15" s="47" customFormat="1">
@@ -8991,16 +9012,16 @@
       <c r="F153" s="23"/>
       <c r="G153" s="23"/>
       <c r="H153" s="53"/>
-      <c r="I153" s="207"/>
-      <c r="J153" s="206"/>
-      <c r="K153" s="206"/>
+      <c r="I153" s="209"/>
+      <c r="J153" s="208"/>
+      <c r="K153" s="208"/>
       <c r="L153" s="157" t="s">
         <v>773</v>
       </c>
       <c r="M153" s="157">
         <v>10</v>
       </c>
-      <c r="N153" s="206"/>
+      <c r="N153" s="208"/>
       <c r="O153" s="20"/>
     </row>
     <row r="154" spans="1:15" s="47" customFormat="1" ht="28.8">
@@ -9026,16 +9047,16 @@
         <v>75</v>
       </c>
       <c r="H154" s="22"/>
-      <c r="I154" s="207"/>
-      <c r="J154" s="206"/>
-      <c r="K154" s="206"/>
+      <c r="I154" s="209"/>
+      <c r="J154" s="208"/>
+      <c r="K154" s="208"/>
       <c r="L154" s="157" t="s">
         <v>774</v>
       </c>
       <c r="M154" s="157">
         <v>5</v>
       </c>
-      <c r="N154" s="206"/>
+      <c r="N154" s="208"/>
       <c r="O154" s="20"/>
     </row>
     <row r="155" spans="1:15" s="47" customFormat="1">
@@ -9047,16 +9068,16 @@
       <c r="F155" s="23"/>
       <c r="G155" s="23"/>
       <c r="H155" s="53"/>
-      <c r="I155" s="207"/>
-      <c r="J155" s="206"/>
-      <c r="K155" s="206"/>
+      <c r="I155" s="209"/>
+      <c r="J155" s="208"/>
+      <c r="K155" s="208"/>
       <c r="L155" s="157" t="s">
         <v>85</v>
       </c>
       <c r="M155" s="157">
         <v>10</v>
       </c>
-      <c r="N155" s="206"/>
+      <c r="N155" s="208"/>
       <c r="O155" s="20"/>
     </row>
     <row r="156" spans="1:15" s="47" customFormat="1" ht="28.8">
@@ -9082,16 +9103,16 @@
         <v>75</v>
       </c>
       <c r="H156" s="22"/>
-      <c r="I156" s="207"/>
-      <c r="J156" s="206"/>
-      <c r="K156" s="206"/>
+      <c r="I156" s="209"/>
+      <c r="J156" s="208"/>
+      <c r="K156" s="208"/>
       <c r="L156" s="157" t="s">
         <v>349</v>
       </c>
       <c r="M156" s="157">
         <v>10</v>
       </c>
-      <c r="N156" s="206"/>
+      <c r="N156" s="208"/>
       <c r="O156" s="20"/>
     </row>
     <row r="157" spans="1:15" s="47" customFormat="1" ht="109.2" customHeight="1">
@@ -9103,26 +9124,26 @@
       <c r="F157" s="23"/>
       <c r="G157" s="23"/>
       <c r="H157" s="53"/>
-      <c r="I157" s="207"/>
-      <c r="J157" s="206"/>
-      <c r="K157" s="206"/>
+      <c r="I157" s="209"/>
+      <c r="J157" s="208"/>
+      <c r="K157" s="208"/>
       <c r="L157" s="157" t="s">
         <v>775</v>
       </c>
       <c r="M157" s="157">
         <v>10</v>
       </c>
-      <c r="N157" s="206"/>
+      <c r="N157" s="208"/>
       <c r="O157" s="20"/>
     </row>
     <row r="158" spans="1:15" s="47" customFormat="1">
-      <c r="A158" s="207">
+      <c r="A158" s="209">
         <v>44827</v>
       </c>
-      <c r="B158" s="206" t="s">
+      <c r="B158" s="208" t="s">
         <v>638</v>
       </c>
-      <c r="C158" s="206" t="s">
+      <c r="C158" s="208" t="s">
         <v>642</v>
       </c>
       <c r="D158" s="135" t="s">
@@ -9131,10 +9152,10 @@
       <c r="E158" s="135">
         <v>8</v>
       </c>
-      <c r="F158" s="206" t="s">
+      <c r="F158" s="208" t="s">
         <v>54</v>
       </c>
-      <c r="G158" s="206" t="s">
+      <c r="G158" s="208" t="s">
         <v>612</v>
       </c>
       <c r="H158" s="54"/>
@@ -9147,25 +9168,25 @@
       <c r="O158" s="55"/>
     </row>
     <row r="159" spans="1:15" s="47" customFormat="1" ht="28.8">
-      <c r="A159" s="207"/>
-      <c r="B159" s="206"/>
-      <c r="C159" s="206"/>
+      <c r="A159" s="209"/>
+      <c r="B159" s="208"/>
+      <c r="C159" s="208"/>
       <c r="D159" s="135" t="s">
         <v>618</v>
       </c>
       <c r="E159" s="135">
         <v>10</v>
       </c>
-      <c r="F159" s="206"/>
-      <c r="G159" s="206"/>
+      <c r="F159" s="208"/>
+      <c r="G159" s="208"/>
       <c r="H159" s="22"/>
-      <c r="I159" s="207">
+      <c r="I159" s="209">
         <v>44875</v>
       </c>
-      <c r="J159" s="206" t="s">
+      <c r="J159" s="208" t="s">
         <v>702</v>
       </c>
-      <c r="K159" s="206" t="s">
+      <c r="K159" s="208" t="s">
         <v>82</v>
       </c>
       <c r="L159" s="157" t="s">
@@ -9174,48 +9195,48 @@
       <c r="M159" s="157">
         <v>1</v>
       </c>
-      <c r="N159" s="206" t="s">
+      <c r="N159" s="208" t="s">
         <v>84</v>
       </c>
       <c r="O159" s="20"/>
     </row>
     <row r="160" spans="1:15" s="47" customFormat="1" ht="28.8">
-      <c r="A160" s="207"/>
-      <c r="B160" s="206"/>
-      <c r="C160" s="206"/>
+      <c r="A160" s="209"/>
+      <c r="B160" s="208"/>
+      <c r="C160" s="208"/>
       <c r="D160" s="135" t="s">
         <v>646</v>
       </c>
       <c r="E160" s="135">
         <v>1</v>
       </c>
-      <c r="F160" s="206"/>
-      <c r="G160" s="206"/>
+      <c r="F160" s="208"/>
+      <c r="G160" s="208"/>
       <c r="H160" s="22"/>
-      <c r="I160" s="207"/>
-      <c r="J160" s="206"/>
-      <c r="K160" s="206"/>
+      <c r="I160" s="209"/>
+      <c r="J160" s="208"/>
+      <c r="K160" s="208"/>
       <c r="L160" s="157" t="s">
         <v>777</v>
       </c>
       <c r="M160" s="157">
         <v>1</v>
       </c>
-      <c r="N160" s="206"/>
+      <c r="N160" s="208"/>
       <c r="O160" s="20"/>
     </row>
     <row r="161" spans="1:15" s="47" customFormat="1">
-      <c r="A161" s="207"/>
-      <c r="B161" s="206"/>
-      <c r="C161" s="206"/>
+      <c r="A161" s="209"/>
+      <c r="B161" s="208"/>
+      <c r="C161" s="208"/>
       <c r="D161" s="135" t="s">
         <v>647</v>
       </c>
       <c r="E161" s="135">
         <v>1</v>
       </c>
-      <c r="F161" s="206"/>
-      <c r="G161" s="206"/>
+      <c r="F161" s="208"/>
+      <c r="G161" s="208"/>
       <c r="H161" s="54"/>
       <c r="I161" s="23"/>
       <c r="J161" s="23"/>
@@ -9226,25 +9247,25 @@
       <c r="O161" s="55"/>
     </row>
     <row r="162" spans="1:15" s="47" customFormat="1" ht="28.8" customHeight="1">
-      <c r="A162" s="207"/>
-      <c r="B162" s="206"/>
-      <c r="C162" s="206"/>
+      <c r="A162" s="209"/>
+      <c r="B162" s="208"/>
+      <c r="C162" s="208"/>
       <c r="D162" s="135" t="s">
         <v>648</v>
       </c>
       <c r="E162" s="135">
         <v>1</v>
       </c>
-      <c r="F162" s="206"/>
-      <c r="G162" s="206"/>
+      <c r="F162" s="208"/>
+      <c r="G162" s="208"/>
       <c r="H162" s="22"/>
-      <c r="I162" s="207">
+      <c r="I162" s="209">
         <v>44876</v>
       </c>
-      <c r="J162" s="206" t="s">
+      <c r="J162" s="208" t="s">
         <v>778</v>
       </c>
-      <c r="K162" s="206" t="s">
+      <c r="K162" s="208" t="s">
         <v>779</v>
       </c>
       <c r="L162" s="45" t="s">
@@ -9253,34 +9274,34 @@
       <c r="M162" s="45">
         <v>35</v>
       </c>
-      <c r="N162" s="206" t="s">
+      <c r="N162" s="208" t="s">
         <v>793</v>
       </c>
       <c r="O162" s="20"/>
     </row>
     <row r="163" spans="1:15" s="47" customFormat="1" ht="43.2">
-      <c r="A163" s="207"/>
-      <c r="B163" s="206"/>
-      <c r="C163" s="206"/>
+      <c r="A163" s="209"/>
+      <c r="B163" s="208"/>
+      <c r="C163" s="208"/>
       <c r="D163" s="135" t="s">
         <v>616</v>
       </c>
       <c r="E163" s="135">
         <v>1</v>
       </c>
-      <c r="F163" s="206"/>
-      <c r="G163" s="206"/>
+      <c r="F163" s="208"/>
+      <c r="G163" s="208"/>
       <c r="H163" s="22"/>
-      <c r="I163" s="207"/>
-      <c r="J163" s="206"/>
-      <c r="K163" s="206"/>
+      <c r="I163" s="209"/>
+      <c r="J163" s="208"/>
+      <c r="K163" s="208"/>
       <c r="L163" s="45" t="s">
         <v>781</v>
       </c>
       <c r="M163" s="45">
         <v>24</v>
       </c>
-      <c r="N163" s="206"/>
+      <c r="N163" s="208"/>
       <c r="O163" s="20"/>
     </row>
     <row r="164" spans="1:15" s="47" customFormat="1">
@@ -9292,16 +9313,16 @@
       <c r="F164" s="23"/>
       <c r="G164" s="23"/>
       <c r="H164" s="53"/>
-      <c r="I164" s="207"/>
-      <c r="J164" s="206"/>
-      <c r="K164" s="206"/>
+      <c r="I164" s="209"/>
+      <c r="J164" s="208"/>
+      <c r="K164" s="208"/>
       <c r="L164" s="45" t="s">
         <v>782</v>
       </c>
       <c r="M164" s="45">
         <v>2</v>
       </c>
-      <c r="N164" s="206"/>
+      <c r="N164" s="208"/>
       <c r="O164" s="20"/>
     </row>
     <row r="165" spans="1:15" s="47" customFormat="1">
@@ -9327,16 +9348,16 @@
         <v>612</v>
       </c>
       <c r="H165" s="22"/>
-      <c r="I165" s="207"/>
-      <c r="J165" s="206"/>
-      <c r="K165" s="206"/>
+      <c r="I165" s="209"/>
+      <c r="J165" s="208"/>
+      <c r="K165" s="208"/>
       <c r="L165" s="45" t="s">
         <v>783</v>
       </c>
       <c r="M165" s="45">
         <v>1</v>
       </c>
-      <c r="N165" s="206"/>
+      <c r="N165" s="208"/>
       <c r="O165" s="20"/>
     </row>
     <row r="166" spans="1:15" s="47" customFormat="1" ht="43.2">
@@ -9348,16 +9369,16 @@
       <c r="F166" s="23"/>
       <c r="G166" s="23"/>
       <c r="H166" s="53"/>
-      <c r="I166" s="207"/>
-      <c r="J166" s="206"/>
-      <c r="K166" s="206"/>
+      <c r="I166" s="209"/>
+      <c r="J166" s="208"/>
+      <c r="K166" s="208"/>
       <c r="L166" s="45" t="s">
         <v>784</v>
       </c>
       <c r="M166" s="45">
         <v>12</v>
       </c>
-      <c r="N166" s="206"/>
+      <c r="N166" s="208"/>
       <c r="O166" s="20"/>
     </row>
     <row r="167" spans="1:15" s="47" customFormat="1" ht="28.8">
@@ -9383,16 +9404,16 @@
         <v>612</v>
       </c>
       <c r="H167" s="22"/>
-      <c r="I167" s="207"/>
-      <c r="J167" s="206"/>
-      <c r="K167" s="206"/>
+      <c r="I167" s="209"/>
+      <c r="J167" s="208"/>
+      <c r="K167" s="208"/>
       <c r="L167" s="45" t="s">
         <v>785</v>
       </c>
       <c r="M167" s="45">
         <v>1</v>
       </c>
-      <c r="N167" s="206"/>
+      <c r="N167" s="208"/>
       <c r="O167" s="20"/>
     </row>
     <row r="168" spans="1:15" s="47" customFormat="1">
@@ -9404,26 +9425,26 @@
       <c r="F168" s="23"/>
       <c r="G168" s="23"/>
       <c r="H168" s="53"/>
-      <c r="I168" s="207"/>
-      <c r="J168" s="206"/>
-      <c r="K168" s="206"/>
+      <c r="I168" s="209"/>
+      <c r="J168" s="208"/>
+      <c r="K168" s="208"/>
       <c r="L168" s="45" t="s">
         <v>786</v>
       </c>
       <c r="M168" s="45">
         <v>2</v>
       </c>
-      <c r="N168" s="206"/>
+      <c r="N168" s="208"/>
       <c r="O168" s="20"/>
     </row>
     <row r="169" spans="1:15" s="47" customFormat="1" ht="28.8" customHeight="1">
-      <c r="A169" s="207">
+      <c r="A169" s="209">
         <v>44839</v>
       </c>
-      <c r="B169" s="206" t="s">
+      <c r="B169" s="208" t="s">
         <v>655</v>
       </c>
-      <c r="C169" s="206" t="s">
+      <c r="C169" s="208" t="s">
         <v>137</v>
       </c>
       <c r="D169" s="136" t="s">
@@ -9432,48 +9453,48 @@
       <c r="E169" s="136">
         <v>1</v>
       </c>
-      <c r="F169" s="206" t="s">
+      <c r="F169" s="208" t="s">
         <v>54</v>
       </c>
-      <c r="G169" s="206" t="s">
+      <c r="G169" s="208" t="s">
         <v>75</v>
       </c>
       <c r="H169" s="22"/>
-      <c r="I169" s="207"/>
-      <c r="J169" s="206"/>
-      <c r="K169" s="206"/>
+      <c r="I169" s="209"/>
+      <c r="J169" s="208"/>
+      <c r="K169" s="208"/>
       <c r="L169" s="45" t="s">
         <v>787</v>
       </c>
       <c r="M169" s="45">
         <v>1</v>
       </c>
-      <c r="N169" s="206"/>
+      <c r="N169" s="208"/>
       <c r="O169" s="20"/>
     </row>
     <row r="170" spans="1:15" s="47" customFormat="1">
-      <c r="A170" s="207"/>
-      <c r="B170" s="206"/>
-      <c r="C170" s="206"/>
+      <c r="A170" s="209"/>
+      <c r="B170" s="208"/>
+      <c r="C170" s="208"/>
       <c r="D170" s="136" t="s">
         <v>658</v>
       </c>
       <c r="E170" s="136">
         <v>1</v>
       </c>
-      <c r="F170" s="206"/>
-      <c r="G170" s="206"/>
+      <c r="F170" s="208"/>
+      <c r="G170" s="208"/>
       <c r="H170" s="22"/>
-      <c r="I170" s="207"/>
-      <c r="J170" s="206"/>
-      <c r="K170" s="206"/>
+      <c r="I170" s="209"/>
+      <c r="J170" s="208"/>
+      <c r="K170" s="208"/>
       <c r="L170" s="45" t="s">
         <v>788</v>
       </c>
       <c r="M170" s="45">
         <v>12</v>
       </c>
-      <c r="N170" s="206"/>
+      <c r="N170" s="208"/>
       <c r="O170" s="20"/>
     </row>
     <row r="171" spans="1:15" s="47" customFormat="1">
@@ -9485,26 +9506,26 @@
       <c r="F171" s="23"/>
       <c r="G171" s="23"/>
       <c r="H171" s="53"/>
-      <c r="I171" s="207"/>
-      <c r="J171" s="206"/>
-      <c r="K171" s="206"/>
+      <c r="I171" s="209"/>
+      <c r="J171" s="208"/>
+      <c r="K171" s="208"/>
       <c r="L171" s="45" t="s">
         <v>789</v>
       </c>
       <c r="M171" s="45">
         <v>1</v>
       </c>
-      <c r="N171" s="206"/>
+      <c r="N171" s="208"/>
       <c r="O171" s="20"/>
     </row>
     <row r="172" spans="1:15" s="47" customFormat="1" ht="28.8" customHeight="1">
-      <c r="A172" s="207">
+      <c r="A172" s="209">
         <v>44844</v>
       </c>
-      <c r="B172" s="206" t="s">
+      <c r="B172" s="208" t="s">
         <v>665</v>
       </c>
-      <c r="C172" s="206" t="s">
+      <c r="C172" s="208" t="s">
         <v>76</v>
       </c>
       <c r="D172" s="139" t="s">
@@ -9513,73 +9534,73 @@
       <c r="E172" s="139">
         <v>2</v>
       </c>
-      <c r="F172" s="206" t="s">
+      <c r="F172" s="208" t="s">
         <v>54</v>
       </c>
-      <c r="G172" s="206" t="s">
+      <c r="G172" s="208" t="s">
         <v>75</v>
       </c>
       <c r="H172" s="22"/>
-      <c r="I172" s="207"/>
-      <c r="J172" s="206"/>
-      <c r="K172" s="206"/>
+      <c r="I172" s="209"/>
+      <c r="J172" s="208"/>
+      <c r="K172" s="208"/>
       <c r="L172" s="45" t="s">
         <v>790</v>
       </c>
       <c r="M172" s="45">
         <v>13</v>
       </c>
-      <c r="N172" s="206"/>
+      <c r="N172" s="208"/>
       <c r="O172" s="20"/>
     </row>
     <row r="173" spans="1:15" s="47" customFormat="1">
-      <c r="A173" s="207"/>
-      <c r="B173" s="206"/>
-      <c r="C173" s="206"/>
+      <c r="A173" s="209"/>
+      <c r="B173" s="208"/>
+      <c r="C173" s="208"/>
       <c r="D173" s="139" t="s">
         <v>476</v>
       </c>
       <c r="E173" s="139">
         <v>2</v>
       </c>
-      <c r="F173" s="206"/>
-      <c r="G173" s="206"/>
+      <c r="F173" s="208"/>
+      <c r="G173" s="208"/>
       <c r="H173" s="22"/>
-      <c r="I173" s="207"/>
-      <c r="J173" s="206"/>
-      <c r="K173" s="206"/>
+      <c r="I173" s="209"/>
+      <c r="J173" s="208"/>
+      <c r="K173" s="208"/>
       <c r="L173" s="45" t="s">
         <v>727</v>
       </c>
       <c r="M173" s="45">
         <v>116</v>
       </c>
-      <c r="N173" s="206"/>
+      <c r="N173" s="208"/>
       <c r="O173" s="20"/>
     </row>
     <row r="174" spans="1:15" s="47" customFormat="1">
-      <c r="A174" s="207"/>
-      <c r="B174" s="206"/>
-      <c r="C174" s="206"/>
+      <c r="A174" s="209"/>
+      <c r="B174" s="208"/>
+      <c r="C174" s="208"/>
       <c r="D174" s="139" t="s">
         <v>674</v>
       </c>
       <c r="E174" s="139">
         <v>5</v>
       </c>
-      <c r="F174" s="206"/>
-      <c r="G174" s="206"/>
+      <c r="F174" s="208"/>
+      <c r="G174" s="208"/>
       <c r="H174" s="22"/>
-      <c r="I174" s="207"/>
-      <c r="J174" s="206"/>
-      <c r="K174" s="206"/>
+      <c r="I174" s="209"/>
+      <c r="J174" s="208"/>
+      <c r="K174" s="208"/>
       <c r="L174" s="45" t="s">
         <v>791</v>
       </c>
       <c r="M174" s="45">
         <v>340</v>
       </c>
-      <c r="N174" s="206"/>
+      <c r="N174" s="208"/>
       <c r="O174" s="20"/>
     </row>
     <row r="175" spans="1:15" s="47" customFormat="1">
@@ -9591,16 +9612,16 @@
       <c r="F175" s="23"/>
       <c r="G175" s="23"/>
       <c r="H175" s="53"/>
-      <c r="I175" s="207"/>
-      <c r="J175" s="206"/>
-      <c r="K175" s="206"/>
+      <c r="I175" s="209"/>
+      <c r="J175" s="208"/>
+      <c r="K175" s="208"/>
       <c r="L175" s="45" t="s">
         <v>728</v>
       </c>
       <c r="M175" s="45">
         <v>1</v>
       </c>
-      <c r="N175" s="206"/>
+      <c r="N175" s="208"/>
       <c r="O175" s="20"/>
     </row>
     <row r="176" spans="1:15" s="47" customFormat="1" ht="28.8">
@@ -9626,16 +9647,16 @@
         <v>75</v>
       </c>
       <c r="H176" s="22"/>
-      <c r="I176" s="207"/>
-      <c r="J176" s="206"/>
-      <c r="K176" s="206"/>
+      <c r="I176" s="209"/>
+      <c r="J176" s="208"/>
+      <c r="K176" s="208"/>
       <c r="L176" s="45" t="s">
         <v>792</v>
       </c>
       <c r="M176" s="45">
         <v>50</v>
       </c>
-      <c r="N176" s="206"/>
+      <c r="N176" s="208"/>
       <c r="O176" s="20"/>
     </row>
     <row r="177" spans="1:15" s="47" customFormat="1">
@@ -9791,13 +9812,13 @@
         <v>75</v>
       </c>
       <c r="H182" s="22"/>
-      <c r="I182" s="207">
+      <c r="I182" s="209">
         <v>44895</v>
       </c>
-      <c r="J182" s="206" t="s">
+      <c r="J182" s="208" t="s">
         <v>812</v>
       </c>
-      <c r="K182" s="206" t="s">
+      <c r="K182" s="208" t="s">
         <v>813</v>
       </c>
       <c r="L182" s="161" t="s">
@@ -9806,7 +9827,7 @@
       <c r="M182" s="161">
         <v>12</v>
       </c>
-      <c r="N182" s="206" t="s">
+      <c r="N182" s="208" t="s">
         <v>818</v>
       </c>
       <c r="O182" s="20"/>
@@ -9820,16 +9841,16 @@
       <c r="F183" s="23"/>
       <c r="G183" s="23"/>
       <c r="H183" s="53"/>
-      <c r="I183" s="207"/>
-      <c r="J183" s="206"/>
-      <c r="K183" s="206"/>
+      <c r="I183" s="209"/>
+      <c r="J183" s="208"/>
+      <c r="K183" s="208"/>
       <c r="L183" s="161" t="s">
         <v>820</v>
       </c>
       <c r="M183" s="161">
         <v>2</v>
       </c>
-      <c r="N183" s="206"/>
+      <c r="N183" s="208"/>
       <c r="O183" s="20"/>
     </row>
     <row r="184" spans="1:15" s="47" customFormat="1" ht="59.4" customHeight="1">
@@ -9855,16 +9876,16 @@
         <v>75</v>
       </c>
       <c r="H184" s="22"/>
-      <c r="I184" s="207"/>
-      <c r="J184" s="206"/>
-      <c r="K184" s="206"/>
+      <c r="I184" s="209"/>
+      <c r="J184" s="208"/>
+      <c r="K184" s="208"/>
       <c r="L184" s="161" t="s">
         <v>821</v>
       </c>
       <c r="M184" s="161">
         <v>2</v>
       </c>
-      <c r="N184" s="206"/>
+      <c r="N184" s="208"/>
       <c r="O184" s="20"/>
     </row>
     <row r="185" spans="1:15" s="47" customFormat="1" ht="59.4" customHeight="1">
@@ -9876,26 +9897,26 @@
       <c r="F185" s="23"/>
       <c r="G185" s="23"/>
       <c r="H185" s="53"/>
-      <c r="I185" s="207"/>
-      <c r="J185" s="206"/>
-      <c r="K185" s="206"/>
+      <c r="I185" s="209"/>
+      <c r="J185" s="208"/>
+      <c r="K185" s="208"/>
       <c r="L185" s="161" t="s">
         <v>822</v>
       </c>
       <c r="M185" s="161">
         <v>1</v>
       </c>
-      <c r="N185" s="206"/>
+      <c r="N185" s="208"/>
       <c r="O185" s="20"/>
     </row>
     <row r="186" spans="1:15" s="47" customFormat="1" ht="66.599999999999994" customHeight="1">
-      <c r="A186" s="207">
+      <c r="A186" s="209">
         <v>44874</v>
       </c>
-      <c r="B186" s="206" t="s">
+      <c r="B186" s="208" t="s">
         <v>714</v>
       </c>
-      <c r="C186" s="206" t="s">
+      <c r="C186" s="208" t="s">
         <v>587</v>
       </c>
       <c r="D186" s="147" t="s">
@@ -9904,48 +9925,48 @@
       <c r="E186" s="147">
         <v>14</v>
       </c>
-      <c r="F186" s="206" t="s">
+      <c r="F186" s="208" t="s">
         <v>63</v>
       </c>
-      <c r="G186" s="206" t="s">
+      <c r="G186" s="208" t="s">
         <v>75</v>
       </c>
       <c r="H186" s="22"/>
-      <c r="I186" s="207"/>
-      <c r="J186" s="206"/>
-      <c r="K186" s="206"/>
+      <c r="I186" s="209"/>
+      <c r="J186" s="208"/>
+      <c r="K186" s="208"/>
       <c r="L186" s="161" t="s">
         <v>823</v>
       </c>
       <c r="M186" s="161">
         <v>1</v>
       </c>
-      <c r="N186" s="206"/>
+      <c r="N186" s="208"/>
       <c r="O186" s="20"/>
     </row>
     <row r="187" spans="1:15" s="47" customFormat="1" ht="83.4" customHeight="1">
-      <c r="A187" s="207"/>
-      <c r="B187" s="206"/>
-      <c r="C187" s="206"/>
+      <c r="A187" s="209"/>
+      <c r="B187" s="208"/>
+      <c r="C187" s="208"/>
       <c r="D187" s="147" t="s">
         <v>716</v>
       </c>
       <c r="E187" s="147">
         <v>14</v>
       </c>
-      <c r="F187" s="206"/>
-      <c r="G187" s="206"/>
+      <c r="F187" s="208"/>
+      <c r="G187" s="208"/>
       <c r="H187" s="22"/>
-      <c r="I187" s="207"/>
-      <c r="J187" s="206"/>
-      <c r="K187" s="206"/>
+      <c r="I187" s="209"/>
+      <c r="J187" s="208"/>
+      <c r="K187" s="208"/>
       <c r="L187" s="161" t="s">
         <v>20</v>
       </c>
       <c r="M187" s="161">
         <v>16</v>
       </c>
-      <c r="N187" s="206"/>
+      <c r="N187" s="208"/>
       <c r="O187" s="20"/>
     </row>
     <row r="188" spans="1:15" s="47" customFormat="1">
@@ -9957,16 +9978,16 @@
       <c r="F188" s="23"/>
       <c r="G188" s="23"/>
       <c r="H188" s="53"/>
-      <c r="I188" s="207"/>
-      <c r="J188" s="206"/>
-      <c r="K188" s="206"/>
+      <c r="I188" s="209"/>
+      <c r="J188" s="208"/>
+      <c r="K188" s="208"/>
       <c r="L188" s="161" t="s">
         <v>519</v>
       </c>
       <c r="M188" s="161">
         <v>16</v>
       </c>
-      <c r="N188" s="206"/>
+      <c r="N188" s="208"/>
       <c r="O188" s="20"/>
     </row>
     <row r="189" spans="1:15" s="47" customFormat="1" ht="48.6" customHeight="1">
@@ -9992,16 +10013,16 @@
         <v>75</v>
       </c>
       <c r="H189" s="22"/>
-      <c r="I189" s="207"/>
-      <c r="J189" s="206"/>
-      <c r="K189" s="206"/>
+      <c r="I189" s="209"/>
+      <c r="J189" s="208"/>
+      <c r="K189" s="208"/>
       <c r="L189" s="161" t="s">
         <v>824</v>
       </c>
       <c r="M189" s="161">
         <v>2</v>
       </c>
-      <c r="N189" s="206"/>
+      <c r="N189" s="208"/>
       <c r="O189" s="20"/>
     </row>
     <row r="190" spans="1:15" s="147" customFormat="1">
@@ -10044,13 +10065,13 @@
         <v>75</v>
       </c>
       <c r="H191" s="22"/>
-      <c r="I191" s="207">
+      <c r="I191" s="209">
         <v>44895</v>
       </c>
-      <c r="J191" s="206" t="s">
+      <c r="J191" s="208" t="s">
         <v>794</v>
       </c>
-      <c r="K191" s="206" t="s">
+      <c r="K191" s="208" t="s">
         <v>82</v>
       </c>
       <c r="L191" s="163" t="s">
@@ -10059,7 +10080,7 @@
       <c r="M191" s="163">
         <v>7</v>
       </c>
-      <c r="N191" s="206" t="s">
+      <c r="N191" s="208" t="s">
         <v>84</v>
       </c>
       <c r="O191" s="20"/>
@@ -10073,16 +10094,16 @@
       <c r="F192" s="23"/>
       <c r="G192" s="23"/>
       <c r="H192" s="53"/>
-      <c r="I192" s="207"/>
-      <c r="J192" s="206"/>
-      <c r="K192" s="206"/>
+      <c r="I192" s="209"/>
+      <c r="J192" s="208"/>
+      <c r="K192" s="208"/>
       <c r="L192" s="163" t="s">
         <v>352</v>
       </c>
       <c r="M192" s="163">
         <v>15</v>
       </c>
-      <c r="N192" s="206"/>
+      <c r="N192" s="208"/>
       <c r="O192" s="20"/>
     </row>
     <row r="193" spans="1:15" s="147" customFormat="1">
@@ -10108,16 +10129,16 @@
         <v>75</v>
       </c>
       <c r="H193" s="22"/>
-      <c r="I193" s="207"/>
-      <c r="J193" s="206"/>
-      <c r="K193" s="206"/>
+      <c r="I193" s="209"/>
+      <c r="J193" s="208"/>
+      <c r="K193" s="208"/>
       <c r="L193" s="163" t="s">
         <v>83</v>
       </c>
       <c r="M193" s="163">
         <v>47</v>
       </c>
-      <c r="N193" s="206"/>
+      <c r="N193" s="208"/>
       <c r="O193" s="20"/>
     </row>
     <row r="194" spans="1:15" s="147" customFormat="1" ht="28.8">
@@ -10129,26 +10150,26 @@
       <c r="F194" s="23"/>
       <c r="G194" s="23"/>
       <c r="H194" s="53"/>
-      <c r="I194" s="207"/>
-      <c r="J194" s="206"/>
-      <c r="K194" s="206"/>
+      <c r="I194" s="209"/>
+      <c r="J194" s="208"/>
+      <c r="K194" s="208"/>
       <c r="L194" s="163" t="s">
         <v>828</v>
       </c>
       <c r="M194" s="163">
         <v>1</v>
       </c>
-      <c r="N194" s="206"/>
+      <c r="N194" s="208"/>
       <c r="O194" s="20"/>
     </row>
     <row r="195" spans="1:15" s="147" customFormat="1">
-      <c r="A195" s="208">
+      <c r="A195" s="210">
         <v>44876</v>
       </c>
-      <c r="B195" s="211" t="s">
+      <c r="B195" s="213" t="s">
         <v>703</v>
       </c>
-      <c r="C195" s="211" t="s">
+      <c r="C195" s="213" t="s">
         <v>538</v>
       </c>
       <c r="D195" s="147" t="s">
@@ -10157,10 +10178,10 @@
       <c r="E195" s="147">
         <v>35</v>
       </c>
-      <c r="F195" s="211" t="s">
+      <c r="F195" s="213" t="s">
         <v>63</v>
       </c>
-      <c r="G195" s="211" t="s">
+      <c r="G195" s="213" t="s">
         <v>75</v>
       </c>
       <c r="H195" s="54"/>
@@ -10173,17 +10194,17 @@
       <c r="O195" s="55"/>
     </row>
     <row r="196" spans="1:15" s="147" customFormat="1" ht="43.2">
-      <c r="A196" s="209"/>
-      <c r="B196" s="212"/>
-      <c r="C196" s="212"/>
+      <c r="A196" s="211"/>
+      <c r="B196" s="214"/>
+      <c r="C196" s="214"/>
       <c r="D196" s="147" t="s">
         <v>721</v>
       </c>
       <c r="E196" s="147">
         <v>8</v>
       </c>
-      <c r="F196" s="212"/>
-      <c r="G196" s="212"/>
+      <c r="F196" s="214"/>
+      <c r="G196" s="214"/>
       <c r="H196" s="22"/>
       <c r="I196" s="164">
         <v>44900</v>
@@ -10206,17 +10227,17 @@
       <c r="O196" s="20"/>
     </row>
     <row r="197" spans="1:15" s="147" customFormat="1">
-      <c r="A197" s="209"/>
-      <c r="B197" s="212"/>
-      <c r="C197" s="212"/>
+      <c r="A197" s="211"/>
+      <c r="B197" s="214"/>
+      <c r="C197" s="214"/>
       <c r="D197" s="147" t="s">
         <v>721</v>
       </c>
       <c r="E197" s="147">
         <v>6</v>
       </c>
-      <c r="F197" s="212"/>
-      <c r="G197" s="212"/>
+      <c r="F197" s="214"/>
+      <c r="G197" s="214"/>
       <c r="H197" s="54"/>
       <c r="I197" s="23"/>
       <c r="J197" s="23"/>
@@ -10227,17 +10248,17 @@
       <c r="O197" s="55"/>
     </row>
     <row r="198" spans="1:15" s="147" customFormat="1" ht="43.2">
-      <c r="A198" s="209"/>
-      <c r="B198" s="212"/>
-      <c r="C198" s="212"/>
+      <c r="A198" s="211"/>
+      <c r="B198" s="214"/>
+      <c r="C198" s="214"/>
       <c r="D198" s="147" t="s">
         <v>722</v>
       </c>
       <c r="E198" s="147">
         <v>1</v>
       </c>
-      <c r="F198" s="212"/>
-      <c r="G198" s="212"/>
+      <c r="F198" s="214"/>
+      <c r="G198" s="214"/>
       <c r="H198" s="22"/>
       <c r="I198" s="164">
         <v>44905</v>
@@ -10260,17 +10281,17 @@
       <c r="O198" s="20"/>
     </row>
     <row r="199" spans="1:15" s="147" customFormat="1">
-      <c r="A199" s="209"/>
-      <c r="B199" s="212"/>
-      <c r="C199" s="212"/>
+      <c r="A199" s="211"/>
+      <c r="B199" s="214"/>
+      <c r="C199" s="214"/>
       <c r="D199" s="147" t="s">
         <v>723</v>
       </c>
       <c r="E199" s="147">
         <v>1</v>
       </c>
-      <c r="F199" s="212"/>
-      <c r="G199" s="212"/>
+      <c r="F199" s="214"/>
+      <c r="G199" s="214"/>
       <c r="H199" s="54"/>
       <c r="I199" s="23"/>
       <c r="J199" s="23"/>
@@ -10281,25 +10302,25 @@
       <c r="O199" s="55"/>
     </row>
     <row r="200" spans="1:15" s="147" customFormat="1">
-      <c r="A200" s="209"/>
-      <c r="B200" s="212"/>
-      <c r="C200" s="212"/>
+      <c r="A200" s="211"/>
+      <c r="B200" s="214"/>
+      <c r="C200" s="214"/>
       <c r="D200" s="147" t="s">
         <v>724</v>
       </c>
       <c r="E200" s="147">
         <v>1</v>
       </c>
-      <c r="F200" s="212"/>
-      <c r="G200" s="212"/>
+      <c r="F200" s="214"/>
+      <c r="G200" s="214"/>
       <c r="H200" s="22"/>
-      <c r="I200" s="207">
+      <c r="I200" s="209">
         <v>44908</v>
       </c>
-      <c r="J200" s="206" t="s">
+      <c r="J200" s="208" t="s">
         <v>808</v>
       </c>
-      <c r="K200" s="206" t="s">
+      <c r="K200" s="208" t="s">
         <v>82</v>
       </c>
       <c r="L200" s="163" t="s">
@@ -10308,98 +10329,98 @@
       <c r="M200" s="163">
         <v>6</v>
       </c>
-      <c r="N200" s="206" t="s">
+      <c r="N200" s="208" t="s">
         <v>84</v>
       </c>
       <c r="O200" s="20"/>
     </row>
     <row r="201" spans="1:15" s="147" customFormat="1">
-      <c r="A201" s="209"/>
-      <c r="B201" s="212"/>
-      <c r="C201" s="212"/>
+      <c r="A201" s="211"/>
+      <c r="B201" s="214"/>
+      <c r="C201" s="214"/>
       <c r="D201" s="147" t="s">
         <v>725</v>
       </c>
       <c r="E201" s="147">
         <v>1</v>
       </c>
-      <c r="F201" s="212"/>
-      <c r="G201" s="212"/>
+      <c r="F201" s="214"/>
+      <c r="G201" s="214"/>
       <c r="H201" s="22"/>
-      <c r="I201" s="207"/>
-      <c r="J201" s="206"/>
-      <c r="K201" s="206"/>
+      <c r="I201" s="209"/>
+      <c r="J201" s="208"/>
+      <c r="K201" s="208"/>
       <c r="L201" s="163" t="s">
         <v>85</v>
       </c>
       <c r="M201" s="163">
         <v>10</v>
       </c>
-      <c r="N201" s="206"/>
+      <c r="N201" s="208"/>
       <c r="O201" s="20"/>
     </row>
     <row r="202" spans="1:15" s="147" customFormat="1">
-      <c r="A202" s="209"/>
-      <c r="B202" s="212"/>
-      <c r="C202" s="212"/>
+      <c r="A202" s="211"/>
+      <c r="B202" s="214"/>
+      <c r="C202" s="214"/>
       <c r="D202" s="147" t="s">
         <v>726</v>
       </c>
       <c r="E202" s="147">
         <v>9</v>
       </c>
-      <c r="F202" s="212"/>
-      <c r="G202" s="212"/>
+      <c r="F202" s="214"/>
+      <c r="G202" s="214"/>
       <c r="H202" s="22"/>
-      <c r="I202" s="207"/>
-      <c r="J202" s="206"/>
-      <c r="K202" s="206"/>
+      <c r="I202" s="209"/>
+      <c r="J202" s="208"/>
+      <c r="K202" s="208"/>
       <c r="L202" s="163" t="s">
         <v>349</v>
       </c>
       <c r="M202" s="163">
         <v>30</v>
       </c>
-      <c r="N202" s="206"/>
+      <c r="N202" s="208"/>
       <c r="O202" s="20"/>
     </row>
     <row r="203" spans="1:15" s="147" customFormat="1">
-      <c r="A203" s="209"/>
-      <c r="B203" s="212"/>
-      <c r="C203" s="212"/>
+      <c r="A203" s="211"/>
+      <c r="B203" s="214"/>
+      <c r="C203" s="214"/>
       <c r="D203" s="147" t="s">
         <v>727</v>
       </c>
       <c r="E203" s="147">
         <v>116</v>
       </c>
-      <c r="F203" s="212"/>
-      <c r="G203" s="212"/>
+      <c r="F203" s="214"/>
+      <c r="G203" s="214"/>
       <c r="H203" s="22"/>
-      <c r="I203" s="207"/>
-      <c r="J203" s="206"/>
-      <c r="K203" s="206"/>
+      <c r="I203" s="209"/>
+      <c r="J203" s="208"/>
+      <c r="K203" s="208"/>
       <c r="L203" s="163" t="s">
         <v>83</v>
       </c>
       <c r="M203" s="163">
         <v>100</v>
       </c>
-      <c r="N203" s="206"/>
+      <c r="N203" s="208"/>
       <c r="O203" s="20"/>
     </row>
     <row r="204" spans="1:15" s="147" customFormat="1">
-      <c r="A204" s="209"/>
-      <c r="B204" s="212"/>
-      <c r="C204" s="212"/>
+      <c r="A204" s="211"/>
+      <c r="B204" s="214"/>
+      <c r="C204" s="214"/>
       <c r="D204" s="147" t="s">
         <v>728</v>
       </c>
       <c r="E204" s="147">
         <v>100</v>
       </c>
-      <c r="F204" s="212"/>
-      <c r="G204" s="212"/>
+      <c r="F204" s="214"/>
+      <c r="G204" s="214"/>
       <c r="H204" s="54"/>
       <c r="I204" s="23"/>
       <c r="J204" s="23"/>
@@ -10410,17 +10431,17 @@
       <c r="O204" s="55"/>
     </row>
     <row r="205" spans="1:15" s="147" customFormat="1">
-      <c r="A205" s="210"/>
-      <c r="B205" s="213"/>
-      <c r="C205" s="213"/>
+      <c r="A205" s="212"/>
+      <c r="B205" s="215"/>
+      <c r="C205" s="215"/>
       <c r="D205" s="147" t="s">
         <v>729</v>
       </c>
       <c r="E205" s="147">
         <v>50</v>
       </c>
-      <c r="F205" s="213"/>
-      <c r="G205" s="213"/>
+      <c r="F205" s="215"/>
+      <c r="G205" s="215"/>
       <c r="H205" s="22"/>
       <c r="I205" s="164">
         <v>44908</v>
@@ -10542,13 +10563,13 @@
         <v>75</v>
       </c>
       <c r="H209" s="22"/>
-      <c r="I209" s="207">
+      <c r="I209" s="209">
         <v>44919</v>
       </c>
-      <c r="J209" s="206" t="s">
+      <c r="J209" s="208" t="s">
         <v>811</v>
       </c>
-      <c r="K209" s="206" t="s">
+      <c r="K209" s="208" t="s">
         <v>82</v>
       </c>
       <c r="L209" s="163" t="s">
@@ -10557,7 +10578,7 @@
       <c r="M209" s="163">
         <v>6</v>
       </c>
-      <c r="N209" s="206" t="s">
+      <c r="N209" s="208" t="s">
         <v>84</v>
       </c>
       <c r="O209" s="20"/>
@@ -10571,16 +10592,16 @@
       <c r="F210" s="23"/>
       <c r="G210" s="23"/>
       <c r="H210" s="53"/>
-      <c r="I210" s="207"/>
-      <c r="J210" s="206"/>
-      <c r="K210" s="206"/>
+      <c r="I210" s="209"/>
+      <c r="J210" s="208"/>
+      <c r="K210" s="208"/>
       <c r="L210" s="163" t="s">
         <v>86</v>
       </c>
       <c r="M210" s="163">
         <v>5</v>
       </c>
-      <c r="N210" s="206"/>
+      <c r="N210" s="208"/>
       <c r="O210" s="20"/>
     </row>
     <row r="211" spans="1:15" s="147" customFormat="1" ht="31.2" customHeight="1">
@@ -10606,16 +10627,16 @@
         <v>75</v>
       </c>
       <c r="H211" s="22"/>
-      <c r="I211" s="207"/>
-      <c r="J211" s="206"/>
-      <c r="K211" s="206"/>
+      <c r="I211" s="209"/>
+      <c r="J211" s="208"/>
+      <c r="K211" s="208"/>
       <c r="L211" s="163" t="s">
         <v>832</v>
       </c>
       <c r="M211" s="163">
         <v>1</v>
       </c>
-      <c r="N211" s="206"/>
+      <c r="N211" s="208"/>
       <c r="O211" s="20"/>
     </row>
     <row r="212" spans="1:15" s="147" customFormat="1">
@@ -10658,13 +10679,13 @@
         <v>75</v>
       </c>
       <c r="H213" s="22"/>
-      <c r="I213" s="207">
+      <c r="I213" s="209">
         <v>44932</v>
       </c>
-      <c r="J213" s="206" t="s">
+      <c r="J213" s="208" t="s">
         <v>852</v>
       </c>
-      <c r="K213" s="206" t="s">
+      <c r="K213" s="208" t="s">
         <v>82</v>
       </c>
       <c r="L213" s="169" t="s">
@@ -10673,7 +10694,7 @@
       <c r="M213" s="169">
         <v>1</v>
       </c>
-      <c r="N213" s="206" t="s">
+      <c r="N213" s="208" t="s">
         <v>84</v>
       </c>
       <c r="O213" s="20"/>
@@ -10687,16 +10708,16 @@
       <c r="F214" s="23"/>
       <c r="G214" s="23"/>
       <c r="H214" s="53"/>
-      <c r="I214" s="207"/>
-      <c r="J214" s="206"/>
-      <c r="K214" s="206"/>
+      <c r="I214" s="209"/>
+      <c r="J214" s="208"/>
+      <c r="K214" s="208"/>
       <c r="L214" s="169" t="s">
         <v>352</v>
       </c>
       <c r="M214" s="169">
         <v>2</v>
       </c>
-      <c r="N214" s="206"/>
+      <c r="N214" s="208"/>
       <c r="O214" s="20"/>
     </row>
     <row r="215" spans="1:15" s="157" customFormat="1" ht="72">
@@ -10820,13 +10841,13 @@
       <c r="O218" s="20"/>
     </row>
     <row r="219" spans="1:15" s="157" customFormat="1" ht="28.8" customHeight="1">
-      <c r="A219" s="208">
+      <c r="A219" s="210">
         <v>44884</v>
       </c>
-      <c r="B219" s="211" t="s">
+      <c r="B219" s="213" t="s">
         <v>755</v>
       </c>
-      <c r="C219" s="211" t="s">
+      <c r="C219" s="213" t="s">
         <v>93</v>
       </c>
       <c r="D219" s="157" t="s">
@@ -10835,10 +10856,10 @@
       <c r="E219" s="157">
         <v>15</v>
       </c>
-      <c r="F219" s="211" t="s">
+      <c r="F219" s="213" t="s">
         <v>692</v>
       </c>
-      <c r="G219" s="211" t="s">
+      <c r="G219" s="213" t="s">
         <v>75</v>
       </c>
       <c r="H219" s="79"/>
@@ -10851,25 +10872,25 @@
       <c r="O219" s="55"/>
     </row>
     <row r="220" spans="1:15" s="157" customFormat="1">
-      <c r="A220" s="210"/>
-      <c r="B220" s="213"/>
-      <c r="C220" s="213"/>
+      <c r="A220" s="212"/>
+      <c r="B220" s="215"/>
+      <c r="C220" s="215"/>
       <c r="D220" s="157" t="s">
         <v>339</v>
       </c>
       <c r="E220" s="157">
         <v>7</v>
       </c>
-      <c r="F220" s="213"/>
-      <c r="G220" s="213"/>
+      <c r="F220" s="215"/>
+      <c r="G220" s="215"/>
       <c r="H220" s="53"/>
-      <c r="I220" s="207">
+      <c r="I220" s="209">
         <v>44936</v>
       </c>
-      <c r="J220" s="206" t="s">
+      <c r="J220" s="208" t="s">
         <v>878</v>
       </c>
-      <c r="K220" s="206" t="s">
+      <c r="K220" s="208" t="s">
         <v>82</v>
       </c>
       <c r="L220" s="171" t="s">
@@ -10878,7 +10899,7 @@
       <c r="M220" s="171">
         <v>2</v>
       </c>
-      <c r="N220" s="206" t="s">
+      <c r="N220" s="208" t="s">
         <v>84</v>
       </c>
       <c r="O220" s="20"/>
@@ -10892,26 +10913,26 @@
       <c r="F221" s="23"/>
       <c r="G221" s="23"/>
       <c r="H221" s="53"/>
-      <c r="I221" s="207"/>
-      <c r="J221" s="206"/>
-      <c r="K221" s="206"/>
+      <c r="I221" s="209"/>
+      <c r="J221" s="208"/>
+      <c r="K221" s="208"/>
       <c r="L221" s="171" t="s">
         <v>105</v>
       </c>
       <c r="M221" s="171">
         <v>5</v>
       </c>
-      <c r="N221" s="206"/>
+      <c r="N221" s="208"/>
       <c r="O221" s="20"/>
     </row>
     <row r="222" spans="1:15" s="147" customFormat="1">
-      <c r="A222" s="207">
+      <c r="A222" s="209">
         <v>44884</v>
       </c>
-      <c r="B222" s="206" t="s">
+      <c r="B222" s="208" t="s">
         <v>735</v>
       </c>
-      <c r="C222" s="206" t="s">
+      <c r="C222" s="208" t="s">
         <v>397</v>
       </c>
       <c r="D222" s="152" t="s">
@@ -10920,62 +10941,62 @@
       <c r="E222" s="152">
         <v>2</v>
       </c>
-      <c r="F222" s="206" t="s">
+      <c r="F222" s="208" t="s">
         <v>63</v>
       </c>
-      <c r="G222" s="206" t="s">
+      <c r="G222" s="208" t="s">
         <v>75</v>
       </c>
       <c r="H222" s="22"/>
-      <c r="I222" s="207"/>
-      <c r="J222" s="206"/>
-      <c r="K222" s="206"/>
+      <c r="I222" s="209"/>
+      <c r="J222" s="208"/>
+      <c r="K222" s="208"/>
       <c r="L222" s="171" t="s">
         <v>905</v>
       </c>
       <c r="M222" s="171">
         <v>5</v>
       </c>
-      <c r="N222" s="206"/>
+      <c r="N222" s="208"/>
       <c r="O222" s="20"/>
     </row>
     <row r="223" spans="1:15" s="147" customFormat="1" ht="28.8">
-      <c r="A223" s="207"/>
-      <c r="B223" s="206"/>
-      <c r="C223" s="206"/>
+      <c r="A223" s="209"/>
+      <c r="B223" s="208"/>
+      <c r="C223" s="208"/>
       <c r="D223" s="152" t="s">
         <v>744</v>
       </c>
       <c r="E223" s="152">
         <v>1</v>
       </c>
-      <c r="F223" s="206"/>
-      <c r="G223" s="206"/>
+      <c r="F223" s="208"/>
+      <c r="G223" s="208"/>
       <c r="H223" s="22"/>
-      <c r="I223" s="207"/>
-      <c r="J223" s="206"/>
-      <c r="K223" s="206"/>
+      <c r="I223" s="209"/>
+      <c r="J223" s="208"/>
+      <c r="K223" s="208"/>
       <c r="L223" s="171" t="s">
         <v>906</v>
       </c>
       <c r="M223" s="171">
         <v>2</v>
       </c>
-      <c r="N223" s="206"/>
+      <c r="N223" s="208"/>
       <c r="O223" s="20"/>
     </row>
     <row r="224" spans="1:15" s="147" customFormat="1">
-      <c r="A224" s="207"/>
-      <c r="B224" s="206"/>
-      <c r="C224" s="206"/>
+      <c r="A224" s="209"/>
+      <c r="B224" s="208"/>
+      <c r="C224" s="208"/>
       <c r="D224" s="152" t="s">
         <v>745</v>
       </c>
       <c r="E224" s="152">
         <v>1</v>
       </c>
-      <c r="F224" s="206"/>
-      <c r="G224" s="206"/>
+      <c r="F224" s="208"/>
+      <c r="G224" s="208"/>
       <c r="H224" s="54"/>
       <c r="I224" s="23"/>
       <c r="J224" s="23"/>
@@ -10986,25 +11007,25 @@
       <c r="O224" s="55"/>
     </row>
     <row r="225" spans="1:15" s="147" customFormat="1">
-      <c r="A225" s="207"/>
-      <c r="B225" s="206"/>
-      <c r="C225" s="206"/>
+      <c r="A225" s="209"/>
+      <c r="B225" s="208"/>
+      <c r="C225" s="208"/>
       <c r="D225" s="152" t="s">
         <v>746</v>
       </c>
       <c r="E225" s="152">
         <v>1</v>
       </c>
-      <c r="F225" s="206"/>
-      <c r="G225" s="206"/>
+      <c r="F225" s="208"/>
+      <c r="G225" s="208"/>
       <c r="H225" s="22"/>
-      <c r="I225" s="207">
+      <c r="I225" s="209">
         <v>44938</v>
       </c>
-      <c r="J225" s="206" t="s">
+      <c r="J225" s="208" t="s">
         <v>918</v>
       </c>
-      <c r="K225" s="206" t="s">
+      <c r="K225" s="208" t="s">
         <v>82</v>
       </c>
       <c r="L225" s="179" t="s">
@@ -11013,7 +11034,7 @@
       <c r="M225" s="179">
         <v>15</v>
       </c>
-      <c r="N225" s="206" t="s">
+      <c r="N225" s="208" t="s">
         <v>84</v>
       </c>
       <c r="O225" s="20"/>
@@ -11027,16 +11048,16 @@
       <c r="F226" s="23"/>
       <c r="G226" s="23"/>
       <c r="H226" s="22"/>
-      <c r="I226" s="207"/>
-      <c r="J226" s="206"/>
-      <c r="K226" s="206"/>
+      <c r="I226" s="209"/>
+      <c r="J226" s="208"/>
+      <c r="K226" s="208"/>
       <c r="L226" s="179" t="s">
         <v>352</v>
       </c>
       <c r="M226" s="179">
         <v>10</v>
       </c>
-      <c r="N226" s="206"/>
+      <c r="N226" s="208"/>
       <c r="O226" s="20"/>
     </row>
     <row r="227" spans="1:15" s="147" customFormat="1" ht="57.6">
@@ -11062,16 +11083,16 @@
         <v>75</v>
       </c>
       <c r="H227" s="22"/>
-      <c r="I227" s="207"/>
-      <c r="J227" s="206"/>
-      <c r="K227" s="206"/>
+      <c r="I227" s="209"/>
+      <c r="J227" s="208"/>
+      <c r="K227" s="208"/>
       <c r="L227" s="179" t="s">
         <v>943</v>
       </c>
       <c r="M227" s="179">
         <v>12</v>
       </c>
-      <c r="N227" s="206"/>
+      <c r="N227" s="208"/>
       <c r="O227" s="20"/>
     </row>
     <row r="228" spans="1:15" s="147" customFormat="1" ht="72">
@@ -11083,26 +11104,26 @@
       <c r="F228" s="23"/>
       <c r="G228" s="23"/>
       <c r="H228" s="53"/>
-      <c r="I228" s="207"/>
-      <c r="J228" s="206"/>
-      <c r="K228" s="206"/>
+      <c r="I228" s="209"/>
+      <c r="J228" s="208"/>
+      <c r="K228" s="208"/>
       <c r="L228" s="179" t="s">
         <v>944</v>
       </c>
       <c r="M228" s="179">
         <v>10</v>
       </c>
-      <c r="N228" s="206"/>
+      <c r="N228" s="208"/>
       <c r="O228" s="20"/>
     </row>
     <row r="229" spans="1:15" s="147" customFormat="1">
-      <c r="A229" s="207">
+      <c r="A229" s="209">
         <v>44884</v>
       </c>
-      <c r="B229" s="206" t="s">
+      <c r="B229" s="208" t="s">
         <v>740</v>
       </c>
-      <c r="C229" s="206" t="s">
+      <c r="C229" s="208" t="s">
         <v>390</v>
       </c>
       <c r="D229" s="157" t="s">
@@ -11111,37 +11132,37 @@
       <c r="E229" s="157">
         <v>1</v>
       </c>
-      <c r="F229" s="206" t="s">
+      <c r="F229" s="208" t="s">
         <v>692</v>
       </c>
-      <c r="G229" s="206" t="s">
+      <c r="G229" s="208" t="s">
         <v>75</v>
       </c>
       <c r="H229" s="22"/>
-      <c r="I229" s="207"/>
-      <c r="J229" s="206"/>
-      <c r="K229" s="206"/>
+      <c r="I229" s="209"/>
+      <c r="J229" s="208"/>
+      <c r="K229" s="208"/>
       <c r="L229" s="179" t="s">
         <v>945</v>
       </c>
       <c r="M229" s="179">
         <v>5</v>
       </c>
-      <c r="N229" s="206"/>
+      <c r="N229" s="208"/>
       <c r="O229" s="20"/>
     </row>
     <row r="230" spans="1:15" s="147" customFormat="1">
-      <c r="A230" s="207"/>
-      <c r="B230" s="206"/>
-      <c r="C230" s="206"/>
+      <c r="A230" s="209"/>
+      <c r="B230" s="208"/>
+      <c r="C230" s="208"/>
       <c r="D230" s="157" t="s">
         <v>764</v>
       </c>
       <c r="E230" s="157">
         <v>1</v>
       </c>
-      <c r="F230" s="206"/>
-      <c r="G230" s="206"/>
+      <c r="F230" s="208"/>
+      <c r="G230" s="208"/>
       <c r="H230" s="54"/>
       <c r="I230" s="23"/>
       <c r="J230" s="23"/>
@@ -11152,25 +11173,25 @@
       <c r="O230" s="55"/>
     </row>
     <row r="231" spans="1:15" s="147" customFormat="1" ht="28.8">
-      <c r="A231" s="207"/>
-      <c r="B231" s="206"/>
-      <c r="C231" s="206"/>
+      <c r="A231" s="209"/>
+      <c r="B231" s="208"/>
+      <c r="C231" s="208"/>
       <c r="D231" s="157" t="s">
         <v>765</v>
       </c>
       <c r="E231" s="157">
         <v>2</v>
       </c>
-      <c r="F231" s="206"/>
-      <c r="G231" s="206"/>
+      <c r="F231" s="208"/>
+      <c r="G231" s="208"/>
       <c r="H231" s="22"/>
-      <c r="I231" s="207">
+      <c r="I231" s="209">
         <v>44938</v>
       </c>
-      <c r="J231" s="206" t="s">
+      <c r="J231" s="208" t="s">
         <v>919</v>
       </c>
-      <c r="K231" s="206" t="s">
+      <c r="K231" s="208" t="s">
         <v>82</v>
       </c>
       <c r="L231" s="190" t="s">
@@ -11179,34 +11200,34 @@
       <c r="M231" s="190">
         <v>3</v>
       </c>
-      <c r="N231" s="206" t="s">
+      <c r="N231" s="208" t="s">
         <v>84</v>
       </c>
       <c r="O231" s="20"/>
     </row>
     <row r="232" spans="1:15" s="147" customFormat="1">
-      <c r="A232" s="207"/>
-      <c r="B232" s="206"/>
-      <c r="C232" s="206"/>
+      <c r="A232" s="209"/>
+      <c r="B232" s="208"/>
+      <c r="C232" s="208"/>
       <c r="D232" s="157" t="s">
         <v>766</v>
       </c>
       <c r="E232" s="157">
         <v>2</v>
       </c>
-      <c r="F232" s="206"/>
-      <c r="G232" s="206"/>
+      <c r="F232" s="208"/>
+      <c r="G232" s="208"/>
       <c r="H232" s="22"/>
-      <c r="I232" s="207"/>
-      <c r="J232" s="206"/>
-      <c r="K232" s="206"/>
+      <c r="I232" s="209"/>
+      <c r="J232" s="208"/>
+      <c r="K232" s="208"/>
       <c r="L232" s="190" t="s">
         <v>349</v>
       </c>
       <c r="M232" s="190">
         <v>15</v>
       </c>
-      <c r="N232" s="206"/>
+      <c r="N232" s="208"/>
       <c r="O232" s="20"/>
     </row>
     <row r="233" spans="1:15" s="147" customFormat="1">
@@ -11218,16 +11239,16 @@
       <c r="F233" s="23"/>
       <c r="G233" s="23"/>
       <c r="H233" s="53"/>
-      <c r="I233" s="207"/>
-      <c r="J233" s="206"/>
-      <c r="K233" s="206"/>
+      <c r="I233" s="209"/>
+      <c r="J233" s="208"/>
+      <c r="K233" s="208"/>
       <c r="L233" s="190" t="s">
         <v>1006</v>
       </c>
       <c r="M233" s="190">
         <v>4</v>
       </c>
-      <c r="N233" s="206"/>
+      <c r="N233" s="208"/>
       <c r="O233" s="20"/>
     </row>
     <row r="234" spans="1:15" s="157" customFormat="1">
@@ -11330,13 +11351,13 @@
       <c r="F237" s="23"/>
       <c r="G237" s="23"/>
       <c r="H237" s="53"/>
-      <c r="I237" s="207">
+      <c r="I237" s="209">
         <v>44943</v>
       </c>
-      <c r="J237" s="206" t="s">
+      <c r="J237" s="208" t="s">
         <v>927</v>
       </c>
-      <c r="K237" s="206" t="s">
+      <c r="K237" s="208" t="s">
         <v>82</v>
       </c>
       <c r="L237" s="190" t="s">
@@ -11345,7 +11366,7 @@
       <c r="M237" s="190">
         <v>4</v>
       </c>
-      <c r="N237" s="206" t="s">
+      <c r="N237" s="208" t="s">
         <v>84</v>
       </c>
       <c r="O237" s="20"/>
@@ -11373,16 +11394,16 @@
         <v>75</v>
       </c>
       <c r="H238" s="22"/>
-      <c r="I238" s="207"/>
-      <c r="J238" s="206"/>
-      <c r="K238" s="206"/>
+      <c r="I238" s="209"/>
+      <c r="J238" s="208"/>
+      <c r="K238" s="208"/>
       <c r="L238" s="190" t="s">
         <v>1009</v>
       </c>
       <c r="M238" s="190">
         <v>1</v>
       </c>
-      <c r="N238" s="206"/>
+      <c r="N238" s="208"/>
       <c r="O238" s="20"/>
     </row>
     <row r="239" spans="1:15" s="147" customFormat="1">
@@ -11425,13 +11446,13 @@
         <v>75</v>
       </c>
       <c r="H240" s="22"/>
-      <c r="I240" s="207">
+      <c r="I240" s="209">
         <v>44944</v>
       </c>
-      <c r="J240" s="206" t="s">
+      <c r="J240" s="208" t="s">
         <v>955</v>
       </c>
-      <c r="K240" s="206" t="s">
+      <c r="K240" s="208" t="s">
         <v>82</v>
       </c>
       <c r="L240" s="190" t="s">
@@ -11440,7 +11461,7 @@
       <c r="M240" s="190">
         <v>10</v>
       </c>
-      <c r="N240" s="206" t="s">
+      <c r="N240" s="208" t="s">
         <v>84</v>
       </c>
       <c r="O240" s="20"/>
@@ -11454,26 +11475,26 @@
       <c r="F241" s="23"/>
       <c r="G241" s="23"/>
       <c r="H241" s="53"/>
-      <c r="I241" s="207"/>
-      <c r="J241" s="206"/>
-      <c r="K241" s="206"/>
+      <c r="I241" s="209"/>
+      <c r="J241" s="208"/>
+      <c r="K241" s="208"/>
       <c r="L241" s="190" t="s">
         <v>1011</v>
       </c>
       <c r="M241" s="190">
         <v>35</v>
       </c>
-      <c r="N241" s="206"/>
+      <c r="N241" s="208"/>
       <c r="O241" s="20"/>
     </row>
     <row r="242" spans="1:15" s="147" customFormat="1" ht="14.4" customHeight="1">
-      <c r="A242" s="207">
+      <c r="A242" s="209">
         <v>44903</v>
       </c>
-      <c r="B242" s="206" t="s">
+      <c r="B242" s="208" t="s">
         <v>795</v>
       </c>
-      <c r="C242" s="206" t="s">
+      <c r="C242" s="208" t="s">
         <v>93</v>
       </c>
       <c r="D242" s="160" t="s">
@@ -11482,37 +11503,37 @@
       <c r="E242" s="160">
         <v>2</v>
       </c>
-      <c r="F242" s="206" t="s">
+      <c r="F242" s="208" t="s">
         <v>692</v>
       </c>
-      <c r="G242" s="206" t="s">
+      <c r="G242" s="208" t="s">
         <v>75</v>
       </c>
       <c r="H242" s="22"/>
-      <c r="I242" s="207"/>
-      <c r="J242" s="206"/>
-      <c r="K242" s="206"/>
+      <c r="I242" s="209"/>
+      <c r="J242" s="208"/>
+      <c r="K242" s="208"/>
       <c r="L242" s="190" t="s">
         <v>1012</v>
       </c>
       <c r="M242" s="190">
         <v>10</v>
       </c>
-      <c r="N242" s="206"/>
+      <c r="N242" s="208"/>
       <c r="O242" s="20"/>
     </row>
     <row r="243" spans="1:15" s="147" customFormat="1">
-      <c r="A243" s="207"/>
-      <c r="B243" s="206"/>
-      <c r="C243" s="206"/>
+      <c r="A243" s="209"/>
+      <c r="B243" s="208"/>
+      <c r="C243" s="208"/>
       <c r="D243" s="160" t="s">
         <v>339</v>
       </c>
       <c r="E243" s="160">
         <v>100</v>
       </c>
-      <c r="F243" s="206"/>
-      <c r="G243" s="206"/>
+      <c r="F243" s="208"/>
+      <c r="G243" s="208"/>
       <c r="H243" s="54"/>
       <c r="I243" s="23"/>
       <c r="J243" s="23"/>
@@ -11552,13 +11573,13 @@
       <c r="O244" s="20"/>
     </row>
     <row r="245" spans="1:15" s="147" customFormat="1" ht="28.8" customHeight="1">
-      <c r="A245" s="207">
+      <c r="A245" s="209">
         <v>44903</v>
       </c>
-      <c r="B245" s="206" t="s">
+      <c r="B245" s="208" t="s">
         <v>801</v>
       </c>
-      <c r="C245" s="206" t="s">
+      <c r="C245" s="208" t="s">
         <v>839</v>
       </c>
       <c r="D245" s="166" t="s">
@@ -11567,10 +11588,10 @@
       <c r="E245" s="166">
         <v>30</v>
       </c>
-      <c r="F245" s="206" t="s">
+      <c r="F245" s="208" t="s">
         <v>692</v>
       </c>
-      <c r="G245" s="206" t="s">
+      <c r="G245" s="208" t="s">
         <v>75</v>
       </c>
       <c r="H245" s="54"/>
@@ -11583,25 +11604,25 @@
       <c r="O245" s="55"/>
     </row>
     <row r="246" spans="1:15" s="147" customFormat="1">
-      <c r="A246" s="207"/>
-      <c r="B246" s="206"/>
-      <c r="C246" s="206"/>
+      <c r="A246" s="209"/>
+      <c r="B246" s="208"/>
+      <c r="C246" s="208"/>
       <c r="D246" s="166" t="s">
         <v>476</v>
       </c>
       <c r="E246" s="166">
         <v>10</v>
       </c>
-      <c r="F246" s="206"/>
-      <c r="G246" s="206"/>
+      <c r="F246" s="208"/>
+      <c r="G246" s="208"/>
       <c r="H246" s="22"/>
-      <c r="I246" s="207">
+      <c r="I246" s="209">
         <v>44956</v>
       </c>
-      <c r="J246" s="206" t="s">
+      <c r="J246" s="208" t="s">
         <v>977</v>
       </c>
-      <c r="K246" s="206" t="s">
+      <c r="K246" s="208" t="s">
         <v>82</v>
       </c>
       <c r="L246" s="190" t="s">
@@ -11610,34 +11631,34 @@
       <c r="M246" s="190">
         <v>10</v>
       </c>
-      <c r="N246" s="206" t="s">
+      <c r="N246" s="208" t="s">
         <v>84</v>
       </c>
       <c r="O246" s="20"/>
     </row>
     <row r="247" spans="1:15" s="147" customFormat="1">
-      <c r="A247" s="207"/>
-      <c r="B247" s="206"/>
-      <c r="C247" s="206"/>
+      <c r="A247" s="209"/>
+      <c r="B247" s="208"/>
+      <c r="C247" s="208"/>
       <c r="D247" s="166" t="s">
         <v>475</v>
       </c>
       <c r="E247" s="166">
         <v>10</v>
       </c>
-      <c r="F247" s="206"/>
-      <c r="G247" s="206"/>
+      <c r="F247" s="208"/>
+      <c r="G247" s="208"/>
       <c r="H247" s="22"/>
-      <c r="I247" s="207"/>
-      <c r="J247" s="206"/>
-      <c r="K247" s="206"/>
+      <c r="I247" s="209"/>
+      <c r="J247" s="208"/>
+      <c r="K247" s="208"/>
       <c r="L247" s="190" t="s">
         <v>352</v>
       </c>
       <c r="M247" s="190">
         <v>5</v>
       </c>
-      <c r="N247" s="206"/>
+      <c r="N247" s="208"/>
       <c r="O247" s="20"/>
     </row>
     <row r="248" spans="1:15" s="147" customFormat="1">
@@ -11649,16 +11670,16 @@
       <c r="F248" s="23"/>
       <c r="G248" s="23"/>
       <c r="H248" s="53"/>
-      <c r="I248" s="207"/>
-      <c r="J248" s="206"/>
-      <c r="K248" s="206"/>
+      <c r="I248" s="209"/>
+      <c r="J248" s="208"/>
+      <c r="K248" s="208"/>
       <c r="L248" s="190" t="s">
         <v>83</v>
       </c>
       <c r="M248" s="190">
         <v>100</v>
       </c>
-      <c r="N248" s="206"/>
+      <c r="N248" s="208"/>
       <c r="O248" s="20"/>
     </row>
     <row r="249" spans="1:15" s="147" customFormat="1" ht="43.2">
@@ -11684,16 +11705,16 @@
         <v>75</v>
       </c>
       <c r="H249" s="22"/>
-      <c r="I249" s="207"/>
-      <c r="J249" s="206"/>
-      <c r="K249" s="206"/>
+      <c r="I249" s="209"/>
+      <c r="J249" s="208"/>
+      <c r="K249" s="208"/>
       <c r="L249" s="190" t="s">
         <v>1013</v>
       </c>
       <c r="M249" s="190">
         <v>5</v>
       </c>
-      <c r="N249" s="206"/>
+      <c r="N249" s="208"/>
       <c r="O249" s="20"/>
     </row>
     <row r="250" spans="1:15" s="147" customFormat="1">
@@ -11705,26 +11726,26 @@
       <c r="F250" s="23"/>
       <c r="G250" s="23"/>
       <c r="H250" s="53"/>
-      <c r="I250" s="207"/>
-      <c r="J250" s="206"/>
-      <c r="K250" s="206"/>
+      <c r="I250" s="209"/>
+      <c r="J250" s="208"/>
+      <c r="K250" s="208"/>
       <c r="L250" s="190" t="s">
         <v>105</v>
       </c>
       <c r="M250" s="190">
         <v>6</v>
       </c>
-      <c r="N250" s="206"/>
+      <c r="N250" s="208"/>
       <c r="O250" s="20"/>
     </row>
     <row r="251" spans="1:15" s="147" customFormat="1">
-      <c r="A251" s="207">
+      <c r="A251" s="209">
         <v>44909</v>
       </c>
-      <c r="B251" s="206">
+      <c r="B251" s="208">
         <v>320</v>
       </c>
-      <c r="C251" s="206" t="s">
+      <c r="C251" s="208" t="s">
         <v>825</v>
       </c>
       <c r="D251" s="166" t="s">
@@ -11733,35 +11754,35 @@
       <c r="E251" s="166">
         <v>2</v>
       </c>
-      <c r="F251" s="206" t="s">
+      <c r="F251" s="208" t="s">
         <v>63</v>
       </c>
-      <c r="G251" s="206"/>
+      <c r="G251" s="208"/>
       <c r="H251" s="22"/>
-      <c r="I251" s="207"/>
-      <c r="J251" s="206"/>
-      <c r="K251" s="206"/>
+      <c r="I251" s="209"/>
+      <c r="J251" s="208"/>
+      <c r="K251" s="208"/>
       <c r="L251" s="190" t="s">
         <v>1014</v>
       </c>
       <c r="M251" s="190">
         <v>2</v>
       </c>
-      <c r="N251" s="206"/>
+      <c r="N251" s="208"/>
       <c r="O251" s="20"/>
     </row>
     <row r="252" spans="1:15" s="147" customFormat="1">
-      <c r="A252" s="207"/>
-      <c r="B252" s="206"/>
-      <c r="C252" s="206"/>
+      <c r="A252" s="209"/>
+      <c r="B252" s="208"/>
+      <c r="C252" s="208"/>
       <c r="D252" s="166" t="s">
         <v>841</v>
       </c>
       <c r="E252" s="166">
         <v>6</v>
       </c>
-      <c r="F252" s="206"/>
-      <c r="G252" s="206"/>
+      <c r="F252" s="208"/>
+      <c r="G252" s="208"/>
       <c r="H252" s="54"/>
       <c r="I252" s="23"/>
       <c r="J252" s="23"/>
@@ -11780,13 +11801,13 @@
       <c r="F253" s="23"/>
       <c r="G253" s="23"/>
       <c r="H253" s="53"/>
-      <c r="I253" s="207">
+      <c r="I253" s="209">
         <v>44956</v>
       </c>
-      <c r="J253" s="206" t="s">
+      <c r="J253" s="208" t="s">
         <v>978</v>
       </c>
-      <c r="K253" s="206" t="s">
+      <c r="K253" s="208" t="s">
         <v>82</v>
       </c>
       <c r="L253" s="190" t="s">
@@ -11795,19 +11816,19 @@
       <c r="M253" s="190">
         <v>5</v>
       </c>
-      <c r="N253" s="206" t="s">
+      <c r="N253" s="208" t="s">
         <v>84</v>
       </c>
       <c r="O253" s="20"/>
     </row>
     <row r="254" spans="1:15" s="147" customFormat="1" ht="28.8" customHeight="1">
-      <c r="A254" s="207">
+      <c r="A254" s="209">
         <v>44915</v>
       </c>
-      <c r="B254" s="206" t="s">
+      <c r="B254" s="208" t="s">
         <v>833</v>
       </c>
-      <c r="C254" s="206" t="s">
+      <c r="C254" s="208" t="s">
         <v>76</v>
       </c>
       <c r="D254" s="166" t="s">
@@ -11816,48 +11837,48 @@
       <c r="E254" s="166">
         <v>6</v>
       </c>
-      <c r="F254" s="206" t="s">
+      <c r="F254" s="208" t="s">
         <v>63</v>
       </c>
-      <c r="G254" s="206" t="s">
+      <c r="G254" s="208" t="s">
         <v>75</v>
       </c>
       <c r="H254" s="22"/>
-      <c r="I254" s="207"/>
-      <c r="J254" s="206"/>
-      <c r="K254" s="206"/>
+      <c r="I254" s="209"/>
+      <c r="J254" s="208"/>
+      <c r="K254" s="208"/>
       <c r="L254" s="190" t="s">
         <v>105</v>
       </c>
       <c r="M254" s="190">
         <v>8</v>
       </c>
-      <c r="N254" s="206"/>
+      <c r="N254" s="208"/>
       <c r="O254" s="20"/>
     </row>
     <row r="255" spans="1:15" s="147" customFormat="1">
-      <c r="A255" s="207"/>
-      <c r="B255" s="206"/>
-      <c r="C255" s="206"/>
+      <c r="A255" s="209"/>
+      <c r="B255" s="208"/>
+      <c r="C255" s="208"/>
       <c r="D255" s="166" t="s">
         <v>842</v>
       </c>
       <c r="E255" s="166">
         <v>5</v>
       </c>
-      <c r="F255" s="206"/>
-      <c r="G255" s="206"/>
+      <c r="F255" s="208"/>
+      <c r="G255" s="208"/>
       <c r="H255" s="22"/>
-      <c r="I255" s="207"/>
-      <c r="J255" s="206"/>
-      <c r="K255" s="206"/>
+      <c r="I255" s="209"/>
+      <c r="J255" s="208"/>
+      <c r="K255" s="208"/>
       <c r="L255" s="190" t="s">
         <v>1014</v>
       </c>
       <c r="M255" s="190">
         <v>5</v>
       </c>
-      <c r="N255" s="206"/>
+      <c r="N255" s="208"/>
       <c r="O255" s="20"/>
     </row>
     <row r="256" spans="1:15" s="147" customFormat="1">
@@ -11960,13 +11981,13 @@
         <v>75</v>
       </c>
       <c r="H259" s="54"/>
-      <c r="I259" s="207">
+      <c r="I259" s="209">
         <v>44959</v>
       </c>
-      <c r="J259" s="206" t="s">
+      <c r="J259" s="208" t="s">
         <v>982</v>
       </c>
-      <c r="K259" s="206" t="s">
+      <c r="K259" s="208" t="s">
         <v>82</v>
       </c>
       <c r="L259" s="190" t="s">
@@ -11975,7 +11996,7 @@
       <c r="M259" s="190">
         <v>2</v>
       </c>
-      <c r="N259" s="206" t="s">
+      <c r="N259" s="208" t="s">
         <v>84</v>
       </c>
       <c r="O259" s="55"/>
@@ -11989,16 +12010,16 @@
       <c r="F260" s="23"/>
       <c r="G260" s="23"/>
       <c r="H260" s="79"/>
-      <c r="I260" s="207"/>
-      <c r="J260" s="206"/>
-      <c r="K260" s="206"/>
+      <c r="I260" s="209"/>
+      <c r="J260" s="208"/>
+      <c r="K260" s="208"/>
       <c r="L260" s="190" t="s">
         <v>105</v>
       </c>
       <c r="M260" s="190">
         <v>4</v>
       </c>
-      <c r="N260" s="206"/>
+      <c r="N260" s="208"/>
       <c r="O260" s="55"/>
     </row>
     <row r="261" spans="1:15" s="147" customFormat="1">
@@ -12024,16 +12045,16 @@
         <v>75</v>
       </c>
       <c r="H261" s="54"/>
-      <c r="I261" s="207"/>
-      <c r="J261" s="206"/>
-      <c r="K261" s="206"/>
+      <c r="I261" s="209"/>
+      <c r="J261" s="208"/>
+      <c r="K261" s="208"/>
       <c r="L261" s="190" t="s">
         <v>139</v>
       </c>
       <c r="M261" s="190">
         <v>15</v>
       </c>
-      <c r="N261" s="206"/>
+      <c r="N261" s="208"/>
       <c r="O261" s="55"/>
     </row>
     <row r="262" spans="1:15" s="147" customFormat="1">
@@ -12074,13 +12095,13 @@
       </c>
       <c r="G263" s="166"/>
       <c r="H263" s="22"/>
-      <c r="I263" s="207">
+      <c r="I263" s="209">
         <v>44965</v>
       </c>
-      <c r="J263" s="206" t="s">
+      <c r="J263" s="208" t="s">
         <v>1040</v>
       </c>
-      <c r="K263" s="206" t="s">
+      <c r="K263" s="208" t="s">
         <v>813</v>
       </c>
       <c r="L263" s="200" t="s">
@@ -12089,7 +12110,7 @@
       <c r="M263" s="200">
         <v>4</v>
       </c>
-      <c r="N263" s="206" t="s">
+      <c r="N263" s="208" t="s">
         <v>818</v>
       </c>
       <c r="O263" s="20"/>
@@ -12103,16 +12124,16 @@
       <c r="F264" s="23"/>
       <c r="G264" s="23"/>
       <c r="H264" s="53"/>
-      <c r="I264" s="207"/>
-      <c r="J264" s="206"/>
-      <c r="K264" s="206"/>
+      <c r="I264" s="209"/>
+      <c r="J264" s="208"/>
+      <c r="K264" s="208"/>
       <c r="L264" s="200" t="s">
         <v>1066</v>
       </c>
       <c r="M264" s="200">
         <v>1</v>
       </c>
-      <c r="N264" s="206"/>
+      <c r="N264" s="208"/>
       <c r="O264" s="20"/>
     </row>
     <row r="265" spans="1:15" s="147" customFormat="1">
@@ -12138,16 +12159,16 @@
         <v>75</v>
       </c>
       <c r="H265" s="22"/>
-      <c r="I265" s="207"/>
-      <c r="J265" s="206"/>
-      <c r="K265" s="206"/>
+      <c r="I265" s="209"/>
+      <c r="J265" s="208"/>
+      <c r="K265" s="208"/>
       <c r="L265" s="200" t="s">
         <v>1067</v>
       </c>
       <c r="M265" s="200">
         <v>1</v>
       </c>
-      <c r="N265" s="206"/>
+      <c r="N265" s="208"/>
       <c r="O265" s="20"/>
     </row>
     <row r="266" spans="1:15" s="147" customFormat="1">
@@ -12188,13 +12209,13 @@
       </c>
       <c r="G267" s="166"/>
       <c r="H267" s="22"/>
-      <c r="I267" s="207">
+      <c r="I267" s="209">
         <v>44971</v>
       </c>
-      <c r="J267" s="206" t="s">
+      <c r="J267" s="208" t="s">
         <v>1041</v>
       </c>
-      <c r="K267" s="206" t="s">
+      <c r="K267" s="208" t="s">
         <v>82</v>
       </c>
       <c r="L267" s="200" t="s">
@@ -12203,7 +12224,7 @@
       <c r="M267" s="200">
         <v>14</v>
       </c>
-      <c r="N267" s="206" t="s">
+      <c r="N267" s="208" t="s">
         <v>84</v>
       </c>
       <c r="O267" s="20"/>
@@ -12217,16 +12238,16 @@
       <c r="F268" s="23"/>
       <c r="G268" s="23"/>
       <c r="H268" s="53"/>
-      <c r="I268" s="207"/>
-      <c r="J268" s="206"/>
-      <c r="K268" s="206"/>
+      <c r="I268" s="209"/>
+      <c r="J268" s="208"/>
+      <c r="K268" s="208"/>
       <c r="L268" s="200" t="s">
         <v>349</v>
       </c>
       <c r="M268" s="200">
         <v>20</v>
       </c>
-      <c r="N268" s="206"/>
+      <c r="N268" s="208"/>
       <c r="O268" s="20"/>
     </row>
     <row r="269" spans="1:15" s="147" customFormat="1">
@@ -12252,16 +12273,16 @@
         <v>75</v>
       </c>
       <c r="H269" s="22"/>
-      <c r="I269" s="207"/>
-      <c r="J269" s="206"/>
-      <c r="K269" s="206"/>
+      <c r="I269" s="209"/>
+      <c r="J269" s="208"/>
+      <c r="K269" s="208"/>
       <c r="L269" s="200" t="s">
         <v>352</v>
       </c>
       <c r="M269" s="200">
         <v>10</v>
       </c>
-      <c r="N269" s="206"/>
+      <c r="N269" s="208"/>
       <c r="O269" s="20"/>
     </row>
     <row r="270" spans="1:15" s="147" customFormat="1">
@@ -12273,16 +12294,16 @@
       <c r="F270" s="23"/>
       <c r="G270" s="23"/>
       <c r="H270" s="53"/>
-      <c r="I270" s="207"/>
-      <c r="J270" s="206"/>
-      <c r="K270" s="206"/>
+      <c r="I270" s="209"/>
+      <c r="J270" s="208"/>
+      <c r="K270" s="208"/>
       <c r="L270" s="200" t="s">
         <v>105</v>
       </c>
       <c r="M270" s="200">
         <v>8</v>
       </c>
-      <c r="N270" s="206"/>
+      <c r="N270" s="208"/>
       <c r="O270" s="20"/>
     </row>
     <row r="271" spans="1:15" s="147" customFormat="1" ht="57.6">
@@ -12308,16 +12329,16 @@
         <v>75</v>
       </c>
       <c r="H271" s="22"/>
-      <c r="I271" s="207"/>
-      <c r="J271" s="206"/>
-      <c r="K271" s="206"/>
+      <c r="I271" s="209"/>
+      <c r="J271" s="208"/>
+      <c r="K271" s="208"/>
       <c r="L271" s="200" t="s">
         <v>1068</v>
       </c>
       <c r="M271" s="200">
         <v>8</v>
       </c>
-      <c r="N271" s="206"/>
+      <c r="N271" s="208"/>
       <c r="O271" s="20"/>
     </row>
     <row r="272" spans="1:15" s="147" customFormat="1">
@@ -12360,13 +12381,13 @@
         <v>75</v>
       </c>
       <c r="H273" s="22"/>
-      <c r="I273" s="207">
+      <c r="I273" s="209">
         <v>44971</v>
       </c>
-      <c r="J273" s="206" t="s">
+      <c r="J273" s="208" t="s">
         <v>1042</v>
       </c>
-      <c r="K273" s="206" t="s">
+      <c r="K273" s="208" t="s">
         <v>82</v>
       </c>
       <c r="L273" s="200" t="s">
@@ -12375,7 +12396,7 @@
       <c r="M273" s="200">
         <v>2</v>
       </c>
-      <c r="N273" s="206" t="s">
+      <c r="N273" s="208" t="s">
         <v>84</v>
       </c>
       <c r="O273" s="20"/>
@@ -12389,16 +12410,16 @@
       <c r="F274" s="23"/>
       <c r="G274" s="23"/>
       <c r="H274" s="53"/>
-      <c r="I274" s="207"/>
-      <c r="J274" s="206"/>
-      <c r="K274" s="206"/>
+      <c r="I274" s="209"/>
+      <c r="J274" s="208"/>
+      <c r="K274" s="208"/>
       <c r="L274" s="200" t="s">
         <v>105</v>
       </c>
       <c r="M274" s="200">
         <v>18</v>
       </c>
-      <c r="N274" s="206"/>
+      <c r="N274" s="208"/>
       <c r="O274" s="20"/>
     </row>
     <row r="275" spans="1:15" s="147" customFormat="1" ht="28.8">
@@ -12424,16 +12445,16 @@
         <v>75</v>
       </c>
       <c r="H275" s="22"/>
-      <c r="I275" s="207"/>
-      <c r="J275" s="206"/>
-      <c r="K275" s="206"/>
+      <c r="I275" s="209"/>
+      <c r="J275" s="208"/>
+      <c r="K275" s="208"/>
       <c r="L275" s="200" t="s">
         <v>86</v>
       </c>
       <c r="M275" s="200">
         <v>4</v>
       </c>
-      <c r="N275" s="206"/>
+      <c r="N275" s="208"/>
       <c r="O275" s="20"/>
     </row>
     <row r="276" spans="1:15" s="147" customFormat="1">
@@ -12445,16 +12466,16 @@
       <c r="F276" s="23"/>
       <c r="G276" s="23"/>
       <c r="H276" s="53"/>
-      <c r="I276" s="207"/>
-      <c r="J276" s="206"/>
-      <c r="K276" s="206"/>
+      <c r="I276" s="209"/>
+      <c r="J276" s="208"/>
+      <c r="K276" s="208"/>
       <c r="L276" s="200" t="s">
         <v>679</v>
       </c>
       <c r="M276" s="200">
         <v>15</v>
       </c>
-      <c r="N276" s="206"/>
+      <c r="N276" s="208"/>
       <c r="O276" s="20"/>
     </row>
     <row r="277" spans="1:15" s="147" customFormat="1" ht="72">
@@ -12480,16 +12501,16 @@
         <v>75</v>
       </c>
       <c r="H277" s="22"/>
-      <c r="I277" s="207"/>
-      <c r="J277" s="206"/>
-      <c r="K277" s="206"/>
+      <c r="I277" s="209"/>
+      <c r="J277" s="208"/>
+      <c r="K277" s="208"/>
       <c r="L277" s="200" t="s">
         <v>1014</v>
       </c>
       <c r="M277" s="200">
         <v>20</v>
       </c>
-      <c r="N277" s="206"/>
+      <c r="N277" s="208"/>
       <c r="O277" s="20"/>
     </row>
     <row r="278" spans="1:15" s="147" customFormat="1" ht="28.8">
@@ -12501,16 +12522,16 @@
       <c r="F278" s="23"/>
       <c r="G278" s="23"/>
       <c r="H278" s="53"/>
-      <c r="I278" s="207"/>
-      <c r="J278" s="206"/>
-      <c r="K278" s="206"/>
+      <c r="I278" s="209"/>
+      <c r="J278" s="208"/>
+      <c r="K278" s="208"/>
       <c r="L278" s="200" t="s">
         <v>1069</v>
       </c>
       <c r="M278" s="200">
         <v>1</v>
       </c>
-      <c r="N278" s="206"/>
+      <c r="N278" s="208"/>
       <c r="O278" s="20"/>
     </row>
     <row r="279" spans="1:15" s="147" customFormat="1">
@@ -12553,13 +12574,13 @@
       <c r="F280" s="23"/>
       <c r="G280" s="23"/>
       <c r="H280" s="22"/>
-      <c r="I280" s="207">
+      <c r="I280" s="209">
         <v>44974</v>
       </c>
-      <c r="J280" s="206" t="s">
+      <c r="J280" s="208" t="s">
         <v>1047</v>
       </c>
-      <c r="K280" s="206" t="s">
+      <c r="K280" s="208" t="s">
         <v>82</v>
       </c>
       <c r="L280" s="200" t="s">
@@ -12568,7 +12589,7 @@
       <c r="M280" s="200">
         <v>2</v>
       </c>
-      <c r="N280" s="206" t="s">
+      <c r="N280" s="208" t="s">
         <v>84</v>
       </c>
       <c r="O280" s="20"/>
@@ -12596,16 +12617,16 @@
         <v>75</v>
       </c>
       <c r="H281" s="22"/>
-      <c r="I281" s="207"/>
-      <c r="J281" s="206"/>
-      <c r="K281" s="206"/>
+      <c r="I281" s="209"/>
+      <c r="J281" s="208"/>
+      <c r="K281" s="208"/>
       <c r="L281" s="200" t="s">
         <v>1071</v>
       </c>
       <c r="M281" s="200">
         <v>3</v>
       </c>
-      <c r="N281" s="206"/>
+      <c r="N281" s="208"/>
       <c r="O281" s="20"/>
     </row>
     <row r="282" spans="1:15" s="147" customFormat="1">
@@ -12708,13 +12729,13 @@
         <v>75</v>
       </c>
       <c r="H285" s="53"/>
-      <c r="I285" s="207">
+      <c r="I285" s="209">
         <v>44984</v>
       </c>
-      <c r="J285" s="206" t="s">
+      <c r="J285" s="208" t="s">
         <v>1075</v>
       </c>
-      <c r="K285" s="206" t="s">
+      <c r="K285" s="208" t="s">
         <v>82</v>
       </c>
       <c r="L285" s="202" t="s">
@@ -12723,7 +12744,7 @@
       <c r="M285" s="202">
         <v>61</v>
       </c>
-      <c r="N285" s="206" t="s">
+      <c r="N285" s="208" t="s">
         <v>84</v>
       </c>
       <c r="O285" s="20"/>
@@ -12737,26 +12758,26 @@
       <c r="F286" s="23"/>
       <c r="G286" s="23"/>
       <c r="H286" s="22"/>
-      <c r="I286" s="207"/>
-      <c r="J286" s="206"/>
-      <c r="K286" s="206"/>
+      <c r="I286" s="209"/>
+      <c r="J286" s="208"/>
+      <c r="K286" s="208"/>
       <c r="L286" s="202" t="s">
         <v>1014</v>
       </c>
       <c r="M286" s="202">
         <v>10</v>
       </c>
-      <c r="N286" s="206"/>
+      <c r="N286" s="208"/>
       <c r="O286" s="20"/>
     </row>
     <row r="287" spans="1:15" s="147" customFormat="1">
-      <c r="A287" s="207">
+      <c r="A287" s="209">
         <v>44936</v>
       </c>
-      <c r="B287" s="206" t="s">
+      <c r="B287" s="208" t="s">
         <v>874</v>
       </c>
-      <c r="C287" s="206" t="s">
+      <c r="C287" s="208" t="s">
         <v>327</v>
       </c>
       <c r="D287" s="171" t="s">
@@ -12765,48 +12786,48 @@
       <c r="E287" s="171">
         <v>4</v>
       </c>
-      <c r="F287" s="206" t="s">
+      <c r="F287" s="208" t="s">
         <v>855</v>
       </c>
-      <c r="G287" s="206" t="s">
+      <c r="G287" s="208" t="s">
         <v>75</v>
       </c>
       <c r="H287" s="53"/>
-      <c r="I287" s="207"/>
-      <c r="J287" s="206"/>
-      <c r="K287" s="206"/>
+      <c r="I287" s="209"/>
+      <c r="J287" s="208"/>
+      <c r="K287" s="208"/>
       <c r="L287" s="202" t="s">
         <v>105</v>
       </c>
       <c r="M287" s="202">
         <v>12</v>
       </c>
-      <c r="N287" s="206"/>
+      <c r="N287" s="208"/>
       <c r="O287" s="20"/>
     </row>
     <row r="288" spans="1:15" s="147" customFormat="1">
-      <c r="A288" s="207"/>
-      <c r="B288" s="206"/>
-      <c r="C288" s="206"/>
+      <c r="A288" s="209"/>
+      <c r="B288" s="208"/>
+      <c r="C288" s="208"/>
       <c r="D288" s="171" t="s">
         <v>886</v>
       </c>
       <c r="E288" s="171">
         <v>4</v>
       </c>
-      <c r="F288" s="206"/>
-      <c r="G288" s="206"/>
+      <c r="F288" s="208"/>
+      <c r="G288" s="208"/>
       <c r="H288" s="22"/>
-      <c r="I288" s="207"/>
-      <c r="J288" s="206"/>
-      <c r="K288" s="206"/>
+      <c r="I288" s="209"/>
+      <c r="J288" s="208"/>
+      <c r="K288" s="208"/>
       <c r="L288" s="202" t="s">
         <v>124</v>
       </c>
       <c r="M288" s="202">
         <v>10</v>
       </c>
-      <c r="N288" s="206"/>
+      <c r="N288" s="208"/>
       <c r="O288" s="20"/>
     </row>
     <row r="289" spans="1:15" s="147" customFormat="1">
@@ -13043,13 +13064,13 @@
       <c r="O297" s="20"/>
     </row>
     <row r="298" spans="1:15" s="147" customFormat="1" ht="28.8">
-      <c r="A298" s="207">
+      <c r="A298" s="209">
         <v>44936</v>
       </c>
-      <c r="B298" s="206" t="s">
+      <c r="B298" s="208" t="s">
         <v>889</v>
       </c>
-      <c r="C298" s="206" t="s">
+      <c r="C298" s="208" t="s">
         <v>868</v>
       </c>
       <c r="D298" s="171" t="s">
@@ -13058,10 +13079,10 @@
       <c r="E298" s="171">
         <v>2</v>
       </c>
-      <c r="F298" s="206" t="s">
+      <c r="F298" s="208" t="s">
         <v>855</v>
       </c>
-      <c r="G298" s="206" t="s">
+      <c r="G298" s="208" t="s">
         <v>75</v>
       </c>
       <c r="H298" s="53"/>
@@ -13074,17 +13095,17 @@
       <c r="O298" s="20"/>
     </row>
     <row r="299" spans="1:15" s="147" customFormat="1" ht="28.8" customHeight="1">
-      <c r="A299" s="207"/>
-      <c r="B299" s="206"/>
-      <c r="C299" s="206"/>
+      <c r="A299" s="209"/>
+      <c r="B299" s="208"/>
+      <c r="C299" s="208"/>
       <c r="D299" s="171" t="s">
         <v>891</v>
       </c>
       <c r="E299" s="171">
         <v>2</v>
       </c>
-      <c r="F299" s="206"/>
-      <c r="G299" s="206"/>
+      <c r="F299" s="208"/>
+      <c r="G299" s="208"/>
       <c r="H299" s="22"/>
       <c r="O299" s="20"/>
     </row>
@@ -13100,13 +13121,13 @@
       <c r="O300" s="20"/>
     </row>
     <row r="301" spans="1:15" s="147" customFormat="1">
-      <c r="A301" s="207">
+      <c r="A301" s="209">
         <v>44936</v>
       </c>
-      <c r="B301" s="206" t="s">
+      <c r="B301" s="208" t="s">
         <v>869</v>
       </c>
-      <c r="C301" s="206" t="s">
+      <c r="C301" s="208" t="s">
         <v>835</v>
       </c>
       <c r="D301" s="171" t="s">
@@ -13115,25 +13136,25 @@
       <c r="E301" s="171">
         <v>4</v>
       </c>
-      <c r="F301" s="206" t="s">
+      <c r="F301" s="208" t="s">
         <v>63</v>
       </c>
-      <c r="G301" s="206"/>
+      <c r="G301" s="208"/>
       <c r="H301" s="53"/>
       <c r="O301" s="20"/>
     </row>
     <row r="302" spans="1:15" s="147" customFormat="1">
-      <c r="A302" s="207"/>
-      <c r="B302" s="206"/>
-      <c r="C302" s="206"/>
+      <c r="A302" s="209"/>
+      <c r="B302" s="208"/>
+      <c r="C302" s="208"/>
       <c r="D302" s="171" t="s">
         <v>846</v>
       </c>
       <c r="E302" s="171">
         <v>2</v>
       </c>
-      <c r="F302" s="206"/>
-      <c r="G302" s="206"/>
+      <c r="F302" s="208"/>
+      <c r="G302" s="208"/>
       <c r="H302" s="22"/>
       <c r="O302" s="20"/>
     </row>
@@ -13183,13 +13204,13 @@
       <c r="O305" s="20"/>
     </row>
     <row r="306" spans="1:15" s="147" customFormat="1">
-      <c r="A306" s="207">
+      <c r="A306" s="209">
         <v>44936</v>
       </c>
-      <c r="B306" s="206">
+      <c r="B306" s="208">
         <v>1817</v>
       </c>
-      <c r="C306" s="206" t="s">
+      <c r="C306" s="208" t="s">
         <v>125</v>
       </c>
       <c r="D306" s="171" t="s">
@@ -13198,87 +13219,87 @@
       <c r="E306" s="171">
         <v>3</v>
       </c>
-      <c r="F306" s="206" t="s">
+      <c r="F306" s="208" t="s">
         <v>63</v>
       </c>
-      <c r="G306" s="206" t="s">
+      <c r="G306" s="208" t="s">
         <v>75</v>
       </c>
       <c r="H306" s="22"/>
       <c r="O306" s="20"/>
     </row>
     <row r="307" spans="1:15" s="147" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A307" s="207"/>
-      <c r="B307" s="206"/>
-      <c r="C307" s="206"/>
+      <c r="A307" s="209"/>
+      <c r="B307" s="208"/>
+      <c r="C307" s="208"/>
       <c r="D307" s="171" t="s">
         <v>895</v>
       </c>
       <c r="E307" s="171">
         <v>3</v>
       </c>
-      <c r="F307" s="206"/>
-      <c r="G307" s="206"/>
+      <c r="F307" s="208"/>
+      <c r="G307" s="208"/>
       <c r="H307" s="22"/>
       <c r="O307" s="20"/>
     </row>
     <row r="308" spans="1:15" s="147" customFormat="1">
-      <c r="A308" s="207"/>
-      <c r="B308" s="206"/>
-      <c r="C308" s="206"/>
+      <c r="A308" s="209"/>
+      <c r="B308" s="208"/>
+      <c r="C308" s="208"/>
       <c r="D308" s="171" t="s">
         <v>896</v>
       </c>
       <c r="E308" s="171">
         <v>2</v>
       </c>
-      <c r="F308" s="206"/>
-      <c r="G308" s="206"/>
+      <c r="F308" s="208"/>
+      <c r="G308" s="208"/>
       <c r="H308" s="22"/>
       <c r="O308" s="20"/>
     </row>
     <row r="309" spans="1:15" s="147" customFormat="1">
-      <c r="A309" s="207"/>
-      <c r="B309" s="206"/>
-      <c r="C309" s="206"/>
+      <c r="A309" s="209"/>
+      <c r="B309" s="208"/>
+      <c r="C309" s="208"/>
       <c r="D309" s="171" t="s">
         <v>897</v>
       </c>
       <c r="E309" s="171">
         <v>1.5</v>
       </c>
-      <c r="F309" s="206"/>
-      <c r="G309" s="206"/>
+      <c r="F309" s="208"/>
+      <c r="G309" s="208"/>
       <c r="H309" s="22"/>
       <c r="O309" s="20"/>
     </row>
     <row r="310" spans="1:15" s="147" customFormat="1">
-      <c r="A310" s="207"/>
-      <c r="B310" s="206"/>
-      <c r="C310" s="206"/>
+      <c r="A310" s="209"/>
+      <c r="B310" s="208"/>
+      <c r="C310" s="208"/>
       <c r="D310" s="171" t="s">
         <v>898</v>
       </c>
       <c r="E310" s="171">
         <v>3</v>
       </c>
-      <c r="F310" s="206"/>
-      <c r="G310" s="206"/>
+      <c r="F310" s="208"/>
+      <c r="G310" s="208"/>
       <c r="H310" s="53"/>
       <c r="O310" s="20"/>
     </row>
     <row r="311" spans="1:15" s="147" customFormat="1">
-      <c r="A311" s="207"/>
-      <c r="B311" s="206"/>
-      <c r="C311" s="206"/>
+      <c r="A311" s="209"/>
+      <c r="B311" s="208"/>
+      <c r="C311" s="208"/>
       <c r="D311" s="171" t="s">
         <v>899</v>
       </c>
       <c r="E311" s="171">
         <v>3</v>
       </c>
-      <c r="F311" s="206"/>
-      <c r="G311" s="206"/>
+      <c r="F311" s="208"/>
+      <c r="G311" s="208"/>
       <c r="H311" s="22"/>
       <c r="O311" s="20"/>
     </row>
@@ -13546,13 +13567,13 @@
       <c r="O326" s="20"/>
     </row>
     <row r="327" spans="1:15" s="147" customFormat="1">
-      <c r="A327" s="207">
+      <c r="A327" s="209">
         <v>44951</v>
       </c>
-      <c r="B327" s="206" t="s">
+      <c r="B327" s="208" t="s">
         <v>959</v>
       </c>
-      <c r="C327" s="206" t="s">
+      <c r="C327" s="208" t="s">
         <v>93</v>
       </c>
       <c r="D327" s="182" t="s">
@@ -13561,27 +13582,27 @@
       <c r="E327" s="182">
         <v>5</v>
       </c>
-      <c r="F327" s="206" t="s">
+      <c r="F327" s="208" t="s">
         <v>855</v>
       </c>
-      <c r="G327" s="206" t="s">
+      <c r="G327" s="208" t="s">
         <v>75</v>
       </c>
       <c r="H327" s="53"/>
       <c r="O327" s="20"/>
     </row>
     <row r="328" spans="1:15" s="147" customFormat="1" ht="28.8" customHeight="1">
-      <c r="A328" s="207"/>
-      <c r="B328" s="206"/>
-      <c r="C328" s="206"/>
+      <c r="A328" s="209"/>
+      <c r="B328" s="208"/>
+      <c r="C328" s="208"/>
       <c r="D328" s="182" t="s">
         <v>339</v>
       </c>
       <c r="E328" s="182">
         <v>100</v>
       </c>
-      <c r="F328" s="206"/>
-      <c r="G328" s="206"/>
+      <c r="F328" s="208"/>
+      <c r="G328" s="208"/>
       <c r="H328" s="22"/>
       <c r="O328" s="20"/>
     </row>
@@ -13597,13 +13618,13 @@
       <c r="O329" s="20"/>
     </row>
     <row r="330" spans="1:15" s="147" customFormat="1">
-      <c r="A330" s="207">
+      <c r="A330" s="209">
         <v>44951</v>
       </c>
-      <c r="B330" s="206" t="s">
+      <c r="B330" s="208" t="s">
         <v>963</v>
       </c>
-      <c r="C330" s="206" t="s">
+      <c r="C330" s="208" t="s">
         <v>76</v>
       </c>
       <c r="D330" s="182" t="s">
@@ -13612,27 +13633,27 @@
       <c r="E330" s="182">
         <v>14</v>
       </c>
-      <c r="F330" s="206" t="s">
+      <c r="F330" s="208" t="s">
         <v>855</v>
       </c>
-      <c r="G330" s="206" t="s">
+      <c r="G330" s="208" t="s">
         <v>75</v>
       </c>
       <c r="H330" s="53"/>
       <c r="O330" s="20"/>
     </row>
     <row r="331" spans="1:15" s="147" customFormat="1" ht="67.8" customHeight="1">
-      <c r="A331" s="207"/>
-      <c r="B331" s="206"/>
-      <c r="C331" s="206"/>
+      <c r="A331" s="209"/>
+      <c r="B331" s="208"/>
+      <c r="C331" s="208"/>
       <c r="D331" s="182" t="s">
         <v>964</v>
       </c>
       <c r="E331" s="182">
         <v>7</v>
       </c>
-      <c r="F331" s="206"/>
-      <c r="G331" s="206"/>
+      <c r="F331" s="208"/>
+      <c r="G331" s="208"/>
       <c r="H331" s="22"/>
       <c r="O331" s="20"/>
     </row>
@@ -13684,13 +13705,13 @@
       <c r="O334" s="20"/>
     </row>
     <row r="335" spans="1:15" s="147" customFormat="1" ht="28.8" customHeight="1">
-      <c r="A335" s="207">
+      <c r="A335" s="209">
         <v>44957</v>
       </c>
-      <c r="B335" s="206" t="s">
+      <c r="B335" s="208" t="s">
         <v>971</v>
       </c>
-      <c r="C335" s="206" t="s">
+      <c r="C335" s="208" t="s">
         <v>76</v>
       </c>
       <c r="D335" s="184" t="s">
@@ -13699,42 +13720,42 @@
       <c r="E335" s="184">
         <v>12</v>
       </c>
-      <c r="F335" s="206" t="s">
+      <c r="F335" s="208" t="s">
         <v>855</v>
       </c>
-      <c r="G335" s="206" t="s">
+      <c r="G335" s="208" t="s">
         <v>75</v>
       </c>
       <c r="H335" s="22"/>
       <c r="O335" s="20"/>
     </row>
     <row r="336" spans="1:15" s="147" customFormat="1">
-      <c r="A336" s="207"/>
-      <c r="B336" s="206"/>
-      <c r="C336" s="206"/>
+      <c r="A336" s="209"/>
+      <c r="B336" s="208"/>
+      <c r="C336" s="208"/>
       <c r="D336" s="184" t="s">
         <v>915</v>
       </c>
       <c r="E336" s="184">
         <v>2</v>
       </c>
-      <c r="F336" s="206"/>
-      <c r="G336" s="206"/>
+      <c r="F336" s="208"/>
+      <c r="G336" s="208"/>
       <c r="H336" s="22"/>
       <c r="O336" s="20"/>
     </row>
     <row r="337" spans="1:15" s="147" customFormat="1">
-      <c r="A337" s="207"/>
-      <c r="B337" s="206"/>
-      <c r="C337" s="206"/>
+      <c r="A337" s="209"/>
+      <c r="B337" s="208"/>
+      <c r="C337" s="208"/>
       <c r="D337" s="184" t="s">
         <v>964</v>
       </c>
       <c r="E337" s="184">
         <v>5</v>
       </c>
-      <c r="F337" s="206"/>
-      <c r="G337" s="206"/>
+      <c r="F337" s="208"/>
+      <c r="G337" s="208"/>
       <c r="H337" s="22"/>
       <c r="O337" s="20"/>
     </row>
@@ -13786,13 +13807,13 @@
       <c r="O340" s="20"/>
     </row>
     <row r="341" spans="1:15" s="147" customFormat="1" ht="28.8" customHeight="1">
-      <c r="A341" s="207">
+      <c r="A341" s="209">
         <v>44959</v>
       </c>
-      <c r="B341" s="206" t="s">
+      <c r="B341" s="208" t="s">
         <v>976</v>
       </c>
-      <c r="C341" s="206" t="s">
+      <c r="C341" s="208" t="s">
         <v>76</v>
       </c>
       <c r="D341" s="186" t="s">
@@ -13801,42 +13822,42 @@
       <c r="E341" s="186">
         <v>4</v>
       </c>
-      <c r="F341" s="206" t="s">
+      <c r="F341" s="208" t="s">
         <v>855</v>
       </c>
-      <c r="G341" s="206" t="s">
+      <c r="G341" s="208" t="s">
         <v>75</v>
       </c>
       <c r="H341" s="22"/>
       <c r="O341" s="20"/>
     </row>
     <row r="342" spans="1:15" s="147" customFormat="1">
-      <c r="A342" s="207"/>
-      <c r="B342" s="206"/>
-      <c r="C342" s="206"/>
+      <c r="A342" s="209"/>
+      <c r="B342" s="208"/>
+      <c r="C342" s="208"/>
       <c r="D342" s="186" t="s">
         <v>915</v>
       </c>
       <c r="E342" s="186">
         <v>5</v>
       </c>
-      <c r="F342" s="206"/>
-      <c r="G342" s="206"/>
+      <c r="F342" s="208"/>
+      <c r="G342" s="208"/>
       <c r="H342" s="53"/>
       <c r="O342" s="20"/>
     </row>
     <row r="343" spans="1:15" s="147" customFormat="1" ht="14.4" customHeight="1">
-      <c r="A343" s="207"/>
-      <c r="B343" s="206"/>
-      <c r="C343" s="206"/>
+      <c r="A343" s="209"/>
+      <c r="B343" s="208"/>
+      <c r="C343" s="208"/>
       <c r="D343" s="186" t="s">
         <v>476</v>
       </c>
       <c r="E343" s="186">
         <v>8</v>
       </c>
-      <c r="F343" s="206"/>
-      <c r="G343" s="206"/>
+      <c r="F343" s="208"/>
+      <c r="G343" s="208"/>
       <c r="H343" s="22"/>
       <c r="O343" s="20"/>
     </row>
@@ -13852,13 +13873,13 @@
       <c r="O344" s="20"/>
     </row>
     <row r="345" spans="1:15" s="147" customFormat="1" ht="28.8" customHeight="1">
-      <c r="A345" s="207">
+      <c r="A345" s="209">
         <v>44963</v>
       </c>
-      <c r="B345" s="206" t="s">
+      <c r="B345" s="208" t="s">
         <v>993</v>
       </c>
-      <c r="C345" s="206" t="s">
+      <c r="C345" s="208" t="s">
         <v>76</v>
       </c>
       <c r="D345" s="188" t="s">
@@ -13867,42 +13888,42 @@
       <c r="E345" s="188">
         <v>6</v>
       </c>
-      <c r="F345" s="206" t="s">
+      <c r="F345" s="208" t="s">
         <v>855</v>
       </c>
-      <c r="G345" s="206" t="s">
+      <c r="G345" s="208" t="s">
         <v>75</v>
       </c>
       <c r="H345" s="22"/>
       <c r="O345" s="20"/>
     </row>
     <row r="346" spans="1:15" s="147" customFormat="1">
-      <c r="A346" s="207"/>
-      <c r="B346" s="206"/>
-      <c r="C346" s="206"/>
+      <c r="A346" s="209"/>
+      <c r="B346" s="208"/>
+      <c r="C346" s="208"/>
       <c r="D346" s="188" t="s">
         <v>475</v>
       </c>
       <c r="E346" s="188">
         <v>14</v>
       </c>
-      <c r="F346" s="206"/>
-      <c r="G346" s="206"/>
+      <c r="F346" s="208"/>
+      <c r="G346" s="208"/>
       <c r="H346" s="22"/>
       <c r="O346" s="20"/>
     </row>
     <row r="347" spans="1:15" s="147" customFormat="1">
-      <c r="A347" s="207"/>
-      <c r="B347" s="206"/>
-      <c r="C347" s="206"/>
+      <c r="A347" s="209"/>
+      <c r="B347" s="208"/>
+      <c r="C347" s="208"/>
       <c r="D347" s="188" t="s">
         <v>674</v>
       </c>
       <c r="E347" s="188">
         <v>4</v>
       </c>
-      <c r="F347" s="206"/>
-      <c r="G347" s="206"/>
+      <c r="F347" s="208"/>
+      <c r="G347" s="208"/>
       <c r="H347" s="22"/>
       <c r="O347" s="20"/>
     </row>
@@ -14026,13 +14047,13 @@
       <c r="O354" s="20"/>
     </row>
     <row r="355" spans="1:15" s="147" customFormat="1" ht="28.8" customHeight="1">
-      <c r="A355" s="207">
+      <c r="A355" s="209">
         <v>44965</v>
       </c>
-      <c r="B355" s="206" t="s">
+      <c r="B355" s="208" t="s">
         <v>1004</v>
       </c>
-      <c r="C355" s="206" t="s">
+      <c r="C355" s="208" t="s">
         <v>76</v>
       </c>
       <c r="D355" s="190" t="s">
@@ -14041,42 +14062,42 @@
       <c r="E355" s="190">
         <v>14</v>
       </c>
-      <c r="F355" s="206" t="s">
+      <c r="F355" s="208" t="s">
         <v>855</v>
       </c>
-      <c r="G355" s="206" t="s">
+      <c r="G355" s="208" t="s">
         <v>75</v>
       </c>
       <c r="H355" s="22"/>
       <c r="O355" s="20"/>
     </row>
     <row r="356" spans="1:15" s="147" customFormat="1">
-      <c r="A356" s="207"/>
-      <c r="B356" s="206"/>
-      <c r="C356" s="206"/>
+      <c r="A356" s="209"/>
+      <c r="B356" s="208"/>
+      <c r="C356" s="208"/>
       <c r="D356" s="190" t="s">
         <v>842</v>
       </c>
       <c r="E356" s="190">
         <v>4</v>
       </c>
-      <c r="F356" s="206"/>
-      <c r="G356" s="206"/>
+      <c r="F356" s="208"/>
+      <c r="G356" s="208"/>
       <c r="H356" s="22"/>
       <c r="O356" s="20"/>
     </row>
     <row r="357" spans="1:15" s="147" customFormat="1">
-      <c r="A357" s="207"/>
-      <c r="B357" s="206"/>
-      <c r="C357" s="206"/>
+      <c r="A357" s="209"/>
+      <c r="B357" s="208"/>
+      <c r="C357" s="208"/>
       <c r="D357" s="190" t="s">
         <v>674</v>
       </c>
       <c r="E357" s="190">
         <v>8</v>
       </c>
-      <c r="F357" s="206"/>
-      <c r="G357" s="206"/>
+      <c r="F357" s="208"/>
+      <c r="G357" s="208"/>
       <c r="H357" s="22"/>
       <c r="O357" s="20"/>
     </row>
@@ -14092,13 +14113,13 @@
       <c r="O358" s="20"/>
     </row>
     <row r="359" spans="1:15" s="147" customFormat="1" ht="28.8" customHeight="1">
-      <c r="A359" s="207">
+      <c r="A359" s="209">
         <v>44970</v>
       </c>
-      <c r="B359" s="206" t="s">
+      <c r="B359" s="208" t="s">
         <v>1027</v>
       </c>
-      <c r="C359" s="206" t="s">
+      <c r="C359" s="208" t="s">
         <v>76</v>
       </c>
       <c r="D359" s="191" t="s">
@@ -14107,42 +14128,42 @@
       <c r="E359" s="191">
         <v>14</v>
       </c>
-      <c r="F359" s="206" t="s">
+      <c r="F359" s="208" t="s">
         <v>855</v>
       </c>
-      <c r="G359" s="206" t="s">
+      <c r="G359" s="208" t="s">
         <v>75</v>
       </c>
       <c r="H359" s="22"/>
       <c r="O359" s="20"/>
     </row>
     <row r="360" spans="1:15" s="147" customFormat="1">
-      <c r="A360" s="207"/>
-      <c r="B360" s="206"/>
-      <c r="C360" s="206"/>
+      <c r="A360" s="209"/>
+      <c r="B360" s="208"/>
+      <c r="C360" s="208"/>
       <c r="D360" s="191" t="s">
         <v>964</v>
       </c>
       <c r="E360" s="191">
         <v>6</v>
       </c>
-      <c r="F360" s="206"/>
-      <c r="G360" s="206"/>
+      <c r="F360" s="208"/>
+      <c r="G360" s="208"/>
       <c r="H360" s="22"/>
       <c r="O360" s="20"/>
     </row>
     <row r="361" spans="1:15" s="147" customFormat="1">
-      <c r="A361" s="207"/>
-      <c r="B361" s="206"/>
-      <c r="C361" s="206"/>
+      <c r="A361" s="209"/>
+      <c r="B361" s="208"/>
+      <c r="C361" s="208"/>
       <c r="D361" s="191" t="s">
         <v>674</v>
       </c>
       <c r="E361" s="191">
         <v>8</v>
       </c>
-      <c r="F361" s="206"/>
-      <c r="G361" s="206"/>
+      <c r="F361" s="208"/>
+      <c r="G361" s="208"/>
       <c r="H361" s="22"/>
       <c r="O361" s="20"/>
     </row>
@@ -14306,13 +14327,13 @@
       <c r="O370" s="20"/>
     </row>
     <row r="371" spans="1:15" s="147" customFormat="1">
-      <c r="A371" s="207">
+      <c r="A371" s="209">
         <v>44970</v>
       </c>
-      <c r="B371" s="206" t="s">
+      <c r="B371" s="208" t="s">
         <v>1051</v>
       </c>
-      <c r="C371" s="206" t="s">
+      <c r="C371" s="208" t="s">
         <v>373</v>
       </c>
       <c r="D371" s="196" t="s">
@@ -14321,27 +14342,27 @@
       <c r="E371" s="196">
         <v>4</v>
       </c>
-      <c r="F371" s="206" t="s">
+      <c r="F371" s="208" t="s">
         <v>855</v>
       </c>
-      <c r="G371" s="206" t="s">
+      <c r="G371" s="208" t="s">
         <v>75</v>
       </c>
       <c r="H371" s="53"/>
       <c r="O371" s="20"/>
     </row>
     <row r="372" spans="1:15" s="147" customFormat="1">
-      <c r="A372" s="207"/>
-      <c r="B372" s="206"/>
-      <c r="C372" s="206"/>
+      <c r="A372" s="209"/>
+      <c r="B372" s="208"/>
+      <c r="C372" s="208"/>
       <c r="D372" s="196" t="s">
         <v>1053</v>
       </c>
       <c r="E372" s="196">
         <v>2</v>
       </c>
-      <c r="F372" s="206"/>
-      <c r="G372" s="206"/>
+      <c r="F372" s="208"/>
+      <c r="G372" s="208"/>
       <c r="H372" s="53"/>
       <c r="O372" s="20"/>
     </row>
@@ -14357,13 +14378,13 @@
       <c r="O373" s="20"/>
     </row>
     <row r="374" spans="1:15" s="147" customFormat="1" ht="28.8" customHeight="1">
-      <c r="A374" s="207">
+      <c r="A374" s="209">
         <v>44980</v>
       </c>
-      <c r="B374" s="206" t="s">
+      <c r="B374" s="208" t="s">
         <v>1054</v>
       </c>
-      <c r="C374" s="206" t="s">
+      <c r="C374" s="208" t="s">
         <v>76</v>
       </c>
       <c r="D374" s="196" t="s">
@@ -14372,42 +14393,42 @@
       <c r="E374" s="196">
         <v>4</v>
       </c>
-      <c r="F374" s="206" t="s">
+      <c r="F374" s="208" t="s">
         <v>855</v>
       </c>
-      <c r="G374" s="206" t="s">
+      <c r="G374" s="208" t="s">
         <v>75</v>
       </c>
       <c r="H374" s="22"/>
       <c r="O374" s="20"/>
     </row>
     <row r="375" spans="1:15" s="147" customFormat="1">
-      <c r="A375" s="207"/>
-      <c r="B375" s="206"/>
-      <c r="C375" s="206"/>
+      <c r="A375" s="209"/>
+      <c r="B375" s="208"/>
+      <c r="C375" s="208"/>
       <c r="D375" s="196" t="s">
         <v>476</v>
       </c>
       <c r="E375" s="196">
         <v>2</v>
       </c>
-      <c r="F375" s="206"/>
-      <c r="G375" s="206"/>
+      <c r="F375" s="208"/>
+      <c r="G375" s="208"/>
       <c r="H375" s="22"/>
       <c r="O375" s="20"/>
     </row>
     <row r="376" spans="1:15" s="147" customFormat="1">
-      <c r="A376" s="207"/>
-      <c r="B376" s="206"/>
-      <c r="C376" s="206"/>
+      <c r="A376" s="209"/>
+      <c r="B376" s="208"/>
+      <c r="C376" s="208"/>
       <c r="D376" s="196" t="s">
         <v>964</v>
       </c>
       <c r="E376" s="196">
         <v>9</v>
       </c>
-      <c r="F376" s="206"/>
-      <c r="G376" s="206"/>
+      <c r="F376" s="208"/>
+      <c r="G376" s="208"/>
       <c r="H376" s="22"/>
       <c r="O376" s="20"/>
     </row>
@@ -14459,13 +14480,13 @@
       <c r="O379" s="20"/>
     </row>
     <row r="380" spans="1:15" s="147" customFormat="1" ht="28.8" customHeight="1">
-      <c r="A380" s="207">
+      <c r="A380" s="209">
         <v>44982</v>
       </c>
-      <c r="B380" s="206" t="s">
+      <c r="B380" s="208" t="s">
         <v>1086</v>
       </c>
-      <c r="C380" s="206" t="s">
+      <c r="C380" s="208" t="s">
         <v>76</v>
       </c>
       <c r="D380" s="202" t="s">
@@ -14474,42 +14495,42 @@
       <c r="E380" s="202">
         <v>13</v>
       </c>
-      <c r="F380" s="206" t="s">
+      <c r="F380" s="208" t="s">
         <v>855</v>
       </c>
-      <c r="G380" s="206" t="s">
+      <c r="G380" s="208" t="s">
         <v>75</v>
       </c>
       <c r="H380" s="22"/>
       <c r="O380" s="20"/>
     </row>
     <row r="381" spans="1:15" s="147" customFormat="1">
-      <c r="A381" s="207"/>
-      <c r="B381" s="206"/>
-      <c r="C381" s="206"/>
+      <c r="A381" s="209"/>
+      <c r="B381" s="208"/>
+      <c r="C381" s="208"/>
       <c r="D381" s="202" t="s">
         <v>964</v>
       </c>
       <c r="E381" s="202">
         <v>1</v>
       </c>
-      <c r="F381" s="206"/>
-      <c r="G381" s="206"/>
+      <c r="F381" s="208"/>
+      <c r="G381" s="208"/>
       <c r="H381" s="53"/>
       <c r="O381" s="20"/>
     </row>
     <row r="382" spans="1:15" s="147" customFormat="1">
-      <c r="A382" s="207"/>
-      <c r="B382" s="206"/>
-      <c r="C382" s="206"/>
+      <c r="A382" s="209"/>
+      <c r="B382" s="208"/>
+      <c r="C382" s="208"/>
       <c r="D382" s="202" t="s">
         <v>477</v>
       </c>
       <c r="E382" s="202">
         <v>8</v>
       </c>
-      <c r="F382" s="206"/>
-      <c r="G382" s="206"/>
+      <c r="F382" s="208"/>
+      <c r="G382" s="208"/>
       <c r="H382" s="53"/>
       <c r="O382" s="20"/>
     </row>
@@ -14561,13 +14582,13 @@
       <c r="O385" s="20"/>
     </row>
     <row r="386" spans="1:15" s="147" customFormat="1">
-      <c r="A386" s="207">
+      <c r="A386" s="209">
         <v>44986</v>
       </c>
-      <c r="B386" s="206" t="s">
+      <c r="B386" s="208" t="s">
         <v>1082</v>
       </c>
-      <c r="C386" s="206" t="s">
+      <c r="C386" s="208" t="s">
         <v>76</v>
       </c>
       <c r="D386" s="202" t="s">
@@ -14576,57 +14597,57 @@
       <c r="E386" s="202">
         <v>1</v>
       </c>
-      <c r="F386" s="206" t="s">
+      <c r="F386" s="208" t="s">
         <v>855</v>
       </c>
-      <c r="G386" s="206" t="s">
+      <c r="G386" s="208" t="s">
         <v>75</v>
       </c>
       <c r="H386" s="53"/>
       <c r="O386" s="20"/>
     </row>
     <row r="387" spans="1:15" s="147" customFormat="1">
-      <c r="A387" s="207"/>
-      <c r="B387" s="206"/>
-      <c r="C387" s="206"/>
+      <c r="A387" s="209"/>
+      <c r="B387" s="208"/>
+      <c r="C387" s="208"/>
       <c r="D387" s="202" t="s">
         <v>475</v>
       </c>
       <c r="E387" s="202">
         <v>6</v>
       </c>
-      <c r="F387" s="206"/>
-      <c r="G387" s="206"/>
+      <c r="F387" s="208"/>
+      <c r="G387" s="208"/>
       <c r="H387" s="53"/>
       <c r="O387" s="20"/>
     </row>
     <row r="388" spans="1:15" s="147" customFormat="1">
-      <c r="A388" s="207"/>
-      <c r="B388" s="206"/>
-      <c r="C388" s="206"/>
+      <c r="A388" s="209"/>
+      <c r="B388" s="208"/>
+      <c r="C388" s="208"/>
       <c r="D388" s="202" t="s">
         <v>842</v>
       </c>
       <c r="E388" s="202">
         <v>8</v>
       </c>
-      <c r="F388" s="206"/>
-      <c r="G388" s="206"/>
+      <c r="F388" s="208"/>
+      <c r="G388" s="208"/>
       <c r="H388" s="53"/>
       <c r="O388" s="20"/>
     </row>
     <row r="389" spans="1:15" s="147" customFormat="1">
-      <c r="A389" s="207"/>
-      <c r="B389" s="206"/>
-      <c r="C389" s="206"/>
+      <c r="A389" s="209"/>
+      <c r="B389" s="208"/>
+      <c r="C389" s="208"/>
       <c r="D389" s="202" t="s">
         <v>477</v>
       </c>
       <c r="E389" s="202">
         <v>3</v>
       </c>
-      <c r="F389" s="206"/>
-      <c r="G389" s="206"/>
+      <c r="F389" s="208"/>
+      <c r="G389" s="208"/>
       <c r="H389" s="53"/>
       <c r="O389" s="20"/>
     </row>
@@ -14642,13 +14663,13 @@
       <c r="O390" s="20"/>
     </row>
     <row r="391" spans="1:15" s="147" customFormat="1" ht="28.8" customHeight="1">
-      <c r="A391" s="207">
+      <c r="A391" s="209">
         <v>44988</v>
       </c>
-      <c r="B391" s="206" t="s">
+      <c r="B391" s="208" t="s">
         <v>1084</v>
       </c>
-      <c r="C391" s="206" t="s">
+      <c r="C391" s="208" t="s">
         <v>76</v>
       </c>
       <c r="D391" s="202" t="s">
@@ -14657,42 +14678,42 @@
       <c r="E391" s="202">
         <v>3</v>
       </c>
-      <c r="F391" s="206" t="s">
+      <c r="F391" s="208" t="s">
         <v>855</v>
       </c>
-      <c r="G391" s="206" t="s">
+      <c r="G391" s="208" t="s">
         <v>75</v>
       </c>
       <c r="H391" s="53"/>
       <c r="O391" s="20"/>
     </row>
     <row r="392" spans="1:15" s="147" customFormat="1">
-      <c r="A392" s="207"/>
-      <c r="B392" s="206"/>
-      <c r="C392" s="206"/>
+      <c r="A392" s="209"/>
+      <c r="B392" s="208"/>
+      <c r="C392" s="208"/>
       <c r="D392" s="202" t="s">
         <v>475</v>
       </c>
       <c r="E392" s="202">
         <v>2</v>
       </c>
-      <c r="F392" s="206"/>
-      <c r="G392" s="206"/>
+      <c r="F392" s="208"/>
+      <c r="G392" s="208"/>
       <c r="H392" s="53"/>
       <c r="O392" s="20"/>
     </row>
     <row r="393" spans="1:15" s="147" customFormat="1">
-      <c r="A393" s="207"/>
-      <c r="B393" s="206"/>
-      <c r="C393" s="206"/>
+      <c r="A393" s="209"/>
+      <c r="B393" s="208"/>
+      <c r="C393" s="208"/>
       <c r="D393" s="202" t="s">
         <v>842</v>
       </c>
       <c r="E393" s="202">
         <v>6</v>
       </c>
-      <c r="F393" s="206"/>
-      <c r="G393" s="206"/>
+      <c r="F393" s="208"/>
+      <c r="G393" s="208"/>
       <c r="H393" s="53"/>
       <c r="O393" s="20"/>
     </row>
@@ -14780,13 +14801,13 @@
       <c r="O398" s="20"/>
     </row>
     <row r="399" spans="1:15" s="147" customFormat="1" ht="28.8" customHeight="1">
-      <c r="A399" s="207">
+      <c r="A399" s="209">
         <v>44993</v>
       </c>
-      <c r="B399" s="206" t="s">
+      <c r="B399" s="208" t="s">
         <v>1090</v>
       </c>
-      <c r="C399" s="206" t="s">
+      <c r="C399" s="208" t="s">
         <v>76</v>
       </c>
       <c r="D399" s="202" t="s">
@@ -14795,72 +14816,72 @@
       <c r="E399" s="202">
         <v>2</v>
       </c>
-      <c r="F399" s="206" t="s">
+      <c r="F399" s="208" t="s">
         <v>855</v>
       </c>
-      <c r="G399" s="206" t="s">
+      <c r="G399" s="208" t="s">
         <v>75</v>
       </c>
       <c r="H399" s="53"/>
       <c r="O399" s="20"/>
     </row>
     <row r="400" spans="1:15" s="147" customFormat="1">
-      <c r="A400" s="207"/>
-      <c r="B400" s="206"/>
-      <c r="C400" s="206"/>
+      <c r="A400" s="209"/>
+      <c r="B400" s="208"/>
+      <c r="C400" s="208"/>
       <c r="D400" s="202" t="s">
         <v>477</v>
       </c>
       <c r="E400" s="202">
         <v>5</v>
       </c>
-      <c r="F400" s="206"/>
-      <c r="G400" s="206"/>
+      <c r="F400" s="208"/>
+      <c r="G400" s="208"/>
       <c r="H400" s="53"/>
       <c r="O400" s="20"/>
     </row>
     <row r="401" spans="1:15" s="147" customFormat="1">
-      <c r="A401" s="207"/>
-      <c r="B401" s="206"/>
-      <c r="C401" s="206"/>
+      <c r="A401" s="209"/>
+      <c r="B401" s="208"/>
+      <c r="C401" s="208"/>
       <c r="D401" s="202" t="s">
         <v>964</v>
       </c>
       <c r="E401" s="202">
         <v>10</v>
       </c>
-      <c r="F401" s="206"/>
-      <c r="G401" s="206"/>
+      <c r="F401" s="208"/>
+      <c r="G401" s="208"/>
       <c r="H401" s="53"/>
       <c r="O401" s="20"/>
     </row>
     <row r="402" spans="1:15" s="147" customFormat="1">
-      <c r="A402" s="207"/>
-      <c r="B402" s="206"/>
-      <c r="C402" s="206"/>
+      <c r="A402" s="209"/>
+      <c r="B402" s="208"/>
+      <c r="C402" s="208"/>
       <c r="D402" s="202" t="s">
         <v>674</v>
       </c>
       <c r="E402" s="202">
         <v>4</v>
       </c>
-      <c r="F402" s="206"/>
-      <c r="G402" s="206"/>
+      <c r="F402" s="208"/>
+      <c r="G402" s="208"/>
       <c r="H402" s="22"/>
       <c r="O402" s="20"/>
     </row>
     <row r="403" spans="1:15" s="147" customFormat="1">
-      <c r="A403" s="207"/>
-      <c r="B403" s="206"/>
-      <c r="C403" s="206"/>
+      <c r="A403" s="209"/>
+      <c r="B403" s="208"/>
+      <c r="C403" s="208"/>
       <c r="D403" s="202" t="s">
         <v>476</v>
       </c>
       <c r="E403" s="202">
         <v>4</v>
       </c>
-      <c r="F403" s="206"/>
-      <c r="G403" s="206"/>
+      <c r="F403" s="208"/>
+      <c r="G403" s="208"/>
       <c r="H403" s="22"/>
       <c r="O403" s="20"/>
     </row>
@@ -14875,199 +14896,298 @@
       <c r="H404" s="53"/>
       <c r="O404" s="20"/>
     </row>
-    <row r="405" spans="1:15" s="147" customFormat="1">
-      <c r="A405" s="202"/>
-      <c r="B405" s="202"/>
-      <c r="C405" s="202"/>
-      <c r="D405" s="202"/>
-      <c r="E405" s="202"/>
-      <c r="F405" s="202"/>
-      <c r="G405" s="202"/>
+    <row r="405" spans="1:15" s="147" customFormat="1" ht="28.8" customHeight="1">
+      <c r="A405" s="209">
+        <v>44996</v>
+      </c>
+      <c r="B405" s="208" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C405" s="208" t="s">
+        <v>76</v>
+      </c>
+      <c r="D405" s="207" t="s">
+        <v>674</v>
+      </c>
+      <c r="E405" s="207">
+        <v>6</v>
+      </c>
+      <c r="F405" s="208" t="s">
+        <v>855</v>
+      </c>
+      <c r="G405" s="208" t="s">
+        <v>75</v>
+      </c>
       <c r="H405" s="22"/>
       <c r="O405" s="20"/>
     </row>
     <row r="406" spans="1:15" s="147" customFormat="1">
-      <c r="A406" s="202"/>
-      <c r="B406" s="202"/>
-      <c r="C406" s="202"/>
-      <c r="D406" s="202"/>
-      <c r="E406" s="202"/>
-      <c r="F406" s="202"/>
-      <c r="G406" s="202"/>
+      <c r="A406" s="209"/>
+      <c r="B406" s="208"/>
+      <c r="C406" s="208"/>
+      <c r="D406" s="207" t="s">
+        <v>475</v>
+      </c>
+      <c r="E406" s="207">
+        <v>3</v>
+      </c>
+      <c r="F406" s="208"/>
+      <c r="G406" s="208"/>
       <c r="H406" s="22"/>
       <c r="O406" s="20"/>
     </row>
     <row r="407" spans="1:15" s="147" customFormat="1">
-      <c r="A407" s="202"/>
-      <c r="B407" s="202"/>
-      <c r="C407" s="202"/>
-      <c r="D407" s="202"/>
-      <c r="E407" s="202"/>
-      <c r="F407" s="202"/>
-      <c r="G407" s="202"/>
+      <c r="A407" s="209"/>
+      <c r="B407" s="208"/>
+      <c r="C407" s="208"/>
+      <c r="D407" s="207" t="s">
+        <v>477</v>
+      </c>
+      <c r="E407" s="207">
+        <v>3</v>
+      </c>
+      <c r="F407" s="208"/>
+      <c r="G407" s="208"/>
       <c r="H407" s="22"/>
       <c r="O407" s="20"/>
     </row>
     <row r="408" spans="1:15" s="147" customFormat="1">
-      <c r="A408" s="202"/>
-      <c r="B408" s="202"/>
-      <c r="C408" s="202"/>
-      <c r="D408" s="202"/>
-      <c r="E408" s="202"/>
-      <c r="F408" s="202"/>
-      <c r="G408" s="202"/>
-      <c r="H408" s="22"/>
+      <c r="A408" s="23"/>
+      <c r="B408" s="23"/>
+      <c r="C408" s="23"/>
+      <c r="D408" s="23"/>
+      <c r="E408" s="23"/>
+      <c r="F408" s="23"/>
+      <c r="G408" s="23"/>
+      <c r="H408" s="53"/>
       <c r="O408" s="20"/>
     </row>
     <row r="409" spans="1:15" s="147" customFormat="1">
-      <c r="A409" s="202"/>
-      <c r="B409" s="202"/>
-      <c r="C409" s="202"/>
-      <c r="D409" s="202"/>
-      <c r="E409" s="202"/>
-      <c r="F409" s="202"/>
-      <c r="G409" s="202"/>
+      <c r="A409" s="206">
+        <v>44998</v>
+      </c>
+      <c r="B409" s="207" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C409" s="207" t="s">
+        <v>373</v>
+      </c>
+      <c r="D409" s="207" t="s">
+        <v>1111</v>
+      </c>
+      <c r="E409" s="207">
+        <v>1</v>
+      </c>
+      <c r="F409" s="207" t="s">
+        <v>855</v>
+      </c>
+      <c r="G409" s="207" t="s">
+        <v>75</v>
+      </c>
       <c r="H409" s="22"/>
       <c r="O409" s="20"/>
     </row>
     <row r="410" spans="1:15" s="147" customFormat="1">
-      <c r="A410" s="202"/>
-      <c r="B410" s="202"/>
-      <c r="C410" s="202"/>
-      <c r="D410" s="202"/>
-      <c r="E410" s="202"/>
-      <c r="F410" s="202"/>
-      <c r="G410" s="202"/>
-      <c r="H410" s="22"/>
+      <c r="A410" s="23"/>
+      <c r="B410" s="23"/>
+      <c r="C410" s="23"/>
+      <c r="D410" s="23"/>
+      <c r="E410" s="23"/>
+      <c r="F410" s="23"/>
+      <c r="G410" s="23"/>
+      <c r="H410" s="53"/>
       <c r="O410" s="20"/>
     </row>
-    <row r="411" spans="1:15" s="147" customFormat="1">
-      <c r="A411" s="202"/>
-      <c r="B411" s="202"/>
-      <c r="C411" s="202"/>
-      <c r="D411" s="202"/>
-      <c r="E411" s="202"/>
-      <c r="F411" s="202"/>
-      <c r="G411" s="202"/>
+    <row r="411" spans="1:15" s="147" customFormat="1" ht="28.8">
+      <c r="A411" s="206">
+        <v>45000</v>
+      </c>
+      <c r="B411" s="207" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C411" s="207" t="s">
+        <v>76</v>
+      </c>
+      <c r="D411" s="207" t="s">
+        <v>477</v>
+      </c>
+      <c r="E411" s="207">
+        <v>12</v>
+      </c>
+      <c r="F411" s="207" t="s">
+        <v>855</v>
+      </c>
+      <c r="G411" s="207" t="s">
+        <v>75</v>
+      </c>
       <c r="H411" s="22"/>
       <c r="O411" s="20"/>
     </row>
     <row r="412" spans="1:15" s="147" customFormat="1">
-      <c r="A412" s="202"/>
-      <c r="B412" s="202"/>
-      <c r="C412" s="202"/>
-      <c r="D412" s="202"/>
-      <c r="E412" s="202"/>
-      <c r="F412" s="202"/>
-      <c r="G412" s="202"/>
-      <c r="H412" s="22"/>
+      <c r="A412" s="23"/>
+      <c r="B412" s="23"/>
+      <c r="C412" s="23"/>
+      <c r="D412" s="23"/>
+      <c r="E412" s="23"/>
+      <c r="F412" s="23"/>
+      <c r="G412" s="23"/>
+      <c r="H412" s="53"/>
       <c r="O412" s="20"/>
     </row>
     <row r="413" spans="1:15" s="147" customFormat="1">
-      <c r="A413" s="202"/>
-      <c r="B413" s="202"/>
-      <c r="C413" s="202"/>
-      <c r="D413" s="202"/>
-      <c r="E413" s="202"/>
-      <c r="F413" s="202"/>
-      <c r="G413" s="202"/>
+      <c r="A413" s="207"/>
+      <c r="B413" s="207"/>
+      <c r="C413" s="207"/>
+      <c r="D413" s="207"/>
+      <c r="E413" s="207"/>
+      <c r="F413" s="207"/>
+      <c r="G413" s="207"/>
       <c r="H413" s="22"/>
       <c r="O413" s="20"/>
     </row>
     <row r="414" spans="1:15" s="147" customFormat="1">
-      <c r="A414" s="202"/>
-      <c r="B414" s="202"/>
-      <c r="C414" s="202"/>
-      <c r="D414" s="202"/>
-      <c r="E414" s="202"/>
-      <c r="F414" s="202"/>
-      <c r="G414" s="202"/>
+      <c r="A414" s="207"/>
+      <c r="B414" s="207"/>
+      <c r="C414" s="207"/>
+      <c r="D414" s="207"/>
+      <c r="E414" s="207"/>
+      <c r="F414" s="207"/>
+      <c r="G414" s="207"/>
       <c r="H414" s="22"/>
       <c r="O414" s="20"/>
     </row>
     <row r="415" spans="1:15" s="147" customFormat="1">
-      <c r="A415" s="202"/>
-      <c r="B415" s="202"/>
-      <c r="C415" s="202"/>
-      <c r="D415" s="202"/>
-      <c r="E415" s="202"/>
-      <c r="F415" s="202"/>
-      <c r="G415" s="202"/>
+      <c r="A415" s="207"/>
+      <c r="B415" s="207"/>
+      <c r="C415" s="207"/>
+      <c r="D415" s="207"/>
+      <c r="E415" s="207"/>
+      <c r="F415" s="207"/>
+      <c r="G415" s="207"/>
       <c r="H415" s="22"/>
       <c r="O415" s="20"/>
     </row>
     <row r="416" spans="1:15" s="147" customFormat="1">
-      <c r="A416" s="202"/>
-      <c r="B416" s="202"/>
-      <c r="C416" s="202"/>
-      <c r="D416" s="202"/>
-      <c r="E416" s="202"/>
-      <c r="F416" s="202"/>
-      <c r="G416" s="202"/>
+      <c r="A416" s="207"/>
+      <c r="B416" s="207"/>
+      <c r="C416" s="207"/>
+      <c r="D416" s="207"/>
+      <c r="E416" s="207"/>
+      <c r="F416" s="207"/>
+      <c r="G416" s="207"/>
       <c r="H416" s="22"/>
       <c r="O416" s="20"/>
     </row>
-    <row r="417" spans="8:15" s="147" customFormat="1">
+    <row r="417" spans="1:15" s="147" customFormat="1">
+      <c r="A417" s="207"/>
+      <c r="B417" s="207"/>
+      <c r="C417" s="207"/>
+      <c r="D417" s="207"/>
+      <c r="E417" s="207"/>
+      <c r="F417" s="207"/>
+      <c r="G417" s="207"/>
       <c r="H417" s="22"/>
       <c r="O417" s="20"/>
     </row>
-    <row r="418" spans="8:15" s="147" customFormat="1">
+    <row r="418" spans="1:15" s="147" customFormat="1">
+      <c r="A418" s="207"/>
+      <c r="B418" s="207"/>
+      <c r="C418" s="207"/>
+      <c r="D418" s="207"/>
+      <c r="E418" s="207"/>
+      <c r="F418" s="207"/>
+      <c r="G418" s="207"/>
       <c r="H418" s="22"/>
       <c r="O418" s="20"/>
     </row>
-    <row r="419" spans="8:15" s="147" customFormat="1">
+    <row r="419" spans="1:15" s="147" customFormat="1">
+      <c r="A419" s="207"/>
+      <c r="B419" s="207"/>
+      <c r="C419" s="207"/>
+      <c r="D419" s="207"/>
+      <c r="E419" s="207"/>
+      <c r="F419" s="207"/>
+      <c r="G419" s="207"/>
       <c r="H419" s="22"/>
       <c r="O419" s="20"/>
     </row>
-    <row r="420" spans="8:15" s="147" customFormat="1">
+    <row r="420" spans="1:15" s="147" customFormat="1">
+      <c r="A420" s="207"/>
+      <c r="B420" s="207"/>
+      <c r="C420" s="207"/>
+      <c r="D420" s="207"/>
+      <c r="E420" s="207"/>
+      <c r="F420" s="207"/>
+      <c r="G420" s="207"/>
       <c r="H420" s="22"/>
       <c r="O420" s="20"/>
     </row>
-    <row r="421" spans="8:15" s="147" customFormat="1">
+    <row r="421" spans="1:15" s="147" customFormat="1">
+      <c r="A421" s="207"/>
+      <c r="B421" s="207"/>
+      <c r="C421" s="207"/>
+      <c r="D421" s="207"/>
+      <c r="E421" s="207"/>
+      <c r="F421" s="207"/>
+      <c r="G421" s="207"/>
       <c r="H421" s="22"/>
       <c r="O421" s="20"/>
     </row>
-    <row r="422" spans="8:15" s="147" customFormat="1">
+    <row r="422" spans="1:15" s="147" customFormat="1">
+      <c r="A422" s="207"/>
+      <c r="B422" s="207"/>
+      <c r="C422" s="207"/>
+      <c r="D422" s="207"/>
+      <c r="E422" s="207"/>
+      <c r="F422" s="207"/>
+      <c r="G422" s="207"/>
       <c r="H422" s="22"/>
       <c r="O422" s="20"/>
     </row>
-    <row r="423" spans="8:15" s="147" customFormat="1">
+    <row r="423" spans="1:15" s="147" customFormat="1">
+      <c r="A423" s="207"/>
+      <c r="B423" s="207"/>
+      <c r="C423" s="207"/>
+      <c r="D423" s="207"/>
+      <c r="E423" s="207"/>
+      <c r="F423" s="207"/>
+      <c r="G423" s="207"/>
       <c r="H423" s="22"/>
       <c r="O423" s="20"/>
     </row>
-    <row r="424" spans="8:15" s="147" customFormat="1">
+    <row r="424" spans="1:15" s="147" customFormat="1">
       <c r="H424" s="22"/>
       <c r="O424" s="20"/>
     </row>
-    <row r="425" spans="8:15" s="147" customFormat="1">
+    <row r="425" spans="1:15" s="147" customFormat="1">
       <c r="H425" s="22"/>
       <c r="O425" s="20"/>
     </row>
-    <row r="426" spans="8:15" s="147" customFormat="1">
+    <row r="426" spans="1:15" s="147" customFormat="1">
       <c r="H426" s="22"/>
       <c r="O426" s="20"/>
     </row>
-    <row r="427" spans="8:15" s="147" customFormat="1">
+    <row r="427" spans="1:15" s="147" customFormat="1">
       <c r="H427" s="22"/>
       <c r="O427" s="20"/>
     </row>
-    <row r="428" spans="8:15" s="147" customFormat="1">
+    <row r="428" spans="1:15" s="147" customFormat="1">
       <c r="H428" s="22"/>
       <c r="O428" s="20"/>
     </row>
-    <row r="429" spans="8:15" s="147" customFormat="1">
+    <row r="429" spans="1:15" s="147" customFormat="1">
       <c r="H429" s="22"/>
       <c r="O429" s="20"/>
     </row>
-    <row r="430" spans="8:15" s="147" customFormat="1">
+    <row r="430" spans="1:15" s="147" customFormat="1">
       <c r="H430" s="22"/>
       <c r="O430" s="20"/>
     </row>
-    <row r="431" spans="8:15" s="147" customFormat="1">
+    <row r="431" spans="1:15" s="147" customFormat="1">
       <c r="H431" s="22"/>
       <c r="O431" s="20"/>
     </row>
-    <row r="432" spans="8:15" s="147" customFormat="1">
+    <row r="432" spans="1:15" s="147" customFormat="1">
       <c r="H432" s="22"/>
       <c r="O432" s="20"/>
     </row>
@@ -15991,7 +16111,12 @@
       <c r="O522" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="392">
+  <mergeCells count="397">
+    <mergeCell ref="A405:A407"/>
+    <mergeCell ref="B405:B407"/>
+    <mergeCell ref="C405:C407"/>
+    <mergeCell ref="F405:F407"/>
+    <mergeCell ref="G405:G407"/>
     <mergeCell ref="I280:I281"/>
     <mergeCell ref="J280:J281"/>
     <mergeCell ref="K280:K281"/>
@@ -16392,11 +16517,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I186"/>
+  <dimension ref="A1:I188"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A164" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A187" sqref="A187"/>
+      <pane ySplit="1" topLeftCell="A165" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A189" sqref="A189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -19667,21 +19792,30 @@
       </c>
     </row>
     <row r="143" spans="1:8">
-      <c r="A143" s="50">
+      <c r="A143" s="57">
         <v>44944</v>
       </c>
-      <c r="B143" s="48" t="s">
+      <c r="B143" s="58" t="s">
         <v>966</v>
       </c>
-      <c r="C143" s="48" t="s">
+      <c r="C143" s="58" t="s">
         <v>377</v>
       </c>
-      <c r="D143" s="48">
+      <c r="D143" s="58">
+        <v>31860</v>
+      </c>
+      <c r="E143" s="58" t="s">
+        <v>90</v>
+      </c>
+      <c r="F143" s="57">
+        <v>44989</v>
+      </c>
+      <c r="G143" s="58" t="s">
+        <v>89</v>
+      </c>
+      <c r="H143" s="21">
         <v>33371.58</v>
       </c>
-      <c r="E143" s="48"/>
-      <c r="F143" s="50"/>
-      <c r="G143" s="48"/>
     </row>
     <row r="144" spans="1:8">
       <c r="A144" s="50">
@@ -20126,17 +20260,26 @@
       </c>
     </row>
     <row r="163" spans="1:8">
-      <c r="A163" s="50">
+      <c r="A163" s="57">
         <v>44967</v>
       </c>
-      <c r="B163" s="16" t="s">
+      <c r="B163" s="58" t="s">
         <v>1027</v>
       </c>
-      <c r="C163" s="16" t="s">
+      <c r="C163" s="58" t="s">
         <v>76</v>
       </c>
-      <c r="D163" s="16">
+      <c r="D163" s="58">
         <v>44946</v>
+      </c>
+      <c r="E163" s="58" t="s">
+        <v>90</v>
+      </c>
+      <c r="F163" s="57">
+        <v>44999</v>
+      </c>
+      <c r="G163" s="58" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -20163,17 +20306,26 @@
       </c>
     </row>
     <row r="165" spans="1:8">
-      <c r="A165" s="50">
+      <c r="A165" s="57">
         <v>44970</v>
       </c>
-      <c r="B165" s="16" t="s">
+      <c r="B165" s="58" t="s">
         <v>1036</v>
       </c>
-      <c r="C165" s="16" t="s">
+      <c r="C165" s="58" t="s">
         <v>76</v>
       </c>
-      <c r="D165" s="16">
+      <c r="D165" s="58">
         <v>26491</v>
+      </c>
+      <c r="E165" s="58" t="s">
+        <v>90</v>
+      </c>
+      <c r="F165" s="57">
+        <v>44999</v>
+      </c>
+      <c r="G165" s="58" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -20214,14 +20366,24 @@
       </c>
     </row>
     <row r="168" spans="1:8">
-      <c r="A168" s="50">
+      <c r="A168" s="57">
         <v>44973</v>
       </c>
-      <c r="C168" s="16" t="s">
+      <c r="B168" s="58"/>
+      <c r="C168" s="58" t="s">
         <v>1046</v>
       </c>
-      <c r="D168" s="16">
+      <c r="D168" s="58">
         <v>2815</v>
+      </c>
+      <c r="E168" s="58" t="s">
+        <v>90</v>
+      </c>
+      <c r="F168" s="57">
+        <v>45000</v>
+      </c>
+      <c r="G168" s="58" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -20373,22 +20535,22 @@
     </row>
     <row r="177" spans="1:7">
       <c r="A177" s="57">
-        <v>44988</v>
-      </c>
-      <c r="B177" s="58">
-        <v>7334</v>
+        <v>44987</v>
+      </c>
+      <c r="B177" s="58" t="s">
+        <v>1107</v>
       </c>
       <c r="C177" s="58" t="s">
-        <v>1057</v>
+        <v>672</v>
       </c>
       <c r="D177" s="58">
-        <v>5700</v>
+        <v>9765</v>
       </c>
       <c r="E177" s="58" t="s">
         <v>90</v>
       </c>
       <c r="F177" s="57">
-        <v>44981</v>
+        <v>44987</v>
       </c>
       <c r="G177" s="58" t="s">
         <v>89</v>
@@ -20396,20 +20558,22 @@
     </row>
     <row r="178" spans="1:7">
       <c r="A178" s="57">
-        <v>44989</v>
-      </c>
-      <c r="B178" s="58"/>
+        <v>44988</v>
+      </c>
+      <c r="B178" s="58">
+        <v>7334</v>
+      </c>
       <c r="C178" s="58" t="s">
-        <v>76</v>
+        <v>1057</v>
       </c>
       <c r="D178" s="58">
-        <v>100000</v>
+        <v>5700</v>
       </c>
       <c r="E178" s="58" t="s">
         <v>90</v>
       </c>
       <c r="F178" s="57">
-        <v>44989</v>
+        <v>44981</v>
       </c>
       <c r="G178" s="58" t="s">
         <v>89</v>
@@ -20419,20 +20583,18 @@
       <c r="A179" s="57">
         <v>44989</v>
       </c>
-      <c r="B179" s="58">
-        <v>2308</v>
-      </c>
+      <c r="B179" s="58"/>
       <c r="C179" s="58" t="s">
-        <v>125</v>
+        <v>76</v>
       </c>
       <c r="D179" s="58">
-        <v>2837.66</v>
+        <v>100000</v>
       </c>
       <c r="E179" s="58" t="s">
         <v>90</v>
       </c>
       <c r="F179" s="57">
-        <v>44993</v>
+        <v>44989</v>
       </c>
       <c r="G179" s="58" t="s">
         <v>89</v>
@@ -20443,13 +20605,13 @@
         <v>44989</v>
       </c>
       <c r="B180" s="58">
-        <v>2319</v>
+        <v>2308</v>
       </c>
       <c r="C180" s="58" t="s">
         <v>125</v>
       </c>
       <c r="D180" s="58">
-        <v>960.52</v>
+        <v>2837.66</v>
       </c>
       <c r="E180" s="58" t="s">
         <v>90</v>
@@ -20462,34 +20624,40 @@
       </c>
     </row>
     <row r="181" spans="1:7">
-      <c r="A181" s="50">
-        <v>44991</v>
-      </c>
-      <c r="B181" s="48" t="s">
-        <v>1089</v>
-      </c>
-      <c r="C181" s="48" t="s">
-        <v>859</v>
-      </c>
-      <c r="D181" s="48">
-        <v>38527</v>
-      </c>
-      <c r="E181" s="48"/>
-      <c r="F181" s="48"/>
-      <c r="G181" s="48"/>
+      <c r="A181" s="57">
+        <v>44989</v>
+      </c>
+      <c r="B181" s="58">
+        <v>2319</v>
+      </c>
+      <c r="C181" s="58" t="s">
+        <v>125</v>
+      </c>
+      <c r="D181" s="58">
+        <v>960.52</v>
+      </c>
+      <c r="E181" s="58" t="s">
+        <v>90</v>
+      </c>
+      <c r="F181" s="57">
+        <v>44993</v>
+      </c>
+      <c r="G181" s="58" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="182" spans="1:7">
       <c r="A182" s="50">
         <v>44991</v>
       </c>
       <c r="B182" s="48" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="C182" s="48" t="s">
-        <v>76</v>
+        <v>859</v>
       </c>
       <c r="D182" s="48">
-        <v>51601</v>
+        <v>38527</v>
       </c>
       <c r="E182" s="48"/>
       <c r="F182" s="48"/>
@@ -20497,76 +20665,117 @@
     </row>
     <row r="183" spans="1:7">
       <c r="A183" s="50">
-        <v>44992</v>
-      </c>
-      <c r="C183" s="16" t="s">
-        <v>1046</v>
-      </c>
-      <c r="D183" s="16">
-        <v>2000</v>
-      </c>
-      <c r="E183" s="16" t="s">
-        <v>369</v>
-      </c>
+        <v>44991</v>
+      </c>
+      <c r="B183" s="48" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C183" s="48" t="s">
+        <v>76</v>
+      </c>
+      <c r="D183" s="48">
+        <v>51601</v>
+      </c>
+      <c r="E183" s="48"/>
+      <c r="F183" s="48"/>
+      <c r="G183" s="48"/>
     </row>
     <row r="184" spans="1:7">
       <c r="A184" s="57">
-        <v>44993</v>
-      </c>
-      <c r="B184" s="58" t="s">
-        <v>1096</v>
-      </c>
+        <v>44992</v>
+      </c>
+      <c r="B184" s="58"/>
       <c r="C184" s="58" t="s">
-        <v>373</v>
+        <v>1046</v>
       </c>
       <c r="D184" s="58">
-        <v>649</v>
+        <v>2000</v>
       </c>
       <c r="E184" s="58" t="s">
-        <v>90</v>
+        <v>369</v>
       </c>
       <c r="F184" s="57">
-        <v>44993</v>
+        <v>45000</v>
       </c>
       <c r="G184" s="58" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="185" spans="1:7">
-      <c r="A185" s="50">
+      <c r="A185" s="57">
+        <v>44993</v>
+      </c>
+      <c r="B185" s="58" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C185" s="58" t="s">
+        <v>373</v>
+      </c>
+      <c r="D185" s="58">
+        <v>649</v>
+      </c>
+      <c r="E185" s="58" t="s">
+        <v>90</v>
+      </c>
+      <c r="F185" s="57">
+        <v>44993</v>
+      </c>
+      <c r="G185" s="58" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7">
+      <c r="A186" s="50">
         <v>44998</v>
       </c>
-      <c r="B185" s="48" t="s">
+      <c r="B186" s="48" t="s">
         <v>1099</v>
       </c>
-      <c r="C185" s="48" t="s">
+      <c r="C186" s="48" t="s">
         <v>373</v>
       </c>
-      <c r="D185" s="48">
+      <c r="D186" s="48">
         <v>6195</v>
       </c>
-      <c r="E185" s="48"/>
-      <c r="F185" s="50"/>
-      <c r="G185" s="48"/>
-    </row>
-    <row r="186" spans="1:7">
-      <c r="A186" s="57">
+      <c r="E186" s="48"/>
+      <c r="F186" s="50"/>
+      <c r="G186" s="48"/>
+    </row>
+    <row r="187" spans="1:7">
+      <c r="A187" s="50">
+        <v>44998</v>
+      </c>
+      <c r="B187" s="48" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C187" s="48" t="s">
+        <v>76</v>
+      </c>
+      <c r="D187" s="48">
+        <v>26621</v>
+      </c>
+      <c r="E187" s="48"/>
+      <c r="F187" s="50"/>
+      <c r="G187" s="48"/>
+    </row>
+    <row r="188" spans="1:7">
+      <c r="A188" s="57">
         <v>44999</v>
       </c>
-      <c r="B186" s="58"/>
-      <c r="C186" s="58" t="s">
+      <c r="B188" s="58"/>
+      <c r="C188" s="58" t="s">
         <v>76</v>
       </c>
-      <c r="D186" s="58">
+      <c r="D188" s="58">
         <v>100000</v>
       </c>
-      <c r="E186" s="58" t="s">
+      <c r="E188" s="58" t="s">
         <v>90</v>
       </c>
-      <c r="F186" s="57">
+      <c r="F188" s="57">
         <v>44999</v>
       </c>
-      <c r="G186" s="58" t="s">
+      <c r="G188" s="58" t="s">
         <v>89</v>
       </c>
     </row>
@@ -20580,9 +20789,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C94" sqref="C94"/>
+      <selection pane="bottomLeft" activeCell="E90" sqref="E90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8"/>
@@ -22666,10 +22875,10 @@
   <sheetData>
     <row r="1" spans="1:4" ht="15" thickBot="1"/>
     <row r="2" spans="1:4" ht="21" thickBot="1">
-      <c r="B2" s="219" t="s">
+      <c r="B2" s="221" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="220"/>
+      <c r="C2" s="222"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
@@ -22807,10 +23016,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T550"/>
+  <dimension ref="A1:T557"/>
   <sheetViews>
-    <sheetView topLeftCell="A523" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A548" sqref="A548"/>
+    <sheetView topLeftCell="A541" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C568" sqref="C568"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8"/>
@@ -22829,28 +23038,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20">
-      <c r="A1" s="221" t="s">
+      <c r="A1" s="223" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="221"/>
-      <c r="C1" s="221"/>
-      <c r="D1" s="221"/>
-      <c r="E1" s="221"/>
-      <c r="F1" s="221"/>
-      <c r="G1" s="221"/>
-      <c r="H1" s="221"/>
-      <c r="I1" s="221"/>
-      <c r="J1" s="221"/>
-      <c r="K1" s="221"/>
-      <c r="L1" s="221"/>
-      <c r="M1" s="221"/>
-      <c r="N1" s="221"/>
-      <c r="O1" s="221"/>
-      <c r="P1" s="221"/>
-      <c r="Q1" s="221"/>
-      <c r="R1" s="221"/>
-      <c r="S1" s="221"/>
-      <c r="T1" s="221"/>
+      <c r="B1" s="223"/>
+      <c r="C1" s="223"/>
+      <c r="D1" s="223"/>
+      <c r="E1" s="223"/>
+      <c r="F1" s="223"/>
+      <c r="G1" s="223"/>
+      <c r="H1" s="223"/>
+      <c r="I1" s="223"/>
+      <c r="J1" s="223"/>
+      <c r="K1" s="223"/>
+      <c r="L1" s="223"/>
+      <c r="M1" s="223"/>
+      <c r="N1" s="223"/>
+      <c r="O1" s="223"/>
+      <c r="P1" s="223"/>
+      <c r="Q1" s="223"/>
+      <c r="R1" s="223"/>
+      <c r="S1" s="223"/>
+      <c r="T1" s="223"/>
     </row>
     <row r="2" spans="1:20">
       <c r="A2" s="25" t="s">
@@ -32014,13 +32223,116 @@
         <v>44</v>
       </c>
     </row>
+    <row r="548" spans="1:6">
+      <c r="A548" s="26">
+        <v>44999</v>
+      </c>
+      <c r="B548" s="24" t="s">
+        <v>759</v>
+      </c>
+      <c r="D548" s="24">
+        <v>5000</v>
+      </c>
+      <c r="F548" s="24">
+        <v>5044</v>
+      </c>
+    </row>
+    <row r="549" spans="1:6">
+      <c r="A549" s="26">
+        <v>44999</v>
+      </c>
+      <c r="B549" s="24" t="s">
+        <v>855</v>
+      </c>
+      <c r="C549" s="24" t="s">
+        <v>1031</v>
+      </c>
+      <c r="E549" s="24">
+        <v>1000</v>
+      </c>
+      <c r="F549" s="24">
+        <v>4044</v>
+      </c>
+    </row>
     <row r="550" spans="1:6">
-      <c r="D550" s="24">
+      <c r="A550" s="26">
+        <v>44999</v>
+      </c>
+      <c r="B550" s="24" t="s">
+        <v>855</v>
+      </c>
+      <c r="C550" s="24" t="s">
+        <v>1108</v>
+      </c>
+      <c r="E550" s="24">
+        <v>1000</v>
+      </c>
+      <c r="F550" s="24">
+        <f>F549-E550</f>
+        <v>3044</v>
+      </c>
+    </row>
+    <row r="551" spans="1:6">
+      <c r="A551" s="26">
+        <v>44999</v>
+      </c>
+      <c r="B551" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C551" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="E551" s="24">
+        <v>1000</v>
+      </c>
+      <c r="F551" s="24">
+        <f>F550-E551</f>
+        <v>2044</v>
+      </c>
+    </row>
+    <row r="552" spans="1:6">
+      <c r="A552" s="26">
+        <v>45000</v>
+      </c>
+      <c r="B552" s="24" t="s">
+        <v>855</v>
+      </c>
+      <c r="C552" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="E552" s="24">
+        <v>320</v>
+      </c>
+      <c r="F552" s="24">
+        <f>F551-E552</f>
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="553" spans="1:6">
+      <c r="A553" s="26">
+        <v>45000</v>
+      </c>
+      <c r="B553" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C553" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="E553" s="24">
+        <v>1000</v>
+      </c>
+      <c r="F553" s="24">
+        <f>F552-E553</f>
+        <v>724</v>
+      </c>
+    </row>
+    <row r="557" spans="1:6">
+      <c r="D557" s="24">
         <f>1988-320-288-120-270-400</f>
         <v>590</v>
       </c>
-      <c r="E550" s="24">
-        <f>D550-600</f>
+      <c r="E557" s="24">
+        <f>D557-600</f>
         <v>-10</v>
       </c>
     </row>

--- a/Stock.xlsx
+++ b/Stock.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" tabRatio="1000"/>
+    <workbookView minimized="1" xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" tabRatio="1000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="STOCK DETAILS " sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3858" uniqueCount="1112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3870" uniqueCount="1113">
   <si>
     <t>Date</t>
   </si>
@@ -3373,6 +3373,9 @@
   </si>
   <si>
     <t>LENOVO 18.5 LED D19-10 WITH HDMI 25/2/23 (Serial Number - SV90AM3V2)</t>
+  </si>
+  <si>
+    <t>Bale &amp; Sons</t>
   </si>
 </sst>
 </file>
@@ -4695,8 +4698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O522"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E284" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I293" sqref="I293"/>
+    <sheetView topLeftCell="A393" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A413" sqref="A413"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -16121,18 +16124,6 @@
     <mergeCell ref="J280:J281"/>
     <mergeCell ref="K280:K281"/>
     <mergeCell ref="N280:N281"/>
-    <mergeCell ref="I263:I265"/>
-    <mergeCell ref="J263:J265"/>
-    <mergeCell ref="K263:K265"/>
-    <mergeCell ref="N263:N265"/>
-    <mergeCell ref="I267:I271"/>
-    <mergeCell ref="J267:J271"/>
-    <mergeCell ref="K267:K271"/>
-    <mergeCell ref="N267:N271"/>
-    <mergeCell ref="I273:I278"/>
-    <mergeCell ref="J273:J278"/>
-    <mergeCell ref="K273:K278"/>
-    <mergeCell ref="N273:N278"/>
     <mergeCell ref="A359:A361"/>
     <mergeCell ref="B359:B361"/>
     <mergeCell ref="C359:C361"/>
@@ -16148,6 +16139,18 @@
     <mergeCell ref="C335:C337"/>
     <mergeCell ref="F335:F337"/>
     <mergeCell ref="G335:G337"/>
+    <mergeCell ref="I263:I265"/>
+    <mergeCell ref="J263:J265"/>
+    <mergeCell ref="K263:K265"/>
+    <mergeCell ref="N263:N265"/>
+    <mergeCell ref="I267:I271"/>
+    <mergeCell ref="J267:J271"/>
+    <mergeCell ref="K267:K271"/>
+    <mergeCell ref="N267:N271"/>
+    <mergeCell ref="I273:I278"/>
+    <mergeCell ref="J273:J278"/>
+    <mergeCell ref="K273:K278"/>
+    <mergeCell ref="N273:N278"/>
     <mergeCell ref="A345:A347"/>
     <mergeCell ref="B345:B347"/>
     <mergeCell ref="C345:C347"/>
@@ -16517,11 +16520,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I188"/>
+  <dimension ref="A1:I196"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A165" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A189" sqref="A189"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A182" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C196" sqref="C196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -20779,6 +20782,79 @@
         <v>89</v>
       </c>
     </row>
+    <row r="189" spans="1:7">
+      <c r="A189" s="50">
+        <v>45001</v>
+      </c>
+      <c r="B189" s="48">
+        <v>4616</v>
+      </c>
+      <c r="C189" s="48" t="s">
+        <v>1112</v>
+      </c>
+      <c r="D189" s="48">
+        <v>15435</v>
+      </c>
+      <c r="E189" s="48"/>
+      <c r="F189" s="50"/>
+      <c r="G189" s="48"/>
+    </row>
+    <row r="190" spans="1:7">
+      <c r="A190" s="50">
+        <v>45002</v>
+      </c>
+      <c r="B190" s="16">
+        <v>4398</v>
+      </c>
+      <c r="C190" s="16" t="s">
+        <v>286</v>
+      </c>
+      <c r="D190" s="16">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7">
+      <c r="A191" s="50">
+        <v>45003</v>
+      </c>
+      <c r="B191" s="16">
+        <v>2437</v>
+      </c>
+      <c r="C191" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="D191" s="16">
+        <v>314.48</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7">
+      <c r="A192" s="57">
+        <v>45003</v>
+      </c>
+      <c r="B192" s="58">
+        <v>2438</v>
+      </c>
+      <c r="C192" s="58" t="s">
+        <v>125</v>
+      </c>
+      <c r="D192" s="58">
+        <v>1059.4000000000001</v>
+      </c>
+      <c r="E192" s="58" t="s">
+        <v>334</v>
+      </c>
+      <c r="F192" s="57">
+        <v>45003</v>
+      </c>
+      <c r="G192" s="58" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="196" spans="3:3">
+      <c r="C196" s="16" t="s">
+        <v>67</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -20791,7 +20867,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E90" sqref="E90"/>
+      <selection pane="bottomLeft" activeCell="A86" sqref="A86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8"/>
@@ -23016,10 +23092,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T557"/>
+  <dimension ref="A1:T565"/>
   <sheetViews>
-    <sheetView topLeftCell="A541" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C568" sqref="C568"/>
+    <sheetView topLeftCell="A539" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A556" sqref="A556"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8"/>
@@ -32268,7 +32344,7 @@
         <v>1000</v>
       </c>
       <c r="F550" s="24">
-        <f>F549-E550</f>
+        <f t="shared" ref="F550:F555" si="20">F549-E550</f>
         <v>3044</v>
       </c>
     </row>
@@ -32283,11 +32359,11 @@
         <v>65</v>
       </c>
       <c r="E551" s="24">
-        <v>1000</v>
+        <v>1010</v>
       </c>
       <c r="F551" s="24">
-        <f>F550-E551</f>
-        <v>2044</v>
+        <f t="shared" si="20"/>
+        <v>2034</v>
       </c>
     </row>
     <row r="552" spans="1:6">
@@ -32304,8 +32380,8 @@
         <v>320</v>
       </c>
       <c r="F552" s="24">
-        <f>F551-E552</f>
-        <v>1724</v>
+        <f t="shared" si="20"/>
+        <v>1714</v>
       </c>
     </row>
     <row r="553" spans="1:6">
@@ -32322,17 +32398,74 @@
         <v>1000</v>
       </c>
       <c r="F553" s="24">
-        <f>F552-E553</f>
-        <v>724</v>
+        <f t="shared" si="20"/>
+        <v>714</v>
+      </c>
+    </row>
+    <row r="554" spans="1:6">
+      <c r="A554" s="26">
+        <v>45001</v>
+      </c>
+      <c r="B554" s="24" t="s">
+        <v>759</v>
+      </c>
+      <c r="C554" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="E554" s="24">
+        <v>100</v>
+      </c>
+      <c r="F554" s="24">
+        <f t="shared" si="20"/>
+        <v>614</v>
+      </c>
+    </row>
+    <row r="555" spans="1:6">
+      <c r="A555" s="26">
+        <v>45003</v>
+      </c>
+      <c r="B555" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="C555" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="E555" s="24">
+        <v>610</v>
+      </c>
+      <c r="F555" s="24">
+        <f t="shared" si="20"/>
+        <v>4</v>
       </c>
     </row>
     <row r="557" spans="1:6">
       <c r="D557" s="24">
+        <f>3000-380-1000-700</f>
+        <v>920</v>
+      </c>
+    </row>
+    <row r="558" spans="1:6">
+      <c r="C558" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="D558" s="24">
+        <f>1059-D557</f>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="560" spans="1:6">
+      <c r="E560" s="24">
+        <f>2500-139</f>
+        <v>2361</v>
+      </c>
+    </row>
+    <row r="565" spans="4:5">
+      <c r="D565" s="24">
         <f>1988-320-288-120-270-400</f>
         <v>590</v>
       </c>
-      <c r="E557" s="24">
-        <f>D557-600</f>
+      <c r="E565" s="24">
+        <f>D565-600</f>
         <v>-10</v>
       </c>
     </row>
@@ -32350,8 +32483,8 @@
   <dimension ref="A1:I189"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A182" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E189" sqref="E189"/>
+      <pane ySplit="1" topLeftCell="A164" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F207" sqref="F207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6"/>

--- a/Stock.xlsx
+++ b/Stock.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" tabRatio="1000" activeTab="6"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" tabRatio="1000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="STOCK DETAILS " sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3927" uniqueCount="1123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3933" uniqueCount="1123">
   <si>
     <t>Date</t>
   </si>
@@ -4341,16 +4341,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4360,6 +4354,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4702,25 +4702,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="39" customFormat="1">
-      <c r="A1" s="199" t="s">
+      <c r="A1" s="202" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="199"/>
-      <c r="C1" s="199"/>
-      <c r="D1" s="199"/>
-      <c r="E1" s="199"/>
-      <c r="F1" s="199"/>
-      <c r="G1" s="199"/>
+      <c r="B1" s="202"/>
+      <c r="C1" s="202"/>
+      <c r="D1" s="202"/>
+      <c r="E1" s="202"/>
+      <c r="F1" s="202"/>
+      <c r="G1" s="202"/>
       <c r="H1" s="36"/>
-      <c r="I1" s="200" t="s">
+      <c r="I1" s="203" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="200"/>
-      <c r="K1" s="200"/>
-      <c r="L1" s="200"/>
-      <c r="M1" s="200"/>
-      <c r="N1" s="200"/>
-      <c r="O1" s="200"/>
+      <c r="J1" s="203"/>
+      <c r="K1" s="203"/>
+      <c r="L1" s="203"/>
+      <c r="M1" s="203"/>
+      <c r="N1" s="203"/>
+      <c r="O1" s="203"/>
     </row>
     <row r="2" spans="1:15" s="39" customFormat="1">
       <c r="A2" s="15" t="s">
@@ -4790,13 +4790,13 @@
         <v>54</v>
       </c>
       <c r="H3" s="22"/>
-      <c r="I3" s="197">
+      <c r="I3" s="198">
         <v>44657</v>
       </c>
-      <c r="J3" s="198" t="s">
+      <c r="J3" s="197" t="s">
         <v>77</v>
       </c>
-      <c r="K3" s="198" t="s">
+      <c r="K3" s="197" t="s">
         <v>82</v>
       </c>
       <c r="L3" s="46" t="s">
@@ -4805,7 +4805,7 @@
       <c r="M3" s="46">
         <v>50</v>
       </c>
-      <c r="N3" s="198" t="s">
+      <c r="N3" s="197" t="s">
         <v>84</v>
       </c>
       <c r="O3" s="20"/>
@@ -4819,26 +4819,26 @@
       <c r="F4" s="23"/>
       <c r="G4" s="23"/>
       <c r="H4" s="52"/>
-      <c r="I4" s="197"/>
-      <c r="J4" s="198"/>
-      <c r="K4" s="198"/>
+      <c r="I4" s="198"/>
+      <c r="J4" s="197"/>
+      <c r="K4" s="197"/>
       <c r="L4" s="46" t="s">
         <v>85</v>
       </c>
       <c r="M4" s="46">
         <v>10</v>
       </c>
-      <c r="N4" s="198"/>
+      <c r="N4" s="197"/>
       <c r="O4" s="20"/>
     </row>
     <row r="5" spans="1:15" s="46" customFormat="1" ht="30" customHeight="1">
-      <c r="A5" s="197">
+      <c r="A5" s="198">
         <v>44808</v>
       </c>
-      <c r="B5" s="198" t="s">
+      <c r="B5" s="197" t="s">
         <v>88</v>
       </c>
-      <c r="C5" s="198" t="s">
+      <c r="C5" s="197" t="s">
         <v>76</v>
       </c>
       <c r="D5" s="55" t="s">
@@ -4847,10 +4847,10 @@
       <c r="E5" s="55">
         <v>15</v>
       </c>
-      <c r="F5" s="198" t="s">
+      <c r="F5" s="197" t="s">
         <v>75</v>
       </c>
-      <c r="G5" s="198" t="s">
+      <c r="G5" s="197" t="s">
         <v>54</v>
       </c>
       <c r="H5" s="53"/>
@@ -4863,25 +4863,25 @@
       <c r="O5" s="54"/>
     </row>
     <row r="6" spans="1:15" s="46" customFormat="1">
-      <c r="A6" s="197"/>
-      <c r="B6" s="198"/>
-      <c r="C6" s="198"/>
+      <c r="A6" s="198"/>
+      <c r="B6" s="197"/>
+      <c r="C6" s="197"/>
       <c r="D6" s="55" t="s">
         <v>92</v>
       </c>
       <c r="E6" s="55">
         <v>1</v>
       </c>
-      <c r="F6" s="198"/>
-      <c r="G6" s="198"/>
+      <c r="F6" s="197"/>
+      <c r="G6" s="197"/>
       <c r="H6" s="22"/>
-      <c r="I6" s="197">
+      <c r="I6" s="198">
         <v>44657</v>
       </c>
-      <c r="J6" s="198" t="s">
+      <c r="J6" s="197" t="s">
         <v>79</v>
       </c>
-      <c r="K6" s="198" t="s">
+      <c r="K6" s="197" t="s">
         <v>82</v>
       </c>
       <c r="L6" s="46" t="s">
@@ -4890,7 +4890,7 @@
       <c r="M6" s="46">
         <v>5</v>
       </c>
-      <c r="N6" s="198" t="s">
+      <c r="N6" s="197" t="s">
         <v>84</v>
       </c>
       <c r="O6" s="20"/>
@@ -4904,16 +4904,16 @@
       <c r="F7" s="23"/>
       <c r="G7" s="23"/>
       <c r="H7" s="52"/>
-      <c r="I7" s="197"/>
-      <c r="J7" s="198"/>
-      <c r="K7" s="198"/>
+      <c r="I7" s="198"/>
+      <c r="J7" s="197"/>
+      <c r="K7" s="197"/>
       <c r="L7" s="46" t="s">
         <v>87</v>
       </c>
       <c r="M7" s="46">
         <v>4</v>
       </c>
-      <c r="N7" s="198"/>
+      <c r="N7" s="197"/>
       <c r="O7" s="20"/>
     </row>
     <row r="8" spans="1:15" s="46" customFormat="1">
@@ -4956,13 +4956,13 @@
       <c r="F9" s="23"/>
       <c r="G9" s="23"/>
       <c r="H9" s="52"/>
-      <c r="I9" s="197" t="s">
+      <c r="I9" s="198" t="s">
         <v>413</v>
       </c>
-      <c r="J9" s="198" t="s">
+      <c r="J9" s="197" t="s">
         <v>100</v>
       </c>
-      <c r="K9" s="198" t="s">
+      <c r="K9" s="197" t="s">
         <v>82</v>
       </c>
       <c r="L9" s="65" t="s">
@@ -4971,7 +4971,7 @@
       <c r="M9" s="65">
         <v>2</v>
       </c>
-      <c r="N9" s="198" t="s">
+      <c r="N9" s="197" t="s">
         <v>84</v>
       </c>
       <c r="O9" s="20"/>
@@ -4999,16 +4999,16 @@
         <v>54</v>
       </c>
       <c r="H10" s="22"/>
-      <c r="I10" s="197"/>
-      <c r="J10" s="198"/>
-      <c r="K10" s="198"/>
+      <c r="I10" s="198"/>
+      <c r="J10" s="197"/>
+      <c r="K10" s="197"/>
       <c r="L10" s="65" t="s">
         <v>102</v>
       </c>
       <c r="M10" s="65">
         <v>8</v>
       </c>
-      <c r="N10" s="198"/>
+      <c r="N10" s="197"/>
       <c r="O10" s="20"/>
     </row>
     <row r="11" spans="1:15" s="46" customFormat="1" ht="43.2">
@@ -5020,16 +5020,16 @@
       <c r="F11" s="23"/>
       <c r="G11" s="23"/>
       <c r="H11" s="52"/>
-      <c r="I11" s="197"/>
-      <c r="J11" s="198"/>
-      <c r="K11" s="198"/>
+      <c r="I11" s="198"/>
+      <c r="J11" s="197"/>
+      <c r="K11" s="197"/>
       <c r="L11" s="65" t="s">
         <v>103</v>
       </c>
       <c r="M11" s="65">
         <v>8</v>
       </c>
-      <c r="N11" s="198"/>
+      <c r="N11" s="197"/>
       <c r="O11" s="20"/>
     </row>
     <row r="12" spans="1:15" s="46" customFormat="1">
@@ -5055,16 +5055,16 @@
         <v>54</v>
       </c>
       <c r="H12" s="22"/>
-      <c r="I12" s="197"/>
-      <c r="J12" s="198"/>
-      <c r="K12" s="198"/>
+      <c r="I12" s="198"/>
+      <c r="J12" s="197"/>
+      <c r="K12" s="197"/>
       <c r="L12" s="65" t="s">
         <v>104</v>
       </c>
       <c r="M12" s="65">
         <v>30.5</v>
       </c>
-      <c r="N12" s="198"/>
+      <c r="N12" s="197"/>
       <c r="O12" s="20"/>
     </row>
     <row r="13" spans="1:15" s="46" customFormat="1">
@@ -5169,13 +5169,13 @@
         <v>54</v>
       </c>
       <c r="H16" s="22"/>
-      <c r="I16" s="197" t="s">
+      <c r="I16" s="198" t="s">
         <v>418</v>
       </c>
-      <c r="J16" s="198" t="s">
+      <c r="J16" s="197" t="s">
         <v>108</v>
       </c>
-      <c r="K16" s="198" t="s">
+      <c r="K16" s="197" t="s">
         <v>82</v>
       </c>
       <c r="L16" s="72" t="s">
@@ -5184,7 +5184,7 @@
       <c r="M16" s="72">
         <v>2</v>
       </c>
-      <c r="N16" s="198" t="s">
+      <c r="N16" s="197" t="s">
         <v>84</v>
       </c>
       <c r="O16" s="20"/>
@@ -5198,16 +5198,16 @@
       <c r="F17" s="85"/>
       <c r="G17" s="85"/>
       <c r="H17" s="52"/>
-      <c r="I17" s="197"/>
-      <c r="J17" s="198"/>
-      <c r="K17" s="198"/>
+      <c r="I17" s="198"/>
+      <c r="J17" s="197"/>
+      <c r="K17" s="197"/>
       <c r="L17" s="72" t="s">
         <v>109</v>
       </c>
       <c r="M17" s="72">
         <v>2</v>
       </c>
-      <c r="N17" s="198"/>
+      <c r="N17" s="197"/>
       <c r="O17" s="20"/>
     </row>
     <row r="18" spans="1:15" s="46" customFormat="1" ht="28.8">
@@ -5250,13 +5250,13 @@
       <c r="F19" s="85"/>
       <c r="G19" s="85"/>
       <c r="H19" s="52"/>
-      <c r="I19" s="197">
+      <c r="I19" s="198">
         <v>44687</v>
       </c>
-      <c r="J19" s="198" t="s">
+      <c r="J19" s="197" t="s">
         <v>121</v>
       </c>
-      <c r="K19" s="198" t="s">
+      <c r="K19" s="197" t="s">
         <v>82</v>
       </c>
       <c r="L19" s="76" t="s">
@@ -5265,7 +5265,7 @@
       <c r="M19" s="76">
         <v>10</v>
       </c>
-      <c r="N19" s="198" t="s">
+      <c r="N19" s="197" t="s">
         <v>84</v>
       </c>
       <c r="O19" s="20"/>
@@ -5293,16 +5293,16 @@
         <v>54</v>
       </c>
       <c r="H20" s="22"/>
-      <c r="I20" s="197"/>
-      <c r="J20" s="198"/>
-      <c r="K20" s="198"/>
+      <c r="I20" s="198"/>
+      <c r="J20" s="197"/>
+      <c r="K20" s="197"/>
       <c r="L20" s="76" t="s">
         <v>122</v>
       </c>
       <c r="M20" s="76">
         <v>10</v>
       </c>
-      <c r="N20" s="198"/>
+      <c r="N20" s="197"/>
       <c r="O20" s="20"/>
     </row>
     <row r="21" spans="1:15" s="46" customFormat="1">
@@ -5314,16 +5314,16 @@
       <c r="F21" s="23"/>
       <c r="G21" s="23"/>
       <c r="H21" s="22"/>
-      <c r="I21" s="197"/>
-      <c r="J21" s="198"/>
-      <c r="K21" s="198"/>
+      <c r="I21" s="198"/>
+      <c r="J21" s="197"/>
+      <c r="K21" s="197"/>
       <c r="L21" s="76" t="s">
         <v>122</v>
       </c>
       <c r="M21" s="76">
         <v>50</v>
       </c>
-      <c r="N21" s="198"/>
+      <c r="N21" s="197"/>
       <c r="O21" s="20"/>
     </row>
     <row r="22" spans="1:15" s="46" customFormat="1" ht="28.8">
@@ -5349,16 +5349,16 @@
         <v>54</v>
       </c>
       <c r="H22" s="22"/>
-      <c r="I22" s="197"/>
-      <c r="J22" s="198"/>
-      <c r="K22" s="198"/>
+      <c r="I22" s="198"/>
+      <c r="J22" s="197"/>
+      <c r="K22" s="197"/>
       <c r="L22" s="76" t="s">
         <v>123</v>
       </c>
       <c r="M22" s="76">
         <v>2</v>
       </c>
-      <c r="N22" s="198"/>
+      <c r="N22" s="197"/>
       <c r="O22" s="20"/>
     </row>
     <row r="23" spans="1:15" s="46" customFormat="1">
@@ -5370,16 +5370,16 @@
       <c r="F23" s="23"/>
       <c r="G23" s="23"/>
       <c r="H23" s="52"/>
-      <c r="I23" s="197"/>
-      <c r="J23" s="198"/>
-      <c r="K23" s="198"/>
+      <c r="I23" s="198"/>
+      <c r="J23" s="197"/>
+      <c r="K23" s="197"/>
       <c r="L23" s="76" t="s">
         <v>124</v>
       </c>
       <c r="M23" s="76">
         <v>4</v>
       </c>
-      <c r="N23" s="198"/>
+      <c r="N23" s="197"/>
       <c r="O23" s="20"/>
     </row>
     <row r="24" spans="1:15" s="46" customFormat="1" ht="28.8">
@@ -5443,13 +5443,13 @@
       <c r="O25" s="20"/>
     </row>
     <row r="26" spans="1:15" s="46" customFormat="1">
-      <c r="A26" s="197" t="s">
+      <c r="A26" s="198" t="s">
         <v>428</v>
       </c>
-      <c r="B26" s="198">
+      <c r="B26" s="197">
         <v>1011</v>
       </c>
-      <c r="C26" s="198" t="s">
+      <c r="C26" s="197" t="s">
         <v>316</v>
       </c>
       <c r="D26" s="91" t="s">
@@ -5458,10 +5458,10 @@
       <c r="E26" s="91">
         <v>1</v>
       </c>
-      <c r="F26" s="198" t="s">
+      <c r="F26" s="197" t="s">
         <v>75</v>
       </c>
-      <c r="G26" s="198" t="s">
+      <c r="G26" s="197" t="s">
         <v>54</v>
       </c>
       <c r="H26" s="53"/>
@@ -5474,25 +5474,25 @@
       <c r="O26" s="54"/>
     </row>
     <row r="27" spans="1:15" s="46" customFormat="1">
-      <c r="A27" s="197"/>
-      <c r="B27" s="198"/>
-      <c r="C27" s="198"/>
+      <c r="A27" s="198"/>
+      <c r="B27" s="197"/>
+      <c r="C27" s="197"/>
       <c r="D27" s="91" t="s">
         <v>317</v>
       </c>
       <c r="E27" s="91">
         <v>1</v>
       </c>
-      <c r="F27" s="198"/>
-      <c r="G27" s="198"/>
+      <c r="F27" s="197"/>
+      <c r="G27" s="197"/>
       <c r="H27" s="52"/>
-      <c r="I27" s="197">
+      <c r="I27" s="198">
         <v>44692</v>
       </c>
-      <c r="J27" s="198" t="s">
+      <c r="J27" s="197" t="s">
         <v>135</v>
       </c>
-      <c r="K27" s="198" t="s">
+      <c r="K27" s="197" t="s">
         <v>82</v>
       </c>
       <c r="L27" s="87" t="s">
@@ -5501,34 +5501,34 @@
       <c r="M27" s="87">
         <v>5</v>
       </c>
-      <c r="N27" s="198" t="s">
+      <c r="N27" s="197" t="s">
         <v>84</v>
       </c>
       <c r="O27" s="20"/>
     </row>
     <row r="28" spans="1:15" s="46" customFormat="1">
-      <c r="A28" s="197"/>
-      <c r="B28" s="198"/>
-      <c r="C28" s="198"/>
+      <c r="A28" s="198"/>
+      <c r="B28" s="197"/>
+      <c r="C28" s="197"/>
       <c r="D28" s="91" t="s">
         <v>318</v>
       </c>
       <c r="E28" s="91">
         <v>1</v>
       </c>
-      <c r="F28" s="198"/>
-      <c r="G28" s="198"/>
+      <c r="F28" s="197"/>
+      <c r="G28" s="197"/>
       <c r="H28" s="22"/>
-      <c r="I28" s="197"/>
-      <c r="J28" s="198"/>
-      <c r="K28" s="198"/>
+      <c r="I28" s="198"/>
+      <c r="J28" s="197"/>
+      <c r="K28" s="197"/>
       <c r="L28" s="87" t="s">
         <v>105</v>
       </c>
       <c r="M28" s="87">
         <v>1</v>
       </c>
-      <c r="N28" s="198"/>
+      <c r="N28" s="197"/>
       <c r="O28" s="20"/>
     </row>
     <row r="29" spans="1:15" s="46" customFormat="1">
@@ -5549,13 +5549,13 @@
       <c r="O29" s="54"/>
     </row>
     <row r="30" spans="1:15" s="46" customFormat="1">
-      <c r="A30" s="197" t="s">
+      <c r="A30" s="198" t="s">
         <v>431</v>
       </c>
-      <c r="B30" s="198">
+      <c r="B30" s="197">
         <v>1045</v>
       </c>
-      <c r="C30" s="198" t="s">
+      <c r="C30" s="197" t="s">
         <v>316</v>
       </c>
       <c r="D30" s="92" t="s">
@@ -5564,10 +5564,10 @@
       <c r="E30" s="92">
         <v>1</v>
       </c>
-      <c r="F30" s="198" t="s">
+      <c r="F30" s="197" t="s">
         <v>75</v>
       </c>
-      <c r="G30" s="198" t="s">
+      <c r="G30" s="197" t="s">
         <v>54</v>
       </c>
       <c r="H30" s="22"/>
@@ -5592,17 +5592,17 @@
       <c r="O30" s="20"/>
     </row>
     <row r="31" spans="1:15" s="46" customFormat="1">
-      <c r="A31" s="197"/>
-      <c r="B31" s="198"/>
-      <c r="C31" s="198"/>
+      <c r="A31" s="198"/>
+      <c r="B31" s="197"/>
+      <c r="C31" s="197"/>
       <c r="D31" s="92" t="s">
         <v>321</v>
       </c>
       <c r="E31" s="92">
         <v>1</v>
       </c>
-      <c r="F31" s="198"/>
-      <c r="G31" s="198"/>
+      <c r="F31" s="197"/>
+      <c r="G31" s="197"/>
       <c r="H31" s="53"/>
       <c r="I31" s="23"/>
       <c r="J31" s="23"/>
@@ -5613,25 +5613,25 @@
       <c r="O31" s="54"/>
     </row>
     <row r="32" spans="1:15" s="46" customFormat="1">
-      <c r="A32" s="197"/>
-      <c r="B32" s="198"/>
-      <c r="C32" s="198"/>
+      <c r="A32" s="198"/>
+      <c r="B32" s="197"/>
+      <c r="C32" s="197"/>
       <c r="D32" s="92" t="s">
         <v>318</v>
       </c>
       <c r="E32" s="92">
         <v>1</v>
       </c>
-      <c r="F32" s="198"/>
-      <c r="G32" s="198"/>
+      <c r="F32" s="197"/>
+      <c r="G32" s="197"/>
       <c r="H32" s="22"/>
-      <c r="I32" s="197" t="s">
+      <c r="I32" s="198" t="s">
         <v>424</v>
       </c>
-      <c r="J32" s="198" t="s">
+      <c r="J32" s="197" t="s">
         <v>141</v>
       </c>
-      <c r="K32" s="198" t="s">
+      <c r="K32" s="197" t="s">
         <v>82</v>
       </c>
       <c r="L32" s="90" t="s">
@@ -5640,7 +5640,7 @@
       <c r="M32" s="90">
         <v>10</v>
       </c>
-      <c r="N32" s="198" t="s">
+      <c r="N32" s="197" t="s">
         <v>84</v>
       </c>
       <c r="O32" s="20"/>
@@ -5654,16 +5654,16 @@
       <c r="F33" s="23"/>
       <c r="G33" s="23"/>
       <c r="H33" s="52"/>
-      <c r="I33" s="197"/>
-      <c r="J33" s="198"/>
-      <c r="K33" s="198"/>
+      <c r="I33" s="198"/>
+      <c r="J33" s="197"/>
+      <c r="K33" s="197"/>
       <c r="L33" s="90" t="s">
         <v>122</v>
       </c>
       <c r="M33" s="90">
         <v>40</v>
       </c>
-      <c r="N33" s="198"/>
+      <c r="N33" s="197"/>
       <c r="O33" s="20"/>
     </row>
     <row r="34" spans="1:15" s="46" customFormat="1" ht="28.8">
@@ -5824,13 +5824,13 @@
       <c r="F39" s="23"/>
       <c r="G39" s="23"/>
       <c r="H39" s="52"/>
-      <c r="I39" s="197">
+      <c r="I39" s="198">
         <v>44714</v>
       </c>
-      <c r="J39" s="198" t="s">
+      <c r="J39" s="197" t="s">
         <v>344</v>
       </c>
-      <c r="K39" s="198" t="s">
+      <c r="K39" s="197" t="s">
         <v>82</v>
       </c>
       <c r="L39" s="98" t="s">
@@ -5839,7 +5839,7 @@
       <c r="M39" s="98">
         <v>5</v>
       </c>
-      <c r="N39" s="198" t="s">
+      <c r="N39" s="197" t="s">
         <v>84</v>
       </c>
       <c r="O39" s="20"/>
@@ -5867,16 +5867,16 @@
         <v>54</v>
       </c>
       <c r="H40" s="53"/>
-      <c r="I40" s="197"/>
-      <c r="J40" s="198"/>
-      <c r="K40" s="198"/>
+      <c r="I40" s="198"/>
+      <c r="J40" s="197"/>
+      <c r="K40" s="197"/>
       <c r="L40" s="98" t="s">
         <v>124</v>
       </c>
       <c r="M40" s="98">
         <v>3</v>
       </c>
-      <c r="N40" s="198"/>
+      <c r="N40" s="197"/>
       <c r="O40" s="54"/>
     </row>
     <row r="41" spans="1:15" s="46" customFormat="1">
@@ -5888,16 +5888,16 @@
       <c r="F41" s="23"/>
       <c r="G41" s="23"/>
       <c r="H41" s="78"/>
-      <c r="I41" s="197"/>
-      <c r="J41" s="198"/>
-      <c r="K41" s="198"/>
+      <c r="I41" s="198"/>
+      <c r="J41" s="197"/>
+      <c r="K41" s="197"/>
       <c r="L41" s="98" t="s">
         <v>348</v>
       </c>
       <c r="M41" s="98">
         <v>10</v>
       </c>
-      <c r="N41" s="198"/>
+      <c r="N41" s="197"/>
       <c r="O41" s="54"/>
     </row>
     <row r="42" spans="1:15" s="46" customFormat="1" ht="34.5" customHeight="1">
@@ -5923,16 +5923,16 @@
         <v>54</v>
       </c>
       <c r="H42" s="53"/>
-      <c r="I42" s="197"/>
-      <c r="J42" s="198"/>
-      <c r="K42" s="198"/>
+      <c r="I42" s="198"/>
+      <c r="J42" s="197"/>
+      <c r="K42" s="197"/>
       <c r="L42" s="98" t="s">
         <v>105</v>
       </c>
       <c r="M42" s="98">
         <v>1</v>
       </c>
-      <c r="N42" s="198"/>
+      <c r="N42" s="197"/>
       <c r="O42" s="54"/>
     </row>
     <row r="43" spans="1:15" s="46" customFormat="1">
@@ -5948,16 +5948,16 @@
       <c r="F43" s="195"/>
       <c r="G43" s="195"/>
       <c r="H43" s="78"/>
-      <c r="I43" s="197"/>
-      <c r="J43" s="198"/>
-      <c r="K43" s="198"/>
+      <c r="I43" s="198"/>
+      <c r="J43" s="197"/>
+      <c r="K43" s="197"/>
       <c r="L43" s="98" t="s">
         <v>349</v>
       </c>
       <c r="M43" s="98">
         <v>10</v>
       </c>
-      <c r="N43" s="198"/>
+      <c r="N43" s="197"/>
       <c r="O43" s="54"/>
     </row>
     <row r="44" spans="1:15" s="46" customFormat="1" ht="30" customHeight="1">
@@ -6054,13 +6054,13 @@
         <v>54</v>
       </c>
       <c r="H47" s="22"/>
-      <c r="I47" s="197">
+      <c r="I47" s="198">
         <v>44871</v>
       </c>
-      <c r="J47" s="198" t="s">
+      <c r="J47" s="197" t="s">
         <v>351</v>
       </c>
-      <c r="K47" s="198" t="s">
+      <c r="K47" s="197" t="s">
         <v>82</v>
       </c>
       <c r="L47" s="98" t="s">
@@ -6069,7 +6069,7 @@
       <c r="M47" s="98">
         <v>2</v>
       </c>
-      <c r="N47" s="198" t="s">
+      <c r="N47" s="197" t="s">
         <v>84</v>
       </c>
       <c r="O47" s="20"/>
@@ -6083,16 +6083,16 @@
       <c r="F48" s="23"/>
       <c r="G48" s="23"/>
       <c r="H48" s="52"/>
-      <c r="I48" s="197"/>
-      <c r="J48" s="198"/>
-      <c r="K48" s="198"/>
+      <c r="I48" s="198"/>
+      <c r="J48" s="197"/>
+      <c r="K48" s="197"/>
       <c r="L48" s="98" t="s">
         <v>105</v>
       </c>
       <c r="M48" s="98">
         <v>9</v>
       </c>
-      <c r="N48" s="198"/>
+      <c r="N48" s="197"/>
       <c r="O48" s="20"/>
     </row>
     <row r="49" spans="1:15" s="46" customFormat="1" ht="28.8">
@@ -6118,16 +6118,16 @@
         <v>54</v>
       </c>
       <c r="H49" s="22"/>
-      <c r="I49" s="197"/>
-      <c r="J49" s="198"/>
-      <c r="K49" s="198"/>
+      <c r="I49" s="198"/>
+      <c r="J49" s="197"/>
+      <c r="K49" s="197"/>
       <c r="L49" s="98" t="s">
         <v>352</v>
       </c>
       <c r="M49" s="98">
         <v>1</v>
       </c>
-      <c r="N49" s="198"/>
+      <c r="N49" s="197"/>
       <c r="O49" s="20"/>
     </row>
     <row r="50" spans="1:15" s="46" customFormat="1">
@@ -6139,16 +6139,16 @@
       <c r="F50" s="23"/>
       <c r="G50" s="23"/>
       <c r="H50" s="52"/>
-      <c r="I50" s="197"/>
-      <c r="J50" s="198"/>
-      <c r="K50" s="198"/>
+      <c r="I50" s="198"/>
+      <c r="J50" s="197"/>
+      <c r="K50" s="197"/>
       <c r="L50" s="98" t="s">
         <v>85</v>
       </c>
       <c r="M50" s="98">
         <v>20</v>
       </c>
-      <c r="N50" s="198"/>
+      <c r="N50" s="197"/>
       <c r="O50" s="20"/>
     </row>
     <row r="51" spans="1:15" s="46" customFormat="1" ht="28.8" customHeight="1">
@@ -6195,13 +6195,13 @@
       <c r="F52" s="196"/>
       <c r="G52" s="196"/>
       <c r="H52" s="52"/>
-      <c r="I52" s="197" t="s">
+      <c r="I52" s="198" t="s">
         <v>449</v>
       </c>
-      <c r="J52" s="198" t="s">
+      <c r="J52" s="197" t="s">
         <v>356</v>
       </c>
-      <c r="K52" s="198" t="s">
+      <c r="K52" s="197" t="s">
         <v>82</v>
       </c>
       <c r="L52" s="101" t="s">
@@ -6210,7 +6210,7 @@
       <c r="M52" s="101">
         <v>70</v>
       </c>
-      <c r="N52" s="198" t="s">
+      <c r="N52" s="197" t="s">
         <v>84</v>
       </c>
       <c r="O52" s="20"/>
@@ -6224,16 +6224,16 @@
       <c r="F53" s="23"/>
       <c r="G53" s="23"/>
       <c r="H53" s="22"/>
-      <c r="I53" s="197"/>
-      <c r="J53" s="198"/>
-      <c r="K53" s="198"/>
+      <c r="I53" s="198"/>
+      <c r="J53" s="197"/>
+      <c r="K53" s="197"/>
       <c r="L53" s="101" t="s">
         <v>352</v>
       </c>
       <c r="M53" s="101">
         <v>33</v>
       </c>
-      <c r="N53" s="198"/>
+      <c r="N53" s="197"/>
       <c r="O53" s="20"/>
     </row>
     <row r="54" spans="1:15" s="46" customFormat="1" ht="28.8" customHeight="1">
@@ -6280,13 +6280,13 @@
       <c r="F55" s="195"/>
       <c r="G55" s="195"/>
       <c r="H55" s="52"/>
-      <c r="I55" s="197" t="s">
+      <c r="I55" s="198" t="s">
         <v>449</v>
       </c>
-      <c r="J55" s="198" t="s">
+      <c r="J55" s="197" t="s">
         <v>357</v>
       </c>
-      <c r="K55" s="198" t="s">
+      <c r="K55" s="197" t="s">
         <v>82</v>
       </c>
       <c r="L55" s="101" t="s">
@@ -6295,7 +6295,7 @@
       <c r="M55" s="101">
         <v>1</v>
       </c>
-      <c r="N55" s="198" t="s">
+      <c r="N55" s="197" t="s">
         <v>84</v>
       </c>
       <c r="O55" s="20"/>
@@ -6313,16 +6313,16 @@
       <c r="F56" s="195"/>
       <c r="G56" s="195"/>
       <c r="H56" s="22"/>
-      <c r="I56" s="197"/>
-      <c r="J56" s="198"/>
-      <c r="K56" s="198"/>
+      <c r="I56" s="198"/>
+      <c r="J56" s="197"/>
+      <c r="K56" s="197"/>
       <c r="L56" s="101" t="s">
         <v>87</v>
       </c>
       <c r="M56" s="101">
         <v>1</v>
       </c>
-      <c r="N56" s="198"/>
+      <c r="N56" s="197"/>
       <c r="O56" s="20"/>
     </row>
     <row r="57" spans="1:15" s="46" customFormat="1">
@@ -6338,16 +6338,16 @@
       <c r="F57" s="195"/>
       <c r="G57" s="195"/>
       <c r="H57" s="22"/>
-      <c r="I57" s="197"/>
-      <c r="J57" s="198"/>
-      <c r="K57" s="198"/>
+      <c r="I57" s="198"/>
+      <c r="J57" s="197"/>
+      <c r="K57" s="197"/>
       <c r="L57" s="101" t="s">
         <v>352</v>
       </c>
       <c r="M57" s="101">
         <v>1</v>
       </c>
-      <c r="N57" s="198"/>
+      <c r="N57" s="197"/>
       <c r="O57" s="20"/>
     </row>
     <row r="58" spans="1:15" s="46" customFormat="1">
@@ -6384,13 +6384,13 @@
       <c r="F59" s="196"/>
       <c r="G59" s="196"/>
       <c r="H59" s="22"/>
-      <c r="I59" s="197" t="s">
+      <c r="I59" s="198" t="s">
         <v>436</v>
       </c>
-      <c r="J59" s="198" t="s">
+      <c r="J59" s="197" t="s">
         <v>381</v>
       </c>
-      <c r="K59" s="198" t="s">
+      <c r="K59" s="197" t="s">
         <v>82</v>
       </c>
       <c r="L59" s="106" t="s">
@@ -6399,7 +6399,7 @@
       <c r="M59" s="106">
         <v>3</v>
       </c>
-      <c r="N59" s="198" t="s">
+      <c r="N59" s="197" t="s">
         <v>84</v>
       </c>
       <c r="O59" s="20"/>
@@ -6413,16 +6413,16 @@
       <c r="F60" s="23"/>
       <c r="G60" s="23"/>
       <c r="H60" s="22"/>
-      <c r="I60" s="197"/>
-      <c r="J60" s="198"/>
-      <c r="K60" s="198"/>
+      <c r="I60" s="198"/>
+      <c r="J60" s="197"/>
+      <c r="K60" s="197"/>
       <c r="L60" s="106" t="s">
         <v>352</v>
       </c>
       <c r="M60" s="106">
         <v>9</v>
       </c>
-      <c r="N60" s="198"/>
+      <c r="N60" s="197"/>
       <c r="O60" s="20"/>
     </row>
     <row r="61" spans="1:15" s="46" customFormat="1" ht="12.75" customHeight="1">
@@ -6465,13 +6465,13 @@
       <c r="F62" s="23"/>
       <c r="G62" s="23"/>
       <c r="H62" s="52"/>
-      <c r="I62" s="197" t="s">
+      <c r="I62" s="198" t="s">
         <v>436</v>
       </c>
-      <c r="J62" s="198" t="s">
+      <c r="J62" s="197" t="s">
         <v>382</v>
       </c>
-      <c r="K62" s="198" t="s">
+      <c r="K62" s="197" t="s">
         <v>82</v>
       </c>
       <c r="L62" s="106" t="s">
@@ -6480,7 +6480,7 @@
       <c r="M62" s="106">
         <v>9</v>
       </c>
-      <c r="N62" s="198" t="s">
+      <c r="N62" s="197" t="s">
         <v>84</v>
       </c>
       <c r="O62" s="20"/>
@@ -6508,16 +6508,16 @@
         <v>75</v>
       </c>
       <c r="H63" s="22"/>
-      <c r="I63" s="197"/>
-      <c r="J63" s="198"/>
-      <c r="K63" s="198"/>
+      <c r="I63" s="198"/>
+      <c r="J63" s="197"/>
+      <c r="K63" s="197"/>
       <c r="L63" s="106" t="s">
         <v>85</v>
       </c>
       <c r="M63" s="106">
         <v>10</v>
       </c>
-      <c r="N63" s="198"/>
+      <c r="N63" s="197"/>
       <c r="O63" s="20"/>
     </row>
     <row r="64" spans="1:15" s="46" customFormat="1">
@@ -6529,16 +6529,16 @@
       <c r="F64" s="23"/>
       <c r="G64" s="23"/>
       <c r="H64" s="52"/>
-      <c r="I64" s="197"/>
-      <c r="J64" s="198"/>
-      <c r="K64" s="198"/>
+      <c r="I64" s="198"/>
+      <c r="J64" s="197"/>
+      <c r="K64" s="197"/>
       <c r="L64" s="106" t="s">
         <v>349</v>
       </c>
       <c r="M64" s="106">
         <v>10</v>
       </c>
-      <c r="N64" s="198"/>
+      <c r="N64" s="197"/>
       <c r="O64" s="20"/>
     </row>
     <row r="65" spans="1:15" s="46" customFormat="1">
@@ -6564,16 +6564,16 @@
         <v>75</v>
       </c>
       <c r="H65" s="22"/>
-      <c r="I65" s="197"/>
-      <c r="J65" s="198"/>
-      <c r="K65" s="198"/>
+      <c r="I65" s="198"/>
+      <c r="J65" s="197"/>
+      <c r="K65" s="197"/>
       <c r="L65" s="106" t="s">
         <v>87</v>
       </c>
       <c r="M65" s="106">
         <v>2</v>
       </c>
-      <c r="N65" s="198"/>
+      <c r="N65" s="197"/>
       <c r="O65" s="20"/>
     </row>
     <row r="66" spans="1:15" s="46" customFormat="1">
@@ -6585,16 +6585,16 @@
       <c r="F66" s="23"/>
       <c r="G66" s="23"/>
       <c r="H66" s="52"/>
-      <c r="I66" s="197"/>
-      <c r="J66" s="198"/>
-      <c r="K66" s="198"/>
+      <c r="I66" s="198"/>
+      <c r="J66" s="197"/>
+      <c r="K66" s="197"/>
       <c r="L66" s="106" t="s">
         <v>405</v>
       </c>
       <c r="M66" s="106">
         <v>2</v>
       </c>
-      <c r="N66" s="198"/>
+      <c r="N66" s="197"/>
       <c r="O66" s="20"/>
     </row>
     <row r="67" spans="1:15" s="46" customFormat="1">
@@ -6620,16 +6620,16 @@
         <v>75</v>
       </c>
       <c r="H67" s="22"/>
-      <c r="I67" s="197"/>
-      <c r="J67" s="198"/>
-      <c r="K67" s="198"/>
+      <c r="I67" s="198"/>
+      <c r="J67" s="197"/>
+      <c r="K67" s="197"/>
       <c r="L67" s="106" t="s">
         <v>406</v>
       </c>
       <c r="M67" s="106">
         <v>2</v>
       </c>
-      <c r="N67" s="198"/>
+      <c r="N67" s="197"/>
       <c r="O67" s="20"/>
     </row>
     <row r="68" spans="1:15" s="46" customFormat="1">
@@ -6641,16 +6641,16 @@
       <c r="F68" s="23"/>
       <c r="G68" s="23"/>
       <c r="H68" s="52"/>
-      <c r="I68" s="197"/>
-      <c r="J68" s="198"/>
-      <c r="K68" s="198"/>
+      <c r="I68" s="198"/>
+      <c r="J68" s="197"/>
+      <c r="K68" s="197"/>
       <c r="L68" s="106" t="s">
         <v>352</v>
       </c>
       <c r="M68" s="106">
         <v>1</v>
       </c>
-      <c r="N68" s="198"/>
+      <c r="N68" s="197"/>
       <c r="O68" s="20"/>
     </row>
     <row r="69" spans="1:15" s="46" customFormat="1" ht="28.8">
@@ -6676,16 +6676,16 @@
         <v>75</v>
       </c>
       <c r="H69" s="22"/>
-      <c r="I69" s="197"/>
-      <c r="J69" s="198"/>
-      <c r="K69" s="198"/>
+      <c r="I69" s="198"/>
+      <c r="J69" s="197"/>
+      <c r="K69" s="197"/>
       <c r="L69" s="106" t="s">
         <v>83</v>
       </c>
       <c r="M69" s="106">
         <v>2</v>
       </c>
-      <c r="N69" s="198"/>
+      <c r="N69" s="197"/>
       <c r="O69" s="20"/>
     </row>
     <row r="70" spans="1:15" s="46" customFormat="1">
@@ -6728,13 +6728,13 @@
         <v>75</v>
       </c>
       <c r="H71" s="22"/>
-      <c r="I71" s="197">
+      <c r="I71" s="198">
         <v>44744</v>
       </c>
-      <c r="J71" s="198" t="s">
+      <c r="J71" s="197" t="s">
         <v>409</v>
       </c>
-      <c r="K71" s="198" t="s">
+      <c r="K71" s="197" t="s">
         <v>82</v>
       </c>
       <c r="L71" s="108" t="s">
@@ -6743,7 +6743,7 @@
       <c r="M71" s="108">
         <v>12</v>
       </c>
-      <c r="N71" s="198" t="s">
+      <c r="N71" s="197" t="s">
         <v>84</v>
       </c>
       <c r="O71" s="20"/>
@@ -6761,16 +6761,16 @@
       <c r="F72" s="195"/>
       <c r="G72" s="195"/>
       <c r="H72" s="52"/>
-      <c r="I72" s="197"/>
-      <c r="J72" s="198"/>
-      <c r="K72" s="198"/>
+      <c r="I72" s="198"/>
+      <c r="J72" s="197"/>
+      <c r="K72" s="197"/>
       <c r="L72" s="108" t="s">
         <v>347</v>
       </c>
       <c r="M72" s="108">
         <v>10</v>
       </c>
-      <c r="N72" s="198"/>
+      <c r="N72" s="197"/>
       <c r="O72" s="20"/>
     </row>
     <row r="73" spans="1:15" s="46" customFormat="1" ht="30" customHeight="1">
@@ -6786,16 +6786,16 @@
       <c r="F73" s="196"/>
       <c r="G73" s="196"/>
       <c r="H73" s="22"/>
-      <c r="I73" s="197"/>
-      <c r="J73" s="198"/>
-      <c r="K73" s="198"/>
+      <c r="I73" s="198"/>
+      <c r="J73" s="197"/>
+      <c r="K73" s="197"/>
       <c r="L73" s="108" t="s">
         <v>352</v>
       </c>
       <c r="M73" s="108">
         <v>15</v>
       </c>
-      <c r="N73" s="198"/>
+      <c r="N73" s="197"/>
       <c r="O73" s="20"/>
     </row>
     <row r="74" spans="1:15" s="46" customFormat="1">
@@ -6807,16 +6807,16 @@
       <c r="F74" s="23"/>
       <c r="G74" s="23"/>
       <c r="H74" s="22"/>
-      <c r="I74" s="197"/>
-      <c r="J74" s="198"/>
-      <c r="K74" s="198"/>
+      <c r="I74" s="198"/>
+      <c r="J74" s="197"/>
+      <c r="K74" s="197"/>
       <c r="L74" s="108" t="s">
         <v>124</v>
       </c>
       <c r="M74" s="108">
         <v>7</v>
       </c>
-      <c r="N74" s="198"/>
+      <c r="N74" s="197"/>
       <c r="O74" s="20"/>
     </row>
     <row r="75" spans="1:15" s="46" customFormat="1" ht="57.6" customHeight="1">
@@ -6826,7 +6826,7 @@
       <c r="B75" s="194" t="s">
         <v>396</v>
       </c>
-      <c r="C75" s="201" t="s">
+      <c r="C75" s="199" t="s">
         <v>480</v>
       </c>
       <c r="D75" s="117" t="s">
@@ -6842,22 +6842,22 @@
         <v>75</v>
       </c>
       <c r="H75" s="22"/>
-      <c r="I75" s="197"/>
-      <c r="J75" s="198"/>
-      <c r="K75" s="198"/>
+      <c r="I75" s="198"/>
+      <c r="J75" s="197"/>
+      <c r="K75" s="197"/>
       <c r="L75" s="108" t="s">
         <v>349</v>
       </c>
       <c r="M75" s="108">
         <v>15</v>
       </c>
-      <c r="N75" s="198"/>
+      <c r="N75" s="197"/>
       <c r="O75" s="20"/>
     </row>
     <row r="76" spans="1:15" s="46" customFormat="1">
       <c r="A76" s="192"/>
       <c r="B76" s="195"/>
-      <c r="C76" s="202"/>
+      <c r="C76" s="200"/>
       <c r="D76" s="117" t="s">
         <v>493</v>
       </c>
@@ -6878,7 +6878,7 @@
     <row r="77" spans="1:15" s="46" customFormat="1" ht="14.4" customHeight="1">
       <c r="A77" s="192"/>
       <c r="B77" s="195"/>
-      <c r="C77" s="202"/>
+      <c r="C77" s="200"/>
       <c r="D77" s="117" t="s">
         <v>494</v>
       </c>
@@ -6911,7 +6911,7 @@
     <row r="78" spans="1:15" s="46" customFormat="1" ht="28.8">
       <c r="A78" s="192"/>
       <c r="B78" s="195"/>
-      <c r="C78" s="202"/>
+      <c r="C78" s="200"/>
       <c r="D78" s="117" t="s">
         <v>495</v>
       </c>
@@ -6932,7 +6932,7 @@
     <row r="79" spans="1:15" s="46" customFormat="1" ht="28.8">
       <c r="A79" s="192"/>
       <c r="B79" s="195"/>
-      <c r="C79" s="202"/>
+      <c r="C79" s="200"/>
       <c r="D79" s="117" t="s">
         <v>496</v>
       </c>
@@ -6965,7 +6965,7 @@
     <row r="80" spans="1:15" s="46" customFormat="1">
       <c r="A80" s="192"/>
       <c r="B80" s="195"/>
-      <c r="C80" s="202"/>
+      <c r="C80" s="200"/>
       <c r="D80" s="117" t="s">
         <v>497</v>
       </c>
@@ -6986,7 +6986,7 @@
     <row r="81" spans="1:15" s="46" customFormat="1">
       <c r="A81" s="192"/>
       <c r="B81" s="195"/>
-      <c r="C81" s="202"/>
+      <c r="C81" s="200"/>
       <c r="D81" s="117" t="s">
         <v>498</v>
       </c>
@@ -6996,13 +6996,13 @@
       <c r="F81" s="195"/>
       <c r="G81" s="195"/>
       <c r="H81" s="22"/>
-      <c r="I81" s="197">
+      <c r="I81" s="198">
         <v>44750</v>
       </c>
-      <c r="J81" s="198" t="s">
+      <c r="J81" s="197" t="s">
         <v>444</v>
       </c>
-      <c r="K81" s="198" t="s">
+      <c r="K81" s="197" t="s">
         <v>445</v>
       </c>
       <c r="L81" s="108" t="s">
@@ -7011,7 +7011,7 @@
       <c r="M81" s="108">
         <v>3</v>
       </c>
-      <c r="N81" s="198" t="s">
+      <c r="N81" s="197" t="s">
         <v>404</v>
       </c>
       <c r="O81" s="20"/>
@@ -7019,7 +7019,7 @@
     <row r="82" spans="1:15" s="46" customFormat="1">
       <c r="A82" s="192"/>
       <c r="B82" s="195"/>
-      <c r="C82" s="202"/>
+      <c r="C82" s="200"/>
       <c r="D82" s="117" t="s">
         <v>499</v>
       </c>
@@ -7029,22 +7029,22 @@
       <c r="F82" s="195"/>
       <c r="G82" s="195"/>
       <c r="H82" s="22"/>
-      <c r="I82" s="197"/>
-      <c r="J82" s="198"/>
-      <c r="K82" s="198"/>
+      <c r="I82" s="198"/>
+      <c r="J82" s="197"/>
+      <c r="K82" s="197"/>
       <c r="L82" s="108" t="s">
         <v>518</v>
       </c>
       <c r="M82" s="108">
         <v>1</v>
       </c>
-      <c r="N82" s="198"/>
+      <c r="N82" s="197"/>
       <c r="O82" s="20"/>
     </row>
     <row r="83" spans="1:15" s="46" customFormat="1">
       <c r="A83" s="192"/>
       <c r="B83" s="195"/>
-      <c r="C83" s="202"/>
+      <c r="C83" s="200"/>
       <c r="D83" s="117" t="s">
         <v>500</v>
       </c>
@@ -7054,22 +7054,22 @@
       <c r="F83" s="195"/>
       <c r="G83" s="195"/>
       <c r="H83" s="22"/>
-      <c r="I83" s="197"/>
-      <c r="J83" s="198"/>
-      <c r="K83" s="198"/>
+      <c r="I83" s="198"/>
+      <c r="J83" s="197"/>
+      <c r="K83" s="197"/>
       <c r="L83" s="108" t="s">
         <v>605</v>
       </c>
       <c r="M83" s="108">
         <v>1</v>
       </c>
-      <c r="N83" s="198"/>
+      <c r="N83" s="197"/>
       <c r="O83" s="20"/>
     </row>
     <row r="84" spans="1:15" s="46" customFormat="1">
       <c r="A84" s="192"/>
       <c r="B84" s="195"/>
-      <c r="C84" s="202"/>
+      <c r="C84" s="200"/>
       <c r="D84" s="117" t="s">
         <v>501</v>
       </c>
@@ -7079,22 +7079,22 @@
       <c r="F84" s="195"/>
       <c r="G84" s="195"/>
       <c r="H84" s="22"/>
-      <c r="I84" s="197"/>
-      <c r="J84" s="198"/>
-      <c r="K84" s="198"/>
+      <c r="I84" s="198"/>
+      <c r="J84" s="197"/>
+      <c r="K84" s="197"/>
       <c r="L84" s="108" t="s">
         <v>20</v>
       </c>
       <c r="M84" s="108">
         <v>8</v>
       </c>
-      <c r="N84" s="198"/>
+      <c r="N84" s="197"/>
       <c r="O84" s="20"/>
     </row>
     <row r="85" spans="1:15" s="46" customFormat="1">
       <c r="A85" s="192"/>
       <c r="B85" s="195"/>
-      <c r="C85" s="202"/>
+      <c r="C85" s="200"/>
       <c r="D85" s="117" t="s">
         <v>502</v>
       </c>
@@ -7104,22 +7104,22 @@
       <c r="F85" s="195"/>
       <c r="G85" s="195"/>
       <c r="H85" s="22"/>
-      <c r="I85" s="197"/>
-      <c r="J85" s="198"/>
-      <c r="K85" s="198"/>
+      <c r="I85" s="198"/>
+      <c r="J85" s="197"/>
+      <c r="K85" s="197"/>
       <c r="L85" s="108" t="s">
         <v>519</v>
       </c>
       <c r="M85" s="108">
         <v>3</v>
       </c>
-      <c r="N85" s="198"/>
+      <c r="N85" s="197"/>
       <c r="O85" s="20"/>
     </row>
     <row r="86" spans="1:15" s="46" customFormat="1">
       <c r="A86" s="192"/>
       <c r="B86" s="195"/>
-      <c r="C86" s="202"/>
+      <c r="C86" s="200"/>
       <c r="D86" s="117" t="s">
         <v>503</v>
       </c>
@@ -7129,22 +7129,22 @@
       <c r="F86" s="195"/>
       <c r="G86" s="195"/>
       <c r="H86" s="22"/>
-      <c r="I86" s="197"/>
-      <c r="J86" s="198"/>
-      <c r="K86" s="198"/>
+      <c r="I86" s="198"/>
+      <c r="J86" s="197"/>
+      <c r="K86" s="197"/>
       <c r="L86" s="108" t="s">
         <v>520</v>
       </c>
       <c r="M86" s="108">
         <v>1</v>
       </c>
-      <c r="N86" s="198"/>
+      <c r="N86" s="197"/>
       <c r="O86" s="20"/>
     </row>
     <row r="87" spans="1:15" s="46" customFormat="1" ht="43.2">
       <c r="A87" s="193"/>
       <c r="B87" s="196"/>
-      <c r="C87" s="203"/>
+      <c r="C87" s="201"/>
       <c r="D87" s="117" t="s">
         <v>504</v>
       </c>
@@ -7154,16 +7154,16 @@
       <c r="F87" s="196"/>
       <c r="G87" s="196"/>
       <c r="H87" s="22"/>
-      <c r="I87" s="197"/>
-      <c r="J87" s="198"/>
-      <c r="K87" s="198"/>
+      <c r="I87" s="198"/>
+      <c r="J87" s="197"/>
+      <c r="K87" s="197"/>
       <c r="L87" s="108" t="s">
         <v>521</v>
       </c>
       <c r="M87" s="108">
         <v>50</v>
       </c>
-      <c r="N87" s="198"/>
+      <c r="N87" s="197"/>
       <c r="O87" s="20"/>
     </row>
     <row r="88" spans="1:15" s="46" customFormat="1">
@@ -7266,13 +7266,13 @@
         <v>75</v>
       </c>
       <c r="H91" s="22"/>
-      <c r="I91" s="197">
+      <c r="I91" s="198">
         <v>44753</v>
       </c>
-      <c r="J91" s="198" t="s">
+      <c r="J91" s="197" t="s">
         <v>448</v>
       </c>
-      <c r="K91" s="198" t="s">
+      <c r="K91" s="197" t="s">
         <v>82</v>
       </c>
       <c r="L91" s="108" t="s">
@@ -7281,7 +7281,7 @@
       <c r="M91" s="128">
         <v>1</v>
       </c>
-      <c r="N91" s="198" t="s">
+      <c r="N91" s="197" t="s">
         <v>84</v>
       </c>
       <c r="O91" s="20"/>
@@ -7295,16 +7295,16 @@
       <c r="F92" s="23"/>
       <c r="G92" s="23"/>
       <c r="H92" s="52"/>
-      <c r="I92" s="197"/>
-      <c r="J92" s="198"/>
-      <c r="K92" s="198"/>
+      <c r="I92" s="198"/>
+      <c r="J92" s="197"/>
+      <c r="K92" s="197"/>
       <c r="L92" s="108" t="s">
         <v>86</v>
       </c>
       <c r="M92" s="128">
         <v>1</v>
       </c>
-      <c r="N92" s="198"/>
+      <c r="N92" s="197"/>
       <c r="O92" s="20"/>
     </row>
     <row r="93" spans="1:15" s="46" customFormat="1" ht="57.6" customHeight="1">
@@ -7351,13 +7351,13 @@
       <c r="F94" s="195"/>
       <c r="G94" s="195"/>
       <c r="H94" s="52"/>
-      <c r="I94" s="198" t="s">
+      <c r="I94" s="197" t="s">
         <v>454</v>
       </c>
-      <c r="J94" s="198" t="s">
+      <c r="J94" s="197" t="s">
         <v>470</v>
       </c>
-      <c r="K94" s="198" t="s">
+      <c r="K94" s="197" t="s">
         <v>82</v>
       </c>
       <c r="L94" s="109" t="s">
@@ -7366,7 +7366,7 @@
       <c r="M94" s="109">
         <v>4</v>
       </c>
-      <c r="N94" s="198" t="s">
+      <c r="N94" s="197" t="s">
         <v>84</v>
       </c>
       <c r="O94" s="20"/>
@@ -7384,16 +7384,16 @@
       <c r="F95" s="195"/>
       <c r="G95" s="195"/>
       <c r="H95" s="22"/>
-      <c r="I95" s="198"/>
-      <c r="J95" s="198"/>
-      <c r="K95" s="198"/>
+      <c r="I95" s="197"/>
+      <c r="J95" s="197"/>
+      <c r="K95" s="197"/>
       <c r="L95" s="109" t="s">
         <v>124</v>
       </c>
       <c r="M95" s="109">
         <v>10</v>
       </c>
-      <c r="N95" s="198"/>
+      <c r="N95" s="197"/>
       <c r="O95" s="20"/>
     </row>
     <row r="96" spans="1:15" s="46" customFormat="1" ht="28.8">
@@ -7409,16 +7409,16 @@
       <c r="F96" s="195"/>
       <c r="G96" s="195"/>
       <c r="H96" s="22"/>
-      <c r="I96" s="198"/>
-      <c r="J96" s="198"/>
-      <c r="K96" s="198"/>
+      <c r="I96" s="197"/>
+      <c r="J96" s="197"/>
+      <c r="K96" s="197"/>
       <c r="L96" s="109" t="s">
         <v>105</v>
       </c>
       <c r="M96" s="109">
         <v>10</v>
       </c>
-      <c r="N96" s="198"/>
+      <c r="N96" s="197"/>
       <c r="O96" s="20"/>
     </row>
     <row r="97" spans="1:15" s="46" customFormat="1" ht="28.8">
@@ -7434,16 +7434,16 @@
       <c r="F97" s="195"/>
       <c r="G97" s="195"/>
       <c r="H97" s="22"/>
-      <c r="I97" s="198"/>
-      <c r="J97" s="198"/>
-      <c r="K97" s="198"/>
+      <c r="I97" s="197"/>
+      <c r="J97" s="197"/>
+      <c r="K97" s="197"/>
       <c r="L97" s="109" t="s">
         <v>85</v>
       </c>
       <c r="M97" s="109">
         <v>10</v>
       </c>
-      <c r="N97" s="198"/>
+      <c r="N97" s="197"/>
       <c r="O97" s="20"/>
     </row>
     <row r="98" spans="1:15" s="46" customFormat="1" ht="28.8">
@@ -7459,16 +7459,16 @@
       <c r="F98" s="195"/>
       <c r="G98" s="195"/>
       <c r="H98" s="22"/>
-      <c r="I98" s="198"/>
-      <c r="J98" s="198"/>
-      <c r="K98" s="198"/>
+      <c r="I98" s="197"/>
+      <c r="J98" s="197"/>
+      <c r="K98" s="197"/>
       <c r="L98" s="109" t="s">
         <v>349</v>
       </c>
       <c r="M98" s="109">
         <v>10</v>
       </c>
-      <c r="N98" s="198"/>
+      <c r="N98" s="197"/>
       <c r="O98" s="20"/>
     </row>
     <row r="99" spans="1:15" s="46" customFormat="1">
@@ -7505,13 +7505,13 @@
       <c r="F100" s="196"/>
       <c r="G100" s="196"/>
       <c r="H100" s="22"/>
-      <c r="I100" s="198" t="s">
+      <c r="I100" s="197" t="s">
         <v>454</v>
       </c>
-      <c r="J100" s="198" t="s">
+      <c r="J100" s="197" t="s">
         <v>471</v>
       </c>
-      <c r="K100" s="198" t="s">
+      <c r="K100" s="197" t="s">
         <v>472</v>
       </c>
       <c r="L100" s="109" t="s">
@@ -7520,7 +7520,7 @@
       <c r="M100" s="109">
         <v>2</v>
       </c>
-      <c r="N100" s="198" t="s">
+      <c r="N100" s="197" t="s">
         <v>404</v>
       </c>
       <c r="O100" s="20"/>
@@ -7534,16 +7534,16 @@
       <c r="F101" s="23"/>
       <c r="G101" s="23"/>
       <c r="H101" s="22"/>
-      <c r="I101" s="198"/>
-      <c r="J101" s="198"/>
-      <c r="K101" s="198"/>
+      <c r="I101" s="197"/>
+      <c r="J101" s="197"/>
+      <c r="K101" s="197"/>
       <c r="L101" s="109" t="s">
         <v>527</v>
       </c>
       <c r="M101" s="109">
         <v>1</v>
       </c>
-      <c r="N101" s="198"/>
+      <c r="N101" s="197"/>
       <c r="O101" s="20"/>
     </row>
     <row r="102" spans="1:15" s="46" customFormat="1">
@@ -7569,16 +7569,16 @@
         <v>75</v>
       </c>
       <c r="H102" s="22"/>
-      <c r="I102" s="198"/>
-      <c r="J102" s="198"/>
-      <c r="K102" s="198"/>
+      <c r="I102" s="197"/>
+      <c r="J102" s="197"/>
+      <c r="K102" s="197"/>
       <c r="L102" s="109" t="s">
         <v>528</v>
       </c>
       <c r="M102" s="109">
         <v>1</v>
       </c>
-      <c r="N102" s="198"/>
+      <c r="N102" s="197"/>
       <c r="O102" s="20"/>
     </row>
     <row r="103" spans="1:15" s="46" customFormat="1">
@@ -7590,16 +7590,16 @@
       <c r="F103" s="23"/>
       <c r="G103" s="23"/>
       <c r="H103" s="52"/>
-      <c r="I103" s="198"/>
-      <c r="J103" s="198"/>
-      <c r="K103" s="198"/>
+      <c r="I103" s="197"/>
+      <c r="J103" s="197"/>
+      <c r="K103" s="197"/>
       <c r="L103" s="109" t="s">
         <v>20</v>
       </c>
       <c r="M103" s="109">
         <v>6</v>
       </c>
-      <c r="N103" s="198"/>
+      <c r="N103" s="197"/>
       <c r="O103" s="20"/>
     </row>
     <row r="104" spans="1:15" s="46" customFormat="1">
@@ -7625,16 +7625,16 @@
         <v>75</v>
       </c>
       <c r="H104" s="22"/>
-      <c r="I104" s="198"/>
-      <c r="J104" s="198"/>
-      <c r="K104" s="198"/>
+      <c r="I104" s="197"/>
+      <c r="J104" s="197"/>
+      <c r="K104" s="197"/>
       <c r="L104" s="109" t="s">
         <v>519</v>
       </c>
       <c r="M104" s="109">
         <v>3</v>
       </c>
-      <c r="N104" s="198"/>
+      <c r="N104" s="197"/>
       <c r="O104" s="20"/>
     </row>
     <row r="105" spans="1:15" s="46" customFormat="1">
@@ -7646,16 +7646,16 @@
       <c r="F105" s="23"/>
       <c r="G105" s="23"/>
       <c r="H105" s="52"/>
-      <c r="I105" s="198"/>
-      <c r="J105" s="198"/>
-      <c r="K105" s="198"/>
+      <c r="I105" s="197"/>
+      <c r="J105" s="197"/>
+      <c r="K105" s="197"/>
       <c r="L105" s="109" t="s">
         <v>529</v>
       </c>
       <c r="M105" s="109">
         <v>1</v>
       </c>
-      <c r="N105" s="198"/>
+      <c r="N105" s="197"/>
       <c r="O105" s="20"/>
     </row>
     <row r="106" spans="1:15" s="46" customFormat="1" ht="28.8" customHeight="1">
@@ -7681,16 +7681,16 @@
         <v>75</v>
       </c>
       <c r="H106" s="22"/>
-      <c r="I106" s="198"/>
-      <c r="J106" s="198"/>
-      <c r="K106" s="198"/>
+      <c r="I106" s="197"/>
+      <c r="J106" s="197"/>
+      <c r="K106" s="197"/>
       <c r="L106" s="109" t="s">
         <v>530</v>
       </c>
       <c r="M106" s="109">
         <v>1</v>
       </c>
-      <c r="N106" s="198"/>
+      <c r="N106" s="197"/>
       <c r="O106" s="20"/>
     </row>
     <row r="107" spans="1:15" s="46" customFormat="1">
@@ -7706,16 +7706,16 @@
       <c r="F107" s="195"/>
       <c r="G107" s="195"/>
       <c r="H107" s="52"/>
-      <c r="I107" s="198"/>
-      <c r="J107" s="198"/>
-      <c r="K107" s="198"/>
+      <c r="I107" s="197"/>
+      <c r="J107" s="197"/>
+      <c r="K107" s="197"/>
       <c r="L107" s="109" t="s">
         <v>69</v>
       </c>
       <c r="M107" s="109">
         <v>1</v>
       </c>
-      <c r="N107" s="198"/>
+      <c r="N107" s="197"/>
       <c r="O107" s="20"/>
     </row>
     <row r="108" spans="1:15" s="46" customFormat="1" ht="28.8" customHeight="1">
@@ -7731,16 +7731,16 @@
       <c r="F108" s="195"/>
       <c r="G108" s="195"/>
       <c r="H108" s="22"/>
-      <c r="I108" s="198"/>
-      <c r="J108" s="198"/>
-      <c r="K108" s="198"/>
+      <c r="I108" s="197"/>
+      <c r="J108" s="197"/>
+      <c r="K108" s="197"/>
       <c r="L108" s="109" t="s">
         <v>531</v>
       </c>
       <c r="M108" s="109">
         <v>8</v>
       </c>
-      <c r="N108" s="198"/>
+      <c r="N108" s="197"/>
       <c r="O108" s="20"/>
     </row>
     <row r="109" spans="1:15" s="46" customFormat="1">
@@ -7756,16 +7756,16 @@
       <c r="F109" s="195"/>
       <c r="G109" s="195"/>
       <c r="H109" s="22"/>
-      <c r="I109" s="198"/>
-      <c r="J109" s="198"/>
-      <c r="K109" s="198"/>
+      <c r="I109" s="197"/>
+      <c r="J109" s="197"/>
+      <c r="K109" s="197"/>
       <c r="L109" s="109" t="s">
         <v>183</v>
       </c>
       <c r="M109" s="109">
         <v>1</v>
       </c>
-      <c r="N109" s="198"/>
+      <c r="N109" s="197"/>
       <c r="O109" s="20"/>
     </row>
     <row r="110" spans="1:15" s="46" customFormat="1">
@@ -7798,13 +7798,13 @@
       <c r="F111" s="23"/>
       <c r="G111" s="23"/>
       <c r="H111" s="22"/>
-      <c r="I111" s="198" t="s">
+      <c r="I111" s="197" t="s">
         <v>524</v>
       </c>
-      <c r="J111" s="198" t="s">
+      <c r="J111" s="197" t="s">
         <v>542</v>
       </c>
-      <c r="K111" s="198" t="s">
+      <c r="K111" s="197" t="s">
         <v>543</v>
       </c>
       <c r="L111" s="110" t="s">
@@ -7813,7 +7813,7 @@
       <c r="M111" s="110">
         <v>1</v>
       </c>
-      <c r="N111" s="198" t="s">
+      <c r="N111" s="197" t="s">
         <v>545</v>
       </c>
       <c r="O111" s="20"/>
@@ -7841,16 +7841,16 @@
         <v>75</v>
       </c>
       <c r="H112" s="22"/>
-      <c r="I112" s="198"/>
-      <c r="J112" s="198"/>
-      <c r="K112" s="198"/>
+      <c r="I112" s="197"/>
+      <c r="J112" s="197"/>
+      <c r="K112" s="197"/>
       <c r="L112" s="110" t="s">
         <v>546</v>
       </c>
       <c r="M112" s="110">
         <v>2</v>
       </c>
-      <c r="N112" s="198"/>
+      <c r="N112" s="197"/>
       <c r="O112" s="20"/>
     </row>
     <row r="113" spans="1:15" s="46" customFormat="1">
@@ -7893,13 +7893,13 @@
         <v>75</v>
       </c>
       <c r="H114" s="22"/>
-      <c r="I114" s="197">
+      <c r="I114" s="198">
         <v>44781</v>
       </c>
-      <c r="J114" s="198" t="s">
+      <c r="J114" s="197" t="s">
         <v>566</v>
       </c>
-      <c r="K114" s="198" t="s">
+      <c r="K114" s="197" t="s">
         <v>82</v>
       </c>
       <c r="L114" s="112" t="s">
@@ -7908,7 +7908,7 @@
       <c r="M114" s="112">
         <v>5</v>
       </c>
-      <c r="N114" s="198" t="s">
+      <c r="N114" s="197" t="s">
         <v>84</v>
       </c>
       <c r="O114" s="20"/>
@@ -7926,16 +7926,16 @@
       <c r="F115" s="196"/>
       <c r="G115" s="196"/>
       <c r="H115" s="52"/>
-      <c r="I115" s="197"/>
-      <c r="J115" s="198"/>
-      <c r="K115" s="198"/>
+      <c r="I115" s="198"/>
+      <c r="J115" s="197"/>
+      <c r="K115" s="197"/>
       <c r="L115" s="112" t="s">
         <v>569</v>
       </c>
       <c r="M115" s="112">
         <v>1</v>
       </c>
-      <c r="N115" s="198"/>
+      <c r="N115" s="197"/>
       <c r="O115" s="20"/>
     </row>
     <row r="116" spans="1:15" s="46" customFormat="1">
@@ -8152,13 +8152,13 @@
         <v>75</v>
       </c>
       <c r="H123" s="53"/>
-      <c r="I123" s="197">
+      <c r="I123" s="198">
         <v>44814</v>
       </c>
-      <c r="J123" s="198" t="s">
+      <c r="J123" s="197" t="s">
         <v>600</v>
       </c>
-      <c r="K123" s="198" t="s">
+      <c r="K123" s="197" t="s">
         <v>601</v>
       </c>
       <c r="L123" s="131" t="s">
@@ -8167,7 +8167,7 @@
       <c r="M123" s="131">
         <v>3</v>
       </c>
-      <c r="N123" s="198" t="s">
+      <c r="N123" s="197" t="s">
         <v>622</v>
       </c>
       <c r="O123" s="54"/>
@@ -8181,16 +8181,16 @@
       <c r="F124" s="23"/>
       <c r="G124" s="23"/>
       <c r="H124" s="78"/>
-      <c r="I124" s="197"/>
-      <c r="J124" s="198"/>
-      <c r="K124" s="198"/>
+      <c r="I124" s="198"/>
+      <c r="J124" s="197"/>
+      <c r="K124" s="197"/>
       <c r="L124" s="131" t="s">
         <v>623</v>
       </c>
       <c r="M124" s="131">
         <v>1</v>
       </c>
-      <c r="N124" s="198"/>
+      <c r="N124" s="197"/>
       <c r="O124" s="54"/>
     </row>
     <row r="125" spans="1:15" s="46" customFormat="1">
@@ -8216,16 +8216,16 @@
         <v>75</v>
       </c>
       <c r="H125" s="53"/>
-      <c r="I125" s="197"/>
-      <c r="J125" s="198"/>
-      <c r="K125" s="198"/>
+      <c r="I125" s="198"/>
+      <c r="J125" s="197"/>
+      <c r="K125" s="197"/>
       <c r="L125" s="131" t="s">
         <v>20</v>
       </c>
       <c r="M125" s="131">
         <v>8</v>
       </c>
-      <c r="N125" s="198"/>
+      <c r="N125" s="197"/>
       <c r="O125" s="54"/>
     </row>
     <row r="126" spans="1:15" s="46" customFormat="1">
@@ -8237,16 +8237,16 @@
       <c r="F126" s="23"/>
       <c r="G126" s="23"/>
       <c r="H126" s="78"/>
-      <c r="I126" s="197"/>
-      <c r="J126" s="198"/>
-      <c r="K126" s="198"/>
+      <c r="I126" s="198"/>
+      <c r="J126" s="197"/>
+      <c r="K126" s="197"/>
       <c r="L126" s="131" t="s">
         <v>519</v>
       </c>
       <c r="M126" s="131">
         <v>3</v>
       </c>
-      <c r="N126" s="198"/>
+      <c r="N126" s="197"/>
       <c r="O126" s="54"/>
     </row>
     <row r="127" spans="1:15" s="46" customFormat="1" ht="14.4" customHeight="1">
@@ -8272,16 +8272,16 @@
         <v>75</v>
       </c>
       <c r="H127" s="53"/>
-      <c r="I127" s="197"/>
-      <c r="J127" s="198"/>
-      <c r="K127" s="198"/>
+      <c r="I127" s="198"/>
+      <c r="J127" s="197"/>
+      <c r="K127" s="197"/>
       <c r="L127" s="131" t="s">
         <v>520</v>
       </c>
       <c r="M127" s="131">
         <v>1</v>
       </c>
-      <c r="N127" s="198"/>
+      <c r="N127" s="197"/>
       <c r="O127" s="54"/>
     </row>
     <row r="128" spans="1:15" s="46" customFormat="1">
@@ -8293,16 +8293,16 @@
       <c r="F128" s="23"/>
       <c r="G128" s="23"/>
       <c r="H128" s="78"/>
-      <c r="I128" s="197"/>
-      <c r="J128" s="198"/>
-      <c r="K128" s="198"/>
+      <c r="I128" s="198"/>
+      <c r="J128" s="197"/>
+      <c r="K128" s="197"/>
       <c r="L128" s="131" t="s">
         <v>624</v>
       </c>
       <c r="M128" s="131">
         <v>6</v>
       </c>
-      <c r="N128" s="198"/>
+      <c r="N128" s="197"/>
       <c r="O128" s="54"/>
     </row>
     <row r="129" spans="1:15" s="46" customFormat="1">
@@ -8328,16 +8328,16 @@
         <v>75</v>
       </c>
       <c r="H129" s="53"/>
-      <c r="I129" s="197"/>
-      <c r="J129" s="198"/>
-      <c r="K129" s="198"/>
+      <c r="I129" s="198"/>
+      <c r="J129" s="197"/>
+      <c r="K129" s="197"/>
       <c r="L129" s="131" t="s">
         <v>625</v>
       </c>
       <c r="M129" s="131">
         <v>1</v>
       </c>
-      <c r="N129" s="198"/>
+      <c r="N129" s="197"/>
       <c r="O129" s="54"/>
     </row>
     <row r="130" spans="1:15" s="46" customFormat="1">
@@ -8349,26 +8349,26 @@
       <c r="F130" s="23"/>
       <c r="G130" s="23"/>
       <c r="H130" s="78"/>
-      <c r="I130" s="197"/>
-      <c r="J130" s="198"/>
-      <c r="K130" s="198"/>
+      <c r="I130" s="198"/>
+      <c r="J130" s="197"/>
+      <c r="K130" s="197"/>
       <c r="L130" s="131" t="s">
         <v>626</v>
       </c>
       <c r="M130" s="131">
         <v>249</v>
       </c>
-      <c r="N130" s="198"/>
+      <c r="N130" s="197"/>
       <c r="O130" s="54"/>
     </row>
     <row r="131" spans="1:15" s="46" customFormat="1">
-      <c r="A131" s="197">
+      <c r="A131" s="198">
         <v>44789</v>
       </c>
-      <c r="B131" s="198" t="s">
+      <c r="B131" s="197" t="s">
         <v>577</v>
       </c>
-      <c r="C131" s="198" t="s">
+      <c r="C131" s="197" t="s">
         <v>76</v>
       </c>
       <c r="D131" s="117" t="s">
@@ -8377,10 +8377,10 @@
       <c r="E131" s="117">
         <v>1</v>
       </c>
-      <c r="F131" s="198" t="s">
+      <c r="F131" s="197" t="s">
         <v>54</v>
       </c>
-      <c r="G131" s="198" t="s">
+      <c r="G131" s="197" t="s">
         <v>75</v>
       </c>
       <c r="H131" s="53"/>
@@ -8393,17 +8393,17 @@
       <c r="O131" s="54"/>
     </row>
     <row r="132" spans="1:15" s="46" customFormat="1" ht="28.8">
-      <c r="A132" s="197"/>
-      <c r="B132" s="198"/>
-      <c r="C132" s="198"/>
+      <c r="A132" s="198"/>
+      <c r="B132" s="197"/>
+      <c r="C132" s="197"/>
       <c r="D132" s="117" t="s">
         <v>477</v>
       </c>
       <c r="E132" s="117">
         <v>9</v>
       </c>
-      <c r="F132" s="198"/>
-      <c r="G132" s="198"/>
+      <c r="F132" s="197"/>
+      <c r="G132" s="197"/>
       <c r="H132" s="114"/>
       <c r="I132" s="133">
         <v>44824</v>
@@ -8465,13 +8465,13 @@
         <v>75</v>
       </c>
       <c r="H134" s="52"/>
-      <c r="I134" s="197">
+      <c r="I134" s="198">
         <v>44826</v>
       </c>
-      <c r="J134" s="198" t="s">
+      <c r="J134" s="197" t="s">
         <v>633</v>
       </c>
-      <c r="K134" s="198" t="s">
+      <c r="K134" s="197" t="s">
         <v>82</v>
       </c>
       <c r="L134" s="134" t="s">
@@ -8480,7 +8480,7 @@
       <c r="M134" s="134">
         <v>5</v>
       </c>
-      <c r="N134" s="198" t="s">
+      <c r="N134" s="197" t="s">
         <v>84</v>
       </c>
       <c r="O134" s="20"/>
@@ -8494,26 +8494,26 @@
       <c r="F135" s="23"/>
       <c r="G135" s="23"/>
       <c r="H135" s="52"/>
-      <c r="I135" s="197"/>
-      <c r="J135" s="198"/>
-      <c r="K135" s="198"/>
+      <c r="I135" s="198"/>
+      <c r="J135" s="197"/>
+      <c r="K135" s="197"/>
       <c r="L135" s="134" t="s">
         <v>105</v>
       </c>
       <c r="M135" s="134">
         <v>3</v>
       </c>
-      <c r="N135" s="198"/>
+      <c r="N135" s="197"/>
       <c r="O135" s="20"/>
     </row>
     <row r="136" spans="1:15" s="46" customFormat="1">
-      <c r="A136" s="197">
+      <c r="A136" s="198">
         <v>44799</v>
       </c>
-      <c r="B136" s="198" t="s">
+      <c r="B136" s="197" t="s">
         <v>583</v>
       </c>
-      <c r="C136" s="198" t="s">
+      <c r="C136" s="197" t="s">
         <v>373</v>
       </c>
       <c r="D136" s="120" t="s">
@@ -8522,10 +8522,10 @@
       <c r="E136" s="120">
         <v>1</v>
       </c>
-      <c r="F136" s="198" t="s">
+      <c r="F136" s="197" t="s">
         <v>54</v>
       </c>
-      <c r="G136" s="198" t="s">
+      <c r="G136" s="197" t="s">
         <v>75</v>
       </c>
       <c r="H136" s="78"/>
@@ -8538,17 +8538,17 @@
       <c r="O136" s="54"/>
     </row>
     <row r="137" spans="1:15" s="46" customFormat="1">
-      <c r="A137" s="197"/>
-      <c r="B137" s="198"/>
-      <c r="C137" s="198"/>
+      <c r="A137" s="198"/>
+      <c r="B137" s="197"/>
+      <c r="C137" s="197"/>
       <c r="D137" s="120" t="s">
         <v>585</v>
       </c>
       <c r="E137" s="120">
         <v>1</v>
       </c>
-      <c r="F137" s="198"/>
-      <c r="G137" s="198"/>
+      <c r="F137" s="197"/>
+      <c r="G137" s="197"/>
       <c r="H137" s="52"/>
       <c r="I137" s="137">
         <v>44840</v>
@@ -8610,13 +8610,13 @@
         <v>75</v>
       </c>
       <c r="H139" s="52"/>
-      <c r="I139" s="197">
+      <c r="I139" s="198">
         <v>44844</v>
       </c>
-      <c r="J139" s="198" t="s">
+      <c r="J139" s="197" t="s">
         <v>662</v>
       </c>
-      <c r="K139" s="198" t="s">
+      <c r="K139" s="197" t="s">
         <v>82</v>
       </c>
       <c r="L139" s="138" t="s">
@@ -8625,7 +8625,7 @@
       <c r="M139" s="138">
         <v>18</v>
       </c>
-      <c r="N139" s="198" t="s">
+      <c r="N139" s="197" t="s">
         <v>84</v>
       </c>
       <c r="O139" s="20"/>
@@ -8639,16 +8639,16 @@
       <c r="F140" s="23"/>
       <c r="G140" s="23"/>
       <c r="H140" s="52"/>
-      <c r="I140" s="197"/>
-      <c r="J140" s="198"/>
-      <c r="K140" s="198"/>
+      <c r="I140" s="198"/>
+      <c r="J140" s="197"/>
+      <c r="K140" s="197"/>
       <c r="L140" s="138" t="s">
         <v>105</v>
       </c>
       <c r="M140" s="138">
         <v>4</v>
       </c>
-      <c r="N140" s="198"/>
+      <c r="N140" s="197"/>
       <c r="O140" s="20"/>
     </row>
     <row r="141" spans="1:15" s="46" customFormat="1" ht="28.8">
@@ -8674,16 +8674,16 @@
         <v>75</v>
       </c>
       <c r="H141" s="52"/>
-      <c r="I141" s="197"/>
-      <c r="J141" s="198"/>
-      <c r="K141" s="198"/>
+      <c r="I141" s="198"/>
+      <c r="J141" s="197"/>
+      <c r="K141" s="197"/>
       <c r="L141" s="138" t="s">
         <v>349</v>
       </c>
       <c r="M141" s="138">
         <v>5</v>
       </c>
-      <c r="N141" s="198"/>
+      <c r="N141" s="197"/>
       <c r="O141" s="20"/>
     </row>
     <row r="142" spans="1:15" s="46" customFormat="1">
@@ -8695,26 +8695,26 @@
       <c r="F142" s="23"/>
       <c r="G142" s="23"/>
       <c r="H142" s="52"/>
-      <c r="I142" s="197"/>
-      <c r="J142" s="198"/>
-      <c r="K142" s="198"/>
+      <c r="I142" s="198"/>
+      <c r="J142" s="197"/>
+      <c r="K142" s="197"/>
       <c r="L142" s="138" t="s">
         <v>347</v>
       </c>
       <c r="M142" s="138">
         <v>1</v>
       </c>
-      <c r="N142" s="198"/>
+      <c r="N142" s="197"/>
       <c r="O142" s="20"/>
     </row>
     <row r="143" spans="1:15" s="46" customFormat="1">
-      <c r="A143" s="197">
+      <c r="A143" s="198">
         <v>44823</v>
       </c>
-      <c r="B143" s="198" t="s">
+      <c r="B143" s="197" t="s">
         <v>609</v>
       </c>
-      <c r="C143" s="198" t="s">
+      <c r="C143" s="197" t="s">
         <v>642</v>
       </c>
       <c r="D143" s="131" t="s">
@@ -8723,37 +8723,37 @@
       <c r="E143" s="131">
         <v>2</v>
       </c>
-      <c r="F143" s="198" t="s">
+      <c r="F143" s="197" t="s">
         <v>54</v>
       </c>
-      <c r="G143" s="198" t="s">
+      <c r="G143" s="197" t="s">
         <v>612</v>
       </c>
       <c r="H143" s="52"/>
-      <c r="I143" s="197"/>
-      <c r="J143" s="198"/>
-      <c r="K143" s="198"/>
+      <c r="I143" s="198"/>
+      <c r="J143" s="197"/>
+      <c r="K143" s="197"/>
       <c r="L143" s="138" t="s">
         <v>348</v>
       </c>
       <c r="M143" s="138">
         <v>10</v>
       </c>
-      <c r="N143" s="198"/>
+      <c r="N143" s="197"/>
       <c r="O143" s="20"/>
     </row>
     <row r="144" spans="1:15" s="46" customFormat="1">
-      <c r="A144" s="197"/>
-      <c r="B144" s="198"/>
-      <c r="C144" s="198"/>
+      <c r="A144" s="198"/>
+      <c r="B144" s="197"/>
+      <c r="C144" s="197"/>
       <c r="D144" s="131" t="s">
         <v>613</v>
       </c>
       <c r="E144" s="131">
         <v>2</v>
       </c>
-      <c r="F144" s="198"/>
-      <c r="G144" s="198"/>
+      <c r="F144" s="197"/>
+      <c r="G144" s="197"/>
       <c r="H144" s="53"/>
       <c r="I144" s="23"/>
       <c r="J144" s="23"/>
@@ -8764,25 +8764,25 @@
       <c r="O144" s="54"/>
     </row>
     <row r="145" spans="1:15" s="46" customFormat="1">
-      <c r="A145" s="197"/>
-      <c r="B145" s="198"/>
-      <c r="C145" s="198"/>
+      <c r="A145" s="198"/>
+      <c r="B145" s="197"/>
+      <c r="C145" s="197"/>
       <c r="D145" s="131" t="s">
         <v>614</v>
       </c>
       <c r="E145" s="131">
         <v>4</v>
       </c>
-      <c r="F145" s="198"/>
-      <c r="G145" s="198"/>
+      <c r="F145" s="197"/>
+      <c r="G145" s="197"/>
       <c r="H145" s="22"/>
-      <c r="I145" s="197">
+      <c r="I145" s="198">
         <v>44848</v>
       </c>
-      <c r="J145" s="198" t="s">
+      <c r="J145" s="197" t="s">
         <v>670</v>
       </c>
-      <c r="K145" s="198" t="s">
+      <c r="K145" s="197" t="s">
         <v>82</v>
       </c>
       <c r="L145" s="138" t="s">
@@ -8791,48 +8791,48 @@
       <c r="M145" s="138">
         <v>19</v>
       </c>
-      <c r="N145" s="198" t="s">
+      <c r="N145" s="197" t="s">
         <v>84</v>
       </c>
       <c r="O145" s="20"/>
     </row>
     <row r="146" spans="1:15" s="46" customFormat="1">
-      <c r="A146" s="197"/>
-      <c r="B146" s="198"/>
-      <c r="C146" s="198"/>
+      <c r="A146" s="198"/>
+      <c r="B146" s="197"/>
+      <c r="C146" s="197"/>
       <c r="D146" s="131" t="s">
         <v>615</v>
       </c>
       <c r="E146" s="131">
         <v>15</v>
       </c>
-      <c r="F146" s="198"/>
-      <c r="G146" s="198"/>
+      <c r="F146" s="197"/>
+      <c r="G146" s="197"/>
       <c r="H146" s="22"/>
-      <c r="I146" s="197"/>
-      <c r="J146" s="198"/>
-      <c r="K146" s="198"/>
+      <c r="I146" s="198"/>
+      <c r="J146" s="197"/>
+      <c r="K146" s="197"/>
       <c r="L146" s="138" t="s">
         <v>679</v>
       </c>
       <c r="M146" s="138">
         <v>15</v>
       </c>
-      <c r="N146" s="198"/>
+      <c r="N146" s="197"/>
       <c r="O146" s="20"/>
     </row>
     <row r="147" spans="1:15" s="46" customFormat="1">
-      <c r="A147" s="197"/>
-      <c r="B147" s="198"/>
-      <c r="C147" s="198"/>
+      <c r="A147" s="198"/>
+      <c r="B147" s="197"/>
+      <c r="C147" s="197"/>
       <c r="D147" s="131" t="s">
         <v>616</v>
       </c>
       <c r="E147" s="131">
         <v>1</v>
       </c>
-      <c r="F147" s="198"/>
-      <c r="G147" s="198"/>
+      <c r="F147" s="197"/>
+      <c r="G147" s="197"/>
       <c r="H147" s="53"/>
       <c r="I147" s="23"/>
       <c r="J147" s="23"/>
@@ -8843,17 +8843,17 @@
       <c r="O147" s="54"/>
     </row>
     <row r="148" spans="1:15" s="46" customFormat="1">
-      <c r="A148" s="197"/>
-      <c r="B148" s="198"/>
-      <c r="C148" s="198"/>
+      <c r="A148" s="198"/>
+      <c r="B148" s="197"/>
+      <c r="C148" s="197"/>
       <c r="D148" s="131" t="s">
         <v>617</v>
       </c>
       <c r="E148" s="131">
         <v>10</v>
       </c>
-      <c r="F148" s="198"/>
-      <c r="G148" s="198"/>
+      <c r="F148" s="197"/>
+      <c r="G148" s="197"/>
       <c r="H148" s="22"/>
       <c r="I148" s="139">
         <v>44848</v>
@@ -8876,17 +8876,17 @@
       <c r="O148" s="20"/>
     </row>
     <row r="149" spans="1:15" s="46" customFormat="1">
-      <c r="A149" s="197"/>
-      <c r="B149" s="198"/>
-      <c r="C149" s="198"/>
+      <c r="A149" s="198"/>
+      <c r="B149" s="197"/>
+      <c r="C149" s="197"/>
       <c r="D149" s="131" t="s">
         <v>618</v>
       </c>
       <c r="E149" s="131">
         <v>10</v>
       </c>
-      <c r="F149" s="198"/>
-      <c r="G149" s="198"/>
+      <c r="F149" s="197"/>
+      <c r="G149" s="197"/>
       <c r="H149" s="53"/>
       <c r="I149" s="23"/>
       <c r="J149" s="23"/>
@@ -8897,25 +8897,25 @@
       <c r="O149" s="54"/>
     </row>
     <row r="150" spans="1:15" s="46" customFormat="1">
-      <c r="A150" s="197"/>
-      <c r="B150" s="198"/>
-      <c r="C150" s="198"/>
+      <c r="A150" s="198"/>
+      <c r="B150" s="197"/>
+      <c r="C150" s="197"/>
       <c r="D150" s="131" t="s">
         <v>619</v>
       </c>
       <c r="E150" s="131">
         <v>20</v>
       </c>
-      <c r="F150" s="198"/>
-      <c r="G150" s="198"/>
+      <c r="F150" s="197"/>
+      <c r="G150" s="197"/>
       <c r="H150" s="22"/>
-      <c r="I150" s="197">
+      <c r="I150" s="198">
         <v>44875</v>
       </c>
-      <c r="J150" s="198" t="s">
+      <c r="J150" s="197" t="s">
         <v>701</v>
       </c>
-      <c r="K150" s="198" t="s">
+      <c r="K150" s="197" t="s">
         <v>82</v>
       </c>
       <c r="L150" s="156" t="s">
@@ -8924,7 +8924,7 @@
       <c r="M150" s="156">
         <v>5</v>
       </c>
-      <c r="N150" s="198" t="s">
+      <c r="N150" s="197" t="s">
         <v>84</v>
       </c>
       <c r="O150" s="20"/>
@@ -8938,16 +8938,16 @@
       <c r="F151" s="23"/>
       <c r="G151" s="23"/>
       <c r="H151" s="52"/>
-      <c r="I151" s="197"/>
-      <c r="J151" s="198"/>
-      <c r="K151" s="198"/>
+      <c r="I151" s="198"/>
+      <c r="J151" s="197"/>
+      <c r="K151" s="197"/>
       <c r="L151" s="156" t="s">
         <v>83</v>
       </c>
       <c r="M151" s="156">
         <v>3</v>
       </c>
-      <c r="N151" s="198"/>
+      <c r="N151" s="197"/>
       <c r="O151" s="20"/>
     </row>
     <row r="152" spans="1:15" s="46" customFormat="1" ht="100.8">
@@ -8973,16 +8973,16 @@
         <v>612</v>
       </c>
       <c r="H152" s="22"/>
-      <c r="I152" s="197"/>
-      <c r="J152" s="198"/>
-      <c r="K152" s="198"/>
+      <c r="I152" s="198"/>
+      <c r="J152" s="197"/>
+      <c r="K152" s="197"/>
       <c r="L152" s="156" t="s">
         <v>772</v>
       </c>
       <c r="M152" s="156">
         <v>13</v>
       </c>
-      <c r="N152" s="198"/>
+      <c r="N152" s="197"/>
       <c r="O152" s="20"/>
     </row>
     <row r="153" spans="1:15" s="46" customFormat="1">
@@ -8994,16 +8994,16 @@
       <c r="F153" s="23"/>
       <c r="G153" s="23"/>
       <c r="H153" s="52"/>
-      <c r="I153" s="197"/>
-      <c r="J153" s="198"/>
-      <c r="K153" s="198"/>
+      <c r="I153" s="198"/>
+      <c r="J153" s="197"/>
+      <c r="K153" s="197"/>
       <c r="L153" s="156" t="s">
         <v>773</v>
       </c>
       <c r="M153" s="156">
         <v>10</v>
       </c>
-      <c r="N153" s="198"/>
+      <c r="N153" s="197"/>
       <c r="O153" s="20"/>
     </row>
     <row r="154" spans="1:15" s="46" customFormat="1" ht="28.8">
@@ -9029,16 +9029,16 @@
         <v>75</v>
       </c>
       <c r="H154" s="22"/>
-      <c r="I154" s="197"/>
-      <c r="J154" s="198"/>
-      <c r="K154" s="198"/>
+      <c r="I154" s="198"/>
+      <c r="J154" s="197"/>
+      <c r="K154" s="197"/>
       <c r="L154" s="156" t="s">
         <v>774</v>
       </c>
       <c r="M154" s="156">
         <v>5</v>
       </c>
-      <c r="N154" s="198"/>
+      <c r="N154" s="197"/>
       <c r="O154" s="20"/>
     </row>
     <row r="155" spans="1:15" s="46" customFormat="1">
@@ -9050,16 +9050,16 @@
       <c r="F155" s="23"/>
       <c r="G155" s="23"/>
       <c r="H155" s="52"/>
-      <c r="I155" s="197"/>
-      <c r="J155" s="198"/>
-      <c r="K155" s="198"/>
+      <c r="I155" s="198"/>
+      <c r="J155" s="197"/>
+      <c r="K155" s="197"/>
       <c r="L155" s="156" t="s">
         <v>85</v>
       </c>
       <c r="M155" s="156">
         <v>10</v>
       </c>
-      <c r="N155" s="198"/>
+      <c r="N155" s="197"/>
       <c r="O155" s="20"/>
     </row>
     <row r="156" spans="1:15" s="46" customFormat="1" ht="28.8">
@@ -9085,16 +9085,16 @@
         <v>75</v>
       </c>
       <c r="H156" s="22"/>
-      <c r="I156" s="197"/>
-      <c r="J156" s="198"/>
-      <c r="K156" s="198"/>
+      <c r="I156" s="198"/>
+      <c r="J156" s="197"/>
+      <c r="K156" s="197"/>
       <c r="L156" s="156" t="s">
         <v>349</v>
       </c>
       <c r="M156" s="156">
         <v>10</v>
       </c>
-      <c r="N156" s="198"/>
+      <c r="N156" s="197"/>
       <c r="O156" s="20"/>
     </row>
     <row r="157" spans="1:15" s="46" customFormat="1" ht="109.2" customHeight="1">
@@ -9106,26 +9106,26 @@
       <c r="F157" s="23"/>
       <c r="G157" s="23"/>
       <c r="H157" s="52"/>
-      <c r="I157" s="197"/>
-      <c r="J157" s="198"/>
-      <c r="K157" s="198"/>
+      <c r="I157" s="198"/>
+      <c r="J157" s="197"/>
+      <c r="K157" s="197"/>
       <c r="L157" s="156" t="s">
         <v>775</v>
       </c>
       <c r="M157" s="156">
         <v>10</v>
       </c>
-      <c r="N157" s="198"/>
+      <c r="N157" s="197"/>
       <c r="O157" s="20"/>
     </row>
     <row r="158" spans="1:15" s="46" customFormat="1">
-      <c r="A158" s="197">
+      <c r="A158" s="198">
         <v>44827</v>
       </c>
-      <c r="B158" s="198" t="s">
+      <c r="B158" s="197" t="s">
         <v>638</v>
       </c>
-      <c r="C158" s="198" t="s">
+      <c r="C158" s="197" t="s">
         <v>642</v>
       </c>
       <c r="D158" s="134" t="s">
@@ -9134,10 +9134,10 @@
       <c r="E158" s="134">
         <v>8</v>
       </c>
-      <c r="F158" s="198" t="s">
+      <c r="F158" s="197" t="s">
         <v>54</v>
       </c>
-      <c r="G158" s="198" t="s">
+      <c r="G158" s="197" t="s">
         <v>612</v>
       </c>
       <c r="H158" s="53"/>
@@ -9150,25 +9150,25 @@
       <c r="O158" s="54"/>
     </row>
     <row r="159" spans="1:15" s="46" customFormat="1" ht="28.8">
-      <c r="A159" s="197"/>
-      <c r="B159" s="198"/>
-      <c r="C159" s="198"/>
+      <c r="A159" s="198"/>
+      <c r="B159" s="197"/>
+      <c r="C159" s="197"/>
       <c r="D159" s="134" t="s">
         <v>618</v>
       </c>
       <c r="E159" s="134">
         <v>10</v>
       </c>
-      <c r="F159" s="198"/>
-      <c r="G159" s="198"/>
+      <c r="F159" s="197"/>
+      <c r="G159" s="197"/>
       <c r="H159" s="22"/>
-      <c r="I159" s="197">
+      <c r="I159" s="198">
         <v>44875</v>
       </c>
-      <c r="J159" s="198" t="s">
+      <c r="J159" s="197" t="s">
         <v>702</v>
       </c>
-      <c r="K159" s="198" t="s">
+      <c r="K159" s="197" t="s">
         <v>82</v>
       </c>
       <c r="L159" s="156" t="s">
@@ -9177,48 +9177,48 @@
       <c r="M159" s="156">
         <v>1</v>
       </c>
-      <c r="N159" s="198" t="s">
+      <c r="N159" s="197" t="s">
         <v>84</v>
       </c>
       <c r="O159" s="20"/>
     </row>
     <row r="160" spans="1:15" s="46" customFormat="1" ht="28.8">
-      <c r="A160" s="197"/>
-      <c r="B160" s="198"/>
-      <c r="C160" s="198"/>
+      <c r="A160" s="198"/>
+      <c r="B160" s="197"/>
+      <c r="C160" s="197"/>
       <c r="D160" s="134" t="s">
         <v>646</v>
       </c>
       <c r="E160" s="134">
         <v>1</v>
       </c>
-      <c r="F160" s="198"/>
-      <c r="G160" s="198"/>
+      <c r="F160" s="197"/>
+      <c r="G160" s="197"/>
       <c r="H160" s="22"/>
-      <c r="I160" s="197"/>
-      <c r="J160" s="198"/>
-      <c r="K160" s="198"/>
+      <c r="I160" s="198"/>
+      <c r="J160" s="197"/>
+      <c r="K160" s="197"/>
       <c r="L160" s="156" t="s">
         <v>777</v>
       </c>
       <c r="M160" s="156">
         <v>1</v>
       </c>
-      <c r="N160" s="198"/>
+      <c r="N160" s="197"/>
       <c r="O160" s="20"/>
     </row>
     <row r="161" spans="1:15" s="46" customFormat="1">
-      <c r="A161" s="197"/>
-      <c r="B161" s="198"/>
-      <c r="C161" s="198"/>
+      <c r="A161" s="198"/>
+      <c r="B161" s="197"/>
+      <c r="C161" s="197"/>
       <c r="D161" s="134" t="s">
         <v>647</v>
       </c>
       <c r="E161" s="134">
         <v>1</v>
       </c>
-      <c r="F161" s="198"/>
-      <c r="G161" s="198"/>
+      <c r="F161" s="197"/>
+      <c r="G161" s="197"/>
       <c r="H161" s="53"/>
       <c r="I161" s="23"/>
       <c r="J161" s="23"/>
@@ -9229,25 +9229,25 @@
       <c r="O161" s="54"/>
     </row>
     <row r="162" spans="1:15" s="46" customFormat="1" ht="28.8" customHeight="1">
-      <c r="A162" s="197"/>
-      <c r="B162" s="198"/>
-      <c r="C162" s="198"/>
+      <c r="A162" s="198"/>
+      <c r="B162" s="197"/>
+      <c r="C162" s="197"/>
       <c r="D162" s="134" t="s">
         <v>648</v>
       </c>
       <c r="E162" s="134">
         <v>1</v>
       </c>
-      <c r="F162" s="198"/>
-      <c r="G162" s="198"/>
+      <c r="F162" s="197"/>
+      <c r="G162" s="197"/>
       <c r="H162" s="22"/>
-      <c r="I162" s="197">
+      <c r="I162" s="198">
         <v>44876</v>
       </c>
-      <c r="J162" s="198" t="s">
+      <c r="J162" s="197" t="s">
         <v>778</v>
       </c>
-      <c r="K162" s="198" t="s">
+      <c r="K162" s="197" t="s">
         <v>779</v>
       </c>
       <c r="L162" s="45" t="s">
@@ -9256,34 +9256,34 @@
       <c r="M162" s="45">
         <v>35</v>
       </c>
-      <c r="N162" s="198" t="s">
+      <c r="N162" s="197" t="s">
         <v>793</v>
       </c>
       <c r="O162" s="20"/>
     </row>
     <row r="163" spans="1:15" s="46" customFormat="1" ht="43.2">
-      <c r="A163" s="197"/>
-      <c r="B163" s="198"/>
-      <c r="C163" s="198"/>
+      <c r="A163" s="198"/>
+      <c r="B163" s="197"/>
+      <c r="C163" s="197"/>
       <c r="D163" s="134" t="s">
         <v>616</v>
       </c>
       <c r="E163" s="134">
         <v>1</v>
       </c>
-      <c r="F163" s="198"/>
-      <c r="G163" s="198"/>
+      <c r="F163" s="197"/>
+      <c r="G163" s="197"/>
       <c r="H163" s="22"/>
-      <c r="I163" s="197"/>
-      <c r="J163" s="198"/>
-      <c r="K163" s="198"/>
+      <c r="I163" s="198"/>
+      <c r="J163" s="197"/>
+      <c r="K163" s="197"/>
       <c r="L163" s="45" t="s">
         <v>781</v>
       </c>
       <c r="M163" s="45">
         <v>24</v>
       </c>
-      <c r="N163" s="198"/>
+      <c r="N163" s="197"/>
       <c r="O163" s="20"/>
     </row>
     <row r="164" spans="1:15" s="46" customFormat="1">
@@ -9295,16 +9295,16 @@
       <c r="F164" s="23"/>
       <c r="G164" s="23"/>
       <c r="H164" s="52"/>
-      <c r="I164" s="197"/>
-      <c r="J164" s="198"/>
-      <c r="K164" s="198"/>
+      <c r="I164" s="198"/>
+      <c r="J164" s="197"/>
+      <c r="K164" s="197"/>
       <c r="L164" s="45" t="s">
         <v>782</v>
       </c>
       <c r="M164" s="45">
         <v>2</v>
       </c>
-      <c r="N164" s="198"/>
+      <c r="N164" s="197"/>
       <c r="O164" s="20"/>
     </row>
     <row r="165" spans="1:15" s="46" customFormat="1">
@@ -9330,16 +9330,16 @@
         <v>612</v>
       </c>
       <c r="H165" s="22"/>
-      <c r="I165" s="197"/>
-      <c r="J165" s="198"/>
-      <c r="K165" s="198"/>
+      <c r="I165" s="198"/>
+      <c r="J165" s="197"/>
+      <c r="K165" s="197"/>
       <c r="L165" s="45" t="s">
         <v>783</v>
       </c>
       <c r="M165" s="45">
         <v>1</v>
       </c>
-      <c r="N165" s="198"/>
+      <c r="N165" s="197"/>
       <c r="O165" s="20"/>
     </row>
     <row r="166" spans="1:15" s="46" customFormat="1" ht="43.2">
@@ -9351,16 +9351,16 @@
       <c r="F166" s="23"/>
       <c r="G166" s="23"/>
       <c r="H166" s="52"/>
-      <c r="I166" s="197"/>
-      <c r="J166" s="198"/>
-      <c r="K166" s="198"/>
+      <c r="I166" s="198"/>
+      <c r="J166" s="197"/>
+      <c r="K166" s="197"/>
       <c r="L166" s="45" t="s">
         <v>784</v>
       </c>
       <c r="M166" s="45">
         <v>12</v>
       </c>
-      <c r="N166" s="198"/>
+      <c r="N166" s="197"/>
       <c r="O166" s="20"/>
     </row>
     <row r="167" spans="1:15" s="46" customFormat="1" ht="28.8">
@@ -9386,16 +9386,16 @@
         <v>612</v>
       </c>
       <c r="H167" s="22"/>
-      <c r="I167" s="197"/>
-      <c r="J167" s="198"/>
-      <c r="K167" s="198"/>
+      <c r="I167" s="198"/>
+      <c r="J167" s="197"/>
+      <c r="K167" s="197"/>
       <c r="L167" s="45" t="s">
         <v>785</v>
       </c>
       <c r="M167" s="45">
         <v>1</v>
       </c>
-      <c r="N167" s="198"/>
+      <c r="N167" s="197"/>
       <c r="O167" s="20"/>
     </row>
     <row r="168" spans="1:15" s="46" customFormat="1">
@@ -9407,26 +9407,26 @@
       <c r="F168" s="23"/>
       <c r="G168" s="23"/>
       <c r="H168" s="52"/>
-      <c r="I168" s="197"/>
-      <c r="J168" s="198"/>
-      <c r="K168" s="198"/>
+      <c r="I168" s="198"/>
+      <c r="J168" s="197"/>
+      <c r="K168" s="197"/>
       <c r="L168" s="45" t="s">
         <v>786</v>
       </c>
       <c r="M168" s="45">
         <v>2</v>
       </c>
-      <c r="N168" s="198"/>
+      <c r="N168" s="197"/>
       <c r="O168" s="20"/>
     </row>
     <row r="169" spans="1:15" s="46" customFormat="1" ht="28.8" customHeight="1">
-      <c r="A169" s="197">
+      <c r="A169" s="198">
         <v>44839</v>
       </c>
-      <c r="B169" s="198" t="s">
+      <c r="B169" s="197" t="s">
         <v>655</v>
       </c>
-      <c r="C169" s="198" t="s">
+      <c r="C169" s="197" t="s">
         <v>137</v>
       </c>
       <c r="D169" s="135" t="s">
@@ -9435,48 +9435,48 @@
       <c r="E169" s="135">
         <v>1</v>
       </c>
-      <c r="F169" s="198" t="s">
+      <c r="F169" s="197" t="s">
         <v>54</v>
       </c>
-      <c r="G169" s="198" t="s">
+      <c r="G169" s="197" t="s">
         <v>75</v>
       </c>
       <c r="H169" s="22"/>
-      <c r="I169" s="197"/>
-      <c r="J169" s="198"/>
-      <c r="K169" s="198"/>
+      <c r="I169" s="198"/>
+      <c r="J169" s="197"/>
+      <c r="K169" s="197"/>
       <c r="L169" s="45" t="s">
         <v>787</v>
       </c>
       <c r="M169" s="45">
         <v>1</v>
       </c>
-      <c r="N169" s="198"/>
+      <c r="N169" s="197"/>
       <c r="O169" s="20"/>
     </row>
     <row r="170" spans="1:15" s="46" customFormat="1">
-      <c r="A170" s="197"/>
-      <c r="B170" s="198"/>
-      <c r="C170" s="198"/>
+      <c r="A170" s="198"/>
+      <c r="B170" s="197"/>
+      <c r="C170" s="197"/>
       <c r="D170" s="135" t="s">
         <v>658</v>
       </c>
       <c r="E170" s="135">
         <v>1</v>
       </c>
-      <c r="F170" s="198"/>
-      <c r="G170" s="198"/>
+      <c r="F170" s="197"/>
+      <c r="G170" s="197"/>
       <c r="H170" s="22"/>
-      <c r="I170" s="197"/>
-      <c r="J170" s="198"/>
-      <c r="K170" s="198"/>
+      <c r="I170" s="198"/>
+      <c r="J170" s="197"/>
+      <c r="K170" s="197"/>
       <c r="L170" s="45" t="s">
         <v>788</v>
       </c>
       <c r="M170" s="45">
         <v>12</v>
       </c>
-      <c r="N170" s="198"/>
+      <c r="N170" s="197"/>
       <c r="O170" s="20"/>
     </row>
     <row r="171" spans="1:15" s="46" customFormat="1">
@@ -9488,26 +9488,26 @@
       <c r="F171" s="23"/>
       <c r="G171" s="23"/>
       <c r="H171" s="52"/>
-      <c r="I171" s="197"/>
-      <c r="J171" s="198"/>
-      <c r="K171" s="198"/>
+      <c r="I171" s="198"/>
+      <c r="J171" s="197"/>
+      <c r="K171" s="197"/>
       <c r="L171" s="45" t="s">
         <v>789</v>
       </c>
       <c r="M171" s="45">
         <v>1</v>
       </c>
-      <c r="N171" s="198"/>
+      <c r="N171" s="197"/>
       <c r="O171" s="20"/>
     </row>
     <row r="172" spans="1:15" s="46" customFormat="1" ht="28.8" customHeight="1">
-      <c r="A172" s="197">
+      <c r="A172" s="198">
         <v>44844</v>
       </c>
-      <c r="B172" s="198" t="s">
+      <c r="B172" s="197" t="s">
         <v>665</v>
       </c>
-      <c r="C172" s="198" t="s">
+      <c r="C172" s="197" t="s">
         <v>76</v>
       </c>
       <c r="D172" s="138" t="s">
@@ -9516,73 +9516,73 @@
       <c r="E172" s="138">
         <v>2</v>
       </c>
-      <c r="F172" s="198" t="s">
+      <c r="F172" s="197" t="s">
         <v>54</v>
       </c>
-      <c r="G172" s="198" t="s">
+      <c r="G172" s="197" t="s">
         <v>75</v>
       </c>
       <c r="H172" s="22"/>
-      <c r="I172" s="197"/>
-      <c r="J172" s="198"/>
-      <c r="K172" s="198"/>
+      <c r="I172" s="198"/>
+      <c r="J172" s="197"/>
+      <c r="K172" s="197"/>
       <c r="L172" s="45" t="s">
         <v>790</v>
       </c>
       <c r="M172" s="45">
         <v>13</v>
       </c>
-      <c r="N172" s="198"/>
+      <c r="N172" s="197"/>
       <c r="O172" s="20"/>
     </row>
     <row r="173" spans="1:15" s="46" customFormat="1">
-      <c r="A173" s="197"/>
-      <c r="B173" s="198"/>
-      <c r="C173" s="198"/>
+      <c r="A173" s="198"/>
+      <c r="B173" s="197"/>
+      <c r="C173" s="197"/>
       <c r="D173" s="138" t="s">
         <v>476</v>
       </c>
       <c r="E173" s="138">
         <v>2</v>
       </c>
-      <c r="F173" s="198"/>
-      <c r="G173" s="198"/>
+      <c r="F173" s="197"/>
+      <c r="G173" s="197"/>
       <c r="H173" s="22"/>
-      <c r="I173" s="197"/>
-      <c r="J173" s="198"/>
-      <c r="K173" s="198"/>
+      <c r="I173" s="198"/>
+      <c r="J173" s="197"/>
+      <c r="K173" s="197"/>
       <c r="L173" s="45" t="s">
         <v>727</v>
       </c>
       <c r="M173" s="45">
         <v>116</v>
       </c>
-      <c r="N173" s="198"/>
+      <c r="N173" s="197"/>
       <c r="O173" s="20"/>
     </row>
     <row r="174" spans="1:15" s="46" customFormat="1">
-      <c r="A174" s="197"/>
-      <c r="B174" s="198"/>
-      <c r="C174" s="198"/>
+      <c r="A174" s="198"/>
+      <c r="B174" s="197"/>
+      <c r="C174" s="197"/>
       <c r="D174" s="138" t="s">
         <v>674</v>
       </c>
       <c r="E174" s="138">
         <v>5</v>
       </c>
-      <c r="F174" s="198"/>
-      <c r="G174" s="198"/>
+      <c r="F174" s="197"/>
+      <c r="G174" s="197"/>
       <c r="H174" s="22"/>
-      <c r="I174" s="197"/>
-      <c r="J174" s="198"/>
-      <c r="K174" s="198"/>
+      <c r="I174" s="198"/>
+      <c r="J174" s="197"/>
+      <c r="K174" s="197"/>
       <c r="L174" s="45" t="s">
         <v>791</v>
       </c>
       <c r="M174" s="45">
         <v>340</v>
       </c>
-      <c r="N174" s="198"/>
+      <c r="N174" s="197"/>
       <c r="O174" s="20"/>
     </row>
     <row r="175" spans="1:15" s="46" customFormat="1">
@@ -9594,16 +9594,16 @@
       <c r="F175" s="23"/>
       <c r="G175" s="23"/>
       <c r="H175" s="52"/>
-      <c r="I175" s="197"/>
-      <c r="J175" s="198"/>
-      <c r="K175" s="198"/>
+      <c r="I175" s="198"/>
+      <c r="J175" s="197"/>
+      <c r="K175" s="197"/>
       <c r="L175" s="45" t="s">
         <v>728</v>
       </c>
       <c r="M175" s="45">
         <v>1</v>
       </c>
-      <c r="N175" s="198"/>
+      <c r="N175" s="197"/>
       <c r="O175" s="20"/>
     </row>
     <row r="176" spans="1:15" s="46" customFormat="1" ht="28.8">
@@ -9629,16 +9629,16 @@
         <v>75</v>
       </c>
       <c r="H176" s="22"/>
-      <c r="I176" s="197"/>
-      <c r="J176" s="198"/>
-      <c r="K176" s="198"/>
+      <c r="I176" s="198"/>
+      <c r="J176" s="197"/>
+      <c r="K176" s="197"/>
       <c r="L176" s="45" t="s">
         <v>792</v>
       </c>
       <c r="M176" s="45">
         <v>50</v>
       </c>
-      <c r="N176" s="198"/>
+      <c r="N176" s="197"/>
       <c r="O176" s="20"/>
     </row>
     <row r="177" spans="1:15" s="46" customFormat="1">
@@ -9794,13 +9794,13 @@
         <v>75</v>
       </c>
       <c r="H182" s="22"/>
-      <c r="I182" s="197">
+      <c r="I182" s="198">
         <v>44895</v>
       </c>
-      <c r="J182" s="198" t="s">
+      <c r="J182" s="197" t="s">
         <v>812</v>
       </c>
-      <c r="K182" s="198" t="s">
+      <c r="K182" s="197" t="s">
         <v>813</v>
       </c>
       <c r="L182" s="160" t="s">
@@ -9809,7 +9809,7 @@
       <c r="M182" s="160">
         <v>12</v>
       </c>
-      <c r="N182" s="198" t="s">
+      <c r="N182" s="197" t="s">
         <v>818</v>
       </c>
       <c r="O182" s="20"/>
@@ -9823,16 +9823,16 @@
       <c r="F183" s="23"/>
       <c r="G183" s="23"/>
       <c r="H183" s="52"/>
-      <c r="I183" s="197"/>
-      <c r="J183" s="198"/>
-      <c r="K183" s="198"/>
+      <c r="I183" s="198"/>
+      <c r="J183" s="197"/>
+      <c r="K183" s="197"/>
       <c r="L183" s="160" t="s">
         <v>820</v>
       </c>
       <c r="M183" s="160">
         <v>2</v>
       </c>
-      <c r="N183" s="198"/>
+      <c r="N183" s="197"/>
       <c r="O183" s="20"/>
     </row>
     <row r="184" spans="1:15" s="46" customFormat="1" ht="59.4" customHeight="1">
@@ -9858,16 +9858,16 @@
         <v>75</v>
       </c>
       <c r="H184" s="22"/>
-      <c r="I184" s="197"/>
-      <c r="J184" s="198"/>
-      <c r="K184" s="198"/>
+      <c r="I184" s="198"/>
+      <c r="J184" s="197"/>
+      <c r="K184" s="197"/>
       <c r="L184" s="160" t="s">
         <v>821</v>
       </c>
       <c r="M184" s="160">
         <v>2</v>
       </c>
-      <c r="N184" s="198"/>
+      <c r="N184" s="197"/>
       <c r="O184" s="20"/>
     </row>
     <row r="185" spans="1:15" s="46" customFormat="1" ht="59.4" customHeight="1">
@@ -9879,26 +9879,26 @@
       <c r="F185" s="23"/>
       <c r="G185" s="23"/>
       <c r="H185" s="52"/>
-      <c r="I185" s="197"/>
-      <c r="J185" s="198"/>
-      <c r="K185" s="198"/>
+      <c r="I185" s="198"/>
+      <c r="J185" s="197"/>
+      <c r="K185" s="197"/>
       <c r="L185" s="160" t="s">
         <v>822</v>
       </c>
       <c r="M185" s="160">
         <v>1</v>
       </c>
-      <c r="N185" s="198"/>
+      <c r="N185" s="197"/>
       <c r="O185" s="20"/>
     </row>
     <row r="186" spans="1:15" s="46" customFormat="1" ht="66.599999999999994" customHeight="1">
-      <c r="A186" s="197">
+      <c r="A186" s="198">
         <v>44874</v>
       </c>
-      <c r="B186" s="198" t="s">
+      <c r="B186" s="197" t="s">
         <v>714</v>
       </c>
-      <c r="C186" s="198" t="s">
+      <c r="C186" s="197" t="s">
         <v>587</v>
       </c>
       <c r="D186" s="146" t="s">
@@ -9907,48 +9907,48 @@
       <c r="E186" s="146">
         <v>14</v>
       </c>
-      <c r="F186" s="198" t="s">
+      <c r="F186" s="197" t="s">
         <v>63</v>
       </c>
-      <c r="G186" s="198" t="s">
+      <c r="G186" s="197" t="s">
         <v>75</v>
       </c>
       <c r="H186" s="22"/>
-      <c r="I186" s="197"/>
-      <c r="J186" s="198"/>
-      <c r="K186" s="198"/>
+      <c r="I186" s="198"/>
+      <c r="J186" s="197"/>
+      <c r="K186" s="197"/>
       <c r="L186" s="160" t="s">
         <v>823</v>
       </c>
       <c r="M186" s="160">
         <v>1</v>
       </c>
-      <c r="N186" s="198"/>
+      <c r="N186" s="197"/>
       <c r="O186" s="20"/>
     </row>
     <row r="187" spans="1:15" s="46" customFormat="1" ht="83.4" customHeight="1">
-      <c r="A187" s="197"/>
-      <c r="B187" s="198"/>
-      <c r="C187" s="198"/>
+      <c r="A187" s="198"/>
+      <c r="B187" s="197"/>
+      <c r="C187" s="197"/>
       <c r="D187" s="146" t="s">
         <v>716</v>
       </c>
       <c r="E187" s="146">
         <v>14</v>
       </c>
-      <c r="F187" s="198"/>
-      <c r="G187" s="198"/>
+      <c r="F187" s="197"/>
+      <c r="G187" s="197"/>
       <c r="H187" s="22"/>
-      <c r="I187" s="197"/>
-      <c r="J187" s="198"/>
-      <c r="K187" s="198"/>
+      <c r="I187" s="198"/>
+      <c r="J187" s="197"/>
+      <c r="K187" s="197"/>
       <c r="L187" s="160" t="s">
         <v>20</v>
       </c>
       <c r="M187" s="160">
         <v>16</v>
       </c>
-      <c r="N187" s="198"/>
+      <c r="N187" s="197"/>
       <c r="O187" s="20"/>
     </row>
     <row r="188" spans="1:15" s="46" customFormat="1">
@@ -9960,16 +9960,16 @@
       <c r="F188" s="23"/>
       <c r="G188" s="23"/>
       <c r="H188" s="52"/>
-      <c r="I188" s="197"/>
-      <c r="J188" s="198"/>
-      <c r="K188" s="198"/>
+      <c r="I188" s="198"/>
+      <c r="J188" s="197"/>
+      <c r="K188" s="197"/>
       <c r="L188" s="160" t="s">
         <v>519</v>
       </c>
       <c r="M188" s="160">
         <v>16</v>
       </c>
-      <c r="N188" s="198"/>
+      <c r="N188" s="197"/>
       <c r="O188" s="20"/>
     </row>
     <row r="189" spans="1:15" s="46" customFormat="1" ht="48.6" customHeight="1">
@@ -9995,16 +9995,16 @@
         <v>75</v>
       </c>
       <c r="H189" s="22"/>
-      <c r="I189" s="197"/>
-      <c r="J189" s="198"/>
-      <c r="K189" s="198"/>
+      <c r="I189" s="198"/>
+      <c r="J189" s="197"/>
+      <c r="K189" s="197"/>
       <c r="L189" s="160" t="s">
         <v>824</v>
       </c>
       <c r="M189" s="160">
         <v>2</v>
       </c>
-      <c r="N189" s="198"/>
+      <c r="N189" s="197"/>
       <c r="O189" s="20"/>
     </row>
     <row r="190" spans="1:15" s="146" customFormat="1">
@@ -10047,13 +10047,13 @@
         <v>75</v>
       </c>
       <c r="H191" s="22"/>
-      <c r="I191" s="197">
+      <c r="I191" s="198">
         <v>44895</v>
       </c>
-      <c r="J191" s="198" t="s">
+      <c r="J191" s="197" t="s">
         <v>794</v>
       </c>
-      <c r="K191" s="198" t="s">
+      <c r="K191" s="197" t="s">
         <v>82</v>
       </c>
       <c r="L191" s="162" t="s">
@@ -10062,7 +10062,7 @@
       <c r="M191" s="162">
         <v>7</v>
       </c>
-      <c r="N191" s="198" t="s">
+      <c r="N191" s="197" t="s">
         <v>84</v>
       </c>
       <c r="O191" s="20"/>
@@ -10076,16 +10076,16 @@
       <c r="F192" s="23"/>
       <c r="G192" s="23"/>
       <c r="H192" s="52"/>
-      <c r="I192" s="197"/>
-      <c r="J192" s="198"/>
-      <c r="K192" s="198"/>
+      <c r="I192" s="198"/>
+      <c r="J192" s="197"/>
+      <c r="K192" s="197"/>
       <c r="L192" s="162" t="s">
         <v>352</v>
       </c>
       <c r="M192" s="162">
         <v>15</v>
       </c>
-      <c r="N192" s="198"/>
+      <c r="N192" s="197"/>
       <c r="O192" s="20"/>
     </row>
     <row r="193" spans="1:15" s="146" customFormat="1">
@@ -10111,16 +10111,16 @@
         <v>75</v>
       </c>
       <c r="H193" s="22"/>
-      <c r="I193" s="197"/>
-      <c r="J193" s="198"/>
-      <c r="K193" s="198"/>
+      <c r="I193" s="198"/>
+      <c r="J193" s="197"/>
+      <c r="K193" s="197"/>
       <c r="L193" s="162" t="s">
         <v>83</v>
       </c>
       <c r="M193" s="162">
         <v>47</v>
       </c>
-      <c r="N193" s="198"/>
+      <c r="N193" s="197"/>
       <c r="O193" s="20"/>
     </row>
     <row r="194" spans="1:15" s="146" customFormat="1" ht="28.8">
@@ -10132,16 +10132,16 @@
       <c r="F194" s="23"/>
       <c r="G194" s="23"/>
       <c r="H194" s="52"/>
-      <c r="I194" s="197"/>
-      <c r="J194" s="198"/>
-      <c r="K194" s="198"/>
+      <c r="I194" s="198"/>
+      <c r="J194" s="197"/>
+      <c r="K194" s="197"/>
       <c r="L194" s="162" t="s">
         <v>828</v>
       </c>
       <c r="M194" s="162">
         <v>1</v>
       </c>
-      <c r="N194" s="198"/>
+      <c r="N194" s="197"/>
       <c r="O194" s="20"/>
     </row>
     <row r="195" spans="1:15" s="146" customFormat="1">
@@ -10296,13 +10296,13 @@
       <c r="F200" s="195"/>
       <c r="G200" s="195"/>
       <c r="H200" s="22"/>
-      <c r="I200" s="197">
+      <c r="I200" s="198">
         <v>44908</v>
       </c>
-      <c r="J200" s="198" t="s">
+      <c r="J200" s="197" t="s">
         <v>808</v>
       </c>
-      <c r="K200" s="198" t="s">
+      <c r="K200" s="197" t="s">
         <v>82</v>
       </c>
       <c r="L200" s="162" t="s">
@@ -10311,7 +10311,7 @@
       <c r="M200" s="162">
         <v>6</v>
       </c>
-      <c r="N200" s="198" t="s">
+      <c r="N200" s="197" t="s">
         <v>84</v>
       </c>
       <c r="O200" s="20"/>
@@ -10329,16 +10329,16 @@
       <c r="F201" s="195"/>
       <c r="G201" s="195"/>
       <c r="H201" s="22"/>
-      <c r="I201" s="197"/>
-      <c r="J201" s="198"/>
-      <c r="K201" s="198"/>
+      <c r="I201" s="198"/>
+      <c r="J201" s="197"/>
+      <c r="K201" s="197"/>
       <c r="L201" s="162" t="s">
         <v>85</v>
       </c>
       <c r="M201" s="162">
         <v>10</v>
       </c>
-      <c r="N201" s="198"/>
+      <c r="N201" s="197"/>
       <c r="O201" s="20"/>
     </row>
     <row r="202" spans="1:15" s="146" customFormat="1">
@@ -10354,16 +10354,16 @@
       <c r="F202" s="195"/>
       <c r="G202" s="195"/>
       <c r="H202" s="22"/>
-      <c r="I202" s="197"/>
-      <c r="J202" s="198"/>
-      <c r="K202" s="198"/>
+      <c r="I202" s="198"/>
+      <c r="J202" s="197"/>
+      <c r="K202" s="197"/>
       <c r="L202" s="162" t="s">
         <v>349</v>
       </c>
       <c r="M202" s="162">
         <v>30</v>
       </c>
-      <c r="N202" s="198"/>
+      <c r="N202" s="197"/>
       <c r="O202" s="20"/>
     </row>
     <row r="203" spans="1:15" s="146" customFormat="1">
@@ -10379,16 +10379,16 @@
       <c r="F203" s="195"/>
       <c r="G203" s="195"/>
       <c r="H203" s="22"/>
-      <c r="I203" s="197"/>
-      <c r="J203" s="198"/>
-      <c r="K203" s="198"/>
+      <c r="I203" s="198"/>
+      <c r="J203" s="197"/>
+      <c r="K203" s="197"/>
       <c r="L203" s="162" t="s">
         <v>83</v>
       </c>
       <c r="M203" s="162">
         <v>100</v>
       </c>
-      <c r="N203" s="198"/>
+      <c r="N203" s="197"/>
       <c r="O203" s="20"/>
     </row>
     <row r="204" spans="1:15" s="146" customFormat="1">
@@ -10545,13 +10545,13 @@
         <v>75</v>
       </c>
       <c r="H209" s="22"/>
-      <c r="I209" s="197">
+      <c r="I209" s="198">
         <v>44919</v>
       </c>
-      <c r="J209" s="198" t="s">
+      <c r="J209" s="197" t="s">
         <v>811</v>
       </c>
-      <c r="K209" s="198" t="s">
+      <c r="K209" s="197" t="s">
         <v>82</v>
       </c>
       <c r="L209" s="162" t="s">
@@ -10560,7 +10560,7 @@
       <c r="M209" s="162">
         <v>6</v>
       </c>
-      <c r="N209" s="198" t="s">
+      <c r="N209" s="197" t="s">
         <v>84</v>
       </c>
       <c r="O209" s="20"/>
@@ -10574,16 +10574,16 @@
       <c r="F210" s="23"/>
       <c r="G210" s="23"/>
       <c r="H210" s="52"/>
-      <c r="I210" s="197"/>
-      <c r="J210" s="198"/>
-      <c r="K210" s="198"/>
+      <c r="I210" s="198"/>
+      <c r="J210" s="197"/>
+      <c r="K210" s="197"/>
       <c r="L210" s="162" t="s">
         <v>86</v>
       </c>
       <c r="M210" s="162">
         <v>5</v>
       </c>
-      <c r="N210" s="198"/>
+      <c r="N210" s="197"/>
       <c r="O210" s="20"/>
     </row>
     <row r="211" spans="1:15" s="146" customFormat="1" ht="31.2" customHeight="1">
@@ -10609,16 +10609,16 @@
         <v>75</v>
       </c>
       <c r="H211" s="22"/>
-      <c r="I211" s="197"/>
-      <c r="J211" s="198"/>
-      <c r="K211" s="198"/>
+      <c r="I211" s="198"/>
+      <c r="J211" s="197"/>
+      <c r="K211" s="197"/>
       <c r="L211" s="162" t="s">
         <v>832</v>
       </c>
       <c r="M211" s="162">
         <v>1</v>
       </c>
-      <c r="N211" s="198"/>
+      <c r="N211" s="197"/>
       <c r="O211" s="20"/>
     </row>
     <row r="212" spans="1:15" s="146" customFormat="1">
@@ -10661,13 +10661,13 @@
         <v>75</v>
       </c>
       <c r="H213" s="22"/>
-      <c r="I213" s="197">
+      <c r="I213" s="198">
         <v>44932</v>
       </c>
-      <c r="J213" s="198" t="s">
+      <c r="J213" s="197" t="s">
         <v>852</v>
       </c>
-      <c r="K213" s="198" t="s">
+      <c r="K213" s="197" t="s">
         <v>82</v>
       </c>
       <c r="L213" s="168" t="s">
@@ -10676,7 +10676,7 @@
       <c r="M213" s="168">
         <v>1</v>
       </c>
-      <c r="N213" s="198" t="s">
+      <c r="N213" s="197" t="s">
         <v>84</v>
       </c>
       <c r="O213" s="20"/>
@@ -10690,16 +10690,16 @@
       <c r="F214" s="23"/>
       <c r="G214" s="23"/>
       <c r="H214" s="52"/>
-      <c r="I214" s="197"/>
-      <c r="J214" s="198"/>
-      <c r="K214" s="198"/>
+      <c r="I214" s="198"/>
+      <c r="J214" s="197"/>
+      <c r="K214" s="197"/>
       <c r="L214" s="168" t="s">
         <v>352</v>
       </c>
       <c r="M214" s="168">
         <v>2</v>
       </c>
-      <c r="N214" s="198"/>
+      <c r="N214" s="197"/>
       <c r="O214" s="20"/>
     </row>
     <row r="215" spans="1:15" s="156" customFormat="1" ht="72">
@@ -10866,13 +10866,13 @@
       <c r="F220" s="196"/>
       <c r="G220" s="196"/>
       <c r="H220" s="52"/>
-      <c r="I220" s="197">
+      <c r="I220" s="198">
         <v>44936</v>
       </c>
-      <c r="J220" s="198" t="s">
+      <c r="J220" s="197" t="s">
         <v>878</v>
       </c>
-      <c r="K220" s="198" t="s">
+      <c r="K220" s="197" t="s">
         <v>82</v>
       </c>
       <c r="L220" s="170" t="s">
@@ -10881,7 +10881,7 @@
       <c r="M220" s="170">
         <v>2</v>
       </c>
-      <c r="N220" s="198" t="s">
+      <c r="N220" s="197" t="s">
         <v>84</v>
       </c>
       <c r="O220" s="20"/>
@@ -10895,26 +10895,26 @@
       <c r="F221" s="23"/>
       <c r="G221" s="23"/>
       <c r="H221" s="52"/>
-      <c r="I221" s="197"/>
-      <c r="J221" s="198"/>
-      <c r="K221" s="198"/>
+      <c r="I221" s="198"/>
+      <c r="J221" s="197"/>
+      <c r="K221" s="197"/>
       <c r="L221" s="170" t="s">
         <v>105</v>
       </c>
       <c r="M221" s="170">
         <v>5</v>
       </c>
-      <c r="N221" s="198"/>
+      <c r="N221" s="197"/>
       <c r="O221" s="20"/>
     </row>
     <row r="222" spans="1:15" s="146" customFormat="1">
-      <c r="A222" s="197">
+      <c r="A222" s="198">
         <v>44884</v>
       </c>
-      <c r="B222" s="198" t="s">
+      <c r="B222" s="197" t="s">
         <v>735</v>
       </c>
-      <c r="C222" s="198" t="s">
+      <c r="C222" s="197" t="s">
         <v>397</v>
       </c>
       <c r="D222" s="151" t="s">
@@ -10923,62 +10923,62 @@
       <c r="E222" s="151">
         <v>2</v>
       </c>
-      <c r="F222" s="198" t="s">
+      <c r="F222" s="197" t="s">
         <v>63</v>
       </c>
-      <c r="G222" s="198" t="s">
+      <c r="G222" s="197" t="s">
         <v>75</v>
       </c>
       <c r="H222" s="22"/>
-      <c r="I222" s="197"/>
-      <c r="J222" s="198"/>
-      <c r="K222" s="198"/>
+      <c r="I222" s="198"/>
+      <c r="J222" s="197"/>
+      <c r="K222" s="197"/>
       <c r="L222" s="170" t="s">
         <v>905</v>
       </c>
       <c r="M222" s="170">
         <v>5</v>
       </c>
-      <c r="N222" s="198"/>
+      <c r="N222" s="197"/>
       <c r="O222" s="20"/>
     </row>
     <row r="223" spans="1:15" s="146" customFormat="1" ht="28.8">
-      <c r="A223" s="197"/>
-      <c r="B223" s="198"/>
-      <c r="C223" s="198"/>
+      <c r="A223" s="198"/>
+      <c r="B223" s="197"/>
+      <c r="C223" s="197"/>
       <c r="D223" s="151" t="s">
         <v>744</v>
       </c>
       <c r="E223" s="151">
         <v>1</v>
       </c>
-      <c r="F223" s="198"/>
-      <c r="G223" s="198"/>
+      <c r="F223" s="197"/>
+      <c r="G223" s="197"/>
       <c r="H223" s="22"/>
-      <c r="I223" s="197"/>
-      <c r="J223" s="198"/>
-      <c r="K223" s="198"/>
+      <c r="I223" s="198"/>
+      <c r="J223" s="197"/>
+      <c r="K223" s="197"/>
       <c r="L223" s="170" t="s">
         <v>906</v>
       </c>
       <c r="M223" s="170">
         <v>2</v>
       </c>
-      <c r="N223" s="198"/>
+      <c r="N223" s="197"/>
       <c r="O223" s="20"/>
     </row>
     <row r="224" spans="1:15" s="146" customFormat="1">
-      <c r="A224" s="197"/>
-      <c r="B224" s="198"/>
-      <c r="C224" s="198"/>
+      <c r="A224" s="198"/>
+      <c r="B224" s="197"/>
+      <c r="C224" s="197"/>
       <c r="D224" s="151" t="s">
         <v>745</v>
       </c>
       <c r="E224" s="151">
         <v>1</v>
       </c>
-      <c r="F224" s="198"/>
-      <c r="G224" s="198"/>
+      <c r="F224" s="197"/>
+      <c r="G224" s="197"/>
       <c r="H224" s="53"/>
       <c r="I224" s="23"/>
       <c r="J224" s="23"/>
@@ -10989,25 +10989,25 @@
       <c r="O224" s="54"/>
     </row>
     <row r="225" spans="1:15" s="146" customFormat="1">
-      <c r="A225" s="197"/>
-      <c r="B225" s="198"/>
-      <c r="C225" s="198"/>
+      <c r="A225" s="198"/>
+      <c r="B225" s="197"/>
+      <c r="C225" s="197"/>
       <c r="D225" s="151" t="s">
         <v>746</v>
       </c>
       <c r="E225" s="151">
         <v>1</v>
       </c>
-      <c r="F225" s="198"/>
-      <c r="G225" s="198"/>
+      <c r="F225" s="197"/>
+      <c r="G225" s="197"/>
       <c r="H225" s="22"/>
-      <c r="I225" s="197">
+      <c r="I225" s="198">
         <v>44938</v>
       </c>
-      <c r="J225" s="198" t="s">
+      <c r="J225" s="197" t="s">
         <v>918</v>
       </c>
-      <c r="K225" s="198" t="s">
+      <c r="K225" s="197" t="s">
         <v>82</v>
       </c>
       <c r="L225" s="178" t="s">
@@ -11016,7 +11016,7 @@
       <c r="M225" s="178">
         <v>15</v>
       </c>
-      <c r="N225" s="198" t="s">
+      <c r="N225" s="197" t="s">
         <v>84</v>
       </c>
       <c r="O225" s="20"/>
@@ -11030,16 +11030,16 @@
       <c r="F226" s="23"/>
       <c r="G226" s="23"/>
       <c r="H226" s="22"/>
-      <c r="I226" s="197"/>
-      <c r="J226" s="198"/>
-      <c r="K226" s="198"/>
+      <c r="I226" s="198"/>
+      <c r="J226" s="197"/>
+      <c r="K226" s="197"/>
       <c r="L226" s="178" t="s">
         <v>352</v>
       </c>
       <c r="M226" s="178">
         <v>10</v>
       </c>
-      <c r="N226" s="198"/>
+      <c r="N226" s="197"/>
       <c r="O226" s="20"/>
     </row>
     <row r="227" spans="1:15" s="146" customFormat="1" ht="57.6">
@@ -11065,16 +11065,16 @@
         <v>75</v>
       </c>
       <c r="H227" s="22"/>
-      <c r="I227" s="197"/>
-      <c r="J227" s="198"/>
-      <c r="K227" s="198"/>
+      <c r="I227" s="198"/>
+      <c r="J227" s="197"/>
+      <c r="K227" s="197"/>
       <c r="L227" s="178" t="s">
         <v>943</v>
       </c>
       <c r="M227" s="178">
         <v>12</v>
       </c>
-      <c r="N227" s="198"/>
+      <c r="N227" s="197"/>
       <c r="O227" s="20"/>
     </row>
     <row r="228" spans="1:15" s="146" customFormat="1" ht="72">
@@ -11086,26 +11086,26 @@
       <c r="F228" s="23"/>
       <c r="G228" s="23"/>
       <c r="H228" s="52"/>
-      <c r="I228" s="197"/>
-      <c r="J228" s="198"/>
-      <c r="K228" s="198"/>
+      <c r="I228" s="198"/>
+      <c r="J228" s="197"/>
+      <c r="K228" s="197"/>
       <c r="L228" s="178" t="s">
         <v>944</v>
       </c>
       <c r="M228" s="178">
         <v>10</v>
       </c>
-      <c r="N228" s="198"/>
+      <c r="N228" s="197"/>
       <c r="O228" s="20"/>
     </row>
     <row r="229" spans="1:15" s="146" customFormat="1">
-      <c r="A229" s="197">
+      <c r="A229" s="198">
         <v>44884</v>
       </c>
-      <c r="B229" s="198" t="s">
+      <c r="B229" s="197" t="s">
         <v>740</v>
       </c>
-      <c r="C229" s="198" t="s">
+      <c r="C229" s="197" t="s">
         <v>390</v>
       </c>
       <c r="D229" s="156" t="s">
@@ -11114,37 +11114,37 @@
       <c r="E229" s="156">
         <v>1</v>
       </c>
-      <c r="F229" s="198" t="s">
+      <c r="F229" s="197" t="s">
         <v>692</v>
       </c>
-      <c r="G229" s="198" t="s">
+      <c r="G229" s="197" t="s">
         <v>75</v>
       </c>
       <c r="H229" s="22"/>
-      <c r="I229" s="197"/>
-      <c r="J229" s="198"/>
-      <c r="K229" s="198"/>
+      <c r="I229" s="198"/>
+      <c r="J229" s="197"/>
+      <c r="K229" s="197"/>
       <c r="L229" s="178" t="s">
         <v>945</v>
       </c>
       <c r="M229" s="178">
         <v>5</v>
       </c>
-      <c r="N229" s="198"/>
+      <c r="N229" s="197"/>
       <c r="O229" s="20"/>
     </row>
     <row r="230" spans="1:15" s="146" customFormat="1">
-      <c r="A230" s="197"/>
-      <c r="B230" s="198"/>
-      <c r="C230" s="198"/>
+      <c r="A230" s="198"/>
+      <c r="B230" s="197"/>
+      <c r="C230" s="197"/>
       <c r="D230" s="156" t="s">
         <v>764</v>
       </c>
       <c r="E230" s="156">
         <v>1</v>
       </c>
-      <c r="F230" s="198"/>
-      <c r="G230" s="198"/>
+      <c r="F230" s="197"/>
+      <c r="G230" s="197"/>
       <c r="H230" s="53"/>
       <c r="I230" s="23"/>
       <c r="J230" s="23"/>
@@ -11155,25 +11155,25 @@
       <c r="O230" s="54"/>
     </row>
     <row r="231" spans="1:15" s="146" customFormat="1" ht="28.8">
-      <c r="A231" s="197"/>
-      <c r="B231" s="198"/>
-      <c r="C231" s="198"/>
+      <c r="A231" s="198"/>
+      <c r="B231" s="197"/>
+      <c r="C231" s="197"/>
       <c r="D231" s="156" t="s">
         <v>765</v>
       </c>
       <c r="E231" s="156">
         <v>2</v>
       </c>
-      <c r="F231" s="198"/>
-      <c r="G231" s="198"/>
+      <c r="F231" s="197"/>
+      <c r="G231" s="197"/>
       <c r="H231" s="22"/>
-      <c r="I231" s="197">
+      <c r="I231" s="198">
         <v>44938</v>
       </c>
-      <c r="J231" s="198" t="s">
+      <c r="J231" s="197" t="s">
         <v>919</v>
       </c>
-      <c r="K231" s="198" t="s">
+      <c r="K231" s="197" t="s">
         <v>82</v>
       </c>
       <c r="L231" s="181" t="s">
@@ -11182,34 +11182,34 @@
       <c r="M231" s="181">
         <v>3</v>
       </c>
-      <c r="N231" s="198" t="s">
+      <c r="N231" s="197" t="s">
         <v>84</v>
       </c>
       <c r="O231" s="20"/>
     </row>
     <row r="232" spans="1:15" s="146" customFormat="1">
-      <c r="A232" s="197"/>
-      <c r="B232" s="198"/>
-      <c r="C232" s="198"/>
+      <c r="A232" s="198"/>
+      <c r="B232" s="197"/>
+      <c r="C232" s="197"/>
       <c r="D232" s="156" t="s">
         <v>766</v>
       </c>
       <c r="E232" s="156">
         <v>2</v>
       </c>
-      <c r="F232" s="198"/>
-      <c r="G232" s="198"/>
+      <c r="F232" s="197"/>
+      <c r="G232" s="197"/>
       <c r="H232" s="22"/>
-      <c r="I232" s="197"/>
-      <c r="J232" s="198"/>
-      <c r="K232" s="198"/>
+      <c r="I232" s="198"/>
+      <c r="J232" s="197"/>
+      <c r="K232" s="197"/>
       <c r="L232" s="181" t="s">
         <v>349</v>
       </c>
       <c r="M232" s="181">
         <v>15</v>
       </c>
-      <c r="N232" s="198"/>
+      <c r="N232" s="197"/>
       <c r="O232" s="20"/>
     </row>
     <row r="233" spans="1:15" s="146" customFormat="1">
@@ -11221,16 +11221,16 @@
       <c r="F233" s="23"/>
       <c r="G233" s="23"/>
       <c r="H233" s="52"/>
-      <c r="I233" s="197"/>
-      <c r="J233" s="198"/>
-      <c r="K233" s="198"/>
+      <c r="I233" s="198"/>
+      <c r="J233" s="197"/>
+      <c r="K233" s="197"/>
       <c r="L233" s="181" t="s">
         <v>1006</v>
       </c>
       <c r="M233" s="181">
         <v>4</v>
       </c>
-      <c r="N233" s="198"/>
+      <c r="N233" s="197"/>
       <c r="O233" s="20"/>
     </row>
     <row r="234" spans="1:15" s="156" customFormat="1">
@@ -11333,13 +11333,13 @@
       <c r="F237" s="23"/>
       <c r="G237" s="23"/>
       <c r="H237" s="52"/>
-      <c r="I237" s="197">
+      <c r="I237" s="198">
         <v>44943</v>
       </c>
-      <c r="J237" s="198" t="s">
+      <c r="J237" s="197" t="s">
         <v>927</v>
       </c>
-      <c r="K237" s="198" t="s">
+      <c r="K237" s="197" t="s">
         <v>82</v>
       </c>
       <c r="L237" s="181" t="s">
@@ -11348,7 +11348,7 @@
       <c r="M237" s="181">
         <v>4</v>
       </c>
-      <c r="N237" s="198" t="s">
+      <c r="N237" s="197" t="s">
         <v>84</v>
       </c>
       <c r="O237" s="20"/>
@@ -11376,16 +11376,16 @@
         <v>75</v>
       </c>
       <c r="H238" s="22"/>
-      <c r="I238" s="197"/>
-      <c r="J238" s="198"/>
-      <c r="K238" s="198"/>
+      <c r="I238" s="198"/>
+      <c r="J238" s="197"/>
+      <c r="K238" s="197"/>
       <c r="L238" s="181" t="s">
         <v>1009</v>
       </c>
       <c r="M238" s="181">
         <v>1</v>
       </c>
-      <c r="N238" s="198"/>
+      <c r="N238" s="197"/>
       <c r="O238" s="20"/>
     </row>
     <row r="239" spans="1:15" s="146" customFormat="1">
@@ -11428,13 +11428,13 @@
         <v>75</v>
       </c>
       <c r="H240" s="22"/>
-      <c r="I240" s="197">
+      <c r="I240" s="198">
         <v>44944</v>
       </c>
-      <c r="J240" s="198" t="s">
+      <c r="J240" s="197" t="s">
         <v>955</v>
       </c>
-      <c r="K240" s="198" t="s">
+      <c r="K240" s="197" t="s">
         <v>82</v>
       </c>
       <c r="L240" s="181" t="s">
@@ -11443,7 +11443,7 @@
       <c r="M240" s="181">
         <v>10</v>
       </c>
-      <c r="N240" s="198" t="s">
+      <c r="N240" s="197" t="s">
         <v>84</v>
       </c>
       <c r="O240" s="20"/>
@@ -11457,26 +11457,26 @@
       <c r="F241" s="23"/>
       <c r="G241" s="23"/>
       <c r="H241" s="52"/>
-      <c r="I241" s="197"/>
-      <c r="J241" s="198"/>
-      <c r="K241" s="198"/>
+      <c r="I241" s="198"/>
+      <c r="J241" s="197"/>
+      <c r="K241" s="197"/>
       <c r="L241" s="181" t="s">
         <v>1011</v>
       </c>
       <c r="M241" s="181">
         <v>35</v>
       </c>
-      <c r="N241" s="198"/>
+      <c r="N241" s="197"/>
       <c r="O241" s="20"/>
     </row>
     <row r="242" spans="1:15" s="146" customFormat="1" ht="14.4" customHeight="1">
-      <c r="A242" s="197">
+      <c r="A242" s="198">
         <v>44903</v>
       </c>
-      <c r="B242" s="198" t="s">
+      <c r="B242" s="197" t="s">
         <v>795</v>
       </c>
-      <c r="C242" s="198" t="s">
+      <c r="C242" s="197" t="s">
         <v>93</v>
       </c>
       <c r="D242" s="159" t="s">
@@ -11485,37 +11485,37 @@
       <c r="E242" s="159">
         <v>2</v>
       </c>
-      <c r="F242" s="198" t="s">
+      <c r="F242" s="197" t="s">
         <v>692</v>
       </c>
-      <c r="G242" s="198" t="s">
+      <c r="G242" s="197" t="s">
         <v>75</v>
       </c>
       <c r="H242" s="22"/>
-      <c r="I242" s="197"/>
-      <c r="J242" s="198"/>
-      <c r="K242" s="198"/>
+      <c r="I242" s="198"/>
+      <c r="J242" s="197"/>
+      <c r="K242" s="197"/>
       <c r="L242" s="181" t="s">
         <v>1012</v>
       </c>
       <c r="M242" s="181">
         <v>10</v>
       </c>
-      <c r="N242" s="198"/>
+      <c r="N242" s="197"/>
       <c r="O242" s="20"/>
     </row>
     <row r="243" spans="1:15" s="146" customFormat="1">
-      <c r="A243" s="197"/>
-      <c r="B243" s="198"/>
-      <c r="C243" s="198"/>
+      <c r="A243" s="198"/>
+      <c r="B243" s="197"/>
+      <c r="C243" s="197"/>
       <c r="D243" s="159" t="s">
         <v>339</v>
       </c>
       <c r="E243" s="159">
         <v>100</v>
       </c>
-      <c r="F243" s="198"/>
-      <c r="G243" s="198"/>
+      <c r="F243" s="197"/>
+      <c r="G243" s="197"/>
       <c r="H243" s="53"/>
       <c r="I243" s="23"/>
       <c r="J243" s="23"/>
@@ -11555,13 +11555,13 @@
       <c r="O244" s="20"/>
     </row>
     <row r="245" spans="1:15" s="146" customFormat="1" ht="28.8" customHeight="1">
-      <c r="A245" s="197">
+      <c r="A245" s="198">
         <v>44903</v>
       </c>
-      <c r="B245" s="198" t="s">
+      <c r="B245" s="197" t="s">
         <v>801</v>
       </c>
-      <c r="C245" s="198" t="s">
+      <c r="C245" s="197" t="s">
         <v>839</v>
       </c>
       <c r="D245" s="165" t="s">
@@ -11570,10 +11570,10 @@
       <c r="E245" s="165">
         <v>30</v>
       </c>
-      <c r="F245" s="198" t="s">
+      <c r="F245" s="197" t="s">
         <v>692</v>
       </c>
-      <c r="G245" s="198" t="s">
+      <c r="G245" s="197" t="s">
         <v>75</v>
       </c>
       <c r="H245" s="53"/>
@@ -11586,25 +11586,25 @@
       <c r="O245" s="54"/>
     </row>
     <row r="246" spans="1:15" s="146" customFormat="1">
-      <c r="A246" s="197"/>
-      <c r="B246" s="198"/>
-      <c r="C246" s="198"/>
+      <c r="A246" s="198"/>
+      <c r="B246" s="197"/>
+      <c r="C246" s="197"/>
       <c r="D246" s="165" t="s">
         <v>476</v>
       </c>
       <c r="E246" s="165">
         <v>10</v>
       </c>
-      <c r="F246" s="198"/>
-      <c r="G246" s="198"/>
+      <c r="F246" s="197"/>
+      <c r="G246" s="197"/>
       <c r="H246" s="22"/>
-      <c r="I246" s="197">
+      <c r="I246" s="198">
         <v>44956</v>
       </c>
-      <c r="J246" s="198" t="s">
+      <c r="J246" s="197" t="s">
         <v>977</v>
       </c>
-      <c r="K246" s="198" t="s">
+      <c r="K246" s="197" t="s">
         <v>82</v>
       </c>
       <c r="L246" s="181" t="s">
@@ -11613,34 +11613,34 @@
       <c r="M246" s="181">
         <v>10</v>
       </c>
-      <c r="N246" s="198" t="s">
+      <c r="N246" s="197" t="s">
         <v>84</v>
       </c>
       <c r="O246" s="20"/>
     </row>
     <row r="247" spans="1:15" s="146" customFormat="1">
-      <c r="A247" s="197"/>
-      <c r="B247" s="198"/>
-      <c r="C247" s="198"/>
+      <c r="A247" s="198"/>
+      <c r="B247" s="197"/>
+      <c r="C247" s="197"/>
       <c r="D247" s="165" t="s">
         <v>475</v>
       </c>
       <c r="E247" s="165">
         <v>10</v>
       </c>
-      <c r="F247" s="198"/>
-      <c r="G247" s="198"/>
+      <c r="F247" s="197"/>
+      <c r="G247" s="197"/>
       <c r="H247" s="22"/>
-      <c r="I247" s="197"/>
-      <c r="J247" s="198"/>
-      <c r="K247" s="198"/>
+      <c r="I247" s="198"/>
+      <c r="J247" s="197"/>
+      <c r="K247" s="197"/>
       <c r="L247" s="181" t="s">
         <v>352</v>
       </c>
       <c r="M247" s="181">
         <v>5</v>
       </c>
-      <c r="N247" s="198"/>
+      <c r="N247" s="197"/>
       <c r="O247" s="20"/>
     </row>
     <row r="248" spans="1:15" s="146" customFormat="1">
@@ -11652,16 +11652,16 @@
       <c r="F248" s="23"/>
       <c r="G248" s="23"/>
       <c r="H248" s="52"/>
-      <c r="I248" s="197"/>
-      <c r="J248" s="198"/>
-      <c r="K248" s="198"/>
+      <c r="I248" s="198"/>
+      <c r="J248" s="197"/>
+      <c r="K248" s="197"/>
       <c r="L248" s="181" t="s">
         <v>83</v>
       </c>
       <c r="M248" s="181">
         <v>100</v>
       </c>
-      <c r="N248" s="198"/>
+      <c r="N248" s="197"/>
       <c r="O248" s="20"/>
     </row>
     <row r="249" spans="1:15" s="146" customFormat="1" ht="43.2">
@@ -11687,16 +11687,16 @@
         <v>75</v>
       </c>
       <c r="H249" s="22"/>
-      <c r="I249" s="197"/>
-      <c r="J249" s="198"/>
-      <c r="K249" s="198"/>
+      <c r="I249" s="198"/>
+      <c r="J249" s="197"/>
+      <c r="K249" s="197"/>
       <c r="L249" s="181" t="s">
         <v>1013</v>
       </c>
       <c r="M249" s="181">
         <v>5</v>
       </c>
-      <c r="N249" s="198"/>
+      <c r="N249" s="197"/>
       <c r="O249" s="20"/>
     </row>
     <row r="250" spans="1:15" s="146" customFormat="1">
@@ -11708,26 +11708,26 @@
       <c r="F250" s="23"/>
       <c r="G250" s="23"/>
       <c r="H250" s="52"/>
-      <c r="I250" s="197"/>
-      <c r="J250" s="198"/>
-      <c r="K250" s="198"/>
+      <c r="I250" s="198"/>
+      <c r="J250" s="197"/>
+      <c r="K250" s="197"/>
       <c r="L250" s="181" t="s">
         <v>105</v>
       </c>
       <c r="M250" s="181">
         <v>6</v>
       </c>
-      <c r="N250" s="198"/>
+      <c r="N250" s="197"/>
       <c r="O250" s="20"/>
     </row>
     <row r="251" spans="1:15" s="146" customFormat="1">
-      <c r="A251" s="197">
+      <c r="A251" s="198">
         <v>44909</v>
       </c>
-      <c r="B251" s="198">
+      <c r="B251" s="197">
         <v>320</v>
       </c>
-      <c r="C251" s="198" t="s">
+      <c r="C251" s="197" t="s">
         <v>825</v>
       </c>
       <c r="D251" s="165" t="s">
@@ -11736,35 +11736,35 @@
       <c r="E251" s="165">
         <v>2</v>
       </c>
-      <c r="F251" s="198" t="s">
+      <c r="F251" s="197" t="s">
         <v>63</v>
       </c>
-      <c r="G251" s="198"/>
+      <c r="G251" s="197"/>
       <c r="H251" s="22"/>
-      <c r="I251" s="197"/>
-      <c r="J251" s="198"/>
-      <c r="K251" s="198"/>
+      <c r="I251" s="198"/>
+      <c r="J251" s="197"/>
+      <c r="K251" s="197"/>
       <c r="L251" s="181" t="s">
         <v>1014</v>
       </c>
       <c r="M251" s="181">
         <v>2</v>
       </c>
-      <c r="N251" s="198"/>
+      <c r="N251" s="197"/>
       <c r="O251" s="20"/>
     </row>
     <row r="252" spans="1:15" s="146" customFormat="1">
-      <c r="A252" s="197"/>
-      <c r="B252" s="198"/>
-      <c r="C252" s="198"/>
+      <c r="A252" s="198"/>
+      <c r="B252" s="197"/>
+      <c r="C252" s="197"/>
       <c r="D252" s="165" t="s">
         <v>841</v>
       </c>
       <c r="E252" s="165">
         <v>6</v>
       </c>
-      <c r="F252" s="198"/>
-      <c r="G252" s="198"/>
+      <c r="F252" s="197"/>
+      <c r="G252" s="197"/>
       <c r="H252" s="53"/>
       <c r="I252" s="23"/>
       <c r="J252" s="23"/>
@@ -11783,13 +11783,13 @@
       <c r="F253" s="23"/>
       <c r="G253" s="23"/>
       <c r="H253" s="52"/>
-      <c r="I253" s="197">
+      <c r="I253" s="198">
         <v>44956</v>
       </c>
-      <c r="J253" s="198" t="s">
+      <c r="J253" s="197" t="s">
         <v>978</v>
       </c>
-      <c r="K253" s="198" t="s">
+      <c r="K253" s="197" t="s">
         <v>82</v>
       </c>
       <c r="L253" s="181" t="s">
@@ -11798,19 +11798,19 @@
       <c r="M253" s="181">
         <v>5</v>
       </c>
-      <c r="N253" s="198" t="s">
+      <c r="N253" s="197" t="s">
         <v>84</v>
       </c>
       <c r="O253" s="20"/>
     </row>
     <row r="254" spans="1:15" s="146" customFormat="1" ht="28.8" customHeight="1">
-      <c r="A254" s="197">
+      <c r="A254" s="198">
         <v>44915</v>
       </c>
-      <c r="B254" s="198" t="s">
+      <c r="B254" s="197" t="s">
         <v>833</v>
       </c>
-      <c r="C254" s="198" t="s">
+      <c r="C254" s="197" t="s">
         <v>76</v>
       </c>
       <c r="D254" s="165" t="s">
@@ -11819,48 +11819,48 @@
       <c r="E254" s="165">
         <v>6</v>
       </c>
-      <c r="F254" s="198" t="s">
+      <c r="F254" s="197" t="s">
         <v>63</v>
       </c>
-      <c r="G254" s="198" t="s">
+      <c r="G254" s="197" t="s">
         <v>75</v>
       </c>
       <c r="H254" s="22"/>
-      <c r="I254" s="197"/>
-      <c r="J254" s="198"/>
-      <c r="K254" s="198"/>
+      <c r="I254" s="198"/>
+      <c r="J254" s="197"/>
+      <c r="K254" s="197"/>
       <c r="L254" s="181" t="s">
         <v>105</v>
       </c>
       <c r="M254" s="181">
         <v>8</v>
       </c>
-      <c r="N254" s="198"/>
+      <c r="N254" s="197"/>
       <c r="O254" s="20"/>
     </row>
     <row r="255" spans="1:15" s="146" customFormat="1">
-      <c r="A255" s="197"/>
-      <c r="B255" s="198"/>
-      <c r="C255" s="198"/>
+      <c r="A255" s="198"/>
+      <c r="B255" s="197"/>
+      <c r="C255" s="197"/>
       <c r="D255" s="165" t="s">
         <v>842</v>
       </c>
       <c r="E255" s="165">
         <v>5</v>
       </c>
-      <c r="F255" s="198"/>
-      <c r="G255" s="198"/>
+      <c r="F255" s="197"/>
+      <c r="G255" s="197"/>
       <c r="H255" s="22"/>
-      <c r="I255" s="197"/>
-      <c r="J255" s="198"/>
-      <c r="K255" s="198"/>
+      <c r="I255" s="198"/>
+      <c r="J255" s="197"/>
+      <c r="K255" s="197"/>
       <c r="L255" s="181" t="s">
         <v>1014</v>
       </c>
       <c r="M255" s="181">
         <v>5</v>
       </c>
-      <c r="N255" s="198"/>
+      <c r="N255" s="197"/>
       <c r="O255" s="20"/>
     </row>
     <row r="256" spans="1:15" s="146" customFormat="1">
@@ -11963,13 +11963,13 @@
         <v>75</v>
       </c>
       <c r="H259" s="53"/>
-      <c r="I259" s="197">
+      <c r="I259" s="198">
         <v>44959</v>
       </c>
-      <c r="J259" s="198" t="s">
+      <c r="J259" s="197" t="s">
         <v>982</v>
       </c>
-      <c r="K259" s="198" t="s">
+      <c r="K259" s="197" t="s">
         <v>82</v>
       </c>
       <c r="L259" s="181" t="s">
@@ -11978,7 +11978,7 @@
       <c r="M259" s="181">
         <v>2</v>
       </c>
-      <c r="N259" s="198" t="s">
+      <c r="N259" s="197" t="s">
         <v>84</v>
       </c>
       <c r="O259" s="54"/>
@@ -11992,16 +11992,16 @@
       <c r="F260" s="23"/>
       <c r="G260" s="23"/>
       <c r="H260" s="78"/>
-      <c r="I260" s="197"/>
-      <c r="J260" s="198"/>
-      <c r="K260" s="198"/>
+      <c r="I260" s="198"/>
+      <c r="J260" s="197"/>
+      <c r="K260" s="197"/>
       <c r="L260" s="181" t="s">
         <v>105</v>
       </c>
       <c r="M260" s="181">
         <v>4</v>
       </c>
-      <c r="N260" s="198"/>
+      <c r="N260" s="197"/>
       <c r="O260" s="54"/>
     </row>
     <row r="261" spans="1:15" s="146" customFormat="1">
@@ -12027,16 +12027,16 @@
         <v>75</v>
       </c>
       <c r="H261" s="53"/>
-      <c r="I261" s="197"/>
-      <c r="J261" s="198"/>
-      <c r="K261" s="198"/>
+      <c r="I261" s="198"/>
+      <c r="J261" s="197"/>
+      <c r="K261" s="197"/>
       <c r="L261" s="181" t="s">
         <v>139</v>
       </c>
       <c r="M261" s="181">
         <v>15</v>
       </c>
-      <c r="N261" s="198"/>
+      <c r="N261" s="197"/>
       <c r="O261" s="54"/>
     </row>
     <row r="262" spans="1:15" s="146" customFormat="1">
@@ -12077,13 +12077,13 @@
       </c>
       <c r="G263" s="165"/>
       <c r="H263" s="22"/>
-      <c r="I263" s="197">
+      <c r="I263" s="198">
         <v>44965</v>
       </c>
-      <c r="J263" s="198" t="s">
+      <c r="J263" s="197" t="s">
         <v>1040</v>
       </c>
-      <c r="K263" s="198" t="s">
+      <c r="K263" s="197" t="s">
         <v>813</v>
       </c>
       <c r="L263" s="183" t="s">
@@ -12092,7 +12092,7 @@
       <c r="M263" s="183">
         <v>4</v>
       </c>
-      <c r="N263" s="198" t="s">
+      <c r="N263" s="197" t="s">
         <v>818</v>
       </c>
       <c r="O263" s="20"/>
@@ -12106,16 +12106,16 @@
       <c r="F264" s="23"/>
       <c r="G264" s="23"/>
       <c r="H264" s="52"/>
-      <c r="I264" s="197"/>
-      <c r="J264" s="198"/>
-      <c r="K264" s="198"/>
+      <c r="I264" s="198"/>
+      <c r="J264" s="197"/>
+      <c r="K264" s="197"/>
       <c r="L264" s="183" t="s">
         <v>1066</v>
       </c>
       <c r="M264" s="183">
         <v>1</v>
       </c>
-      <c r="N264" s="198"/>
+      <c r="N264" s="197"/>
       <c r="O264" s="20"/>
     </row>
     <row r="265" spans="1:15" s="146" customFormat="1">
@@ -12141,16 +12141,16 @@
         <v>75</v>
       </c>
       <c r="H265" s="22"/>
-      <c r="I265" s="197"/>
-      <c r="J265" s="198"/>
-      <c r="K265" s="198"/>
+      <c r="I265" s="198"/>
+      <c r="J265" s="197"/>
+      <c r="K265" s="197"/>
       <c r="L265" s="183" t="s">
         <v>1067</v>
       </c>
       <c r="M265" s="183">
         <v>1</v>
       </c>
-      <c r="N265" s="198"/>
+      <c r="N265" s="197"/>
       <c r="O265" s="20"/>
     </row>
     <row r="266" spans="1:15" s="146" customFormat="1">
@@ -12191,13 +12191,13 @@
       </c>
       <c r="G267" s="165"/>
       <c r="H267" s="22"/>
-      <c r="I267" s="197">
+      <c r="I267" s="198">
         <v>44971</v>
       </c>
-      <c r="J267" s="198" t="s">
+      <c r="J267" s="197" t="s">
         <v>1041</v>
       </c>
-      <c r="K267" s="198" t="s">
+      <c r="K267" s="197" t="s">
         <v>82</v>
       </c>
       <c r="L267" s="183" t="s">
@@ -12206,7 +12206,7 @@
       <c r="M267" s="183">
         <v>14</v>
       </c>
-      <c r="N267" s="198" t="s">
+      <c r="N267" s="197" t="s">
         <v>84</v>
       </c>
       <c r="O267" s="20"/>
@@ -12220,16 +12220,16 @@
       <c r="F268" s="23"/>
       <c r="G268" s="23"/>
       <c r="H268" s="52"/>
-      <c r="I268" s="197"/>
-      <c r="J268" s="198"/>
-      <c r="K268" s="198"/>
+      <c r="I268" s="198"/>
+      <c r="J268" s="197"/>
+      <c r="K268" s="197"/>
       <c r="L268" s="183" t="s">
         <v>349</v>
       </c>
       <c r="M268" s="183">
         <v>20</v>
       </c>
-      <c r="N268" s="198"/>
+      <c r="N268" s="197"/>
       <c r="O268" s="20"/>
     </row>
     <row r="269" spans="1:15" s="146" customFormat="1">
@@ -12255,16 +12255,16 @@
         <v>75</v>
       </c>
       <c r="H269" s="22"/>
-      <c r="I269" s="197"/>
-      <c r="J269" s="198"/>
-      <c r="K269" s="198"/>
+      <c r="I269" s="198"/>
+      <c r="J269" s="197"/>
+      <c r="K269" s="197"/>
       <c r="L269" s="183" t="s">
         <v>352</v>
       </c>
       <c r="M269" s="183">
         <v>10</v>
       </c>
-      <c r="N269" s="198"/>
+      <c r="N269" s="197"/>
       <c r="O269" s="20"/>
     </row>
     <row r="270" spans="1:15" s="146" customFormat="1">
@@ -12276,16 +12276,16 @@
       <c r="F270" s="23"/>
       <c r="G270" s="23"/>
       <c r="H270" s="52"/>
-      <c r="I270" s="197"/>
-      <c r="J270" s="198"/>
-      <c r="K270" s="198"/>
+      <c r="I270" s="198"/>
+      <c r="J270" s="197"/>
+      <c r="K270" s="197"/>
       <c r="L270" s="183" t="s">
         <v>105</v>
       </c>
       <c r="M270" s="183">
         <v>8</v>
       </c>
-      <c r="N270" s="198"/>
+      <c r="N270" s="197"/>
       <c r="O270" s="20"/>
     </row>
     <row r="271" spans="1:15" s="146" customFormat="1" ht="57.6">
@@ -12311,16 +12311,16 @@
         <v>75</v>
       </c>
       <c r="H271" s="22"/>
-      <c r="I271" s="197"/>
-      <c r="J271" s="198"/>
-      <c r="K271" s="198"/>
+      <c r="I271" s="198"/>
+      <c r="J271" s="197"/>
+      <c r="K271" s="197"/>
       <c r="L271" s="183" t="s">
         <v>1068</v>
       </c>
       <c r="M271" s="183">
         <v>8</v>
       </c>
-      <c r="N271" s="198"/>
+      <c r="N271" s="197"/>
       <c r="O271" s="20"/>
     </row>
     <row r="272" spans="1:15" s="146" customFormat="1">
@@ -12363,13 +12363,13 @@
         <v>75</v>
       </c>
       <c r="H273" s="22"/>
-      <c r="I273" s="197">
+      <c r="I273" s="198">
         <v>44971</v>
       </c>
-      <c r="J273" s="198" t="s">
+      <c r="J273" s="197" t="s">
         <v>1042</v>
       </c>
-      <c r="K273" s="198" t="s">
+      <c r="K273" s="197" t="s">
         <v>82</v>
       </c>
       <c r="L273" s="183" t="s">
@@ -12378,7 +12378,7 @@
       <c r="M273" s="183">
         <v>2</v>
       </c>
-      <c r="N273" s="198" t="s">
+      <c r="N273" s="197" t="s">
         <v>84</v>
       </c>
       <c r="O273" s="20"/>
@@ -12392,16 +12392,16 @@
       <c r="F274" s="23"/>
       <c r="G274" s="23"/>
       <c r="H274" s="52"/>
-      <c r="I274" s="197"/>
-      <c r="J274" s="198"/>
-      <c r="K274" s="198"/>
+      <c r="I274" s="198"/>
+      <c r="J274" s="197"/>
+      <c r="K274" s="197"/>
       <c r="L274" s="183" t="s">
         <v>105</v>
       </c>
       <c r="M274" s="183">
         <v>18</v>
       </c>
-      <c r="N274" s="198"/>
+      <c r="N274" s="197"/>
       <c r="O274" s="20"/>
     </row>
     <row r="275" spans="1:15" s="146" customFormat="1" ht="28.8">
@@ -12427,16 +12427,16 @@
         <v>75</v>
       </c>
       <c r="H275" s="22"/>
-      <c r="I275" s="197"/>
-      <c r="J275" s="198"/>
-      <c r="K275" s="198"/>
+      <c r="I275" s="198"/>
+      <c r="J275" s="197"/>
+      <c r="K275" s="197"/>
       <c r="L275" s="183" t="s">
         <v>86</v>
       </c>
       <c r="M275" s="183">
         <v>4</v>
       </c>
-      <c r="N275" s="198"/>
+      <c r="N275" s="197"/>
       <c r="O275" s="20"/>
     </row>
     <row r="276" spans="1:15" s="146" customFormat="1">
@@ -12448,16 +12448,16 @@
       <c r="F276" s="23"/>
       <c r="G276" s="23"/>
       <c r="H276" s="52"/>
-      <c r="I276" s="197"/>
-      <c r="J276" s="198"/>
-      <c r="K276" s="198"/>
+      <c r="I276" s="198"/>
+      <c r="J276" s="197"/>
+      <c r="K276" s="197"/>
       <c r="L276" s="183" t="s">
         <v>679</v>
       </c>
       <c r="M276" s="183">
         <v>15</v>
       </c>
-      <c r="N276" s="198"/>
+      <c r="N276" s="197"/>
       <c r="O276" s="20"/>
     </row>
     <row r="277" spans="1:15" s="146" customFormat="1" ht="72">
@@ -12483,16 +12483,16 @@
         <v>75</v>
       </c>
       <c r="H277" s="22"/>
-      <c r="I277" s="197"/>
-      <c r="J277" s="198"/>
-      <c r="K277" s="198"/>
+      <c r="I277" s="198"/>
+      <c r="J277" s="197"/>
+      <c r="K277" s="197"/>
       <c r="L277" s="183" t="s">
         <v>1014</v>
       </c>
       <c r="M277" s="183">
         <v>20</v>
       </c>
-      <c r="N277" s="198"/>
+      <c r="N277" s="197"/>
       <c r="O277" s="20"/>
     </row>
     <row r="278" spans="1:15" s="146" customFormat="1" ht="28.8">
@@ -12504,16 +12504,16 @@
       <c r="F278" s="23"/>
       <c r="G278" s="23"/>
       <c r="H278" s="52"/>
-      <c r="I278" s="197"/>
-      <c r="J278" s="198"/>
-      <c r="K278" s="198"/>
+      <c r="I278" s="198"/>
+      <c r="J278" s="197"/>
+      <c r="K278" s="197"/>
       <c r="L278" s="183" t="s">
         <v>1069</v>
       </c>
       <c r="M278" s="183">
         <v>1</v>
       </c>
-      <c r="N278" s="198"/>
+      <c r="N278" s="197"/>
       <c r="O278" s="20"/>
     </row>
     <row r="279" spans="1:15" s="146" customFormat="1">
@@ -12556,13 +12556,13 @@
       <c r="F280" s="23"/>
       <c r="G280" s="23"/>
       <c r="H280" s="22"/>
-      <c r="I280" s="197">
+      <c r="I280" s="198">
         <v>44974</v>
       </c>
-      <c r="J280" s="198" t="s">
+      <c r="J280" s="197" t="s">
         <v>1047</v>
       </c>
-      <c r="K280" s="198" t="s">
+      <c r="K280" s="197" t="s">
         <v>82</v>
       </c>
       <c r="L280" s="183" t="s">
@@ -12571,7 +12571,7 @@
       <c r="M280" s="183">
         <v>2</v>
       </c>
-      <c r="N280" s="198" t="s">
+      <c r="N280" s="197" t="s">
         <v>84</v>
       </c>
       <c r="O280" s="20"/>
@@ -12599,16 +12599,16 @@
         <v>75</v>
       </c>
       <c r="H281" s="22"/>
-      <c r="I281" s="197"/>
-      <c r="J281" s="198"/>
-      <c r="K281" s="198"/>
+      <c r="I281" s="198"/>
+      <c r="J281" s="197"/>
+      <c r="K281" s="197"/>
       <c r="L281" s="183" t="s">
         <v>1071</v>
       </c>
       <c r="M281" s="183">
         <v>3</v>
       </c>
-      <c r="N281" s="198"/>
+      <c r="N281" s="197"/>
       <c r="O281" s="20"/>
     </row>
     <row r="282" spans="1:15" s="146" customFormat="1">
@@ -12711,13 +12711,13 @@
         <v>75</v>
       </c>
       <c r="H285" s="52"/>
-      <c r="I285" s="197">
+      <c r="I285" s="198">
         <v>44984</v>
       </c>
-      <c r="J285" s="198" t="s">
+      <c r="J285" s="197" t="s">
         <v>1075</v>
       </c>
-      <c r="K285" s="198" t="s">
+      <c r="K285" s="197" t="s">
         <v>82</v>
       </c>
       <c r="L285" s="185" t="s">
@@ -12726,7 +12726,7 @@
       <c r="M285" s="185">
         <v>61</v>
       </c>
-      <c r="N285" s="198" t="s">
+      <c r="N285" s="197" t="s">
         <v>84</v>
       </c>
       <c r="O285" s="20"/>
@@ -12740,26 +12740,26 @@
       <c r="F286" s="23"/>
       <c r="G286" s="23"/>
       <c r="H286" s="22"/>
-      <c r="I286" s="197"/>
-      <c r="J286" s="198"/>
-      <c r="K286" s="198"/>
+      <c r="I286" s="198"/>
+      <c r="J286" s="197"/>
+      <c r="K286" s="197"/>
       <c r="L286" s="185" t="s">
         <v>1014</v>
       </c>
       <c r="M286" s="185">
         <v>10</v>
       </c>
-      <c r="N286" s="198"/>
+      <c r="N286" s="197"/>
       <c r="O286" s="20"/>
     </row>
     <row r="287" spans="1:15" s="146" customFormat="1">
-      <c r="A287" s="197">
+      <c r="A287" s="198">
         <v>44936</v>
       </c>
-      <c r="B287" s="198" t="s">
+      <c r="B287" s="197" t="s">
         <v>874</v>
       </c>
-      <c r="C287" s="198" t="s">
+      <c r="C287" s="197" t="s">
         <v>327</v>
       </c>
       <c r="D287" s="170" t="s">
@@ -12768,48 +12768,48 @@
       <c r="E287" s="170">
         <v>4</v>
       </c>
-      <c r="F287" s="198" t="s">
+      <c r="F287" s="197" t="s">
         <v>855</v>
       </c>
-      <c r="G287" s="198" t="s">
+      <c r="G287" s="197" t="s">
         <v>75</v>
       </c>
       <c r="H287" s="52"/>
-      <c r="I287" s="197"/>
-      <c r="J287" s="198"/>
-      <c r="K287" s="198"/>
+      <c r="I287" s="198"/>
+      <c r="J287" s="197"/>
+      <c r="K287" s="197"/>
       <c r="L287" s="185" t="s">
         <v>105</v>
       </c>
       <c r="M287" s="185">
         <v>12</v>
       </c>
-      <c r="N287" s="198"/>
+      <c r="N287" s="197"/>
       <c r="O287" s="20"/>
     </row>
     <row r="288" spans="1:15" s="146" customFormat="1">
-      <c r="A288" s="197"/>
-      <c r="B288" s="198"/>
-      <c r="C288" s="198"/>
+      <c r="A288" s="198"/>
+      <c r="B288" s="197"/>
+      <c r="C288" s="197"/>
       <c r="D288" s="170" t="s">
         <v>886</v>
       </c>
       <c r="E288" s="170">
         <v>4</v>
       </c>
-      <c r="F288" s="198"/>
-      <c r="G288" s="198"/>
+      <c r="F288" s="197"/>
+      <c r="G288" s="197"/>
       <c r="H288" s="22"/>
-      <c r="I288" s="197"/>
-      <c r="J288" s="198"/>
-      <c r="K288" s="198"/>
+      <c r="I288" s="198"/>
+      <c r="J288" s="197"/>
+      <c r="K288" s="197"/>
       <c r="L288" s="185" t="s">
         <v>124</v>
       </c>
       <c r="M288" s="185">
         <v>10</v>
       </c>
-      <c r="N288" s="198"/>
+      <c r="N288" s="197"/>
       <c r="O288" s="20"/>
     </row>
     <row r="289" spans="1:15" s="146" customFormat="1">
@@ -13046,13 +13046,13 @@
       <c r="O297" s="20"/>
     </row>
     <row r="298" spans="1:15" s="146" customFormat="1" ht="28.8">
-      <c r="A298" s="197">
+      <c r="A298" s="198">
         <v>44936</v>
       </c>
-      <c r="B298" s="198" t="s">
+      <c r="B298" s="197" t="s">
         <v>889</v>
       </c>
-      <c r="C298" s="198" t="s">
+      <c r="C298" s="197" t="s">
         <v>868</v>
       </c>
       <c r="D298" s="170" t="s">
@@ -13061,10 +13061,10 @@
       <c r="E298" s="170">
         <v>2</v>
       </c>
-      <c r="F298" s="198" t="s">
+      <c r="F298" s="197" t="s">
         <v>855</v>
       </c>
-      <c r="G298" s="198" t="s">
+      <c r="G298" s="197" t="s">
         <v>75</v>
       </c>
       <c r="H298" s="52"/>
@@ -13077,17 +13077,17 @@
       <c r="O298" s="20"/>
     </row>
     <row r="299" spans="1:15" s="146" customFormat="1" ht="28.8" customHeight="1">
-      <c r="A299" s="197"/>
-      <c r="B299" s="198"/>
-      <c r="C299" s="198"/>
+      <c r="A299" s="198"/>
+      <c r="B299" s="197"/>
+      <c r="C299" s="197"/>
       <c r="D299" s="170" t="s">
         <v>891</v>
       </c>
       <c r="E299" s="170">
         <v>2</v>
       </c>
-      <c r="F299" s="198"/>
-      <c r="G299" s="198"/>
+      <c r="F299" s="197"/>
+      <c r="G299" s="197"/>
       <c r="H299" s="22"/>
       <c r="O299" s="20"/>
     </row>
@@ -13103,13 +13103,13 @@
       <c r="O300" s="20"/>
     </row>
     <row r="301" spans="1:15" s="146" customFormat="1">
-      <c r="A301" s="197">
+      <c r="A301" s="198">
         <v>44936</v>
       </c>
-      <c r="B301" s="198" t="s">
+      <c r="B301" s="197" t="s">
         <v>869</v>
       </c>
-      <c r="C301" s="198" t="s">
+      <c r="C301" s="197" t="s">
         <v>835</v>
       </c>
       <c r="D301" s="170" t="s">
@@ -13118,25 +13118,25 @@
       <c r="E301" s="170">
         <v>4</v>
       </c>
-      <c r="F301" s="198" t="s">
+      <c r="F301" s="197" t="s">
         <v>63</v>
       </c>
-      <c r="G301" s="198"/>
+      <c r="G301" s="197"/>
       <c r="H301" s="52"/>
       <c r="O301" s="20"/>
     </row>
     <row r="302" spans="1:15" s="146" customFormat="1">
-      <c r="A302" s="197"/>
-      <c r="B302" s="198"/>
-      <c r="C302" s="198"/>
+      <c r="A302" s="198"/>
+      <c r="B302" s="197"/>
+      <c r="C302" s="197"/>
       <c r="D302" s="170" t="s">
         <v>846</v>
       </c>
       <c r="E302" s="170">
         <v>2</v>
       </c>
-      <c r="F302" s="198"/>
-      <c r="G302" s="198"/>
+      <c r="F302" s="197"/>
+      <c r="G302" s="197"/>
       <c r="H302" s="22"/>
       <c r="O302" s="20"/>
     </row>
@@ -13186,13 +13186,13 @@
       <c r="O305" s="20"/>
     </row>
     <row r="306" spans="1:15" s="146" customFormat="1">
-      <c r="A306" s="197">
+      <c r="A306" s="198">
         <v>44936</v>
       </c>
-      <c r="B306" s="198">
+      <c r="B306" s="197">
         <v>1817</v>
       </c>
-      <c r="C306" s="198" t="s">
+      <c r="C306" s="197" t="s">
         <v>125</v>
       </c>
       <c r="D306" s="170" t="s">
@@ -13201,87 +13201,87 @@
       <c r="E306" s="170">
         <v>3</v>
       </c>
-      <c r="F306" s="198" t="s">
+      <c r="F306" s="197" t="s">
         <v>63</v>
       </c>
-      <c r="G306" s="198" t="s">
+      <c r="G306" s="197" t="s">
         <v>75</v>
       </c>
       <c r="H306" s="22"/>
       <c r="O306" s="20"/>
     </row>
     <row r="307" spans="1:15" s="146" customFormat="1" ht="15.6" customHeight="1">
-      <c r="A307" s="197"/>
-      <c r="B307" s="198"/>
-      <c r="C307" s="198"/>
+      <c r="A307" s="198"/>
+      <c r="B307" s="197"/>
+      <c r="C307" s="197"/>
       <c r="D307" s="170" t="s">
         <v>895</v>
       </c>
       <c r="E307" s="170">
         <v>3</v>
       </c>
-      <c r="F307" s="198"/>
-      <c r="G307" s="198"/>
+      <c r="F307" s="197"/>
+      <c r="G307" s="197"/>
       <c r="H307" s="22"/>
       <c r="O307" s="20"/>
     </row>
     <row r="308" spans="1:15" s="146" customFormat="1">
-      <c r="A308" s="197"/>
-      <c r="B308" s="198"/>
-      <c r="C308" s="198"/>
+      <c r="A308" s="198"/>
+      <c r="B308" s="197"/>
+      <c r="C308" s="197"/>
       <c r="D308" s="170" t="s">
         <v>896</v>
       </c>
       <c r="E308" s="170">
         <v>2</v>
       </c>
-      <c r="F308" s="198"/>
-      <c r="G308" s="198"/>
+      <c r="F308" s="197"/>
+      <c r="G308" s="197"/>
       <c r="H308" s="22"/>
       <c r="O308" s="20"/>
     </row>
     <row r="309" spans="1:15" s="146" customFormat="1">
-      <c r="A309" s="197"/>
-      <c r="B309" s="198"/>
-      <c r="C309" s="198"/>
+      <c r="A309" s="198"/>
+      <c r="B309" s="197"/>
+      <c r="C309" s="197"/>
       <c r="D309" s="170" t="s">
         <v>897</v>
       </c>
       <c r="E309" s="170">
         <v>1.5</v>
       </c>
-      <c r="F309" s="198"/>
-      <c r="G309" s="198"/>
+      <c r="F309" s="197"/>
+      <c r="G309" s="197"/>
       <c r="H309" s="22"/>
       <c r="O309" s="20"/>
     </row>
     <row r="310" spans="1:15" s="146" customFormat="1">
-      <c r="A310" s="197"/>
-      <c r="B310" s="198"/>
-      <c r="C310" s="198"/>
+      <c r="A310" s="198"/>
+      <c r="B310" s="197"/>
+      <c r="C310" s="197"/>
       <c r="D310" s="170" t="s">
         <v>898</v>
       </c>
       <c r="E310" s="170">
         <v>3</v>
       </c>
-      <c r="F310" s="198"/>
-      <c r="G310" s="198"/>
+      <c r="F310" s="197"/>
+      <c r="G310" s="197"/>
       <c r="H310" s="52"/>
       <c r="O310" s="20"/>
     </row>
     <row r="311" spans="1:15" s="146" customFormat="1">
-      <c r="A311" s="197"/>
-      <c r="B311" s="198"/>
-      <c r="C311" s="198"/>
+      <c r="A311" s="198"/>
+      <c r="B311" s="197"/>
+      <c r="C311" s="197"/>
       <c r="D311" s="170" t="s">
         <v>899</v>
       </c>
       <c r="E311" s="170">
         <v>3</v>
       </c>
-      <c r="F311" s="198"/>
-      <c r="G311" s="198"/>
+      <c r="F311" s="197"/>
+      <c r="G311" s="197"/>
       <c r="H311" s="22"/>
       <c r="O311" s="20"/>
     </row>
@@ -15089,13 +15089,13 @@
       <c r="O416" s="20"/>
     </row>
     <row r="417" spans="1:15" s="146" customFormat="1">
-      <c r="A417" s="197">
+      <c r="A417" s="198">
         <v>45005</v>
       </c>
-      <c r="B417" s="198">
+      <c r="B417" s="197">
         <v>2084</v>
       </c>
-      <c r="C417" s="198" t="s">
+      <c r="C417" s="197" t="s">
         <v>316</v>
       </c>
       <c r="D417" s="190" t="s">
@@ -15104,27 +15104,27 @@
       <c r="E417" s="190">
         <v>1</v>
       </c>
-      <c r="F417" s="198" t="s">
+      <c r="F417" s="197" t="s">
         <v>855</v>
       </c>
-      <c r="G417" s="198" t="s">
+      <c r="G417" s="197" t="s">
         <v>75</v>
       </c>
       <c r="H417" s="22"/>
       <c r="O417" s="20"/>
     </row>
     <row r="418" spans="1:15" s="146" customFormat="1">
-      <c r="A418" s="197"/>
-      <c r="B418" s="198"/>
-      <c r="C418" s="198"/>
+      <c r="A418" s="198"/>
+      <c r="B418" s="197"/>
+      <c r="C418" s="197"/>
       <c r="D418" s="190" t="s">
         <v>1118</v>
       </c>
       <c r="E418" s="190">
         <v>1</v>
       </c>
-      <c r="F418" s="198"/>
-      <c r="G418" s="198"/>
+      <c r="F418" s="197"/>
+      <c r="G418" s="197"/>
       <c r="H418" s="22"/>
       <c r="O418" s="20"/>
     </row>
@@ -16294,22 +16294,320 @@
     </row>
   </sheetData>
   <mergeCells count="362">
-    <mergeCell ref="A337:A339"/>
-    <mergeCell ref="B337:B339"/>
-    <mergeCell ref="C337:C339"/>
-    <mergeCell ref="F337:F339"/>
-    <mergeCell ref="G337:G339"/>
-    <mergeCell ref="G117:G119"/>
-    <mergeCell ref="A329:A330"/>
-    <mergeCell ref="B329:B330"/>
-    <mergeCell ref="C329:C330"/>
-    <mergeCell ref="F329:F330"/>
-    <mergeCell ref="G329:G330"/>
-    <mergeCell ref="A332:A333"/>
-    <mergeCell ref="B332:B333"/>
-    <mergeCell ref="C332:C333"/>
-    <mergeCell ref="F332:F333"/>
-    <mergeCell ref="G332:G333"/>
+    <mergeCell ref="A409:A411"/>
+    <mergeCell ref="B409:B411"/>
+    <mergeCell ref="C409:C411"/>
+    <mergeCell ref="F409:F411"/>
+    <mergeCell ref="G409:G411"/>
+    <mergeCell ref="A417:A418"/>
+    <mergeCell ref="B417:B418"/>
+    <mergeCell ref="C417:C418"/>
+    <mergeCell ref="F417:F418"/>
+    <mergeCell ref="G417:G418"/>
+    <mergeCell ref="I280:I281"/>
+    <mergeCell ref="J280:J281"/>
+    <mergeCell ref="K280:K281"/>
+    <mergeCell ref="N280:N281"/>
+    <mergeCell ref="I263:I265"/>
+    <mergeCell ref="J263:J265"/>
+    <mergeCell ref="K263:K265"/>
+    <mergeCell ref="N263:N265"/>
+    <mergeCell ref="I267:I271"/>
+    <mergeCell ref="J267:J271"/>
+    <mergeCell ref="K267:K271"/>
+    <mergeCell ref="N267:N271"/>
+    <mergeCell ref="I273:I278"/>
+    <mergeCell ref="J273:J278"/>
+    <mergeCell ref="K273:K278"/>
+    <mergeCell ref="N273:N278"/>
+    <mergeCell ref="J237:J238"/>
+    <mergeCell ref="K237:K238"/>
+    <mergeCell ref="N237:N238"/>
+    <mergeCell ref="I240:I242"/>
+    <mergeCell ref="J240:J242"/>
+    <mergeCell ref="K240:K242"/>
+    <mergeCell ref="N240:N242"/>
+    <mergeCell ref="N253:N255"/>
+    <mergeCell ref="I259:I261"/>
+    <mergeCell ref="J259:J261"/>
+    <mergeCell ref="K259:K261"/>
+    <mergeCell ref="N259:N261"/>
+    <mergeCell ref="I246:I251"/>
+    <mergeCell ref="J246:J251"/>
+    <mergeCell ref="K246:K251"/>
+    <mergeCell ref="N246:N251"/>
+    <mergeCell ref="I253:I255"/>
+    <mergeCell ref="J253:J255"/>
+    <mergeCell ref="K253:K255"/>
+    <mergeCell ref="I191:I194"/>
+    <mergeCell ref="J191:J194"/>
+    <mergeCell ref="K191:K194"/>
+    <mergeCell ref="N191:N194"/>
+    <mergeCell ref="I200:I203"/>
+    <mergeCell ref="J200:J203"/>
+    <mergeCell ref="K200:K203"/>
+    <mergeCell ref="N200:N203"/>
+    <mergeCell ref="I209:I211"/>
+    <mergeCell ref="J209:J211"/>
+    <mergeCell ref="K209:K211"/>
+    <mergeCell ref="N209:N211"/>
+    <mergeCell ref="I231:I233"/>
+    <mergeCell ref="J231:J233"/>
+    <mergeCell ref="K231:K233"/>
+    <mergeCell ref="N231:N233"/>
+    <mergeCell ref="I237:I238"/>
+    <mergeCell ref="F30:F32"/>
+    <mergeCell ref="G30:G32"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="F26:F28"/>
+    <mergeCell ref="G26:G28"/>
+    <mergeCell ref="I111:I112"/>
+    <mergeCell ref="J111:J112"/>
+    <mergeCell ref="K111:K112"/>
+    <mergeCell ref="N111:N112"/>
+    <mergeCell ref="N52:N53"/>
+    <mergeCell ref="J100:J109"/>
+    <mergeCell ref="K100:K109"/>
+    <mergeCell ref="N100:N109"/>
+    <mergeCell ref="I100:I109"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="N27:N28"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="I19:I23"/>
+    <mergeCell ref="J19:J23"/>
+    <mergeCell ref="K19:K23"/>
+    <mergeCell ref="N19:N23"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="I94:I98"/>
+    <mergeCell ref="N91:N92"/>
+    <mergeCell ref="K94:K98"/>
+    <mergeCell ref="N94:N98"/>
+    <mergeCell ref="I55:I57"/>
+    <mergeCell ref="I9:I12"/>
+    <mergeCell ref="J9:J12"/>
+    <mergeCell ref="K9:K12"/>
+    <mergeCell ref="N9:N12"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="I39:I43"/>
+    <mergeCell ref="J39:J43"/>
+    <mergeCell ref="K39:K43"/>
+    <mergeCell ref="N39:N43"/>
+    <mergeCell ref="N32:N33"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="K32:K33"/>
+    <mergeCell ref="K91:K92"/>
+    <mergeCell ref="I47:I50"/>
+    <mergeCell ref="J47:J50"/>
+    <mergeCell ref="K47:K50"/>
+    <mergeCell ref="N47:N50"/>
+    <mergeCell ref="I52:I53"/>
+    <mergeCell ref="J52:J53"/>
+    <mergeCell ref="K52:K53"/>
+    <mergeCell ref="I71:I75"/>
+    <mergeCell ref="J71:J75"/>
+    <mergeCell ref="K71:K75"/>
+    <mergeCell ref="N71:N75"/>
+    <mergeCell ref="I81:I87"/>
+    <mergeCell ref="J81:J87"/>
+    <mergeCell ref="I145:I146"/>
+    <mergeCell ref="J145:J146"/>
+    <mergeCell ref="K145:K146"/>
+    <mergeCell ref="N145:N146"/>
+    <mergeCell ref="I150:I157"/>
+    <mergeCell ref="J150:J157"/>
+    <mergeCell ref="K150:K157"/>
+    <mergeCell ref="N150:N157"/>
+    <mergeCell ref="J55:J57"/>
+    <mergeCell ref="K55:K57"/>
+    <mergeCell ref="N55:N57"/>
+    <mergeCell ref="I59:I60"/>
+    <mergeCell ref="J59:J60"/>
+    <mergeCell ref="K59:K60"/>
+    <mergeCell ref="N59:N60"/>
+    <mergeCell ref="I62:I69"/>
+    <mergeCell ref="J62:J69"/>
+    <mergeCell ref="K62:K69"/>
+    <mergeCell ref="N62:N69"/>
+    <mergeCell ref="J94:J98"/>
+    <mergeCell ref="K81:K87"/>
+    <mergeCell ref="N81:N87"/>
+    <mergeCell ref="I91:I92"/>
+    <mergeCell ref="J91:J92"/>
+    <mergeCell ref="I123:I130"/>
+    <mergeCell ref="J123:J130"/>
+    <mergeCell ref="K123:K130"/>
+    <mergeCell ref="N123:N130"/>
+    <mergeCell ref="N114:N115"/>
+    <mergeCell ref="I134:I135"/>
+    <mergeCell ref="J134:J135"/>
+    <mergeCell ref="K134:K135"/>
+    <mergeCell ref="N134:N135"/>
+    <mergeCell ref="J114:J115"/>
+    <mergeCell ref="K114:K115"/>
+    <mergeCell ref="I114:I115"/>
+    <mergeCell ref="C42:C45"/>
+    <mergeCell ref="B42:B45"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="F42:F45"/>
+    <mergeCell ref="G42:G45"/>
+    <mergeCell ref="A54:A59"/>
+    <mergeCell ref="B54:B59"/>
+    <mergeCell ref="C54:C59"/>
+    <mergeCell ref="F54:F59"/>
+    <mergeCell ref="G54:G59"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="A106:A110"/>
+    <mergeCell ref="B106:B110"/>
+    <mergeCell ref="C106:C110"/>
+    <mergeCell ref="F106:F110"/>
+    <mergeCell ref="A136:A137"/>
+    <mergeCell ref="B136:B137"/>
+    <mergeCell ref="C136:C137"/>
+    <mergeCell ref="F136:F137"/>
+    <mergeCell ref="G136:G137"/>
+    <mergeCell ref="A131:A132"/>
+    <mergeCell ref="B131:B132"/>
+    <mergeCell ref="C131:C132"/>
+    <mergeCell ref="F131:F132"/>
+    <mergeCell ref="G131:G132"/>
+    <mergeCell ref="G106:G110"/>
+    <mergeCell ref="A114:A115"/>
+    <mergeCell ref="B114:B115"/>
+    <mergeCell ref="C114:C115"/>
+    <mergeCell ref="F114:F115"/>
+    <mergeCell ref="G114:G115"/>
+    <mergeCell ref="A117:A119"/>
+    <mergeCell ref="B117:B119"/>
+    <mergeCell ref="C117:C119"/>
+    <mergeCell ref="F117:F119"/>
+    <mergeCell ref="I139:I143"/>
+    <mergeCell ref="J139:J143"/>
+    <mergeCell ref="K139:K143"/>
+    <mergeCell ref="I162:I176"/>
+    <mergeCell ref="J162:J176"/>
+    <mergeCell ref="N182:N189"/>
+    <mergeCell ref="A195:A205"/>
+    <mergeCell ref="B195:B205"/>
+    <mergeCell ref="C195:C205"/>
+    <mergeCell ref="F195:F205"/>
+    <mergeCell ref="G195:G205"/>
+    <mergeCell ref="I159:I160"/>
+    <mergeCell ref="J159:J160"/>
+    <mergeCell ref="K159:K160"/>
+    <mergeCell ref="N159:N160"/>
+    <mergeCell ref="A186:A187"/>
+    <mergeCell ref="B186:B187"/>
+    <mergeCell ref="C186:C187"/>
+    <mergeCell ref="F186:F187"/>
+    <mergeCell ref="G186:G187"/>
+    <mergeCell ref="A172:A174"/>
+    <mergeCell ref="B172:B174"/>
+    <mergeCell ref="N162:N176"/>
+    <mergeCell ref="N139:N143"/>
+    <mergeCell ref="I182:I189"/>
+    <mergeCell ref="J182:J189"/>
+    <mergeCell ref="K182:K189"/>
+    <mergeCell ref="G169:G170"/>
+    <mergeCell ref="A158:A163"/>
+    <mergeCell ref="B158:B163"/>
+    <mergeCell ref="C158:C163"/>
+    <mergeCell ref="F158:F163"/>
+    <mergeCell ref="G158:G163"/>
+    <mergeCell ref="C172:C174"/>
+    <mergeCell ref="F172:F174"/>
+    <mergeCell ref="G172:G174"/>
+    <mergeCell ref="A169:A170"/>
+    <mergeCell ref="B169:B170"/>
+    <mergeCell ref="C169:C170"/>
+    <mergeCell ref="F169:F170"/>
+    <mergeCell ref="K162:K176"/>
+    <mergeCell ref="I213:I214"/>
+    <mergeCell ref="J213:J214"/>
+    <mergeCell ref="K213:K214"/>
+    <mergeCell ref="N213:N214"/>
+    <mergeCell ref="G222:G225"/>
+    <mergeCell ref="A222:A225"/>
+    <mergeCell ref="B222:B225"/>
+    <mergeCell ref="C222:C225"/>
+    <mergeCell ref="F222:F225"/>
+    <mergeCell ref="A219:A220"/>
+    <mergeCell ref="I225:I229"/>
+    <mergeCell ref="J225:J229"/>
+    <mergeCell ref="K225:K229"/>
+    <mergeCell ref="N225:N229"/>
+    <mergeCell ref="I220:I223"/>
+    <mergeCell ref="J220:J223"/>
+    <mergeCell ref="K220:K223"/>
+    <mergeCell ref="N220:N223"/>
+    <mergeCell ref="A229:A232"/>
+    <mergeCell ref="B229:B232"/>
+    <mergeCell ref="C229:C232"/>
+    <mergeCell ref="F229:F232"/>
+    <mergeCell ref="G229:G232"/>
+    <mergeCell ref="B219:B220"/>
+    <mergeCell ref="C242:C243"/>
+    <mergeCell ref="A242:A243"/>
+    <mergeCell ref="B242:B243"/>
+    <mergeCell ref="F242:F243"/>
+    <mergeCell ref="G242:G243"/>
+    <mergeCell ref="A143:A150"/>
+    <mergeCell ref="B143:B150"/>
+    <mergeCell ref="C143:C150"/>
+    <mergeCell ref="F143:F150"/>
+    <mergeCell ref="G143:G150"/>
+    <mergeCell ref="C219:C220"/>
+    <mergeCell ref="F219:F220"/>
+    <mergeCell ref="G219:G220"/>
+    <mergeCell ref="A71:A73"/>
+    <mergeCell ref="B71:B73"/>
+    <mergeCell ref="C71:C73"/>
+    <mergeCell ref="F71:F73"/>
+    <mergeCell ref="G71:G73"/>
+    <mergeCell ref="A75:A87"/>
+    <mergeCell ref="B75:B87"/>
+    <mergeCell ref="C75:C87"/>
+    <mergeCell ref="F75:F87"/>
+    <mergeCell ref="G75:G87"/>
+    <mergeCell ref="F287:F288"/>
+    <mergeCell ref="G287:G288"/>
+    <mergeCell ref="A298:A299"/>
+    <mergeCell ref="B298:B299"/>
+    <mergeCell ref="C298:C299"/>
+    <mergeCell ref="F298:F299"/>
+    <mergeCell ref="G298:G299"/>
+    <mergeCell ref="A301:A302"/>
+    <mergeCell ref="B301:B302"/>
+    <mergeCell ref="C301:C302"/>
+    <mergeCell ref="F301:F302"/>
+    <mergeCell ref="G301:G302"/>
     <mergeCell ref="N285:N288"/>
     <mergeCell ref="I285:I288"/>
     <mergeCell ref="J285:J288"/>
@@ -16334,6 +16632,22 @@
     <mergeCell ref="F251:F252"/>
     <mergeCell ref="G251:G252"/>
     <mergeCell ref="A254:A255"/>
+    <mergeCell ref="A337:A339"/>
+    <mergeCell ref="B337:B339"/>
+    <mergeCell ref="C337:C339"/>
+    <mergeCell ref="F337:F339"/>
+    <mergeCell ref="G337:G339"/>
+    <mergeCell ref="G117:G119"/>
+    <mergeCell ref="A329:A330"/>
+    <mergeCell ref="B329:B330"/>
+    <mergeCell ref="C329:C330"/>
+    <mergeCell ref="F329:F330"/>
+    <mergeCell ref="G329:G330"/>
+    <mergeCell ref="A332:A333"/>
+    <mergeCell ref="B332:B333"/>
+    <mergeCell ref="C332:C333"/>
+    <mergeCell ref="F332:F333"/>
+    <mergeCell ref="G332:G333"/>
     <mergeCell ref="A306:A311"/>
     <mergeCell ref="B306:B311"/>
     <mergeCell ref="C306:C311"/>
@@ -16342,320 +16656,6 @@
     <mergeCell ref="A287:A288"/>
     <mergeCell ref="B287:B288"/>
     <mergeCell ref="C287:C288"/>
-    <mergeCell ref="F287:F288"/>
-    <mergeCell ref="G287:G288"/>
-    <mergeCell ref="A298:A299"/>
-    <mergeCell ref="B298:B299"/>
-    <mergeCell ref="C298:C299"/>
-    <mergeCell ref="F298:F299"/>
-    <mergeCell ref="G298:G299"/>
-    <mergeCell ref="A301:A302"/>
-    <mergeCell ref="B301:B302"/>
-    <mergeCell ref="C301:C302"/>
-    <mergeCell ref="F301:F302"/>
-    <mergeCell ref="G301:G302"/>
-    <mergeCell ref="A71:A73"/>
-    <mergeCell ref="B71:B73"/>
-    <mergeCell ref="C71:C73"/>
-    <mergeCell ref="F71:F73"/>
-    <mergeCell ref="G71:G73"/>
-    <mergeCell ref="A75:A87"/>
-    <mergeCell ref="B75:B87"/>
-    <mergeCell ref="C75:C87"/>
-    <mergeCell ref="F75:F87"/>
-    <mergeCell ref="G75:G87"/>
-    <mergeCell ref="C242:C243"/>
-    <mergeCell ref="A242:A243"/>
-    <mergeCell ref="B242:B243"/>
-    <mergeCell ref="F242:F243"/>
-    <mergeCell ref="G242:G243"/>
-    <mergeCell ref="A143:A150"/>
-    <mergeCell ref="B143:B150"/>
-    <mergeCell ref="C143:C150"/>
-    <mergeCell ref="F143:F150"/>
-    <mergeCell ref="G143:G150"/>
-    <mergeCell ref="C219:C220"/>
-    <mergeCell ref="F219:F220"/>
-    <mergeCell ref="G219:G220"/>
-    <mergeCell ref="I213:I214"/>
-    <mergeCell ref="J213:J214"/>
-    <mergeCell ref="K213:K214"/>
-    <mergeCell ref="N213:N214"/>
-    <mergeCell ref="G222:G225"/>
-    <mergeCell ref="A222:A225"/>
-    <mergeCell ref="B222:B225"/>
-    <mergeCell ref="C222:C225"/>
-    <mergeCell ref="F222:F225"/>
-    <mergeCell ref="A219:A220"/>
-    <mergeCell ref="I225:I229"/>
-    <mergeCell ref="J225:J229"/>
-    <mergeCell ref="K225:K229"/>
-    <mergeCell ref="N225:N229"/>
-    <mergeCell ref="I220:I223"/>
-    <mergeCell ref="J220:J223"/>
-    <mergeCell ref="K220:K223"/>
-    <mergeCell ref="N220:N223"/>
-    <mergeCell ref="A229:A232"/>
-    <mergeCell ref="B229:B232"/>
-    <mergeCell ref="C229:C232"/>
-    <mergeCell ref="F229:F232"/>
-    <mergeCell ref="G229:G232"/>
-    <mergeCell ref="B219:B220"/>
-    <mergeCell ref="I182:I189"/>
-    <mergeCell ref="J182:J189"/>
-    <mergeCell ref="K182:K189"/>
-    <mergeCell ref="G169:G170"/>
-    <mergeCell ref="A158:A163"/>
-    <mergeCell ref="B158:B163"/>
-    <mergeCell ref="C158:C163"/>
-    <mergeCell ref="F158:F163"/>
-    <mergeCell ref="G158:G163"/>
-    <mergeCell ref="C172:C174"/>
-    <mergeCell ref="F172:F174"/>
-    <mergeCell ref="G172:G174"/>
-    <mergeCell ref="A169:A170"/>
-    <mergeCell ref="B169:B170"/>
-    <mergeCell ref="C169:C170"/>
-    <mergeCell ref="F169:F170"/>
-    <mergeCell ref="K162:K176"/>
-    <mergeCell ref="I139:I143"/>
-    <mergeCell ref="J139:J143"/>
-    <mergeCell ref="K139:K143"/>
-    <mergeCell ref="I162:I176"/>
-    <mergeCell ref="J162:J176"/>
-    <mergeCell ref="N182:N189"/>
-    <mergeCell ref="A195:A205"/>
-    <mergeCell ref="B195:B205"/>
-    <mergeCell ref="C195:C205"/>
-    <mergeCell ref="F195:F205"/>
-    <mergeCell ref="G195:G205"/>
-    <mergeCell ref="I159:I160"/>
-    <mergeCell ref="J159:J160"/>
-    <mergeCell ref="K159:K160"/>
-    <mergeCell ref="N159:N160"/>
-    <mergeCell ref="A186:A187"/>
-    <mergeCell ref="B186:B187"/>
-    <mergeCell ref="C186:C187"/>
-    <mergeCell ref="F186:F187"/>
-    <mergeCell ref="G186:G187"/>
-    <mergeCell ref="A172:A174"/>
-    <mergeCell ref="B172:B174"/>
-    <mergeCell ref="N162:N176"/>
-    <mergeCell ref="N139:N143"/>
-    <mergeCell ref="A106:A110"/>
-    <mergeCell ref="B106:B110"/>
-    <mergeCell ref="C106:C110"/>
-    <mergeCell ref="F106:F110"/>
-    <mergeCell ref="A136:A137"/>
-    <mergeCell ref="B136:B137"/>
-    <mergeCell ref="C136:C137"/>
-    <mergeCell ref="F136:F137"/>
-    <mergeCell ref="G136:G137"/>
-    <mergeCell ref="A131:A132"/>
-    <mergeCell ref="B131:B132"/>
-    <mergeCell ref="C131:C132"/>
-    <mergeCell ref="F131:F132"/>
-    <mergeCell ref="G131:G132"/>
-    <mergeCell ref="G106:G110"/>
-    <mergeCell ref="A114:A115"/>
-    <mergeCell ref="B114:B115"/>
-    <mergeCell ref="C114:C115"/>
-    <mergeCell ref="F114:F115"/>
-    <mergeCell ref="G114:G115"/>
-    <mergeCell ref="A117:A119"/>
-    <mergeCell ref="B117:B119"/>
-    <mergeCell ref="C117:C119"/>
-    <mergeCell ref="F117:F119"/>
-    <mergeCell ref="C42:C45"/>
-    <mergeCell ref="B42:B45"/>
-    <mergeCell ref="A42:A45"/>
-    <mergeCell ref="F42:F45"/>
-    <mergeCell ref="G42:G45"/>
-    <mergeCell ref="A54:A59"/>
-    <mergeCell ref="B54:B59"/>
-    <mergeCell ref="C54:C59"/>
-    <mergeCell ref="F54:F59"/>
-    <mergeCell ref="G54:G59"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="C51:C52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="I123:I130"/>
-    <mergeCell ref="J123:J130"/>
-    <mergeCell ref="K123:K130"/>
-    <mergeCell ref="N123:N130"/>
-    <mergeCell ref="N114:N115"/>
-    <mergeCell ref="I134:I135"/>
-    <mergeCell ref="J134:J135"/>
-    <mergeCell ref="K134:K135"/>
-    <mergeCell ref="N134:N135"/>
-    <mergeCell ref="J114:J115"/>
-    <mergeCell ref="K114:K115"/>
-    <mergeCell ref="I114:I115"/>
-    <mergeCell ref="I145:I146"/>
-    <mergeCell ref="J145:J146"/>
-    <mergeCell ref="K145:K146"/>
-    <mergeCell ref="N145:N146"/>
-    <mergeCell ref="I150:I157"/>
-    <mergeCell ref="J150:J157"/>
-    <mergeCell ref="K150:K157"/>
-    <mergeCell ref="N150:N157"/>
-    <mergeCell ref="J55:J57"/>
-    <mergeCell ref="K55:K57"/>
-    <mergeCell ref="N55:N57"/>
-    <mergeCell ref="I59:I60"/>
-    <mergeCell ref="J59:J60"/>
-    <mergeCell ref="K59:K60"/>
-    <mergeCell ref="N59:N60"/>
-    <mergeCell ref="I62:I69"/>
-    <mergeCell ref="J62:J69"/>
-    <mergeCell ref="K62:K69"/>
-    <mergeCell ref="N62:N69"/>
-    <mergeCell ref="J94:J98"/>
-    <mergeCell ref="K81:K87"/>
-    <mergeCell ref="N81:N87"/>
-    <mergeCell ref="I91:I92"/>
-    <mergeCell ref="J91:J92"/>
-    <mergeCell ref="N47:N50"/>
-    <mergeCell ref="I52:I53"/>
-    <mergeCell ref="J52:J53"/>
-    <mergeCell ref="K52:K53"/>
-    <mergeCell ref="I71:I75"/>
-    <mergeCell ref="J71:J75"/>
-    <mergeCell ref="K71:K75"/>
-    <mergeCell ref="N71:N75"/>
-    <mergeCell ref="I81:I87"/>
-    <mergeCell ref="J81:J87"/>
-    <mergeCell ref="I94:I98"/>
-    <mergeCell ref="N91:N92"/>
-    <mergeCell ref="K94:K98"/>
-    <mergeCell ref="N94:N98"/>
-    <mergeCell ref="I55:I57"/>
-    <mergeCell ref="I9:I12"/>
-    <mergeCell ref="J9:J12"/>
-    <mergeCell ref="K9:K12"/>
-    <mergeCell ref="N9:N12"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="I39:I43"/>
-    <mergeCell ref="J39:J43"/>
-    <mergeCell ref="K39:K43"/>
-    <mergeCell ref="N39:N43"/>
-    <mergeCell ref="N32:N33"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="K32:K33"/>
-    <mergeCell ref="K91:K92"/>
-    <mergeCell ref="I47:I50"/>
-    <mergeCell ref="J47:J50"/>
-    <mergeCell ref="K47:K50"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="I1:O1"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="N27:N28"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="I19:I23"/>
-    <mergeCell ref="J19:J23"/>
-    <mergeCell ref="K19:K23"/>
-    <mergeCell ref="N19:N23"/>
-    <mergeCell ref="N6:N7"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="N16:N17"/>
-    <mergeCell ref="I231:I233"/>
-    <mergeCell ref="J231:J233"/>
-    <mergeCell ref="K231:K233"/>
-    <mergeCell ref="N231:N233"/>
-    <mergeCell ref="I237:I238"/>
-    <mergeCell ref="F30:F32"/>
-    <mergeCell ref="G30:G32"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="F26:F28"/>
-    <mergeCell ref="G26:G28"/>
-    <mergeCell ref="I111:I112"/>
-    <mergeCell ref="J111:J112"/>
-    <mergeCell ref="K111:K112"/>
-    <mergeCell ref="N111:N112"/>
-    <mergeCell ref="N52:N53"/>
-    <mergeCell ref="J100:J109"/>
-    <mergeCell ref="K100:K109"/>
-    <mergeCell ref="N100:N109"/>
-    <mergeCell ref="I100:I109"/>
-    <mergeCell ref="I191:I194"/>
-    <mergeCell ref="J191:J194"/>
-    <mergeCell ref="K191:K194"/>
-    <mergeCell ref="N191:N194"/>
-    <mergeCell ref="I200:I203"/>
-    <mergeCell ref="J200:J203"/>
-    <mergeCell ref="K200:K203"/>
-    <mergeCell ref="N200:N203"/>
-    <mergeCell ref="I209:I211"/>
-    <mergeCell ref="J209:J211"/>
-    <mergeCell ref="K209:K211"/>
-    <mergeCell ref="N209:N211"/>
-    <mergeCell ref="J237:J238"/>
-    <mergeCell ref="K237:K238"/>
-    <mergeCell ref="N237:N238"/>
-    <mergeCell ref="I240:I242"/>
-    <mergeCell ref="J240:J242"/>
-    <mergeCell ref="K240:K242"/>
-    <mergeCell ref="N240:N242"/>
-    <mergeCell ref="N253:N255"/>
-    <mergeCell ref="I259:I261"/>
-    <mergeCell ref="J259:J261"/>
-    <mergeCell ref="K259:K261"/>
-    <mergeCell ref="N259:N261"/>
-    <mergeCell ref="I246:I251"/>
-    <mergeCell ref="J246:J251"/>
-    <mergeCell ref="K246:K251"/>
-    <mergeCell ref="N246:N251"/>
-    <mergeCell ref="I253:I255"/>
-    <mergeCell ref="J253:J255"/>
-    <mergeCell ref="K253:K255"/>
-    <mergeCell ref="I280:I281"/>
-    <mergeCell ref="J280:J281"/>
-    <mergeCell ref="K280:K281"/>
-    <mergeCell ref="N280:N281"/>
-    <mergeCell ref="I263:I265"/>
-    <mergeCell ref="J263:J265"/>
-    <mergeCell ref="K263:K265"/>
-    <mergeCell ref="N263:N265"/>
-    <mergeCell ref="I267:I271"/>
-    <mergeCell ref="J267:J271"/>
-    <mergeCell ref="K267:K271"/>
-    <mergeCell ref="N267:N271"/>
-    <mergeCell ref="I273:I278"/>
-    <mergeCell ref="J273:J278"/>
-    <mergeCell ref="K273:K278"/>
-    <mergeCell ref="N273:N278"/>
-    <mergeCell ref="A409:A411"/>
-    <mergeCell ref="B409:B411"/>
-    <mergeCell ref="C409:C411"/>
-    <mergeCell ref="F409:F411"/>
-    <mergeCell ref="G409:G411"/>
-    <mergeCell ref="A417:A418"/>
-    <mergeCell ref="B417:B418"/>
-    <mergeCell ref="C417:C418"/>
-    <mergeCell ref="F417:F418"/>
-    <mergeCell ref="G417:G418"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
@@ -16664,11 +16664,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I197"/>
+  <dimension ref="A1:I199"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A169" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A198" sqref="A198"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A187" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A200" sqref="A200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4"/>
@@ -21135,6 +21135,50 @@
       </c>
       <c r="D197" s="16">
         <v>6195</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7">
+      <c r="A198" s="56">
+        <v>45009</v>
+      </c>
+      <c r="B198" s="57">
+        <v>4729</v>
+      </c>
+      <c r="C198" s="57" t="s">
+        <v>1112</v>
+      </c>
+      <c r="D198" s="57">
+        <v>19020</v>
+      </c>
+      <c r="E198" s="57" t="s">
+        <v>90</v>
+      </c>
+      <c r="F198" s="56">
+        <v>45012</v>
+      </c>
+      <c r="G198" s="57" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7">
+      <c r="A199" s="56">
+        <v>45012</v>
+      </c>
+      <c r="B199" s="57"/>
+      <c r="C199" s="57" t="s">
+        <v>935</v>
+      </c>
+      <c r="D199" s="57">
+        <v>500000</v>
+      </c>
+      <c r="E199" s="57" t="s">
+        <v>90</v>
+      </c>
+      <c r="F199" s="56">
+        <v>45012</v>
+      </c>
+      <c r="G199" s="57" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -23454,7 +23498,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T559"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A542" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A542" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A556" sqref="A556"/>
     </sheetView>
   </sheetViews>
